--- a/output/freight_return.xlsx
+++ b/output/freight_return.xlsx
@@ -381,7 +381,7 @@
         <v>731.8297828355048</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="C1" s="0" t="n">
         <v>731.8297828355048</v>
@@ -390,19 +390,19 @@
         <v>731.8297828355048</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="F1" s="0" t="n">
         <v>731.8297828355048</v>
       </c>
       <c r="G1" s="0" t="n">
+        <v>725.5603908377178</v>
+      </c>
+      <c r="H1" s="0" t="n">
         <v>731.8297828355048</v>
       </c>
-      <c r="H1" s="0" t="n">
-        <v>725.5603908377178</v>
-      </c>
       <c r="I1" s="0" t="n">
-        <v>725.5603908377178</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="J1" s="0" t="n">
         <v>731.8297828355048</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
-        <v>735.1106921944607</v>
+        <v>728.6473339874462</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>728.6473339874462</v>
@@ -689,25 +689,25 @@
         <v>728.6473339874462</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>735.1106921944607</v>
+        <v>728.6473339874462</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>728.6473339874462</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>728.6473339874462</v>
+        <v>735.1106921944607</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>735.1106921944607</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>728.6473339874462</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>722.5660872480564</v>
+        <v>735.1106921944607</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>735.1106921944607</v>
+        <v>728.6473339874462</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>722.5660872480564</v>
@@ -982,34 +982,34 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>731.8297828355048</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>731.8297828355048</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="H3" s="0" t="n">
+        <v>731.8297828355048</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>731.8297828355048</v>
+      </c>
+      <c r="J3" s="0" t="n">
         <v>725.5603908377178</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>725.5603908377178</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>738.4931082946447</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>725.5603908377178</v>
@@ -1284,34 +1284,34 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>741.9801716124875</v>
+        <v>728.6473339874462</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>728.6473339874462</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="C4" s="0" t="n">
+        <v>722.5660872480564</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <v>735.1106921944607</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>728.6473339874462</v>
-      </c>
       <c r="E4" s="0" t="n">
-        <v>735.1106921944607</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>728.6473339874462</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>735.1106921944607</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>728.6473339874464</v>
+        <v>728.6473339874462</v>
       </c>
       <c r="I4" s="0" t="n">
+        <v>728.6473339874462</v>
+      </c>
+      <c r="J4" s="0" t="n">
         <v>722.5660872480564</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>735.1106921944607</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>728.6473339874464</v>
@@ -1586,34 +1586,34 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="B5" s="0" t="n">
+        <v>719.6616430933761</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>725.5603908377178</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>731.8297828355048</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>731.8297828355048</v>
       </c>
       <c r="E5" s="0" t="n">
+        <v>719.6616430933761</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>731.8297828355048</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>725.5603908377178</v>
-      </c>
       <c r="G5" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>725.5603908377178</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>725.5603908377178</v>
@@ -1888,34 +1888,34 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>741.9801716124875</v>
+        <v>728.6473339874462</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>728.6473339874462</v>
+        <v>716.8443616805015</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>728.6473339874462</v>
+        <v>728.6473339874464</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>728.6473339874462</v>
       </c>
       <c r="E6" s="0" t="n">
+        <v>716.8443616805015</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>735.1106921944609</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="G6" s="0" t="n">
+        <v>716.8443616805015</v>
+      </c>
+      <c r="H6" s="0" t="n">
         <v>728.6473339874462</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <v>735.1106921944607</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>728.6473339874464</v>
-      </c>
       <c r="I6" s="0" t="n">
-        <v>716.8443616805015</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>741.9801716124875</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>728.6473339874464</v>
@@ -2190,34 +2190,34 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
-        <v>745.575119786364</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="B7" s="0" t="n">
+        <v>714.1116272443656</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>725.5603908377178</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>731.8297828355048</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>725.5603908377178</v>
       </c>
       <c r="E7" s="0" t="n">
+        <v>714.1116272443656</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <v>738.4931082946447</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="G7" s="0" t="n">
+        <v>719.6616430933761</v>
+      </c>
+      <c r="H7" s="0" t="n">
         <v>731.8297828355048</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <v>731.8297828355048</v>
-      </c>
-      <c r="H7" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>725.5603908377178</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>719.6616430933761</v>
-      </c>
       <c r="J7" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>731.8297828355048</v>
@@ -2492,34 +2492,34 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>741.9801716124875</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="B8" s="0" t="n">
+        <v>716.8443616805015</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>722.5660872480564</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>728.6473339874462</v>
-      </c>
       <c r="D8" s="0" t="n">
-        <v>728.6473339874464</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>711.4609025193467</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>735.1106921944609</v>
       </c>
       <c r="G8" s="0" t="n">
+        <v>716.8443616805015</v>
+      </c>
+      <c r="H8" s="0" t="n">
         <v>728.6473339874462</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="I8" s="0" t="n">
+        <v>722.5660872480564</v>
+      </c>
+      <c r="J8" s="0" t="n">
         <v>728.6473339874464</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>716.8443616805015</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>735.1106921944607</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>735.1106921944609</v>
@@ -2794,7 +2794,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>719.6616430933761</v>
@@ -2803,25 +2803,25 @@
         <v>725.5603908377178</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="E9" s="0" t="n">
+        <v>714.1116272443656</v>
+      </c>
+      <c r="F9" s="0" t="n">
         <v>738.4931082946447</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>731.8297828355048</v>
-      </c>
       <c r="G9" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>714.1116272443656</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>731.8297828355049</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>714.1116272443656</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>738.4931082946447</v>
@@ -3096,34 +3096,34 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>741.9801716124875</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>716.8443616805015</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>722.5660872480564</v>
       </c>
       <c r="D10" s="0" t="n">
+        <v>722.5660872480564</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>716.8443616805016</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>735.1106921944609</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>716.8443616805015</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>722.5660872480564</v>
+      </c>
+      <c r="I10" s="0" t="n">
         <v>728.6473339874464</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>735.1106921944609</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>728.6473339874464</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>728.6473339874462</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>735.1106921944609</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>711.4609025193467</v>
-      </c>
       <c r="J10" s="0" t="n">
-        <v>728.6473339874462</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>741.9801716124877</v>
@@ -3398,34 +3398,34 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>725.5603908377178</v>
       </c>
       <c r="E11" s="0" t="n">
+        <v>714.1116272443656</v>
+      </c>
+      <c r="F11" s="0" t="n">
         <v>738.4931082946447</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <v>731.8297828355048</v>
-      </c>
       <c r="G11" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>714.1116272443656</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>738.4931082946447</v>
@@ -3700,10 +3700,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>741.9801716124875</v>
+        <v>728.6473339874464</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>722.5660872480564</v>
+        <v>716.8443616805015</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>722.5660872480564</v>
@@ -3712,22 +3712,22 @@
         <v>722.5660872480564</v>
       </c>
       <c r="E12" s="0" t="n">
+        <v>711.4609025193467</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <v>741.9801716124875</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="G12" s="0" t="n">
+        <v>716.8443616805015</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>722.5660872480564</v>
+      </c>
+      <c r="I12" s="0" t="n">
         <v>728.6473339874464</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <v>735.1106921944609</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>735.1106921944609</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>716.8443616805016</v>
-      </c>
       <c r="J12" s="0" t="n">
-        <v>728.6473339874462</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>735.1106921944609</v>
@@ -4002,34 +4002,34 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>745.575119786364</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>714.1116272443656</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>745.575119786364</v>
+        <v>714.1116272443658</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>738.4931082946447</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>714.1116272443656</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>738.4931082946448</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>725.5603908377178</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>731.8297828355049</v>
@@ -4304,34 +4304,34 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>741.9801716124875</v>
+        <v>735.1106921944609</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>716.8443616805015</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>716.8443616805015</v>
+        <v>728.6473339874464</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>722.5660872480564</v>
+        <v>716.8443616805016</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>749.2812906226455</v>
+        <v>716.8443616805016</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>735.1106921944609</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>741.9801716124875</v>
+        <v>716.8443616805015</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>741.9801716124878</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>728.6473339874464</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>728.6473339874464</v>
@@ -4606,34 +4606,34 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>745.575119786364</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
       <c r="C15" s="0" t="n">
+        <v>731.8297828355049</v>
+      </c>
+      <c r="D15" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>725.5603908377178</v>
-      </c>
       <c r="E15" s="0" t="n">
-        <v>745.575119786364</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>738.4931082946447</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>714.1116272443656</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>738.4931082946448</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>714.1116272443656</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>725.5603908377179</v>
@@ -4908,34 +4908,34 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>749.2812906226455</v>
+        <v>735.1106921944609</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>716.8443616805015</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>716.8443616805015</v>
+        <v>728.6473339874464</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>728.6473339874464</v>
+        <v>716.8443616805016</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>741.9801716124877</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>735.1106921944609</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>711.4609025193467</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>728.6473339874464</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>722.5660872480564</v>
@@ -5210,34 +5210,34 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>745.575119786364</v>
+        <v>738.4931082946447</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>714.1116272443656</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="C17" s="0" t="n">
+        <v>725.5603908377179</v>
+      </c>
+      <c r="D17" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>725.5603908377179</v>
-      </c>
       <c r="E17" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>731.8297828355048</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>714.1116272443656</v>
       </c>
       <c r="H17" s="0" t="n">
+        <v>719.6616430933761</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>725.5603908377179</v>
+      </c>
+      <c r="J17" s="0" t="n">
         <v>731.8297828355049</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>714.1116272443656</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>738.4931082946447</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>725.5603908377179</v>
@@ -5512,34 +5512,34 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>749.2812906226455</v>
+        <v>741.9801716124877</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>716.8443616805015</v>
+        <v>728.6473339874464</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>716.8443616805015</v>
+        <v>722.5660872480565</v>
       </c>
       <c r="D18" s="0" t="n">
+        <v>716.8443616805016</v>
+      </c>
+      <c r="E18" s="0" t="n">
         <v>722.5660872480564</v>
       </c>
-      <c r="E18" s="0" t="n">
-        <v>741.9801716124877</v>
-      </c>
       <c r="F18" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>728.6473339874464</v>
       </c>
       <c r="G18" s="0" t="n">
+        <v>711.4609025193467</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>722.5660872480564</v>
+      </c>
+      <c r="I18" s="0" t="n">
         <v>728.6473339874464</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="J18" s="0" t="n">
         <v>728.6473339874464</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>716.8443616805016</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>741.9801716124877</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>728.6473339874464</v>
@@ -5814,34 +5814,34 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>745.575119786364</v>
+        <v>738.4931082946448</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>714.1116272443656</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>714.1116272443656</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="D19" s="0" t="n">
+        <v>719.6616430933761</v>
+      </c>
+      <c r="E19" s="0" t="n">
         <v>725.5603908377179</v>
       </c>
-      <c r="E19" s="0" t="n">
-        <v>738.4931082946447</v>
-      </c>
       <c r="F19" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>725.5603908377178</v>
+        <v>708.88972638349</v>
       </c>
       <c r="H19" s="0" t="n">
+        <v>719.6616430933761</v>
+      </c>
+      <c r="I19" s="0" t="n">
         <v>725.5603908377179</v>
       </c>
-      <c r="I19" s="0" t="n">
-        <v>714.1116272443656</v>
-      </c>
       <c r="J19" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>731.8297828355049</v>
@@ -6116,34 +6116,34 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>749.2812906226455</v>
+        <v>741.9801716124878</v>
       </c>
       <c r="B20" s="0" t="n">
+        <v>728.6473339874464</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>728.6473339874465</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>716.8443616805016</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>728.6473339874464</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>728.6473339874464</v>
+      </c>
+      <c r="G20" s="0" t="n">
         <v>711.4609025193467</v>
       </c>
-      <c r="C20" s="0" t="n">
-        <v>716.8443616805015</v>
-      </c>
-      <c r="D20" s="0" t="n">
+      <c r="H20" s="0" t="n">
+        <v>716.8443616805016</v>
+      </c>
+      <c r="I20" s="0" t="n">
         <v>728.6473339874464</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="J20" s="0" t="n">
         <v>735.1106921944609</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>741.9801716124877</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>728.6473339874464</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>722.5660872480565</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>716.8443616805016</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>741.9801716124877</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>735.1106921944609</v>
@@ -6418,34 +6418,34 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>753.1021251947594</v>
+        <v>738.4931082946448</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>714.1116272443656</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="D21" s="0" t="n">
+        <v>714.1116272443658</v>
+      </c>
+      <c r="E21" s="0" t="n">
         <v>725.5603908377179</v>
       </c>
-      <c r="E21" s="0" t="n">
-        <v>731.8297828355048</v>
-      </c>
       <c r="F21" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>725.5603908377178</v>
+        <v>714.1116272443658</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>714.1116272443658</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>745.575119786364</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>738.4931082946448</v>
@@ -6720,34 +6720,34 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>757.0411710381256</v>
+        <v>741.9801716124878</v>
       </c>
       <c r="B22" s="0" t="n">
+        <v>728.6473339874464</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>728.6473339874465</v>
+      </c>
+      <c r="D22" s="0" t="n">
         <v>711.4609025193467</v>
       </c>
-      <c r="C22" s="0" t="n">
-        <v>716.8443616805015</v>
-      </c>
-      <c r="D22" s="0" t="n">
+      <c r="E22" s="0" t="n">
+        <v>728.6473339874464</v>
+      </c>
+      <c r="F22" s="0" t="n">
         <v>722.5660872480564</v>
       </c>
-      <c r="E22" s="0" t="n">
-        <v>735.1106921944609</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>735.1106921944609</v>
-      </c>
       <c r="G22" s="0" t="n">
-        <v>728.6473339874464</v>
+        <v>711.4609025193469</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>722.5660872480565</v>
+        <v>716.8443616805016</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>722.5660872480564</v>
+        <v>728.6473339874465</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>741.9801716124877</v>
+        <v>728.6473339874465</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>741.9801716124878</v>
@@ -7022,34 +7022,34 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>753.1021251947594</v>
+        <v>745.5751197863641</v>
       </c>
       <c r="B23" s="0" t="n">
+        <v>725.5603908377179</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>725.5603908377179</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>708.88972638349</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>725.5603908377179</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>725.5603908377178</v>
+      </c>
+      <c r="G23" s="0" t="n">
         <v>714.1116272443658</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="H23" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="I23" s="0" t="n">
         <v>725.5603908377179</v>
       </c>
-      <c r="E23" s="0" t="n">
-        <v>738.4931082946447</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>738.4931082946447</v>
-      </c>
-      <c r="G23" s="0" t="n">
+      <c r="J23" s="0" t="n">
         <v>725.5603908377179</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>725.5603908377179</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>725.5603908377178</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>738.4931082946447</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>745.5751197863641</v>
@@ -7327,31 +7327,31 @@
         <v>749.2812906226457</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>711.4609025193467</v>
+        <v>728.6473339874464</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>716.8443616805015</v>
+        <v>728.6473339874465</v>
       </c>
       <c r="D24" s="0" t="n">
+        <v>711.4609025193469</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>722.5660872480564</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>722.5660872480564</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>711.4609025193469</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>722.5660872480564</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>728.6473339874465</v>
+      </c>
+      <c r="J24" s="0" t="n">
         <v>722.5660872480565</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>735.1106921944609</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>741.9801716124877</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>728.6473339874464</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>728.6473339874465</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>722.5660872480564</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>741.9801716124877</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>741.9801716124878</v>
@@ -7626,34 +7626,34 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>745.575119786364</v>
+        <v>745.5751197863641</v>
       </c>
       <c r="B25" s="0" t="n">
+        <v>725.5603908377179</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>725.5603908377179</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>708.88972638349</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>725.5603908377179</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>725.5603908377179</v>
+      </c>
+      <c r="G25" s="0" t="n">
         <v>714.1116272443658</v>
       </c>
-      <c r="C25" s="0" t="n">
-        <v>714.1116272443656</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>719.6616430933761</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>738.4931082946447</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>738.4931082946448</v>
-      </c>
-      <c r="G25" s="0" t="n">
+      <c r="H25" s="0" t="n">
+        <v>725.5603908377179</v>
+      </c>
+      <c r="I25" s="0" t="n">
         <v>731.8297828355049</v>
       </c>
-      <c r="H25" s="0" t="n">
-        <v>731.8297828355049</v>
-      </c>
-      <c r="I25" s="0" t="n">
+      <c r="J25" s="0" t="n">
         <v>725.5603908377179</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <v>745.575119786364</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>745.5751197863641</v>
@@ -7928,34 +7928,34 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>741.9801716124877</v>
+        <v>741.9801716124878</v>
       </c>
       <c r="B26" s="0" t="n">
+        <v>722.5660872480564</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>728.6473339874465</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>706.3957115734263</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>728.6473339874464</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>722.5660872480564</v>
+      </c>
+      <c r="G26" s="0" t="n">
         <v>716.8443616805016</v>
       </c>
-      <c r="C26" s="0" t="n">
-        <v>716.8443616805015</v>
-      </c>
-      <c r="D26" s="0" t="n">
+      <c r="H26" s="0" t="n">
+        <v>728.6473339874464</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>728.6473339874465</v>
+      </c>
+      <c r="J26" s="0" t="n">
         <v>722.5660872480565</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>741.9801716124877</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>741.9801716124878</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>735.1106921944609</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>728.6473339874465</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>722.5660872480564</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <v>749.2812906226457</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>741.9801716124878</v>
@@ -8230,34 +8230,34 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>745.5751197863641</v>
       </c>
       <c r="B27" s="0" t="n">
+        <v>725.5603908377179</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>731.8297828355051</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>703.9765424678665</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>731.8297828355049</v>
+      </c>
+      <c r="F27" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
-      <c r="C27" s="0" t="n">
-        <v>719.6616430933761</v>
-      </c>
-      <c r="D27" s="0" t="n">
+      <c r="G27" s="0" t="n">
+        <v>714.1116272443658</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>731.8297828355049</v>
+      </c>
+      <c r="I27" s="0" t="n">
         <v>725.5603908377179</v>
       </c>
-      <c r="E27" s="0" t="n">
-        <v>745.575119786364</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>738.4931082946448</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>731.8297828355049</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>731.8297828355051</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>719.6616430933761</v>
-      </c>
       <c r="J27" s="0" t="n">
-        <v>753.1021251947594</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>745.5751197863641</v>
@@ -8532,34 +8532,34 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>741.9801716124877</v>
+        <v>749.2812906226457</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>722.5660872480564</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>716.8443616805015</v>
+        <v>735.110692194461</v>
       </c>
       <c r="D28" s="0" t="n">
+        <v>706.3957115734263</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>735.1106921944609</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>716.8443616805016</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>711.4609025193469</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>735.1106921944609</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>728.6473339874465</v>
+      </c>
+      <c r="J28" s="0" t="n">
         <v>722.5660872480565</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>749.2812906226457</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>741.9801716124878</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>735.1106921944609</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>735.110692194461</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>722.5660872480564</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <v>757.0411710381258</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>741.9801716124878</v>
@@ -8834,34 +8834,34 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>745.575119786364</v>
+        <v>753.1021251947595</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
       <c r="C29" s="0" t="n">
+        <v>738.4931082946448</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>703.9765424678665</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>738.4931082946448</v>
+      </c>
+      <c r="F29" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>719.6616430933761</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>745.5751197863641</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>738.4931082946448</v>
-      </c>
       <c r="G29" s="0" t="n">
-        <v>738.4931082946448</v>
+        <v>708.8897263834901</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>738.4931082946448</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>761.1020854439428</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>738.4931082946448</v>
@@ -9136,34 +9136,34 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>741.9801716124877</v>
+        <v>749.2812906226458</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>716.8443616805016</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>716.8443616805015</v>
+        <v>741.9801716124878</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>722.5660872480565</v>
+        <v>706.3957115734263</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>741.9801716124878</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>716.8443616805016</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>706.3957115734263</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>735.110692194461</v>
+        <v>741.9801716124878</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>722.5660872480565</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>757.0411710381258</v>
+        <v>722.5660872480565</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>735.110692194461</v>
@@ -9444,28 +9444,28 @@
         <v>714.1116272443658</v>
       </c>
       <c r="C31" s="0" t="n">
+        <v>738.4931082946449</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>703.9765424678665</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>738.4931082946448</v>
+      </c>
+      <c r="F31" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="G31" s="0" t="n">
+        <v>708.8897263834901</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>745.5751197863641</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>725.5603908377179</v>
+      </c>
+      <c r="J31" s="0" t="n">
         <v>719.6616430933761</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>745.5751197863641</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>731.8297828355049</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>738.4931082946448</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>738.4931082946448</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>719.6616430933761</v>
-      </c>
-      <c r="J31" s="0" t="n">
-        <v>761.1020854439428</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>738.4931082946448</v>
@@ -9740,34 +9740,34 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>741.9801716124878</v>
+        <v>749.2812906226458</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>711.4609025193469</v>
+        <v>716.8443616805016</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>716.8443616805015</v>
+        <v>741.9801716124879</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>722.5660872480565</v>
+        <v>706.3957115734263</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>741.9801716124878</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>706.3957115734263</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>741.9801716124878</v>
+        <v>749.2812906226457</v>
       </c>
       <c r="I32" s="0" t="n">
+        <v>728.6473339874465</v>
+      </c>
+      <c r="J32" s="0" t="n">
         <v>716.8443616805016</v>
-      </c>
-      <c r="J32" s="0" t="n">
-        <v>765.2886388548774</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>735.110692194461</v>
@@ -10042,34 +10042,34 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>738.4931082946448</v>
+        <v>753.1021251947595</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>714.1116272443658</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>745.5751197863642</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>708.88972638349</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>738.4931082946448</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>731.8297828355049</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>731.8297828355049</v>
+        <v>708.8897263834901</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>738.4931082946449</v>
+        <v>745.5751197863641</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>714.1116272443658</v>
+        <v>731.8297828355051</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>769.6047183658125</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>738.4931082946448</v>
@@ -10344,34 +10344,34 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>741.9801716124878</v>
+        <v>749.2812906226458</v>
       </c>
       <c r="B34" s="0" t="n">
+        <v>711.4609025193469</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>741.9801716124879</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>706.3957115734263</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>735.110692194461</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>728.6473339874464</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>706.3957115734263</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>749.2812906226457</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>728.6473339874465</v>
+      </c>
+      <c r="J34" s="0" t="n">
         <v>716.8443616805016</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>716.8443616805015</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>728.6473339874465</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>735.1106921944609</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>728.6473339874465</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>735.1106921944609</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>735.1106921944611</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>711.4609025193469</v>
-      </c>
-      <c r="J34" s="0" t="n">
-        <v>774.0543313329033</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>741.9801716124878</v>
@@ -10646,34 +10646,34 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>745.5751197863641</v>
+        <v>745.5751197863642</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>708.8897263834901</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>714.1116272443656</v>
+        <v>738.4931082946449</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>708.8897263834901</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>731.8297828355049</v>
+        <v>731.8297828355051</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>731.8297828355049</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>731.8297828355049</v>
+        <v>708.8897263834901</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>738.4931082946449</v>
+        <v>745.5751197863641</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>714.1116272443658</v>
+        <v>731.8297828355051</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>778.6416090942934</v>
+        <v>719.6616430933763</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>738.4931082946449</v>
@@ -10948,34 +10948,34 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
+        <v>749.2812906226458</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>706.3957115734263</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>741.9801716124879</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>706.3957115734263</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>735.110692194461</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>735.1106921944609</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>706.3957115734263</v>
+      </c>
+      <c r="H36" s="0" t="n">
         <v>741.9801716124878</v>
       </c>
-      <c r="B36" s="0" t="n">
-        <v>722.5660872480565</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>716.8443616805015</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>728.6473339874465</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>735.1106921944609</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>735.110692194461</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>728.6473339874464</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>741.9801716124879</v>
-      </c>
       <c r="I36" s="0" t="n">
-        <v>711.4609025193469</v>
+        <v>735.1106921944611</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>774.0543313329033</v>
+        <v>716.8443616805016</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>741.9801716124879</v>
@@ -11250,34 +11250,34 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
+        <v>745.5751197863642</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>708.8897263834901</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>738.4931082946449</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>708.8897263834901</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>731.8297828355051</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>738.4931082946448</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>708.8897263834901</v>
+      </c>
+      <c r="H37" s="0" t="n">
         <v>745.5751197863641</v>
       </c>
-      <c r="B37" s="0" t="n">
-        <v>719.6616430933761</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>714.1116272443656</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>731.8297828355051</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>731.8297828355049</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>731.8297828355049</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>725.5603908377179</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>745.5751197863642</v>
-      </c>
       <c r="I37" s="0" t="n">
+        <v>738.4931082946449</v>
+      </c>
+      <c r="J37" s="0" t="n">
         <v>714.1116272443658</v>
-      </c>
-      <c r="J37" s="0" t="n">
-        <v>778.6416090942934</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>745.5751197863642</v>
@@ -11552,34 +11552,34 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>749.2812906226457</v>
+        <v>741.9801716124879</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>711.4609025193469</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>716.8443616805015</v>
+        <v>741.9801716124879</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>728.6473339874465</v>
+        <v>706.3957115734263</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>728.6473339874465</v>
+        <v>735.110692194461</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>728.6473339874465</v>
+        <v>741.9801716124878</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>728.6473339874465</v>
+        <v>711.460902519347</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>749.2812906226458</v>
+        <v>741.9801716124878</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>711.4609025193469</v>
+        <v>741.9801716124879</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>774.0543313329033</v>
+        <v>711.460902519347</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>749.2812906226458</v>
@@ -11854,34 +11854,34 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>753.1021251947595</v>
+        <v>745.5751197863642</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>714.1116272443658</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>714.1116272443656</v>
+        <v>745.5751197863642</v>
       </c>
       <c r="D39" s="0" t="n">
+        <v>708.8897263834901</v>
+      </c>
+      <c r="E39" s="0" t="n">
         <v>731.8297828355051</v>
       </c>
-      <c r="E39" s="0" t="n">
-        <v>725.5603908377179</v>
-      </c>
       <c r="F39" s="0" t="n">
-        <v>731.8297828355051</v>
+        <v>745.5751197863641</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>731.8297828355049</v>
+        <v>708.8897263834901</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>745.5751197863642</v>
+        <v>745.5751197863641</v>
       </c>
       <c r="I39" s="0" t="n">
+        <v>738.4931082946449</v>
+      </c>
+      <c r="J39" s="0" t="n">
         <v>708.8897263834901</v>
-      </c>
-      <c r="J39" s="0" t="n">
-        <v>769.6047183658125</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>745.5751197863642</v>
@@ -12156,34 +12156,34 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>757.0411710381259</v>
+        <v>741.9801716124879</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>711.4609025193469</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>711.4609025193467</v>
+        <v>741.9801716124879</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>728.6473339874465</v>
+        <v>711.4609025193469</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>728.6473339874465</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>728.6473339874465</v>
+        <v>749.2812906226457</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>735.110692194461</v>
+        <v>706.3957115734264</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>749.2812906226458</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>711.4609025193469</v>
+        <v>735.1106921944611</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>765.2886388548775</v>
+        <v>711.460902519347</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>741.9801716124879</v>
@@ -12458,34 +12458,34 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>761.1020854439429</v>
+        <v>738.4931082946449</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>714.1116272443658</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>708.88972638349</v>
+        <v>745.5751197863642</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>731.8297828355051</v>
+        <v>714.1116272443658</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>731.8297828355049</v>
+        <v>725.560390837718</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>731.8297828355051</v>
+        <v>745.5751197863641</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>738.4931082946448</v>
+        <v>708.8897263834901</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>745.5751197863642</v>
+        <v>745.5751197863641</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>714.1116272443658</v>
+        <v>738.4931082946449</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>769.6047183658125</v>
+        <v>708.8897263834901</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>738.4931082946449</v>
@@ -12760,34 +12760,34 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>765.2886388548775</v>
+        <v>741.9801716124879</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>711.460902519347</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>706.3957115734263</v>
+        <v>749.2812906226459</v>
       </c>
       <c r="D42" s="0" t="n">
+        <v>716.8443616805017</v>
+      </c>
+      <c r="E42" s="0" t="n">
         <v>728.6473339874465</v>
       </c>
-      <c r="E42" s="0" t="n">
-        <v>735.110692194461</v>
-      </c>
       <c r="F42" s="0" t="n">
-        <v>735.110692194461</v>
+        <v>749.2812906226458</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>735.110692194461</v>
+        <v>711.460902519347</v>
       </c>
       <c r="H42" s="0" t="n">
+        <v>741.9801716124878</v>
+      </c>
+      <c r="I42" s="0" t="n">
         <v>741.9801716124879</v>
       </c>
-      <c r="I42" s="0" t="n">
-        <v>711.4609025193469</v>
-      </c>
       <c r="J42" s="0" t="n">
-        <v>765.2886388548775</v>
+        <v>711.460902519347</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>741.9801716124879</v>
@@ -13062,34 +13062,34 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>769.6047183658125</v>
+        <v>738.4931082946449</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>714.1116272443658</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>703.9765424678664</v>
+        <v>753.1021251947598</v>
       </c>
       <c r="D43" s="0" t="n">
+        <v>719.6616430933763</v>
+      </c>
+      <c r="E43" s="0" t="n">
         <v>725.560390837718</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="F43" s="0" t="n">
+        <v>745.5751197863641</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>714.1116272443659</v>
+      </c>
+      <c r="H43" s="0" t="n">
         <v>738.4931082946448</v>
       </c>
-      <c r="F43" s="0" t="n">
-        <v>731.8297828355051</v>
-      </c>
-      <c r="G43" s="0" t="n">
-        <v>731.8297828355051</v>
-      </c>
-      <c r="H43" s="0" t="n">
-        <v>745.5751197863642</v>
-      </c>
       <c r="I43" s="0" t="n">
-        <v>708.8897263834901</v>
+        <v>738.4931082946449</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>761.102085443943</v>
+        <v>714.1116272443659</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>738.4931082946449</v>
@@ -13364,34 +13364,34 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>765.2886388548775</v>
+        <v>735.1106921944611</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>711.460902519347</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>706.3957115734263</v>
+        <v>757.041171038126</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>728.6473339874465</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>735.110692194461</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>735.110692194461</v>
+        <v>741.9801716124878</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>728.6473339874465</v>
+        <v>711.460902519347</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>749.2812906226459</v>
+        <v>741.9801716124878</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>711.460902519347</v>
+        <v>735.1106921944611</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>757.0411710381259</v>
+        <v>716.8443616805017</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>735.1106921944611</v>
@@ -13666,34 +13666,34 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
+        <v>738.4931082946449</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>708.8897263834901</v>
+      </c>
+      <c r="C45" s="0" t="n">
         <v>761.102085443943</v>
       </c>
-      <c r="B45" s="0" t="n">
-        <v>714.1116272443658</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>703.9765424678664</v>
-      </c>
       <c r="D45" s="0" t="n">
-        <v>731.8297828355051</v>
+        <v>725.560390837718</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>731.8297828355051</v>
+        <v>719.6616430933763</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>731.8297828355051</v>
+        <v>745.5751197863642</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>708.8897263834901</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>745.5751197863642</v>
+        <v>738.4931082946448</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>714.1116272443658</v>
+        <v>731.8297828355052</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>761.102085443943</v>
+        <v>719.6616430933763</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>731.8297828355051</v>
@@ -13968,34 +13968,34 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>757.0411710381259</v>
+        <v>735.1106921944611</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>711.4609025193469</v>
+        <v>711.460902519347</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>706.3957115734263</v>
+        <v>757.041171038126</v>
       </c>
       <c r="D46" s="0" t="n">
+        <v>728.6473339874465</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>716.8443616805017</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>749.2812906226458</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>711.460902519347</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>735.110692194461</v>
+      </c>
+      <c r="I46" s="0" t="n">
         <v>735.1106921944611</v>
       </c>
-      <c r="E46" s="0" t="n">
-        <v>735.110692194461</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>735.1106921944611</v>
-      </c>
-      <c r="G46" s="0" t="n">
-        <v>722.5660872480565</v>
-      </c>
-      <c r="H46" s="0" t="n">
-        <v>741.9801716124879</v>
-      </c>
-      <c r="I46" s="0" t="n">
-        <v>711.460902519347</v>
-      </c>
       <c r="J46" s="0" t="n">
-        <v>757.0411710381259</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>728.6473339874466</v>
@@ -14270,34 +14270,34 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>753.1021251947597</v>
+        <v>731.8297828355052</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>714.1116272443658</v>
+        <v>714.1116272443659</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>708.88972638349</v>
+        <v>753.1021251947598</v>
       </c>
       <c r="D47" s="0" t="n">
+        <v>725.560390837718</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>714.1116272443659</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>745.5751197863642</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>714.1116272443659</v>
+      </c>
+      <c r="H47" s="0" t="n">
         <v>731.8297828355051</v>
       </c>
-      <c r="E47" s="0" t="n">
-        <v>731.8297828355051</v>
-      </c>
-      <c r="F47" s="0" t="n">
+      <c r="I47" s="0" t="n">
         <v>738.4931082946449</v>
       </c>
-      <c r="G47" s="0" t="n">
-        <v>725.5603908377179</v>
-      </c>
-      <c r="H47" s="0" t="n">
-        <v>745.5751197863642</v>
-      </c>
-      <c r="I47" s="0" t="n">
-        <v>714.1116272443659</v>
-      </c>
       <c r="J47" s="0" t="n">
-        <v>753.1021251947597</v>
+        <v>719.6616430933763</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>731.8297828355052</v>
@@ -14572,34 +14572,34 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
+        <v>735.1106921944611</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>716.8443616805017</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>749.2812906226459</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>728.6473339874465</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>711.460902519347</v>
+      </c>
+      <c r="F48" s="0" t="n">
         <v>749.2812906226458</v>
       </c>
-      <c r="B48" s="0" t="n">
-        <v>716.8443616805016</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>706.3957115734263</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>728.6473339874466</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>735.110692194461</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>741.9801716124879</v>
-      </c>
       <c r="G48" s="0" t="n">
+        <v>711.460902519347</v>
+      </c>
+      <c r="H48" s="0" t="n">
         <v>728.6473339874465</v>
       </c>
-      <c r="H48" s="0" t="n">
-        <v>749.2812906226459</v>
-      </c>
       <c r="I48" s="0" t="n">
-        <v>711.460902519347</v>
+        <v>735.1106921944611</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>749.2812906226458</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="K48" s="0" t="n">
         <v>728.6473339874466</v>
@@ -14874,34 +14874,34 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
+        <v>731.8297828355052</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>719.6616430933763</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>745.5751197863643</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>731.8297828355051</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>708.8897263834901</v>
+      </c>
+      <c r="F49" s="0" t="n">
         <v>753.1021251947597</v>
       </c>
-      <c r="B49" s="0" t="n">
-        <v>714.1116272443658</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>703.9765424678664</v>
-      </c>
-      <c r="D49" s="0" t="n">
+      <c r="G49" s="0" t="n">
+        <v>714.1116272443659</v>
+      </c>
+      <c r="H49" s="0" t="n">
         <v>725.560390837718</v>
       </c>
-      <c r="E49" s="0" t="n">
-        <v>738.4931082946449</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>738.4931082946449</v>
-      </c>
-      <c r="G49" s="0" t="n">
-        <v>731.8297828355051</v>
-      </c>
-      <c r="H49" s="0" t="n">
-        <v>745.5751197863642</v>
-      </c>
       <c r="I49" s="0" t="n">
-        <v>708.8897263834901</v>
+        <v>731.8297828355052</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>753.1021251947597</v>
+        <v>719.6616430933764</v>
       </c>
       <c r="K49" s="0" t="n">
         <v>731.8297828355052</v>
@@ -15176,34 +15176,34 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>749.2812906226458</v>
+        <v>735.1106921944611</v>
       </c>
       <c r="B50" s="0" t="n">
+        <v>722.5660872480566</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>749.2812906226459</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>728.6473339874465</v>
+      </c>
+      <c r="E50" s="0" t="n">
         <v>711.460902519347</v>
       </c>
-      <c r="C50" s="0" t="n">
-        <v>701.6299729376135</v>
-      </c>
-      <c r="D50" s="0" t="n">
+      <c r="F50" s="0" t="n">
+        <v>757.0411710381259</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>716.8443616805018</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>728.6473339874465</v>
+      </c>
+      <c r="I50" s="0" t="n">
         <v>728.6473339874466</v>
       </c>
-      <c r="E50" s="0" t="n">
-        <v>735.1106921944611</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>735.1106921944611</v>
-      </c>
-      <c r="G50" s="0" t="n">
-        <v>728.6473339874465</v>
-      </c>
-      <c r="H50" s="0" t="n">
-        <v>749.2812906226459</v>
-      </c>
-      <c r="I50" s="0" t="n">
-        <v>706.3957115734264</v>
-      </c>
       <c r="J50" s="0" t="n">
-        <v>749.2812906226458</v>
+        <v>716.8443616805017</v>
       </c>
       <c r="K50" s="0" t="n">
         <v>728.6473339874466</v>
@@ -15478,34 +15478,34 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>745.5751197863642</v>
+        <v>738.493108294645</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>714.1116272443658</v>
+        <v>719.6616430933763</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>699.3538242600958</v>
+        <v>745.5751197863643</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>725.560390837718</v>
+        <v>731.8297828355051</v>
       </c>
       <c r="E51" s="0" t="n">
+        <v>708.8897263834901</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>753.1021251947597</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>719.6616430933764</v>
+      </c>
+      <c r="H51" s="0" t="n">
         <v>731.8297828355051</v>
       </c>
-      <c r="F51" s="0" t="n">
-        <v>731.8297828355051</v>
-      </c>
-      <c r="G51" s="0" t="n">
-        <v>731.8297828355051</v>
-      </c>
-      <c r="H51" s="0" t="n">
-        <v>753.1021251947597</v>
-      </c>
       <c r="I51" s="0" t="n">
-        <v>703.9765424678666</v>
+        <v>731.8297828355052</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>745.5751197863642</v>
+        <v>719.6616430933764</v>
       </c>
       <c r="K51" s="0" t="n">
         <v>731.8297828355052</v>
@@ -15780,34 +15780,34 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
+        <v>741.980171612488</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>722.5660872480566</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>741.980171612488</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>735.1106921944611</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>711.460902519347</v>
+      </c>
+      <c r="F52" s="0" t="n">
         <v>749.2812906226458</v>
       </c>
-      <c r="B52" s="0" t="n">
-        <v>711.460902519347</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>697.1459830964859</v>
-      </c>
-      <c r="D52" s="0" t="n">
+      <c r="G52" s="0" t="n">
+        <v>716.8443616805018</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>735.1106921944611</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>728.6473339874466</v>
+      </c>
+      <c r="J52" s="0" t="n">
         <v>722.5660872480566</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>728.6473339874465</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>735.1106921944611</v>
-      </c>
-      <c r="G52" s="0" t="n">
-        <v>735.1106921944611</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <v>757.041171038126</v>
-      </c>
-      <c r="I52" s="0" t="n">
-        <v>706.3957115734264</v>
-      </c>
-      <c r="J52" s="0" t="n">
-        <v>749.2812906226458</v>
       </c>
       <c r="K52" s="0" t="n">
         <v>735.1106921944611</v>
@@ -16082,34 +16082,34 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
+        <v>738.493108294645</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>725.560390837718</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>745.5751197863643</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>731.8297828355051</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>714.1116272443659</v>
+      </c>
+      <c r="F53" s="0" t="n">
         <v>745.5751197863642</v>
       </c>
-      <c r="B53" s="0" t="n">
-        <v>714.1116272443659</v>
-      </c>
-      <c r="C53" s="0" t="n">
-        <v>699.3538242600958</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>725.560390837718</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>731.8297828355051</v>
-      </c>
-      <c r="F53" s="0" t="n">
+      <c r="G53" s="0" t="n">
+        <v>714.111627244366</v>
+      </c>
+      <c r="H53" s="0" t="n">
         <v>738.4931082946449</v>
       </c>
-      <c r="G53" s="0" t="n">
-        <v>731.8297828355051</v>
-      </c>
-      <c r="H53" s="0" t="n">
-        <v>753.1021251947597</v>
-      </c>
       <c r="I53" s="0" t="n">
-        <v>703.9765424678666</v>
+        <v>731.8297828355052</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>753.1021251947597</v>
+        <v>719.6616430933764</v>
       </c>
       <c r="K53" s="0" t="n">
         <v>738.493108294645</v>
@@ -16384,34 +16384,34 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>749.2812906226458</v>
+        <v>735.1106921944611</v>
       </c>
       <c r="B54" s="0" t="n">
+        <v>722.5660872480566</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>741.980171612488</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>728.6473339874466</v>
+      </c>
+      <c r="E54" s="0" t="n">
         <v>711.460902519347</v>
       </c>
-      <c r="C54" s="0" t="n">
-        <v>701.6299729376135</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>722.5660872480566</v>
-      </c>
-      <c r="E54" s="0" t="n">
+      <c r="F54" s="0" t="n">
+        <v>741.9801716124879</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>716.8443616805018</v>
+      </c>
+      <c r="H54" s="0" t="n">
         <v>735.1106921944611</v>
       </c>
-      <c r="F54" s="0" t="n">
-        <v>735.1106921944611</v>
-      </c>
-      <c r="G54" s="0" t="n">
-        <v>735.1106921944611</v>
-      </c>
-      <c r="H54" s="0" t="n">
-        <v>757.041171038126</v>
-      </c>
       <c r="I54" s="0" t="n">
-        <v>706.3957115734264</v>
+        <v>735.1106921944612</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>749.2812906226458</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="K54" s="0" t="n">
         <v>741.980171612488</v>
@@ -16686,34 +16686,34 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>753.1021251947597</v>
+        <v>738.493108294645</v>
       </c>
       <c r="B55" s="0" t="n">
+        <v>719.6616430933764</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>738.493108294645</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>725.560390837718</v>
+      </c>
+      <c r="E55" s="0" t="n">
         <v>714.1116272443659</v>
       </c>
-      <c r="C55" s="0" t="n">
-        <v>703.9765424678665</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>719.6616430933763</v>
-      </c>
-      <c r="E55" s="0" t="n">
+      <c r="F55" s="0" t="n">
+        <v>738.4931082946449</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>719.6616430933764</v>
+      </c>
+      <c r="H55" s="0" t="n">
         <v>731.8297828355051</v>
       </c>
-      <c r="F55" s="0" t="n">
-        <v>731.8297828355052</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>731.8297828355051</v>
-      </c>
-      <c r="H55" s="0" t="n">
-        <v>761.102085443943</v>
-      </c>
       <c r="I55" s="0" t="n">
-        <v>708.8897263834903</v>
+        <v>738.493108294645</v>
       </c>
       <c r="J55" s="0" t="n">
-        <v>753.1021251947597</v>
+        <v>719.6616430933764</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>745.5751197863643</v>
@@ -16988,34 +16988,34 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>757.0411710381259</v>
+        <v>735.1106921944612</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>716.8443616805017</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>706.3957115734263</v>
+        <v>741.980171612488</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>722.5660872480566</v>
       </c>
       <c r="E56" s="0" t="n">
+        <v>711.460902519347</v>
+      </c>
+      <c r="F56" s="0" t="n">
         <v>735.1106921944611</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="G56" s="0" t="n">
+        <v>722.5660872480568</v>
+      </c>
+      <c r="H56" s="0" t="n">
         <v>728.6473339874466</v>
       </c>
-      <c r="G56" s="0" t="n">
-        <v>735.1106921944611</v>
-      </c>
-      <c r="H56" s="0" t="n">
-        <v>757.041171038126</v>
-      </c>
       <c r="I56" s="0" t="n">
-        <v>711.460902519347</v>
+        <v>741.980171612488</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>749.2812906226459</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>741.980171612488</v>
@@ -17290,34 +17290,34 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>761.102085443943</v>
+        <v>731.8297828355052</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>714.1116272443659</v>
+        <v>725.5603908377182</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>703.9765424678665</v>
+        <v>738.493108294645</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>719.6616430933763</v>
+        <v>725.560390837718</v>
       </c>
       <c r="E57" s="0" t="n">
+        <v>708.8897263834903</v>
+      </c>
+      <c r="F57" s="0" t="n">
         <v>738.4931082946449</v>
       </c>
-      <c r="F57" s="0" t="n">
-        <v>731.8297828355052</v>
-      </c>
       <c r="G57" s="0" t="n">
-        <v>738.4931082946449</v>
+        <v>719.6616430933764</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>761.102085443943</v>
+        <v>731.8297828355051</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>714.1116272443659</v>
+        <v>745.5751197863643</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>745.5751197863642</v>
+        <v>714.111627244366</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>745.5751197863643</v>
@@ -17592,34 +17592,34 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>765.2886388548776</v>
+        <v>735.1106921944612</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>716.8443616805017</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>706.3957115734263</v>
+        <v>741.980171612488</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>722.5660872480566</v>
+        <v>728.6473339874466</v>
       </c>
       <c r="E58" s="0" t="n">
+        <v>706.3957115734265</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>741.9801716124879</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>722.5660872480568</v>
+      </c>
+      <c r="H58" s="0" t="n">
         <v>735.1106921944611</v>
       </c>
-      <c r="F58" s="0" t="n">
-        <v>728.6473339874466</v>
-      </c>
-      <c r="G58" s="0" t="n">
-        <v>735.1106921944611</v>
-      </c>
-      <c r="H58" s="0" t="n">
-        <v>757.041171038126</v>
-      </c>
       <c r="I58" s="0" t="n">
-        <v>716.8443616805018</v>
+        <v>749.281290622646</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>741.9801716124879</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="K58" s="0" t="n">
         <v>741.980171612488</v>
@@ -17894,34 +17894,34 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>769.6047183658126</v>
+        <v>731.8297828355052</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>714.1116272443659</v>
+        <v>719.6616430933764</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>703.9765424678665</v>
+        <v>745.5751197863643</v>
       </c>
       <c r="D59" s="0" t="n">
+        <v>731.8297828355051</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>708.8897263834903</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>738.4931082946449</v>
+      </c>
+      <c r="G59" s="0" t="n">
         <v>719.6616430933764</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="H59" s="0" t="n">
         <v>731.8297828355052</v>
       </c>
-      <c r="F59" s="0" t="n">
-        <v>725.5603908377182</v>
-      </c>
-      <c r="G59" s="0" t="n">
-        <v>738.4931082946449</v>
-      </c>
-      <c r="H59" s="0" t="n">
-        <v>753.1021251947597</v>
-      </c>
       <c r="I59" s="0" t="n">
-        <v>719.6616430933764</v>
+        <v>753.1021251947598</v>
       </c>
       <c r="J59" s="0" t="n">
-        <v>738.4931082946449</v>
+        <v>708.8897263834903</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>738.493108294645</v>
@@ -18196,34 +18196,34 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>774.0543313329035</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>716.8443616805017</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>706.3957115734263</v>
+        <v>741.980171612488</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>722.5660872480566</v>
+        <v>728.6473339874466</v>
       </c>
       <c r="E60" s="0" t="n">
+        <v>711.4609025193471</v>
+      </c>
+      <c r="F60" s="0" t="n">
         <v>735.1106921944611</v>
       </c>
-      <c r="F60" s="0" t="n">
-        <v>722.5660872480566</v>
-      </c>
       <c r="G60" s="0" t="n">
-        <v>741.9801716124879</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>757.041171038126</v>
+        <v>735.1106921944611</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>722.5660872480566</v>
+        <v>757.0411710381261</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>741.9801716124879</v>
+        <v>706.3957115734265</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>735.1106921944612</v>
@@ -18498,34 +18498,34 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>769.6047183658127</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>714.1116272443659</v>
+        <v>719.6616430933764</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>703.9765424678665</v>
+        <v>745.5751197863644</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>725.5603908377182</v>
+        <v>731.8297828355052</v>
       </c>
       <c r="E61" s="0" t="n">
+        <v>714.111627244366</v>
+      </c>
+      <c r="F61" s="0" t="n">
         <v>731.8297828355052</v>
       </c>
-      <c r="F61" s="0" t="n">
+      <c r="G61" s="0" t="n">
         <v>719.6616430933764</v>
       </c>
-      <c r="G61" s="0" t="n">
-        <v>738.4931082946449</v>
-      </c>
       <c r="H61" s="0" t="n">
-        <v>753.1021251947597</v>
+        <v>731.8297828355052</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>725.5603908377182</v>
+        <v>753.1021251947598</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>745.5751197863642</v>
+        <v>708.8897263834903</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>731.8297828355053</v>
@@ -18800,34 +18800,34 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>774.0543313329035</v>
+        <v>735.1106921944612</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>711.460902519347</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>701.6299729376135</v>
+        <v>749.281290622646</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>722.5660872480566</v>
+        <v>728.6473339874466</v>
       </c>
       <c r="E62" s="0" t="n">
+        <v>716.8443616805018</v>
+      </c>
+      <c r="F62" s="0" t="n">
         <v>728.6473339874466</v>
       </c>
-      <c r="F62" s="0" t="n">
+      <c r="G62" s="0" t="n">
         <v>716.8443616805018</v>
       </c>
-      <c r="G62" s="0" t="n">
+      <c r="H62" s="0" t="n">
         <v>735.1106921944611</v>
       </c>
-      <c r="H62" s="0" t="n">
-        <v>749.2812906226459</v>
-      </c>
       <c r="I62" s="0" t="n">
-        <v>722.5660872480566</v>
+        <v>749.281290622646</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>749.2812906226459</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="K62" s="0" t="n">
         <v>735.1106921944612</v>
@@ -19102,34 +19102,34 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>769.6047183658127</v>
+        <v>738.493108294645</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>714.1116272443659</v>
+        <v>719.6616430933764</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>703.9765424678665</v>
+        <v>745.5751197863644</v>
       </c>
       <c r="D63" s="0" t="n">
+        <v>725.560390837718</v>
+      </c>
+      <c r="E63" s="0" t="n">
         <v>719.6616430933764</v>
       </c>
-      <c r="E63" s="0" t="n">
-        <v>731.8297828355052</v>
-      </c>
       <c r="F63" s="0" t="n">
+        <v>725.560390837718</v>
+      </c>
+      <c r="G63" s="0" t="n">
         <v>719.6616430933764</v>
       </c>
-      <c r="G63" s="0" t="n">
-        <v>731.8297828355052</v>
-      </c>
       <c r="H63" s="0" t="n">
+        <v>738.493108294645</v>
+      </c>
+      <c r="I63" s="0" t="n">
         <v>753.1021251947598</v>
       </c>
-      <c r="I63" s="0" t="n">
-        <v>725.5603908377182</v>
-      </c>
       <c r="J63" s="0" t="n">
-        <v>753.1021251947598</v>
+        <v>708.8897263834903</v>
       </c>
       <c r="K63" s="0" t="n">
         <v>738.493108294645</v>
@@ -19404,34 +19404,34 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>765.2886388548777</v>
+        <v>741.980171612488</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>716.8443616805018</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>701.6299729376135</v>
+        <v>749.281290622646</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>716.8443616805018</v>
+        <v>728.6473339874466</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>735.1106921944611</v>
+        <v>722.5660872480568</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>716.8443616805018</v>
+        <v>728.6473339874466</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>728.6473339874466</v>
+        <v>722.5660872480568</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>757.041171038126</v>
+        <v>741.980171612488</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>722.5660872480568</v>
+        <v>757.0411710381261</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>757.041171038126</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="K64" s="0" t="n">
         <v>741.980171612488</v>
@@ -19706,34 +19706,34 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>769.6047183658127</v>
+        <v>745.5751197863644</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>719.6616430933764</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>699.3538242600958</v>
+        <v>753.1021251947599</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>725.560390837718</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>731.8297828355052</v>
+        <v>725.5603908377182</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>719.6616430933764</v>
+        <v>725.560390837718</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>731.8297828355052</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>761.102085443943</v>
+        <v>738.493108294645</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>719.6616430933764</v>
+        <v>753.1021251947599</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>761.102085443943</v>
+        <v>708.8897263834903</v>
       </c>
       <c r="K65" s="0" t="n">
         <v>738.493108294645</v>
@@ -20008,34 +20008,34 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
-        <v>774.0543313329036</v>
+        <v>741.980171612488</v>
       </c>
       <c r="B66" s="0" t="n">
+        <v>722.5660872480568</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>749.281290622646</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>728.6473339874466</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>728.6473339874467</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>728.6473339874466</v>
+      </c>
+      <c r="G66" s="0" t="n">
         <v>716.8443616805018</v>
       </c>
-      <c r="C66" s="0" t="n">
-        <v>697.145983096486</v>
-      </c>
-      <c r="D66" s="0" t="n">
-        <v>711.4609025193471</v>
-      </c>
-      <c r="E66" s="0" t="n">
-        <v>728.6473339874466</v>
-      </c>
-      <c r="F66" s="0" t="n">
-        <v>722.5660872480568</v>
-      </c>
-      <c r="G66" s="0" t="n">
-        <v>728.6473339874466</v>
-      </c>
       <c r="H66" s="0" t="n">
-        <v>765.2886388548777</v>
+        <v>735.1106921944611</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>716.8443616805018</v>
+        <v>749.281290622646</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>757.041171038126</v>
+        <v>706.3957115734265</v>
       </c>
       <c r="K66" s="0" t="n">
         <v>741.980171612488</v>
@@ -20310,34 +20310,34 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
-        <v>778.6416090942937</v>
+        <v>738.493108294645</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>719.6616430933764</v>
+        <v>725.5603908377182</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>695.0043995295257</v>
+        <v>753.1021251947599</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>708.8897263834903</v>
+        <v>731.8297828355052</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>725.5603908377182</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>725.5603908377182</v>
+        <v>731.8297828355052</v>
       </c>
       <c r="G67" s="0" t="n">
+        <v>719.6616430933765</v>
+      </c>
+      <c r="H67" s="0" t="n">
         <v>731.8297828355052</v>
       </c>
-      <c r="H67" s="0" t="n">
-        <v>769.6047183658127</v>
-      </c>
       <c r="I67" s="0" t="n">
-        <v>719.6616430933764</v>
+        <v>753.1021251947599</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>753.1021251947598</v>
+        <v>708.8897263834903</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>745.5751197863644</v>
@@ -20612,34 +20612,34 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>774.0543313329036</v>
+        <v>741.980171612488</v>
       </c>
       <c r="B68" s="0" t="n">
+        <v>728.6473339874467</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>749.281290622646</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>728.6473339874466</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>728.6473339874467</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>728.6473339874466</v>
+      </c>
+      <c r="G68" s="0" t="n">
         <v>716.8443616805018</v>
       </c>
-      <c r="C68" s="0" t="n">
-        <v>697.145983096486</v>
-      </c>
-      <c r="D68" s="0" t="n">
+      <c r="H68" s="0" t="n">
+        <v>728.6473339874467</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>757.0411710381261</v>
+      </c>
+      <c r="J68" s="0" t="n">
         <v>711.4609025193471</v>
-      </c>
-      <c r="E68" s="0" t="n">
-        <v>728.6473339874466</v>
-      </c>
-      <c r="F68" s="0" t="n">
-        <v>728.6473339874467</v>
-      </c>
-      <c r="G68" s="0" t="n">
-        <v>735.1106921944611</v>
-      </c>
-      <c r="H68" s="0" t="n">
-        <v>774.0543313329036</v>
-      </c>
-      <c r="I68" s="0" t="n">
-        <v>716.8443616805018</v>
-      </c>
-      <c r="J68" s="0" t="n">
-        <v>749.2812906226459</v>
       </c>
       <c r="K68" s="0" t="n">
         <v>741.980171612488</v>
@@ -20914,34 +20914,34 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="n">
-        <v>769.6047183658127</v>
+        <v>745.5751197863644</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>725.5603908377182</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>699.353824260096</v>
+        <v>753.1021251947599</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>731.8297828355052</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>725.5603908377182</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>725.5603908377182</v>
+        <v>731.8297828355052</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>738.493108294645</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>778.6416090942937</v>
+        <v>731.8297828355052</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>719.6616430933764</v>
+        <v>761.1020854439432</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>745.5751197863643</v>
+        <v>708.8897263834903</v>
       </c>
       <c r="K69" s="0" t="n">
         <v>745.5751197863644</v>
@@ -21216,34 +21216,34 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
-        <v>765.2886388548777</v>
+        <v>741.980171612488</v>
       </c>
       <c r="B70" s="0" t="n">
+        <v>722.5660872480568</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>757.0411710381261</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>728.6473339874466</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>722.5660872480568</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>735.1106921944611</v>
+      </c>
+      <c r="G70" s="0" t="n">
         <v>716.8443616805018</v>
       </c>
-      <c r="C70" s="0" t="n">
-        <v>697.145983096486</v>
-      </c>
-      <c r="D70" s="0" t="n">
-        <v>716.8443616805018</v>
-      </c>
-      <c r="E70" s="0" t="n">
-        <v>728.6473339874466</v>
-      </c>
-      <c r="F70" s="0" t="n">
+      <c r="H70" s="0" t="n">
         <v>728.6473339874467</v>
       </c>
-      <c r="G70" s="0" t="n">
-        <v>735.1106921944612</v>
-      </c>
-      <c r="H70" s="0" t="n">
-        <v>783.3708108059431</v>
-      </c>
       <c r="I70" s="0" t="n">
-        <v>722.5660872480568</v>
+        <v>757.0411710381261</v>
       </c>
       <c r="J70" s="0" t="n">
-        <v>741.980171612488</v>
+        <v>706.3957115734265</v>
       </c>
       <c r="K70" s="0" t="n">
         <v>741.980171612488</v>
@@ -21518,34 +21518,34 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="n">
-        <v>769.6047183658128</v>
+        <v>738.493108294645</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>719.6616430933764</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>695.0043995295257</v>
+        <v>753.1021251947599</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>719.6616430933764</v>
+        <v>725.5603908377182</v>
       </c>
       <c r="E71" s="0" t="n">
+        <v>725.5603908377183</v>
+      </c>
+      <c r="F71" s="0" t="n">
         <v>731.8297828355052</v>
       </c>
-      <c r="F71" s="0" t="n">
-        <v>731.8297828355053</v>
-      </c>
       <c r="G71" s="0" t="n">
-        <v>731.8297828355052</v>
+        <v>714.111627244366</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>788.2463273961332</v>
+        <v>725.5603908377182</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>719.6616430933764</v>
+        <v>761.1020854439432</v>
       </c>
       <c r="J71" s="0" t="n">
-        <v>738.493108294645</v>
+        <v>708.8897263834903</v>
       </c>
       <c r="K71" s="0" t="n">
         <v>738.493108294645</v>
@@ -21820,34 +21820,34 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
-        <v>774.0543313329038</v>
+        <v>735.1106921944612</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>716.8443616805018</v>
+        <v>722.5660872480568</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>697.145983096486</v>
+        <v>757.0411710381261</v>
       </c>
       <c r="D72" s="0" t="n">
+        <v>728.6473339874466</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>728.6473339874467</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>735.1106921944611</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>711.4609025193471</v>
+      </c>
+      <c r="H72" s="0" t="n">
         <v>722.5660872480568</v>
       </c>
-      <c r="E72" s="0" t="n">
-        <v>735.1106921944612</v>
-      </c>
-      <c r="F72" s="0" t="n">
-        <v>735.1106921944612</v>
-      </c>
-      <c r="G72" s="0" t="n">
-        <v>728.6473339874467</v>
-      </c>
-      <c r="H72" s="0" t="n">
-        <v>783.3708108059431</v>
-      </c>
       <c r="I72" s="0" t="n">
-        <v>716.8443616805018</v>
+        <v>765.2886388548777</v>
       </c>
       <c r="J72" s="0" t="n">
-        <v>735.1106921944612</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="K72" s="0" t="n">
         <v>741.980171612488</v>
@@ -22122,34 +22122,34 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="n">
+        <v>731.8297828355053</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>719.6616430933765</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>753.1021251947599</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>731.8297828355052</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>731.8297828355053</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>731.8297828355052</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>708.8897263834904</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>725.5603908377182</v>
+      </c>
+      <c r="I73" s="0" t="n">
         <v>769.6047183658128</v>
       </c>
-      <c r="B73" s="0" t="n">
-        <v>719.6616430933764</v>
-      </c>
-      <c r="C73" s="0" t="n">
-        <v>699.353824260096</v>
-      </c>
-      <c r="D73" s="0" t="n">
-        <v>725.5603908377182</v>
-      </c>
-      <c r="E73" s="0" t="n">
-        <v>738.493108294645</v>
-      </c>
-      <c r="F73" s="0" t="n">
-        <v>738.493108294645</v>
-      </c>
-      <c r="G73" s="0" t="n">
-        <v>731.8297828355052</v>
-      </c>
-      <c r="H73" s="0" t="n">
-        <v>788.2463273961332</v>
-      </c>
-      <c r="I73" s="0" t="n">
-        <v>719.6616430933765</v>
-      </c>
       <c r="J73" s="0" t="n">
-        <v>731.8297828355052</v>
+        <v>708.8897263834903</v>
       </c>
       <c r="K73" s="0" t="n">
         <v>745.5751197863644</v>
@@ -22424,34 +22424,34 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
-        <v>765.2886388548778</v>
+        <v>735.1106921944612</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>716.8443616805018</v>
+        <v>722.5660872480568</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>701.6299729376135</v>
+        <v>749.2812906226461</v>
       </c>
       <c r="D74" s="0" t="n">
+        <v>735.1106921944611</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>735.1106921944613</v>
+      </c>
+      <c r="F74" s="0" t="n">
         <v>728.6473339874467</v>
       </c>
-      <c r="E74" s="0" t="n">
-        <v>735.1106921944612</v>
-      </c>
-      <c r="F74" s="0" t="n">
-        <v>735.1106921944612</v>
-      </c>
       <c r="G74" s="0" t="n">
-        <v>735.1106921944612</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>783.3708108059431</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>716.8443616805018</v>
+        <v>774.0543313329038</v>
       </c>
       <c r="J74" s="0" t="n">
-        <v>735.1106921944612</v>
+        <v>706.3957115734265</v>
       </c>
       <c r="K74" s="0" t="n">
         <v>749.281290622646</v>
@@ -22726,34 +22726,34 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
+        <v>731.8297828355053</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>719.6616430933765</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>753.1021251947599</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>731.8297828355052</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>738.4931082946451</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>725.5603908377182</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>708.8897263834904</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>731.8297828355053</v>
+      </c>
+      <c r="I75" s="0" t="n">
         <v>769.6047183658128</v>
       </c>
-      <c r="B75" s="0" t="n">
-        <v>714.111627244366</v>
-      </c>
-      <c r="C75" s="0" t="n">
-        <v>703.9765424678665</v>
-      </c>
-      <c r="D75" s="0" t="n">
-        <v>725.5603908377182</v>
-      </c>
-      <c r="E75" s="0" t="n">
-        <v>738.493108294645</v>
-      </c>
-      <c r="F75" s="0" t="n">
-        <v>738.493108294645</v>
-      </c>
-      <c r="G75" s="0" t="n">
-        <v>731.8297828355053</v>
-      </c>
-      <c r="H75" s="0" t="n">
-        <v>778.6416090942937</v>
-      </c>
-      <c r="I75" s="0" t="n">
-        <v>719.6616430933765</v>
-      </c>
       <c r="J75" s="0" t="n">
-        <v>738.493108294645</v>
+        <v>708.8897263834903</v>
       </c>
       <c r="K75" s="0" t="n">
         <v>753.1021251947599</v>
@@ -23028,34 +23028,34 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">
+        <v>735.1106921944613</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>722.5660872480568</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>749.2812906226461</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>728.6473339874467</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>741.9801716124881</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>722.5660872480568</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <v>706.3957115734265</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <v>735.1106921944612</v>
+      </c>
+      <c r="I76" s="0" t="n">
         <v>765.2886388548778</v>
       </c>
-      <c r="B76" s="0" t="n">
-        <v>716.8443616805018</v>
-      </c>
-      <c r="C76" s="0" t="n">
-        <v>701.6299729376135</v>
-      </c>
-      <c r="D76" s="0" t="n">
-        <v>722.5660872480568</v>
-      </c>
-      <c r="E76" s="0" t="n">
-        <v>735.1106921944612</v>
-      </c>
-      <c r="F76" s="0" t="n">
-        <v>741.980171612488</v>
-      </c>
-      <c r="G76" s="0" t="n">
-        <v>735.1106921944612</v>
-      </c>
-      <c r="H76" s="0" t="n">
-        <v>774.0543313329036</v>
-      </c>
-      <c r="I76" s="0" t="n">
-        <v>722.5660872480568</v>
-      </c>
       <c r="J76" s="0" t="n">
-        <v>735.1106921944612</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="K76" s="0" t="n">
         <v>757.0411710381261</v>
@@ -23330,34 +23330,34 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="n">
-        <v>761.1020854439432</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>719.6616430933764</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>703.9765424678665</v>
+        <v>745.5751197863644</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>719.6616430933764</v>
+        <v>725.5603908377182</v>
       </c>
       <c r="E77" s="0" t="n">
+        <v>745.5751197863644</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>725.5603908377182</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>708.8897263834904</v>
+      </c>
+      <c r="H77" s="0" t="n">
         <v>731.8297828355053</v>
       </c>
-      <c r="F77" s="0" t="n">
-        <v>745.5751197863644</v>
-      </c>
-      <c r="G77" s="0" t="n">
-        <v>738.493108294645</v>
-      </c>
-      <c r="H77" s="0" t="n">
-        <v>778.6416090942937</v>
-      </c>
       <c r="I77" s="0" t="n">
-        <v>725.5603908377183</v>
+        <v>769.6047183658128</v>
       </c>
       <c r="J77" s="0" t="n">
-        <v>731.8297828355053</v>
+        <v>708.8897263834903</v>
       </c>
       <c r="K77" s="0" t="n">
         <v>753.1021251947599</v>
@@ -23632,34 +23632,34 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
-        <v>757.0411710381261</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="B78" s="0" t="n">
+        <v>722.5660872480569</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>741.9801716124881</v>
+      </c>
+      <c r="D78" s="0" t="n">
         <v>722.5660872480568</v>
       </c>
-      <c r="C78" s="0" t="n">
-        <v>701.6299729376136</v>
-      </c>
-      <c r="D78" s="0" t="n">
-        <v>716.8443616805018</v>
-      </c>
       <c r="E78" s="0" t="n">
-        <v>735.1106921944612</v>
+        <v>749.2812906226461</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>741.980171612488</v>
+        <v>722.5660872480568</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>741.980171612488</v>
+        <v>706.3957115734265</v>
       </c>
       <c r="H78" s="0" t="n">
+        <v>728.6473339874467</v>
+      </c>
+      <c r="I78" s="0" t="n">
         <v>774.0543313329038</v>
       </c>
-      <c r="I78" s="0" t="n">
-        <v>722.5660872480568</v>
-      </c>
       <c r="J78" s="0" t="n">
-        <v>735.1106921944612</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="K78" s="0" t="n">
         <v>757.0411710381262</v>
@@ -23934,34 +23934,34 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="n">
-        <v>753.1021251947599</v>
+        <v>725.5603908377183</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>719.6616430933765</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>703.9765424678665</v>
+        <v>745.5751197863644</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>725.5603908377182</v>
       </c>
       <c r="E79" s="0" t="n">
+        <v>753.1021251947599</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>719.6616430933764</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>708.8897263834904</v>
+      </c>
+      <c r="H79" s="0" t="n">
         <v>731.8297828355053</v>
       </c>
-      <c r="F79" s="0" t="n">
-        <v>738.493108294645</v>
-      </c>
-      <c r="G79" s="0" t="n">
-        <v>738.493108294645</v>
-      </c>
-      <c r="H79" s="0" t="n">
-        <v>778.6416090942937</v>
-      </c>
       <c r="I79" s="0" t="n">
-        <v>725.5603908377183</v>
+        <v>778.6416090942938</v>
       </c>
       <c r="J79" s="0" t="n">
-        <v>731.8297828355053</v>
+        <v>708.8897263834903</v>
       </c>
       <c r="K79" s="0" t="n">
         <v>753.1021251947599</v>
@@ -24236,34 +24236,34 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="n">
-        <v>757.0411710381261</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="B80" s="0" t="n">
+        <v>716.8443616805019</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>749.2812906226461</v>
+      </c>
+      <c r="D80" s="0" t="n">
         <v>722.5660872480568</v>
       </c>
-      <c r="C80" s="0" t="n">
-        <v>701.6299729376136</v>
-      </c>
-      <c r="D80" s="0" t="n">
-        <v>716.8443616805019</v>
-      </c>
       <c r="E80" s="0" t="n">
-        <v>728.6473339874467</v>
+        <v>757.0411710381262</v>
       </c>
       <c r="F80" s="0" t="n">
+        <v>716.8443616805018</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>711.4609025193471</v>
+      </c>
+      <c r="H80" s="0" t="n">
         <v>735.1106921944612</v>
       </c>
-      <c r="G80" s="0" t="n">
-        <v>741.980171612488</v>
-      </c>
-      <c r="H80" s="0" t="n">
-        <v>774.0543313329038</v>
-      </c>
       <c r="I80" s="0" t="n">
-        <v>722.5660872480569</v>
+        <v>783.3708108059432</v>
       </c>
       <c r="J80" s="0" t="n">
-        <v>735.1106921944612</v>
+        <v>706.3957115734265</v>
       </c>
       <c r="K80" s="0" t="n">
         <v>757.0411710381262</v>
@@ -24538,34 +24538,34 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="n">
+        <v>725.5603908377183</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>719.6616430933765</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>753.10212519476</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>725.5603908377182</v>
+      </c>
+      <c r="E81" s="0" t="n">
         <v>753.1021251947599</v>
       </c>
-      <c r="B81" s="0" t="n">
-        <v>725.5603908377183</v>
-      </c>
-      <c r="C81" s="0" t="n">
-        <v>699.353824260096</v>
-      </c>
-      <c r="D81" s="0" t="n">
-        <v>719.6616430933765</v>
-      </c>
-      <c r="E81" s="0" t="n">
+      <c r="F81" s="0" t="n">
+        <v>714.111627244366</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>708.8897263834904</v>
+      </c>
+      <c r="H81" s="0" t="n">
         <v>731.8297828355053</v>
       </c>
-      <c r="F81" s="0" t="n">
-        <v>731.8297828355053</v>
-      </c>
-      <c r="G81" s="0" t="n">
-        <v>745.5751197863644</v>
-      </c>
-      <c r="H81" s="0" t="n">
-        <v>769.6047183658128</v>
-      </c>
       <c r="I81" s="0" t="n">
-        <v>725.5603908377183</v>
+        <v>788.2463273961334</v>
       </c>
       <c r="J81" s="0" t="n">
-        <v>731.8297828355053</v>
+        <v>703.9765424678667</v>
       </c>
       <c r="K81" s="0" t="n">
         <v>761.1020854439433</v>
@@ -24840,34 +24840,34 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="n">
+        <v>722.5660872480569</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>722.5660872480569</v>
+      </c>
+      <c r="C82" s="0" t="n">
         <v>749.2812906226461</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="D82" s="0" t="n">
         <v>728.6473339874467</v>
       </c>
-      <c r="C82" s="0" t="n">
-        <v>701.6299729376136</v>
-      </c>
-      <c r="D82" s="0" t="n">
-        <v>716.8443616805019</v>
-      </c>
       <c r="E82" s="0" t="n">
-        <v>735.1106921944612</v>
+        <v>749.2812906226461</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>735.1106921944612</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>749.281290622646</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>765.2886388548778</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>728.6473339874468</v>
+        <v>783.3708108059432</v>
       </c>
       <c r="J82" s="0" t="n">
-        <v>735.1106921944612</v>
+        <v>701.6299729376137</v>
       </c>
       <c r="K82" s="0" t="n">
         <v>765.2886388548779</v>
@@ -25142,34 +25142,34 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="n">
-        <v>753.1021251947599</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="B83" s="0" t="n">
+        <v>725.5603908377183</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>753.10212519476</v>
+      </c>
+      <c r="D83" s="0" t="n">
         <v>731.8297828355053</v>
       </c>
-      <c r="C83" s="0" t="n">
-        <v>699.353824260096</v>
-      </c>
-      <c r="D83" s="0" t="n">
-        <v>714.111627244366</v>
-      </c>
       <c r="E83" s="0" t="n">
-        <v>731.8297828355053</v>
+        <v>753.10212519476</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>738.4931082946451</v>
+        <v>708.8897263834903</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>753.1021251947599</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>769.6047183658128</v>
+        <v>725.5603908377183</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>725.5603908377183</v>
+        <v>788.2463273961334</v>
       </c>
       <c r="J83" s="0" t="n">
-        <v>738.493108294645</v>
+        <v>703.9765424678667</v>
       </c>
       <c r="K83" s="0" t="n">
         <v>769.6047183658129</v>
@@ -25444,34 +25444,34 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="n">
+        <v>716.8443616805019</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>722.5660872480569</v>
+      </c>
+      <c r="C84" s="0" t="n">
         <v>757.0411710381262</v>
       </c>
-      <c r="B84" s="0" t="n">
-        <v>728.6473339874467</v>
-      </c>
-      <c r="C84" s="0" t="n">
-        <v>697.1459830964861</v>
-      </c>
       <c r="D84" s="0" t="n">
+        <v>735.1106921944612</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>757.0411710381262</v>
+      </c>
+      <c r="F84" s="0" t="n">
         <v>711.4609025193471</v>
       </c>
-      <c r="E84" s="0" t="n">
-        <v>728.6473339874467</v>
-      </c>
-      <c r="F84" s="0" t="n">
-        <v>741.9801716124881</v>
-      </c>
       <c r="G84" s="0" t="n">
-        <v>757.0411710381261</v>
+        <v>706.3957115734265</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>774.0543313329038</v>
+        <v>722.5660872480568</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>722.5660872480569</v>
+        <v>793.272685642318</v>
       </c>
       <c r="J84" s="0" t="n">
-        <v>741.980171612488</v>
+        <v>706.3957115734265</v>
       </c>
       <c r="K84" s="0" t="n">
         <v>774.0543313329039</v>
@@ -25746,34 +25746,34 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="n">
-        <v>753.1021251947599</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>725.5603908377183</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>699.353824260096</v>
+        <v>753.10212519476</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>738.493108294645</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>731.8297828355053</v>
+        <v>753.10212519476</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>738.4931082946451</v>
+        <v>708.8897263834903</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>761.1020854439432</v>
+        <v>703.9765424678667</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>778.6416090942938</v>
+        <v>725.5603908377183</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>725.5603908377183</v>
+        <v>798.4545523741065</v>
       </c>
       <c r="J85" s="0" t="n">
-        <v>745.5751197863644</v>
+        <v>708.8897263834903</v>
       </c>
       <c r="K85" s="0" t="n">
         <v>778.6416090942939</v>
@@ -26048,34 +26048,34 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="n">
-        <v>749.2812906226461</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="B86" s="0" t="n">
+        <v>728.6473339874468</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>757.0411710381263</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>741.980171612488</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>757.0411710381262</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>706.3957115734265</v>
+      </c>
+      <c r="G86" s="0" t="n">
+        <v>706.3957115734265</v>
+      </c>
+      <c r="H86" s="0" t="n">
         <v>722.5660872480569</v>
       </c>
-      <c r="C86" s="0" t="n">
-        <v>701.6299729376136</v>
-      </c>
-      <c r="D86" s="0" t="n">
-        <v>706.3957115734265</v>
-      </c>
-      <c r="E86" s="0" t="n">
-        <v>728.6473339874467</v>
-      </c>
-      <c r="F86" s="0" t="n">
-        <v>735.1106921944612</v>
-      </c>
-      <c r="G86" s="0" t="n">
-        <v>765.2886388548777</v>
-      </c>
-      <c r="H86" s="0" t="n">
-        <v>774.0543313329038</v>
-      </c>
       <c r="I86" s="0" t="n">
-        <v>722.5660872480569</v>
+        <v>793.272685642318</v>
       </c>
       <c r="J86" s="0" t="n">
-        <v>741.980171612488</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="K86" s="0" t="n">
         <v>783.3708108059433</v>
@@ -26350,34 +26350,34 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="n">
-        <v>745.5751197863644</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="B87" s="0" t="n">
+        <v>725.5603908377183</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>761.1020854439435</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>738.493108294645</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>761.1020854439433</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>708.8897263834903</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <v>708.8897263834904</v>
+      </c>
+      <c r="H87" s="0" t="n">
         <v>719.6616430933765</v>
       </c>
-      <c r="C87" s="0" t="n">
-        <v>699.353824260096</v>
-      </c>
-      <c r="D87" s="0" t="n">
-        <v>708.8897263834904</v>
-      </c>
-      <c r="E87" s="0" t="n">
-        <v>725.5603908377183</v>
-      </c>
-      <c r="F87" s="0" t="n">
-        <v>738.4931082946451</v>
-      </c>
-      <c r="G87" s="0" t="n">
-        <v>769.6047183658128</v>
-      </c>
-      <c r="H87" s="0" t="n">
-        <v>778.6416090942938</v>
-      </c>
       <c r="I87" s="0" t="n">
-        <v>725.5603908377183</v>
+        <v>788.2463273961334</v>
       </c>
       <c r="J87" s="0" t="n">
-        <v>745.5751197863644</v>
+        <v>708.8897263834903</v>
       </c>
       <c r="K87" s="0" t="n">
         <v>778.6416090942939</v>
@@ -26652,34 +26652,34 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="n">
-        <v>749.2812906226461</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>722.5660872480569</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>701.6299729376136</v>
+        <v>765.2886388548779</v>
       </c>
       <c r="D88" s="0" t="n">
+        <v>735.1106921944612</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>765.2886388548779</v>
+      </c>
+      <c r="F88" s="0" t="n">
         <v>706.3957115734265</v>
       </c>
-      <c r="E88" s="0" t="n">
-        <v>728.6473339874467</v>
-      </c>
-      <c r="F88" s="0" t="n">
-        <v>735.1106921944612</v>
-      </c>
       <c r="G88" s="0" t="n">
-        <v>765.2886388548778</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>783.3708108059432</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>728.6473339874468</v>
+        <v>783.3708108059433</v>
       </c>
       <c r="J88" s="0" t="n">
-        <v>749.281290622646</v>
+        <v>706.3957115734265</v>
       </c>
       <c r="K88" s="0" t="n">
         <v>774.0543313329039</v>
@@ -26954,34 +26954,34 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="n">
-        <v>745.5751197863644</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="B89" s="0" t="n">
+        <v>731.8297828355054</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>761.1020854439435</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>731.8297828355053</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>769.604718365813</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>708.8897263834903</v>
+      </c>
+      <c r="G89" s="0" t="n">
+        <v>714.111627244366</v>
+      </c>
+      <c r="H89" s="0" t="n">
         <v>719.6616430933765</v>
       </c>
-      <c r="C89" s="0" t="n">
-        <v>703.9765424678666</v>
-      </c>
-      <c r="D89" s="0" t="n">
-        <v>708.8897263834904</v>
-      </c>
-      <c r="E89" s="0" t="n">
-        <v>725.5603908377183</v>
-      </c>
-      <c r="F89" s="0" t="n">
-        <v>731.8297828355053</v>
-      </c>
-      <c r="G89" s="0" t="n">
-        <v>769.6047183658128</v>
-      </c>
-      <c r="H89" s="0" t="n">
+      <c r="I89" s="0" t="n">
         <v>788.2463273961334</v>
       </c>
-      <c r="I89" s="0" t="n">
-        <v>731.8297828355054</v>
-      </c>
       <c r="J89" s="0" t="n">
-        <v>745.5751197863644</v>
+        <v>708.8897263834903</v>
       </c>
       <c r="K89" s="0" t="n">
         <v>778.6416090942939</v>
@@ -27256,34 +27256,34 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="n">
-        <v>749.2812906226461</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>722.5660872480569</v>
+        <v>735.1106921944613</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>706.3957115734264</v>
+        <v>757.0411710381263</v>
       </c>
       <c r="D90" s="0" t="n">
+        <v>735.1106921944612</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>774.0543313329039</v>
+      </c>
+      <c r="F90" s="0" t="n">
         <v>711.4609025193471</v>
       </c>
-      <c r="E90" s="0" t="n">
-        <v>722.5660872480568</v>
-      </c>
-      <c r="F90" s="0" t="n">
-        <v>735.1106921944613</v>
-      </c>
       <c r="G90" s="0" t="n">
-        <v>765.2886388548778</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>793.272685642318</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>735.1106921944613</v>
+        <v>793.2726856423182</v>
       </c>
       <c r="J90" s="0" t="n">
-        <v>749.281290622646</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="K90" s="0" t="n">
         <v>774.0543313329039</v>
@@ -27558,34 +27558,34 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="n">
-        <v>745.5751197863646</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="B91" s="0" t="n">
+        <v>738.4931082946453</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>761.1020854439435</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>738.493108294645</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>769.604718365813</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>714.111627244366</v>
+      </c>
+      <c r="G91" s="0" t="n">
         <v>719.6616430933765</v>
       </c>
-      <c r="C91" s="0" t="n">
+      <c r="H91" s="0" t="n">
+        <v>719.6616430933765</v>
+      </c>
+      <c r="I91" s="0" t="n">
+        <v>788.2463273961334</v>
+      </c>
+      <c r="J91" s="0" t="n">
         <v>708.8897263834903</v>
-      </c>
-      <c r="D91" s="0" t="n">
-        <v>708.8897263834904</v>
-      </c>
-      <c r="E91" s="0" t="n">
-        <v>725.5603908377183</v>
-      </c>
-      <c r="F91" s="0" t="n">
-        <v>738.4931082946451</v>
-      </c>
-      <c r="G91" s="0" t="n">
-        <v>769.6047183658128</v>
-      </c>
-      <c r="H91" s="0" t="n">
-        <v>798.4545523741065</v>
-      </c>
-      <c r="I91" s="0" t="n">
-        <v>738.4931082946453</v>
-      </c>
-      <c r="J91" s="0" t="n">
-        <v>753.1021251947599</v>
       </c>
       <c r="K91" s="0" t="n">
         <v>778.6416090942939</v>
@@ -27860,34 +27860,34 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="n">
-        <v>741.9801716124881</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="B92" s="0" t="n">
+        <v>735.1106921944613</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>757.0411710381263</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>735.1106921944612</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>765.2886388548779</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>711.4609025193471</v>
+      </c>
+      <c r="G92" s="0" t="n">
         <v>722.5660872480569</v>
       </c>
-      <c r="C92" s="0" t="n">
-        <v>706.3957115734264</v>
-      </c>
-      <c r="D92" s="0" t="n">
+      <c r="H92" s="0" t="n">
+        <v>716.8443616805019</v>
+      </c>
+      <c r="I92" s="0" t="n">
+        <v>783.3708108059433</v>
+      </c>
+      <c r="J92" s="0" t="n">
         <v>711.4609025193471</v>
-      </c>
-      <c r="E92" s="0" t="n">
-        <v>722.5660872480569</v>
-      </c>
-      <c r="F92" s="0" t="n">
-        <v>735.1106921944613</v>
-      </c>
-      <c r="G92" s="0" t="n">
-        <v>765.2886388548778</v>
-      </c>
-      <c r="H92" s="0" t="n">
-        <v>793.272685642318</v>
-      </c>
-      <c r="I92" s="0" t="n">
-        <v>741.9801716124882</v>
-      </c>
-      <c r="J92" s="0" t="n">
-        <v>749.2812906226461</v>
       </c>
       <c r="K92" s="0" t="n">
         <v>774.0543313329039</v>
@@ -28162,34 +28162,34 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="n">
-        <v>738.4931082946451</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>719.6616430933766</v>
+        <v>731.8297828355054</v>
       </c>
       <c r="C93" s="0" t="n">
+        <v>753.1021251947601</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>738.493108294645</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>769.604718365813</v>
+      </c>
+      <c r="F93" s="0" t="n">
         <v>708.8897263834903</v>
       </c>
-      <c r="D93" s="0" t="n">
-        <v>708.8897263834904</v>
-      </c>
-      <c r="E93" s="0" t="n">
+      <c r="G93" s="0" t="n">
         <v>719.6616430933765</v>
       </c>
-      <c r="F93" s="0" t="n">
-        <v>731.8297828355053</v>
-      </c>
-      <c r="G93" s="0" t="n">
-        <v>761.1020854439432</v>
-      </c>
       <c r="H93" s="0" t="n">
-        <v>798.4545523741065</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>738.4931082946453</v>
+        <v>778.6416090942939</v>
       </c>
       <c r="J93" s="0" t="n">
-        <v>753.1021251947599</v>
+        <v>714.111627244366</v>
       </c>
       <c r="K93" s="0" t="n">
         <v>769.604718365813</v>
@@ -28464,34 +28464,34 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="n">
+        <v>711.4609025193472</v>
+      </c>
+      <c r="B94" s="0" t="n">
         <v>735.1106921944613</v>
       </c>
-      <c r="B94" s="0" t="n">
-        <v>722.5660872480569</v>
-      </c>
       <c r="C94" s="0" t="n">
+        <v>749.2812906226462</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>735.1106921944612</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>765.2886388548779</v>
+      </c>
+      <c r="F94" s="0" t="n">
         <v>706.3957115734265</v>
       </c>
-      <c r="D94" s="0" t="n">
-        <v>706.3957115734265</v>
-      </c>
-      <c r="E94" s="0" t="n">
-        <v>722.5660872480569</v>
-      </c>
-      <c r="F94" s="0" t="n">
-        <v>728.6473339874467</v>
-      </c>
       <c r="G94" s="0" t="n">
-        <v>757.0411710381261</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>793.272685642318</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>741.9801716124882</v>
+        <v>774.0543313329039</v>
       </c>
       <c r="J94" s="0" t="n">
-        <v>749.2812906226461</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="K94" s="0" t="n">
         <v>765.2886388548779</v>
@@ -28766,34 +28766,34 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="n">
-        <v>738.4931082946453</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>719.6616430933766</v>
+        <v>731.8297828355054</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>703.9765424678666</v>
+        <v>753.1021251947601</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>719.6616430933765</v>
+        <v>769.604718365813</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>731.8297828355053</v>
+        <v>708.8897263834903</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>753.1021251947599</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>798.4545523741065</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>745.5751197863646</v>
+        <v>769.6047183658129</v>
       </c>
       <c r="J95" s="0" t="n">
-        <v>753.1021251947599</v>
+        <v>719.6616430933764</v>
       </c>
       <c r="K95" s="0" t="n">
         <v>769.604718365813</v>
@@ -29068,34 +29068,34 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="n">
-        <v>741.9801716124882</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="B96" s="0" t="n">
+        <v>728.6473339874468</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>757.0411710381263</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>728.6473339874467</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>774.054331332904</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>711.4609025193471</v>
+      </c>
+      <c r="G96" s="0" t="n">
         <v>716.8443616805019</v>
       </c>
-      <c r="C96" s="0" t="n">
-        <v>706.3957115734265</v>
-      </c>
-      <c r="D96" s="0" t="n">
-        <v>706.3957115734265</v>
-      </c>
-      <c r="E96" s="0" t="n">
-        <v>722.5660872480569</v>
-      </c>
-      <c r="F96" s="0" t="n">
-        <v>728.6473339874467</v>
-      </c>
-      <c r="G96" s="0" t="n">
-        <v>757.0411710381261</v>
-      </c>
       <c r="H96" s="0" t="n">
-        <v>803.7967388062807</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>741.9801716124882</v>
+        <v>765.2886388548779</v>
       </c>
       <c r="J96" s="0" t="n">
-        <v>749.2812906226461</v>
+        <v>722.5660872480568</v>
       </c>
       <c r="K96" s="0" t="n">
         <v>765.2886388548779</v>
@@ -29370,34 +29370,34 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="n">
-        <v>745.5751197863646</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="B97" s="0" t="n">
+        <v>731.8297828355054</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>753.1021251947601</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>725.5603908377183</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>778.6416090942939</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>714.111627244366</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <v>719.6616430933765</v>
+      </c>
+      <c r="H97" s="0" t="n">
         <v>714.1116272443661</v>
       </c>
-      <c r="C97" s="0" t="n">
-        <v>708.8897263834903</v>
-      </c>
-      <c r="D97" s="0" t="n">
-        <v>703.9765424678667</v>
-      </c>
-      <c r="E97" s="0" t="n">
-        <v>719.6616430933765</v>
-      </c>
-      <c r="F97" s="0" t="n">
-        <v>731.8297828355053</v>
-      </c>
-      <c r="G97" s="0" t="n">
-        <v>761.1020854439432</v>
-      </c>
-      <c r="H97" s="0" t="n">
-        <v>798.4545523741065</v>
-      </c>
       <c r="I97" s="0" t="n">
-        <v>738.4931082946453</v>
+        <v>769.6047183658129</v>
       </c>
       <c r="J97" s="0" t="n">
-        <v>753.10212519476</v>
+        <v>725.5603908377182</v>
       </c>
       <c r="K97" s="0" t="n">
         <v>769.604718365813</v>
@@ -29672,34 +29672,34 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="n">
-        <v>741.9801716124882</v>
+        <v>706.3957115734266</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>716.8443616805019</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>749.2812906226462</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>722.5660872480568</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>716.8443616805019</v>
+        <v>774.054331332904</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>728.6473339874467</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>765.2886388548778</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>793.272685642318</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>735.1106921944614</v>
+        <v>765.2886388548779</v>
       </c>
       <c r="J98" s="0" t="n">
-        <v>757.0411710381262</v>
+        <v>722.5660872480568</v>
       </c>
       <c r="K98" s="0" t="n">
         <v>774.0543313329039</v>
@@ -29974,34 +29974,34 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="n">
-        <v>738.4931082946453</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>719.6616430933766</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="C99" s="0" t="n">
+        <v>745.5751197863647</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>719.6616430933765</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>769.604718365813</v>
+      </c>
+      <c r="F99" s="0" t="n">
         <v>708.8897263834903</v>
       </c>
-      <c r="D99" s="0" t="n">
-        <v>703.9765424678667</v>
-      </c>
-      <c r="E99" s="0" t="n">
+      <c r="G99" s="0" t="n">
+        <v>725.5603908377183</v>
+      </c>
+      <c r="H99" s="0" t="n">
         <v>714.1116272443661</v>
       </c>
-      <c r="F99" s="0" t="n">
-        <v>731.8297828355053</v>
-      </c>
-      <c r="G99" s="0" t="n">
-        <v>761.1020854439432</v>
-      </c>
-      <c r="H99" s="0" t="n">
-        <v>788.2463273961334</v>
-      </c>
       <c r="I99" s="0" t="n">
-        <v>738.4931082946453</v>
+        <v>761.1020854439433</v>
       </c>
       <c r="J99" s="0" t="n">
-        <v>753.10212519476</v>
+        <v>725.5603908377183</v>
       </c>
       <c r="K99" s="0" t="n">
         <v>778.6416090942939</v>
@@ -30276,34 +30276,34 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="n">
-        <v>735.1106921944613</v>
+        <v>706.3957115734266</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>716.8443616805019</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="C100" s="0" t="n">
+        <v>741.9801716124883</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>722.5660872480568</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>774.054331332904</v>
+      </c>
+      <c r="F100" s="0" t="n">
         <v>711.4609025193471</v>
       </c>
-      <c r="D100" s="0" t="n">
-        <v>706.3957115734265</v>
-      </c>
-      <c r="E100" s="0" t="n">
+      <c r="G100" s="0" t="n">
+        <v>722.5660872480569</v>
+      </c>
+      <c r="H100" s="0" t="n">
         <v>711.4609025193472</v>
       </c>
-      <c r="F100" s="0" t="n">
-        <v>735.1106921944613</v>
-      </c>
-      <c r="G100" s="0" t="n">
-        <v>765.2886388548778</v>
-      </c>
-      <c r="H100" s="0" t="n">
-        <v>793.272685642318</v>
-      </c>
       <c r="I100" s="0" t="n">
-        <v>735.1106921944614</v>
+        <v>757.0411710381262</v>
       </c>
       <c r="J100" s="0" t="n">
-        <v>757.0411710381262</v>
+        <v>722.5660872480568</v>
       </c>
       <c r="K100" s="0" t="n">
         <v>774.0543313329039</v>
@@ -30578,34 +30578,34 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="n">
-        <v>731.8297828355054</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>719.6616430933766</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="C101" s="0" t="n">
+        <v>745.5751197863647</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>725.5603908377183</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>778.641609094294</v>
+      </c>
+      <c r="F101" s="0" t="n">
         <v>708.8897263834903</v>
       </c>
-      <c r="D101" s="0" t="n">
-        <v>703.9765424678667</v>
-      </c>
-      <c r="E101" s="0" t="n">
+      <c r="G101" s="0" t="n">
+        <v>725.5603908377183</v>
+      </c>
+      <c r="H101" s="0" t="n">
         <v>708.8897263834904</v>
       </c>
-      <c r="F101" s="0" t="n">
-        <v>731.8297828355053</v>
-      </c>
-      <c r="G101" s="0" t="n">
-        <v>769.6047183658129</v>
-      </c>
-      <c r="H101" s="0" t="n">
-        <v>788.2463273961334</v>
-      </c>
       <c r="I101" s="0" t="n">
-        <v>731.8297828355054</v>
+        <v>753.10212519476</v>
       </c>
       <c r="J101" s="0" t="n">
-        <v>753.10212519476</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="K101" s="0" t="n">
         <v>778.6416090942939</v>
@@ -30880,34 +30880,34 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="n">
-        <v>728.6473339874468</v>
+        <v>706.3957115734266</v>
       </c>
       <c r="B102" s="0" t="n">
+        <v>728.6473339874469</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>749.2812906226463</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>722.5660872480569</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>783.3708108059434</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>706.3957115734265</v>
+      </c>
+      <c r="G102" s="0" t="n">
+        <v>722.5660872480569</v>
+      </c>
+      <c r="H102" s="0" t="n">
+        <v>706.3957115734265</v>
+      </c>
+      <c r="I102" s="0" t="n">
+        <v>757.0411710381263</v>
+      </c>
+      <c r="J102" s="0" t="n">
         <v>716.8443616805019</v>
-      </c>
-      <c r="C102" s="0" t="n">
-        <v>706.3957115734265</v>
-      </c>
-      <c r="D102" s="0" t="n">
-        <v>701.6299729376137</v>
-      </c>
-      <c r="E102" s="0" t="n">
-        <v>706.3957115734266</v>
-      </c>
-      <c r="F102" s="0" t="n">
-        <v>728.6473339874467</v>
-      </c>
-      <c r="G102" s="0" t="n">
-        <v>765.2886388548778</v>
-      </c>
-      <c r="H102" s="0" t="n">
-        <v>793.272685642318</v>
-      </c>
-      <c r="I102" s="0" t="n">
-        <v>735.1106921944614</v>
-      </c>
-      <c r="J102" s="0" t="n">
-        <v>749.2812906226461</v>
       </c>
       <c r="K102" s="0" t="n">
         <v>783.3708108059434</v>
@@ -31182,34 +31182,34 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="n">
+        <v>708.8897263834904</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>731.8297828355054</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>753.1021251947601</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>719.6616430933765</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>788.2463273961336</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>708.8897263834903</v>
+      </c>
+      <c r="G103" s="0" t="n">
         <v>725.5603908377184</v>
       </c>
-      <c r="B103" s="0" t="n">
-        <v>719.6616430933766</v>
-      </c>
-      <c r="C103" s="0" t="n">
-        <v>708.8897263834903</v>
-      </c>
-      <c r="D103" s="0" t="n">
-        <v>699.3538242600962</v>
-      </c>
-      <c r="E103" s="0" t="n">
-        <v>703.9765424678667</v>
-      </c>
-      <c r="F103" s="0" t="n">
-        <v>725.5603908377183</v>
-      </c>
-      <c r="G103" s="0" t="n">
-        <v>761.1020854439432</v>
-      </c>
       <c r="H103" s="0" t="n">
-        <v>788.2463273961334</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>731.8297828355055</v>
+        <v>753.10212519476</v>
       </c>
       <c r="J103" s="0" t="n">
-        <v>745.5751197863646</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="K103" s="0" t="n">
         <v>788.2463273961336</v>
@@ -31484,34 +31484,34 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="n">
+        <v>706.3957115734266</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>735.1106921944614</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>757.0411710381264</v>
+      </c>
+      <c r="D104" s="0" t="n">
         <v>722.5660872480569</v>
       </c>
-      <c r="B104" s="0" t="n">
-        <v>716.8443616805019</v>
-      </c>
-      <c r="C104" s="0" t="n">
+      <c r="E104" s="0" t="n">
+        <v>783.3708108059434</v>
+      </c>
+      <c r="F104" s="0" t="n">
         <v>706.3957115734265</v>
       </c>
-      <c r="D104" s="0" t="n">
-        <v>697.1459830964862</v>
-      </c>
-      <c r="E104" s="0" t="n">
-        <v>706.3957115734266</v>
-      </c>
-      <c r="F104" s="0" t="n">
-        <v>722.5660872480569</v>
-      </c>
       <c r="G104" s="0" t="n">
-        <v>757.0411710381261</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>783.3708108059432</v>
+        <v>706.3957115734265</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>735.1106921944614</v>
+        <v>749.2812906226462</v>
       </c>
       <c r="J104" s="0" t="n">
-        <v>749.2812906226461</v>
+        <v>722.5660872480568</v>
       </c>
       <c r="K104" s="0" t="n">
         <v>783.3708108059434</v>
@@ -31786,34 +31786,34 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="n">
-        <v>725.5603908377184</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>719.6616430933766</v>
+        <v>738.4931082946453</v>
       </c>
       <c r="C105" s="0" t="n">
+        <v>753.1021251947601</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>719.6616430933765</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>788.2463273961337</v>
+      </c>
+      <c r="F105" s="0" t="n">
         <v>703.9765424678667</v>
       </c>
-      <c r="D105" s="0" t="n">
-        <v>699.3538242600962</v>
-      </c>
-      <c r="E105" s="0" t="n">
+      <c r="G105" s="0" t="n">
+        <v>731.8297828355054</v>
+      </c>
+      <c r="H105" s="0" t="n">
         <v>708.8897263834904</v>
       </c>
-      <c r="F105" s="0" t="n">
+      <c r="I105" s="0" t="n">
+        <v>745.5751197863646</v>
+      </c>
+      <c r="J105" s="0" t="n">
         <v>719.6616430933765</v>
-      </c>
-      <c r="G105" s="0" t="n">
-        <v>753.1021251947599</v>
-      </c>
-      <c r="H105" s="0" t="n">
-        <v>788.2463273961334</v>
-      </c>
-      <c r="I105" s="0" t="n">
-        <v>731.8297828355055</v>
-      </c>
-      <c r="J105" s="0" t="n">
-        <v>745.5751197863646</v>
       </c>
       <c r="K105" s="0" t="n">
         <v>778.6416090942939</v>
@@ -32088,34 +32088,34 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="n">
-        <v>728.6473339874469</v>
+        <v>706.3957115734266</v>
       </c>
       <c r="B106" s="0" t="n">
+        <v>735.1106921944614</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>757.0411710381264</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>716.8443616805019</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>783.3708108059434</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>701.6299729376137</v>
+      </c>
+      <c r="G106" s="0" t="n">
+        <v>728.6473339874468</v>
+      </c>
+      <c r="H106" s="0" t="n">
+        <v>711.4609025193472</v>
+      </c>
+      <c r="I106" s="0" t="n">
+        <v>741.9801716124882</v>
+      </c>
+      <c r="J106" s="0" t="n">
         <v>722.5660872480569</v>
-      </c>
-      <c r="C106" s="0" t="n">
-        <v>706.3957115734265</v>
-      </c>
-      <c r="D106" s="0" t="n">
-        <v>701.6299729376137</v>
-      </c>
-      <c r="E106" s="0" t="n">
-        <v>711.4609025193472</v>
-      </c>
-      <c r="F106" s="0" t="n">
-        <v>722.5660872480569</v>
-      </c>
-      <c r="G106" s="0" t="n">
-        <v>749.2812906226461</v>
-      </c>
-      <c r="H106" s="0" t="n">
-        <v>783.3708108059433</v>
-      </c>
-      <c r="I106" s="0" t="n">
-        <v>728.6473339874469</v>
-      </c>
-      <c r="J106" s="0" t="n">
-        <v>741.9801716124882</v>
       </c>
       <c r="K106" s="0" t="n">
         <v>774.054331332904</v>
@@ -32390,34 +32390,34 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="n">
+        <v>708.8897263834904</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>738.4931082946454</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>753.1021251947601</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>719.6616430933765</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>788.2463273961337</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>703.9765424678667</v>
+      </c>
+      <c r="G107" s="0" t="n">
         <v>725.5603908377184</v>
       </c>
-      <c r="B107" s="0" t="n">
-        <v>719.6616430933766</v>
-      </c>
-      <c r="C107" s="0" t="n">
-        <v>708.8897263834903</v>
-      </c>
-      <c r="D107" s="0" t="n">
-        <v>699.3538242600962</v>
-      </c>
-      <c r="E107" s="0" t="n">
+      <c r="H107" s="0" t="n">
         <v>708.8897263834904</v>
       </c>
-      <c r="F107" s="0" t="n">
-        <v>719.6616430933765</v>
-      </c>
-      <c r="G107" s="0" t="n">
-        <v>753.1021251947599</v>
-      </c>
-      <c r="H107" s="0" t="n">
-        <v>778.6416090942939</v>
-      </c>
       <c r="I107" s="0" t="n">
-        <v>725.5603908377184</v>
+        <v>738.4931082946453</v>
       </c>
       <c r="J107" s="0" t="n">
-        <v>738.4931082946453</v>
+        <v>725.5603908377183</v>
       </c>
       <c r="K107" s="0" t="n">
         <v>769.604718365813</v>
@@ -32692,34 +32692,34 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="n">
-        <v>722.566087248057</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="B108" s="0" t="n">
+        <v>735.1106921944614</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>757.0411710381264</v>
+      </c>
+      <c r="D108" s="0" t="n">
         <v>722.5660872480569</v>
       </c>
-      <c r="C108" s="0" t="n">
-        <v>711.4609025193471</v>
-      </c>
-      <c r="D108" s="0" t="n">
-        <v>697.1459830964862</v>
-      </c>
       <c r="E108" s="0" t="n">
+        <v>793.2726856423183</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <v>701.6299729376137</v>
+      </c>
+      <c r="G108" s="0" t="n">
+        <v>728.6473339874468</v>
+      </c>
+      <c r="H108" s="0" t="n">
         <v>711.4609025193472</v>
       </c>
-      <c r="F108" s="0" t="n">
-        <v>716.8443616805019</v>
-      </c>
-      <c r="G108" s="0" t="n">
-        <v>749.2812906226461</v>
-      </c>
-      <c r="H108" s="0" t="n">
-        <v>783.3708108059433</v>
-      </c>
       <c r="I108" s="0" t="n">
-        <v>728.6473339874469</v>
+        <v>735.1106921944614</v>
       </c>
       <c r="J108" s="0" t="n">
-        <v>741.9801716124882</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="K108" s="0" t="n">
         <v>774.054331332904</v>
@@ -32994,34 +32994,34 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="n">
+        <v>708.8897263834904</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>731.8297828355055</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>753.1021251947601</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>719.6616430933765</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>788.2463273961337</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <v>703.9765424678667</v>
+      </c>
+      <c r="G109" s="0" t="n">
         <v>725.5603908377184</v>
       </c>
-      <c r="B109" s="0" t="n">
-        <v>719.6616430933766</v>
-      </c>
-      <c r="C109" s="0" t="n">
-        <v>714.111627244366</v>
-      </c>
-      <c r="D109" s="0" t="n">
-        <v>695.0043995295259</v>
-      </c>
-      <c r="E109" s="0" t="n">
+      <c r="H109" s="0" t="n">
         <v>714.1116272443661</v>
       </c>
-      <c r="F109" s="0" t="n">
-        <v>714.1116272443661</v>
-      </c>
-      <c r="G109" s="0" t="n">
-        <v>745.5751197863644</v>
-      </c>
-      <c r="H109" s="0" t="n">
-        <v>778.6416090942939</v>
-      </c>
       <c r="I109" s="0" t="n">
-        <v>725.5603908377184</v>
+        <v>731.8297828355054</v>
       </c>
       <c r="J109" s="0" t="n">
-        <v>738.4931082946453</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="K109" s="0" t="n">
         <v>769.6047183658131</v>
@@ -33296,34 +33296,34 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="n">
+        <v>711.4609025193472</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>735.1106921944614</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>757.0411710381264</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>716.8443616805019</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>793.2726856423183</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>701.6299729376137</v>
+      </c>
+      <c r="G110" s="0" t="n">
         <v>728.6473339874469</v>
       </c>
-      <c r="B110" s="0" t="n">
-        <v>716.8443616805019</v>
-      </c>
-      <c r="C110" s="0" t="n">
-        <v>711.4609025193471</v>
-      </c>
-      <c r="D110" s="0" t="n">
-        <v>697.1459830964862</v>
-      </c>
-      <c r="E110" s="0" t="n">
+      <c r="H110" s="0" t="n">
         <v>711.4609025193472</v>
       </c>
-      <c r="F110" s="0" t="n">
-        <v>711.4609025193472</v>
-      </c>
-      <c r="G110" s="0" t="n">
-        <v>749.2812906226461</v>
-      </c>
-      <c r="H110" s="0" t="n">
-        <v>774.0543313329038</v>
-      </c>
       <c r="I110" s="0" t="n">
-        <v>722.566087248057</v>
+        <v>735.1106921944614</v>
       </c>
       <c r="J110" s="0" t="n">
-        <v>735.1106921944614</v>
+        <v>735.1106921944613</v>
       </c>
       <c r="K110" s="0" t="n">
         <v>774.054331332904</v>
@@ -33598,34 +33598,34 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="n">
+        <v>714.1116272443661</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>738.4931082946454</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>761.1020854439436</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>714.1116272443661</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>788.2463273961337</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <v>703.9765424678667</v>
+      </c>
+      <c r="G111" s="0" t="n">
         <v>725.5603908377184</v>
       </c>
-      <c r="B111" s="0" t="n">
+      <c r="H111" s="0" t="n">
         <v>714.1116272443661</v>
       </c>
-      <c r="C111" s="0" t="n">
-        <v>714.111627244366</v>
-      </c>
-      <c r="D111" s="0" t="n">
-        <v>699.3538242600962</v>
-      </c>
-      <c r="E111" s="0" t="n">
-        <v>714.1116272443661</v>
-      </c>
-      <c r="F111" s="0" t="n">
-        <v>714.1116272443661</v>
-      </c>
-      <c r="G111" s="0" t="n">
-        <v>745.5751197863644</v>
-      </c>
-      <c r="H111" s="0" t="n">
-        <v>778.6416090942939</v>
-      </c>
       <c r="I111" s="0" t="n">
-        <v>725.5603908377184</v>
+        <v>738.4931082946453</v>
       </c>
       <c r="J111" s="0" t="n">
-        <v>731.8297828355054</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="K111" s="0" t="n">
         <v>778.641609094294</v>
@@ -33900,31 +33900,31 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="n">
+        <v>711.4609025193472</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>741.9801716124883</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>765.2886388548782</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>716.8443616805019</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>783.3708108059435</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <v>701.6299729376137</v>
+      </c>
+      <c r="G112" s="0" t="n">
         <v>722.566087248057</v>
       </c>
-      <c r="B112" s="0" t="n">
-        <v>716.8443616805019</v>
-      </c>
-      <c r="C112" s="0" t="n">
-        <v>716.8443616805018</v>
-      </c>
-      <c r="D112" s="0" t="n">
-        <v>697.1459830964862</v>
-      </c>
-      <c r="E112" s="0" t="n">
+      <c r="H112" s="0" t="n">
         <v>711.4609025193472</v>
       </c>
-      <c r="F112" s="0" t="n">
-        <v>711.4609025193472</v>
-      </c>
-      <c r="G112" s="0" t="n">
-        <v>749.2812906226461</v>
-      </c>
-      <c r="H112" s="0" t="n">
-        <v>774.0543313329038</v>
-      </c>
       <c r="I112" s="0" t="n">
-        <v>728.6473339874469</v>
+        <v>741.9801716124882</v>
       </c>
       <c r="J112" s="0" t="n">
         <v>728.6473339874468</v>
@@ -34202,34 +34202,34 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="n">
+        <v>708.8897263834904</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>738.4931082946454</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>761.1020854439436</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>714.1116272443661</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>778.6416090942942</v>
+      </c>
+      <c r="F113" s="0" t="n">
+        <v>703.9765424678667</v>
+      </c>
+      <c r="G113" s="0" t="n">
         <v>719.6616430933766</v>
       </c>
-      <c r="B113" s="0" t="n">
-        <v>719.6616430933766</v>
-      </c>
-      <c r="C113" s="0" t="n">
-        <v>719.6616430933764</v>
-      </c>
-      <c r="D113" s="0" t="n">
-        <v>699.3538242600962</v>
-      </c>
-      <c r="E113" s="0" t="n">
+      <c r="H113" s="0" t="n">
         <v>708.8897263834904</v>
       </c>
-      <c r="F113" s="0" t="n">
-        <v>708.8897263834904</v>
-      </c>
-      <c r="G113" s="0" t="n">
-        <v>745.5751197863644</v>
-      </c>
-      <c r="H113" s="0" t="n">
-        <v>769.6047183658129</v>
-      </c>
       <c r="I113" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>738.4931082946453</v>
       </c>
       <c r="J113" s="0" t="n">
-        <v>725.5603908377184</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="K113" s="0" t="n">
         <v>778.641609094294</v>
@@ -34504,34 +34504,34 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="n">
-        <v>716.8443616805021</v>
+        <v>706.3957115734266</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>722.5660872480569</v>
+        <v>735.1106921944615</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>716.8443616805018</v>
+        <v>757.0411710381264</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>697.1459830964862</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="E114" s="0" t="n">
+        <v>774.054331332904</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>706.3957115734265</v>
+      </c>
+      <c r="G114" s="0" t="n">
+        <v>722.566087248057</v>
+      </c>
+      <c r="H114" s="0" t="n">
         <v>711.4609025193472</v>
       </c>
-      <c r="F114" s="0" t="n">
-        <v>706.3957115734266</v>
-      </c>
-      <c r="G114" s="0" t="n">
-        <v>741.9801716124881</v>
-      </c>
-      <c r="H114" s="0" t="n">
-        <v>765.2886388548779</v>
-      </c>
       <c r="I114" s="0" t="n">
-        <v>728.6473339874469</v>
+        <v>741.9801716124882</v>
       </c>
       <c r="J114" s="0" t="n">
-        <v>722.5660872480569</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="K114" s="0" t="n">
         <v>774.054331332904</v>
@@ -34806,34 +34806,34 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="n">
-        <v>714.1116272443662</v>
+        <v>703.9765424678667</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>719.6616430933766</v>
+        <v>738.4931082946454</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>761.1020854439436</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>699.3538242600962</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>769.6047183658131</v>
       </c>
       <c r="F115" s="0" t="n">
         <v>708.8897263834904</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>745.5751197863646</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>769.6047183658129</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>738.4931082946453</v>
       </c>
       <c r="J115" s="0" t="n">
-        <v>719.6616430933766</v>
+        <v>725.5603908377183</v>
       </c>
       <c r="K115" s="0" t="n">
         <v>778.641609094294</v>
@@ -35108,31 +35108,31 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="n">
+        <v>701.6299729376137</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>741.9801716124883</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>757.0411710381265</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>706.3957115734266</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>774.054331332904</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <v>706.3957115734265</v>
+      </c>
+      <c r="G116" s="0" t="n">
         <v>716.8443616805021</v>
       </c>
-      <c r="B116" s="0" t="n">
-        <v>716.8443616805019</v>
-      </c>
-      <c r="C116" s="0" t="n">
-        <v>716.8443616805018</v>
-      </c>
-      <c r="D116" s="0" t="n">
-        <v>697.1459830964862</v>
-      </c>
-      <c r="E116" s="0" t="n">
+      <c r="H116" s="0" t="n">
         <v>711.4609025193472</v>
       </c>
-      <c r="F116" s="0" t="n">
-        <v>711.4609025193472</v>
-      </c>
-      <c r="G116" s="0" t="n">
-        <v>741.9801716124881</v>
-      </c>
-      <c r="H116" s="0" t="n">
-        <v>765.2886388548779</v>
-      </c>
       <c r="I116" s="0" t="n">
-        <v>722.566087248057</v>
+        <v>735.1106921944614</v>
       </c>
       <c r="J116" s="0" t="n">
         <v>722.5660872480569</v>
@@ -35410,31 +35410,31 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="n">
-        <v>719.6616430933766</v>
+        <v>699.3538242600962</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>714.1116272443661</v>
+        <v>738.4931082946454</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>761.1020854439437</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>695.0043995295259</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>714.1116272443661</v>
+        <v>778.6416090942942</v>
       </c>
       <c r="F117" s="0" t="n">
         <v>708.8897263834904</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>745.5751197863646</v>
+        <v>714.1116272443662</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>761.1020854439433</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>719.6616430933767</v>
+        <v>731.8297828355055</v>
       </c>
       <c r="J117" s="0" t="n">
         <v>719.6616430933766</v>
@@ -35712,31 +35712,31 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="n">
-        <v>722.566087248057</v>
+        <v>701.6299729376137</v>
       </c>
       <c r="B118" s="0" t="n">
+        <v>741.9801716124883</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>757.0411710381265</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>706.3957115734266</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>783.3708108059435</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <v>706.3957115734265</v>
+      </c>
+      <c r="G118" s="0" t="n">
+        <v>716.8443616805021</v>
+      </c>
+      <c r="H118" s="0" t="n">
         <v>711.4609025193472</v>
       </c>
-      <c r="C118" s="0" t="n">
-        <v>711.4609025193471</v>
-      </c>
-      <c r="D118" s="0" t="n">
-        <v>697.1459830964862</v>
-      </c>
-      <c r="E118" s="0" t="n">
-        <v>716.8443616805019</v>
-      </c>
-      <c r="F118" s="0" t="n">
-        <v>706.3957115734266</v>
-      </c>
-      <c r="G118" s="0" t="n">
-        <v>749.2812906226461</v>
-      </c>
-      <c r="H118" s="0" t="n">
-        <v>765.2886388548779</v>
-      </c>
       <c r="I118" s="0" t="n">
-        <v>722.566087248057</v>
+        <v>735.1106921944614</v>
       </c>
       <c r="J118" s="0" t="n">
         <v>722.5660872480569</v>
@@ -36014,31 +36014,31 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="n">
-        <v>725.5603908377184</v>
+        <v>703.9765424678667</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>714.1116272443661</v>
+        <v>738.4931082946454</v>
       </c>
       <c r="C119" s="0" t="n">
+        <v>761.1020854439437</v>
+      </c>
+      <c r="D119" s="0" t="n">
         <v>708.8897263834904</v>
       </c>
-      <c r="D119" s="0" t="n">
-        <v>695.0043995295259</v>
-      </c>
       <c r="E119" s="0" t="n">
-        <v>719.6616430933765</v>
+        <v>778.6416090942942</v>
       </c>
       <c r="F119" s="0" t="n">
+        <v>703.9765424678667</v>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>719.6616430933766</v>
+      </c>
+      <c r="H119" s="0" t="n">
         <v>708.8897263834904</v>
       </c>
-      <c r="G119" s="0" t="n">
-        <v>745.5751197863646</v>
-      </c>
-      <c r="H119" s="0" t="n">
-        <v>769.6047183658129</v>
-      </c>
       <c r="I119" s="0" t="n">
-        <v>719.6616430933767</v>
+        <v>731.8297828355055</v>
       </c>
       <c r="J119" s="0" t="n">
         <v>725.5603908377184</v>
@@ -36316,34 +36316,34 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="n">
+        <v>706.3957115734266</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>741.9801716124884</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>765.2886388548783</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>706.3957115734266</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>783.3708108059435</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>706.3957115734265</v>
+      </c>
+      <c r="G120" s="0" t="n">
+        <v>716.8443616805021</v>
+      </c>
+      <c r="H120" s="0" t="n">
+        <v>711.4609025193472</v>
+      </c>
+      <c r="I120" s="0" t="n">
         <v>728.6473339874469</v>
       </c>
-      <c r="B120" s="0" t="n">
-        <v>711.4609025193472</v>
-      </c>
-      <c r="C120" s="0" t="n">
-        <v>706.3957115734265</v>
-      </c>
-      <c r="D120" s="0" t="n">
-        <v>697.1459830964862</v>
-      </c>
-      <c r="E120" s="0" t="n">
-        <v>716.8443616805019</v>
-      </c>
-      <c r="F120" s="0" t="n">
-        <v>711.4609025193472</v>
-      </c>
-      <c r="G120" s="0" t="n">
-        <v>749.2812906226461</v>
-      </c>
-      <c r="H120" s="0" t="n">
-        <v>765.2886388548779</v>
-      </c>
-      <c r="I120" s="0" t="n">
-        <v>716.8443616805021</v>
-      </c>
       <c r="J120" s="0" t="n">
-        <v>728.6473339874469</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="K120" s="0" t="n">
         <v>765.2886388548781</v>
@@ -36618,31 +36618,31 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>703.9765424678667</v>
       </c>
       <c r="B121" s="0" t="n">
+        <v>745.5751197863648</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>769.6047183658134</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>703.9765424678667</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>788.2463273961337</v>
+      </c>
+      <c r="F121" s="0" t="n">
         <v>708.8897263834904</v>
       </c>
-      <c r="C121" s="0" t="n">
-        <v>703.9765424678667</v>
-      </c>
-      <c r="D121" s="0" t="n">
-        <v>699.3538242600962</v>
-      </c>
-      <c r="E121" s="0" t="n">
-        <v>719.6616430933765</v>
-      </c>
-      <c r="F121" s="0" t="n">
-        <v>714.1116272443661</v>
-      </c>
       <c r="G121" s="0" t="n">
-        <v>745.5751197863646</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>769.6047183658129</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>719.6616430933767</v>
+        <v>731.8297828355055</v>
       </c>
       <c r="J121" s="0" t="n">
         <v>725.5603908377184</v>
@@ -36920,34 +36920,34 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="n">
-        <v>728.6473339874469</v>
+        <v>701.6299729376137</v>
       </c>
       <c r="B122" s="0" t="n">
+        <v>741.9801716124884</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>765.2886388548783</v>
+      </c>
+      <c r="D122" s="0" t="n">
         <v>706.3957115734266</v>
       </c>
-      <c r="C122" s="0" t="n">
+      <c r="E122" s="0" t="n">
+        <v>793.2726856423184</v>
+      </c>
+      <c r="F122" s="0" t="n">
         <v>706.3957115734265</v>
       </c>
-      <c r="D122" s="0" t="n">
-        <v>701.6299729376138</v>
-      </c>
-      <c r="E122" s="0" t="n">
-        <v>722.5660872480569</v>
-      </c>
-      <c r="F122" s="0" t="n">
-        <v>711.4609025193472</v>
-      </c>
       <c r="G122" s="0" t="n">
-        <v>741.9801716124882</v>
+        <v>716.8443616805021</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>765.2886388548779</v>
+        <v>706.3957115734265</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>716.8443616805022</v>
+        <v>735.1106921944614</v>
       </c>
       <c r="J122" s="0" t="n">
-        <v>722.566087248057</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="K122" s="0" t="n">
         <v>765.2886388548781</v>
@@ -37222,34 +37222,34 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="n">
+        <v>699.3538242600962</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>745.5751197863648</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>769.6047183658134</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <v>703.9765424678667</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>798.4545523741067</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>708.8897263834904</v>
+      </c>
+      <c r="G123" s="0" t="n">
+        <v>719.6616430933766</v>
+      </c>
+      <c r="H123" s="0" t="n">
+        <v>708.8897263834904</v>
+      </c>
+      <c r="I123" s="0" t="n">
         <v>731.8297828355055</v>
       </c>
-      <c r="B123" s="0" t="n">
-        <v>703.9765424678668</v>
-      </c>
-      <c r="C123" s="0" t="n">
-        <v>708.8897263834904</v>
-      </c>
-      <c r="D123" s="0" t="n">
-        <v>699.3538242600962</v>
-      </c>
-      <c r="E123" s="0" t="n">
-        <v>719.6616430933766</v>
-      </c>
-      <c r="F123" s="0" t="n">
-        <v>714.1116272443661</v>
-      </c>
-      <c r="G123" s="0" t="n">
-        <v>745.5751197863646</v>
-      </c>
-      <c r="H123" s="0" t="n">
-        <v>761.1020854439433</v>
-      </c>
-      <c r="I123" s="0" t="n">
-        <v>719.6616430933767</v>
-      </c>
       <c r="J123" s="0" t="n">
-        <v>719.6616430933766</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="K123" s="0" t="n">
         <v>761.1020854439435</v>
@@ -37524,34 +37524,34 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="n">
+        <v>701.6299729376137</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>741.9801716124884</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>765.2886388548783</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>706.3957115734266</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>803.796738806281</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>706.3957115734265</v>
+      </c>
+      <c r="G124" s="0" t="n">
+        <v>722.566087248057</v>
+      </c>
+      <c r="H124" s="0" t="n">
+        <v>711.4609025193472</v>
+      </c>
+      <c r="I124" s="0" t="n">
         <v>735.1106921944615</v>
       </c>
-      <c r="B124" s="0" t="n">
-        <v>706.3957115734266</v>
-      </c>
-      <c r="C124" s="0" t="n">
-        <v>706.3957115734265</v>
-      </c>
-      <c r="D124" s="0" t="n">
-        <v>697.1459830964864</v>
-      </c>
-      <c r="E124" s="0" t="n">
-        <v>716.8443616805019</v>
-      </c>
-      <c r="F124" s="0" t="n">
-        <v>716.8443616805019</v>
-      </c>
-      <c r="G124" s="0" t="n">
-        <v>749.2812906226462</v>
-      </c>
-      <c r="H124" s="0" t="n">
-        <v>757.0411710381262</v>
-      </c>
-      <c r="I124" s="0" t="n">
-        <v>722.5660872480571</v>
-      </c>
       <c r="J124" s="0" t="n">
-        <v>716.8443616805021</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="K124" s="0" t="n">
         <v>757.0411710381263</v>
@@ -37826,34 +37826,34 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="n">
-        <v>731.8297828355055</v>
+        <v>699.3538242600962</v>
       </c>
       <c r="B125" s="0" t="n">
+        <v>745.5751197863648</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>769.6047183658134</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>703.9765424678667</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>798.4545523741068</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>703.9765424678667</v>
+      </c>
+      <c r="G125" s="0" t="n">
+        <v>719.6616430933766</v>
+      </c>
+      <c r="H125" s="0" t="n">
         <v>708.8897263834904</v>
       </c>
-      <c r="C125" s="0" t="n">
-        <v>708.8897263834904</v>
-      </c>
-      <c r="D125" s="0" t="n">
-        <v>699.3538242600962</v>
-      </c>
-      <c r="E125" s="0" t="n">
-        <v>719.6616430933766</v>
-      </c>
-      <c r="F125" s="0" t="n">
-        <v>714.1116272443661</v>
-      </c>
-      <c r="G125" s="0" t="n">
-        <v>745.5751197863646</v>
-      </c>
-      <c r="H125" s="0" t="n">
-        <v>761.1020854439433</v>
-      </c>
       <c r="I125" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>738.4931082946454</v>
       </c>
       <c r="J125" s="0" t="n">
-        <v>714.1116272443662</v>
+        <v>731.8297828355054</v>
       </c>
       <c r="K125" s="0" t="n">
         <v>753.1021251947601</v>
@@ -38128,34 +38128,34 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="n">
+        <v>701.6299729376137</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>749.2812906226465</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>765.2886388548784</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>706.3957115734266</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>803.796738806281</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>706.3957115734265</v>
+      </c>
+      <c r="G126" s="0" t="n">
+        <v>716.8443616805021</v>
+      </c>
+      <c r="H126" s="0" t="n">
+        <v>706.3957115734265</v>
+      </c>
+      <c r="I126" s="0" t="n">
+        <v>741.9801716124883</v>
+      </c>
+      <c r="J126" s="0" t="n">
         <v>728.6473339874469</v>
-      </c>
-      <c r="B126" s="0" t="n">
-        <v>711.4609025193472</v>
-      </c>
-      <c r="C126" s="0" t="n">
-        <v>706.3957115734265</v>
-      </c>
-      <c r="D126" s="0" t="n">
-        <v>697.1459830964864</v>
-      </c>
-      <c r="E126" s="0" t="n">
-        <v>722.5660872480569</v>
-      </c>
-      <c r="F126" s="0" t="n">
-        <v>716.8443616805019</v>
-      </c>
-      <c r="G126" s="0" t="n">
-        <v>741.9801716124882</v>
-      </c>
-      <c r="H126" s="0" t="n">
-        <v>757.0411710381262</v>
-      </c>
-      <c r="I126" s="0" t="n">
-        <v>722.5660872480571</v>
-      </c>
-      <c r="J126" s="0" t="n">
-        <v>716.8443616805021</v>
       </c>
       <c r="K126" s="0" t="n">
         <v>749.2812906226462</v>
@@ -38430,34 +38430,34 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>699.3538242600962</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>714.1116272443661</v>
+        <v>745.5751197863648</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>761.1020854439438</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>699.3538242600962</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="E127" s="0" t="n">
+        <v>798.4545523741068</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <v>708.8897263834904</v>
+      </c>
+      <c r="G127" s="0" t="n">
+        <v>714.1116272443662</v>
+      </c>
+      <c r="H127" s="0" t="n">
+        <v>708.8897263834904</v>
+      </c>
+      <c r="I127" s="0" t="n">
+        <v>738.4931082946454</v>
+      </c>
+      <c r="J127" s="0" t="n">
         <v>725.5603908377184</v>
-      </c>
-      <c r="F127" s="0" t="n">
-        <v>714.1116272443661</v>
-      </c>
-      <c r="G127" s="0" t="n">
-        <v>738.4931082946453</v>
-      </c>
-      <c r="H127" s="0" t="n">
-        <v>753.10212519476</v>
-      </c>
-      <c r="I127" s="0" t="n">
-        <v>719.6616430933767</v>
-      </c>
-      <c r="J127" s="0" t="n">
-        <v>719.6616430933766</v>
       </c>
       <c r="K127" s="0" t="n">
         <v>753.1021251947601</v>
@@ -38732,34 +38732,34 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="n">
-        <v>728.6473339874469</v>
+        <v>701.6299729376137</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>711.4609025193472</v>
+        <v>749.2812906226465</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>765.2886388548784</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>701.6299729376138</v>
+        <v>706.3957115734266</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>728.6473339874468</v>
+        <v>803.7967388062812</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>711.4609025193472</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>741.9801716124882</v>
+        <v>711.4609025193473</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>757.0411710381263</v>
+        <v>706.3957115734265</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>716.8443616805022</v>
+        <v>741.9801716124883</v>
       </c>
       <c r="J128" s="0" t="n">
-        <v>716.8443616805021</v>
+        <v>722.566087248057</v>
       </c>
       <c r="K128" s="0" t="n">
         <v>749.2812906226462</v>
@@ -39034,34 +39034,34 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="n">
-        <v>731.8297828355055</v>
+        <v>703.9765424678667</v>
       </c>
       <c r="B129" s="0" t="n">
+        <v>745.5751197863648</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>761.1020854439438</v>
+      </c>
+      <c r="D129" s="0" t="n">
         <v>708.8897263834904</v>
       </c>
-      <c r="C129" s="0" t="n">
-        <v>703.9765424678667</v>
-      </c>
-      <c r="D129" s="0" t="n">
-        <v>703.9765424678668</v>
-      </c>
       <c r="E129" s="0" t="n">
-        <v>731.8297828355054</v>
+        <v>798.4545523741068</v>
       </c>
       <c r="F129" s="0" t="n">
         <v>708.8897263834904</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>738.4931082946453</v>
+        <v>708.8897263834905</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>753.10212519476</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>719.6616430933767</v>
+        <v>745.5751197863648</v>
       </c>
       <c r="J129" s="0" t="n">
-        <v>719.6616430933766</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="K129" s="0" t="n">
         <v>745.5751197863647</v>
@@ -39336,31 +39336,31 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="n">
-        <v>728.647333987447</v>
+        <v>706.3957115734266</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>706.3957115734266</v>
+        <v>749.2812906226465</v>
       </c>
       <c r="C130" s="0" t="n">
+        <v>757.0411710381267</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>711.4609025193472</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>803.7967388062812</v>
+      </c>
+      <c r="F130" s="0" t="n">
         <v>706.3957115734265</v>
       </c>
-      <c r="D130" s="0" t="n">
-        <v>701.6299729376138</v>
-      </c>
-      <c r="E130" s="0" t="n">
-        <v>735.1106921944613</v>
-      </c>
-      <c r="F130" s="0" t="n">
-        <v>706.3957115734266</v>
-      </c>
       <c r="G130" s="0" t="n">
-        <v>735.1106921944614</v>
+        <v>711.4609025193473</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>757.0411710381263</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>749.2812906226463</v>
       </c>
       <c r="J130" s="0" t="n">
         <v>722.566087248057</v>
@@ -39638,31 +39638,31 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="n">
-        <v>731.8297828355055</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="B131" s="0" t="n">
+        <v>745.5751197863649</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>761.1020854439438</v>
+      </c>
+      <c r="D131" s="0" t="n">
         <v>708.8897263834904</v>
       </c>
-      <c r="C131" s="0" t="n">
-        <v>708.8897263834904</v>
-      </c>
-      <c r="D131" s="0" t="n">
-        <v>703.9765424678668</v>
-      </c>
       <c r="E131" s="0" t="n">
-        <v>731.8297828355054</v>
+        <v>809.3042050058716</v>
       </c>
       <c r="F131" s="0" t="n">
         <v>708.8897263834904</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>738.4931082946453</v>
+        <v>714.1116272443662</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>753.10212519476</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>753.1021251947602</v>
       </c>
       <c r="J131" s="0" t="n">
         <v>719.6616430933766</v>
@@ -39940,34 +39940,34 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="n">
-        <v>735.1106921944615</v>
+        <v>706.3957115734266</v>
       </c>
       <c r="B132" s="0" t="n">
+        <v>741.9801716124884</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>757.0411710381267</v>
+      </c>
+      <c r="D132" s="0" t="n">
         <v>706.3957115734266</v>
       </c>
-      <c r="C132" s="0" t="n">
+      <c r="E132" s="0" t="n">
+        <v>803.7967388062812</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>711.4609025193471</v>
+      </c>
+      <c r="G132" s="0" t="n">
+        <v>711.4609025193473</v>
+      </c>
+      <c r="H132" s="0" t="n">
         <v>711.4609025193472</v>
       </c>
-      <c r="D132" s="0" t="n">
-        <v>706.3957115734268</v>
-      </c>
-      <c r="E132" s="0" t="n">
-        <v>735.1106921944613</v>
-      </c>
-      <c r="F132" s="0" t="n">
-        <v>706.3957115734266</v>
-      </c>
-      <c r="G132" s="0" t="n">
-        <v>735.1106921944614</v>
-      </c>
-      <c r="H132" s="0" t="n">
-        <v>757.0411710381263</v>
-      </c>
       <c r="I132" s="0" t="n">
-        <v>728.647333987447</v>
+        <v>749.2812906226463</v>
       </c>
       <c r="J132" s="0" t="n">
-        <v>722.566087248057</v>
+        <v>716.8443616805021</v>
       </c>
       <c r="K132" s="0" t="n">
         <v>757.0411710381264</v>
@@ -40242,34 +40242,34 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="n">
-        <v>738.4931082946455</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>703.9765424678668</v>
+        <v>745.5751197863649</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>714.1116272443661</v>
+        <v>753.1021251947604</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>708.8897263834905</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>738.4931082946453</v>
+        <v>798.4545523741069</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>714.111627244366</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>731.8297828355055</v>
+        <v>708.8897263834906</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>761.1020854439435</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>753.1021251947602</v>
       </c>
       <c r="J133" s="0" t="n">
-        <v>725.5603908377184</v>
+        <v>714.1116272443662</v>
       </c>
       <c r="K133" s="0" t="n">
         <v>753.1021251947601</v>
@@ -40544,34 +40544,34 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="n">
+        <v>706.3957115734266</v>
+      </c>
+      <c r="B134" s="0" t="n">
         <v>741.9801716124884</v>
       </c>
-      <c r="B134" s="0" t="n">
-        <v>701.6299729376138</v>
-      </c>
       <c r="C134" s="0" t="n">
+        <v>749.2812906226466</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>711.4609025193472</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>803.7967388062812</v>
+      </c>
+      <c r="F134" s="0" t="n">
         <v>716.8443616805019</v>
       </c>
-      <c r="D134" s="0" t="n">
+      <c r="G134" s="0" t="n">
         <v>706.3957115734268</v>
       </c>
-      <c r="E134" s="0" t="n">
-        <v>735.1106921944614</v>
-      </c>
-      <c r="F134" s="0" t="n">
-        <v>701.6299729376137</v>
-      </c>
-      <c r="G134" s="0" t="n">
-        <v>728.6473339874469</v>
-      </c>
       <c r="H134" s="0" t="n">
-        <v>757.0411710381263</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>749.2812906226463</v>
       </c>
       <c r="J134" s="0" t="n">
-        <v>728.6473339874469</v>
+        <v>711.4609025193473</v>
       </c>
       <c r="K134" s="0" t="n">
         <v>757.0411710381264</v>
@@ -40846,34 +40846,34 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="n">
-        <v>738.4931082946455</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>699.3538242600962</v>
+        <v>745.5751197863649</v>
       </c>
       <c r="C135" s="0" t="n">
+        <v>745.5751197863649</v>
+      </c>
+      <c r="D135" s="0" t="n">
         <v>714.1116272443661</v>
       </c>
-      <c r="D135" s="0" t="n">
-        <v>708.8897263834905</v>
-      </c>
       <c r="E135" s="0" t="n">
-        <v>738.4931082946453</v>
+        <v>798.4545523741069</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>731.8297828355055</v>
+        <v>703.9765424678669</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>753.1021251947601</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>753.1021251947602</v>
       </c>
       <c r="J135" s="0" t="n">
-        <v>731.8297828355055</v>
+        <v>714.1116272443662</v>
       </c>
       <c r="K135" s="0" t="n">
         <v>753.1021251947601</v>
@@ -41148,34 +41148,34 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="n">
-        <v>741.9801716124884</v>
+        <v>706.3957115734266</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>697.1459830964862</v>
+        <v>749.2812906226465</v>
       </c>
       <c r="C136" s="0" t="n">
+        <v>741.9801716124886</v>
+      </c>
+      <c r="D136" s="0" t="n">
         <v>716.8443616805019</v>
       </c>
-      <c r="D136" s="0" t="n">
-        <v>711.4609025193473</v>
-      </c>
       <c r="E136" s="0" t="n">
-        <v>741.9801716124882</v>
+        <v>803.7967388062812</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>728.6473339874469</v>
+        <v>706.3957115734268</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>757.0411710381263</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>757.0411710381265</v>
       </c>
       <c r="J136" s="0" t="n">
-        <v>728.6473339874469</v>
+        <v>716.8443616805021</v>
       </c>
       <c r="K136" s="0" t="n">
         <v>749.2812906226463</v>
@@ -41450,34 +41450,34 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="n">
-        <v>738.4931082946455</v>
+        <v>703.9765424678667</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>695.0043995295259</v>
+        <v>753.1021251947603</v>
       </c>
       <c r="C137" s="0" t="n">
+        <v>738.4931082946456</v>
+      </c>
+      <c r="D137" s="0" t="n">
         <v>719.6616430933765</v>
       </c>
-      <c r="D137" s="0" t="n">
+      <c r="E137" s="0" t="n">
+        <v>798.4545523741069</v>
+      </c>
+      <c r="F137" s="0" t="n">
+        <v>714.1116272443661</v>
+      </c>
+      <c r="G137" s="0" t="n">
+        <v>703.9765424678669</v>
+      </c>
+      <c r="H137" s="0" t="n">
+        <v>719.6616430933765</v>
+      </c>
+      <c r="I137" s="0" t="n">
+        <v>753.1021251947602</v>
+      </c>
+      <c r="J137" s="0" t="n">
         <v>714.1116272443662</v>
-      </c>
-      <c r="E137" s="0" t="n">
-        <v>745.5751197863647</v>
-      </c>
-      <c r="F137" s="0" t="n">
-        <v>703.9765424678667</v>
-      </c>
-      <c r="G137" s="0" t="n">
-        <v>725.5603908377184</v>
-      </c>
-      <c r="H137" s="0" t="n">
-        <v>753.1021251947601</v>
-      </c>
-      <c r="I137" s="0" t="n">
-        <v>719.6616430933767</v>
-      </c>
-      <c r="J137" s="0" t="n">
-        <v>725.5603908377185</v>
       </c>
       <c r="K137" s="0" t="n">
         <v>745.5751197863647</v>
@@ -41752,34 +41752,34 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="n">
-        <v>735.1106921944616</v>
+        <v>706.3957115734266</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>697.1459830964864</v>
+        <v>757.0411710381267</v>
       </c>
       <c r="C138" s="0" t="n">
+        <v>735.1106921944618</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>722.5660872480569</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>793.2726856423186</v>
+      </c>
+      <c r="F138" s="0" t="n">
         <v>716.8443616805019</v>
       </c>
-      <c r="D138" s="0" t="n">
-        <v>716.8443616805021</v>
-      </c>
-      <c r="E138" s="0" t="n">
-        <v>749.2812906226462</v>
-      </c>
-      <c r="F138" s="0" t="n">
-        <v>706.3957115734266</v>
-      </c>
       <c r="G138" s="0" t="n">
-        <v>722.566087248057</v>
+        <v>706.3957115734268</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>749.2812906226462</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>757.0411710381265</v>
       </c>
       <c r="J138" s="0" t="n">
-        <v>722.566087248057</v>
+        <v>711.4609025193473</v>
       </c>
       <c r="K138" s="0" t="n">
         <v>741.9801716124883</v>
@@ -42054,34 +42054,34 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="n">
-        <v>731.8297828355056</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>695.0043995295259</v>
+        <v>761.1020854439438</v>
       </c>
       <c r="C139" s="0" t="n">
+        <v>738.4931082946456</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>725.5603908377183</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>788.2463273961339</v>
+      </c>
+      <c r="F139" s="0" t="n">
         <v>719.6616430933765</v>
       </c>
-      <c r="D139" s="0" t="n">
-        <v>719.6616430933767</v>
-      </c>
-      <c r="E139" s="0" t="n">
-        <v>753.1021251947601</v>
-      </c>
-      <c r="F139" s="0" t="n">
-        <v>708.8897263834904</v>
-      </c>
       <c r="G139" s="0" t="n">
-        <v>725.5603908377184</v>
+        <v>708.8897263834906</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>745.5751197863647</v>
+        <v>725.5603908377183</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>719.6616430933768</v>
+        <v>753.1021251947602</v>
       </c>
       <c r="J139" s="0" t="n">
-        <v>719.6616430933767</v>
+        <v>714.1116272443662</v>
       </c>
       <c r="K139" s="0" t="n">
         <v>738.4931082946454</v>
@@ -42356,34 +42356,34 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="n">
-        <v>728.647333987447</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>692.9270851602369</v>
+        <v>765.2886388548784</v>
       </c>
       <c r="C140" s="0" t="n">
+        <v>735.1106921944618</v>
+      </c>
+      <c r="D140" s="0" t="n">
         <v>722.5660872480569</v>
       </c>
-      <c r="D140" s="0" t="n">
-        <v>716.8443616805022</v>
-      </c>
       <c r="E140" s="0" t="n">
-        <v>749.2812906226462</v>
+        <v>793.2726856423186</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>711.4609025193472</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>728.6473339874469</v>
+        <v>711.4609025193473</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>741.9801716124883</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>757.0411710381265</v>
       </c>
       <c r="J140" s="0" t="n">
-        <v>722.566087248057</v>
+        <v>716.8443616805021</v>
       </c>
       <c r="K140" s="0" t="n">
         <v>741.9801716124883</v>
@@ -42658,34 +42658,34 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="n">
-        <v>731.8297828355056</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>690.9121112617495</v>
+        <v>769.6047183658135</v>
       </c>
       <c r="C141" s="0" t="n">
+        <v>738.4931082946456</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>719.6616430933766</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>798.454552374107</v>
+      </c>
+      <c r="F141" s="0" t="n">
         <v>725.5603908377183</v>
       </c>
-      <c r="D141" s="0" t="n">
+      <c r="G141" s="0" t="n">
+        <v>714.1116272443663</v>
+      </c>
+      <c r="H141" s="0" t="n">
+        <v>719.6616430933766</v>
+      </c>
+      <c r="I141" s="0" t="n">
+        <v>753.1021251947602</v>
+      </c>
+      <c r="J141" s="0" t="n">
         <v>714.1116272443662</v>
-      </c>
-      <c r="E141" s="0" t="n">
-        <v>745.5751197863647</v>
-      </c>
-      <c r="F141" s="0" t="n">
-        <v>708.8897263834904</v>
-      </c>
-      <c r="G141" s="0" t="n">
-        <v>731.8297828355055</v>
-      </c>
-      <c r="H141" s="0" t="n">
-        <v>738.4931082946454</v>
-      </c>
-      <c r="I141" s="0" t="n">
-        <v>725.5603908377186</v>
-      </c>
-      <c r="J141" s="0" t="n">
-        <v>725.5603908377185</v>
       </c>
       <c r="K141" s="0" t="n">
         <v>745.5751197863647</v>
@@ -42960,34 +42960,34 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="n">
-        <v>728.6473339874472</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>688.9576069885347</v>
+        <v>765.2886388548784</v>
       </c>
       <c r="C142" s="0" t="n">
+        <v>735.1106921944618</v>
+      </c>
+      <c r="D142" s="0" t="n">
         <v>722.5660872480569</v>
       </c>
-      <c r="D142" s="0" t="n">
-        <v>716.8443616805022</v>
-      </c>
       <c r="E142" s="0" t="n">
-        <v>741.9801716124883</v>
+        <v>803.7967388062813</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>706.3957115734266</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>728.6473339874469</v>
+        <v>711.4609025193474</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>741.9801716124883</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>728.6473339874472</v>
+        <v>749.2812906226465</v>
       </c>
       <c r="J142" s="0" t="n">
-        <v>722.566087248057</v>
+        <v>716.8443616805021</v>
       </c>
       <c r="K142" s="0" t="n">
         <v>741.9801716124883</v>
@@ -43262,31 +43262,31 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="n">
-        <v>731.8297828355056</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>690.9121112617495</v>
+        <v>761.1020854439438</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>719.6616430933766</v>
+        <v>738.4931082946456</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>719.6616430933767</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>745.5751197863647</v>
+        <v>809.3042050058718</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>731.8297828355055</v>
+        <v>708.8897263834906</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>738.4931082946454</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>725.5603908377186</v>
+        <v>745.5751197863648</v>
       </c>
       <c r="J143" s="0" t="n">
         <v>719.6616430933767</v>
@@ -43564,31 +43564,31 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="n">
-        <v>728.6473339874472</v>
+        <v>706.3957115734266</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>688.9576069885347</v>
+        <v>757.0411710381268</v>
       </c>
       <c r="C144" s="0" t="n">
+        <v>741.9801716124886</v>
+      </c>
+      <c r="D144" s="0" t="n">
         <v>722.5660872480569</v>
       </c>
-      <c r="D144" s="0" t="n">
-        <v>716.8443616805022</v>
-      </c>
       <c r="E144" s="0" t="n">
-        <v>741.9801716124883</v>
+        <v>814.982064497437</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>711.4609025193472</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>728.6473339874469</v>
+        <v>711.4609025193474</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>741.9801716124883</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>728.6473339874472</v>
+        <v>749.2812906226465</v>
       </c>
       <c r="J144" s="0" t="n">
         <v>716.8443616805021</v>
@@ -43866,31 +43866,31 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="n">
-        <v>725.5603908377186</v>
+        <v>703.9765424678667</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>690.9121112617495</v>
+        <v>753.1021251947604</v>
       </c>
       <c r="C145" s="0" t="n">
+        <v>745.5751197863649</v>
+      </c>
+      <c r="D145" s="0" t="n">
         <v>719.6616430933766</v>
       </c>
-      <c r="D145" s="0" t="n">
-        <v>719.6616430933767</v>
-      </c>
       <c r="E145" s="0" t="n">
-        <v>738.4931082946454</v>
+        <v>820.8355890108247</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>714.1116272443663</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>745.5751197863647</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>731.8297828355056</v>
+        <v>753.1021251947603</v>
       </c>
       <c r="J145" s="0" t="n">
         <v>719.6616430933767</v>
@@ -44168,34 +44168,34 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>706.3957115734266</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>688.9576069885347</v>
+        <v>757.0411710381268</v>
       </c>
       <c r="C146" s="0" t="n">
+        <v>741.9801716124886</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>722.5660872480569</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>826.8702133758221</v>
+      </c>
+      <c r="F146" s="0" t="n">
         <v>716.8443616805019</v>
       </c>
-      <c r="D146" s="0" t="n">
+      <c r="G146" s="0" t="n">
         <v>716.8443616805022</v>
       </c>
-      <c r="E146" s="0" t="n">
-        <v>741.9801716124883</v>
-      </c>
-      <c r="F146" s="0" t="n">
-        <v>706.3957115734266</v>
-      </c>
-      <c r="G146" s="0" t="n">
-        <v>728.6473339874469</v>
-      </c>
       <c r="H146" s="0" t="n">
-        <v>741.9801716124883</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>728.6473339874472</v>
+        <v>757.0411710381265</v>
       </c>
       <c r="J146" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>722.566087248057</v>
       </c>
       <c r="K146" s="0" t="n">
         <v>741.9801716124884</v>
@@ -44470,31 +44470,31 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="n">
-        <v>725.5603908377186</v>
+        <v>703.9765424678667</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>687.0617576393785</v>
+        <v>753.1021251947604</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>719.6616430933766</v>
+        <v>745.5751197863649</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>714.1116272443663</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>745.5751197863647</v>
+        <v>833.0915405682393</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>719.6616430933768</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>745.5751197863647</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>725.5603908377186</v>
+        <v>753.1021251947603</v>
       </c>
       <c r="J147" s="0" t="n">
         <v>719.6616430933767</v>
@@ -44772,34 +44772,34 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="n">
-        <v>722.5660872480572</v>
+        <v>701.6299729376137</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>688.9576069885347</v>
+        <v>749.2812906226466</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>716.8443616805019</v>
+        <v>749.2812906226466</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>716.8443616805022</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>749.2812906226463</v>
+        <v>839.5053469121123</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>706.3957115734266</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="G148" s="0" t="n">
+        <v>722.5660872480571</v>
+      </c>
+      <c r="H148" s="0" t="n">
+        <v>722.5660872480569</v>
+      </c>
+      <c r="I148" s="0" t="n">
+        <v>749.2812906226465</v>
+      </c>
+      <c r="J148" s="0" t="n">
         <v>722.566087248057</v>
-      </c>
-      <c r="H148" s="0" t="n">
-        <v>749.2812906226463</v>
-      </c>
-      <c r="I148" s="0" t="n">
-        <v>722.5660872480571</v>
-      </c>
-      <c r="J148" s="0" t="n">
-        <v>722.5660872480571</v>
       </c>
       <c r="K148" s="0" t="n">
         <v>741.9801716124884</v>
@@ -45074,34 +45074,34 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="n">
-        <v>719.6616430933768</v>
+        <v>699.3538242600962</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>687.0617576393785</v>
+        <v>753.1021251947604</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>714.1116272443661</v>
+        <v>745.5751197863649</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>714.1116272443663</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>753.1021251947602</v>
+        <v>846.1175874428536</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="G149" s="0" t="n">
+        <v>725.5603908377186</v>
+      </c>
+      <c r="H149" s="0" t="n">
+        <v>725.5603908377184</v>
+      </c>
+      <c r="I149" s="0" t="n">
+        <v>753.1021251947603</v>
+      </c>
+      <c r="J149" s="0" t="n">
         <v>719.6616430933767</v>
-      </c>
-      <c r="H149" s="0" t="n">
-        <v>753.1021251947602</v>
-      </c>
-      <c r="I149" s="0" t="n">
-        <v>725.5603908377186</v>
-      </c>
-      <c r="J149" s="0" t="n">
-        <v>725.5603908377185</v>
       </c>
       <c r="K149" s="0" t="n">
         <v>738.4931082946455</v>
@@ -45376,34 +45376,34 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="n">
-        <v>716.8443616805023</v>
+        <v>701.6299729376137</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>688.9576069885347</v>
+        <v>757.0411710381268</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>711.4609025193472</v>
+        <v>749.2812906226466</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>716.8443616805022</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>757.0411710381264</v>
+        <v>852.9344014363327</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>728.6473339874472</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>757.0411710381264</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>722.5660872480572</v>
+        <v>757.0411710381265</v>
       </c>
       <c r="J150" s="0" t="n">
-        <v>728.647333987447</v>
+        <v>716.8443616805021</v>
       </c>
       <c r="K150" s="0" t="n">
         <v>735.1106921944615</v>
@@ -45678,34 +45678,34 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="n">
-        <v>714.1116272443664</v>
+        <v>703.9765424678667</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>690.9121112617495</v>
+        <v>761.1020854439439</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>753.1021251947604</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>714.1116272443663</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>761.1020854439436</v>
+        <v>846.1175874428536</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>699.3538242600962</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>731.8297828355057</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>753.1021251947602</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>719.6616430933768</v>
+        <v>761.1020854439437</v>
       </c>
       <c r="J151" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>714.1116272443662</v>
       </c>
       <c r="K151" s="0" t="n">
         <v>731.8297828355056</v>
@@ -45980,34 +45980,34 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="n">
-        <v>711.4609025193474</v>
+        <v>701.6299729376137</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>688.9576069885347</v>
+        <v>765.2886388548785</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>706.3957115734266</v>
+        <v>757.0411710381268</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>711.4609025193474</v>
+        <v>728.6473339874469</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>757.0411710381264</v>
+        <v>839.5053469121124</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>728.647333987447</v>
+        <v>735.1106921944616</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>749.2812906226463</v>
+        <v>716.8443616805021</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>716.8443616805023</v>
+        <v>757.0411710381267</v>
       </c>
       <c r="J152" s="0" t="n">
-        <v>728.647333987447</v>
+        <v>716.8443616805021</v>
       </c>
       <c r="K152" s="0" t="n">
         <v>728.647333987447</v>
@@ -46282,34 +46282,34 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="n">
-        <v>708.8897263834907</v>
+        <v>703.9765424678667</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>687.0617576393785</v>
+        <v>769.6047183658136</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>703.9765424678668</v>
+        <v>761.1020854439439</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>708.8897263834906</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>753.1021251947602</v>
+        <v>833.0915405682395</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>731.8297828355055</v>
+        <v>731.8297828355057</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>745.5751197863647</v>
+        <v>714.1116272443662</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>714.1116272443664</v>
+        <v>761.1020854439437</v>
       </c>
       <c r="J153" s="0" t="n">
-        <v>731.8297828355056</v>
+        <v>719.6616430933767</v>
       </c>
       <c r="K153" s="0" t="n">
         <v>731.8297828355056</v>
@@ -46584,34 +46584,34 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="n">
-        <v>711.4609025193475</v>
+        <v>701.6299729376137</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>685.2228029724824</v>
+        <v>765.2886388548785</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>706.3957115734266</v>
+        <v>765.2886388548785</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>711.4609025193474</v>
+        <v>722.566087248057</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>749.2812906226463</v>
+        <v>826.8702133758222</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>728.647333987447</v>
+        <v>728.6473339874472</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>749.2812906226463</v>
+        <v>716.8443616805021</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>711.4609025193474</v>
+        <v>757.0411710381267</v>
       </c>
       <c r="J154" s="0" t="n">
-        <v>735.1106921944615</v>
+        <v>716.8443616805022</v>
       </c>
       <c r="K154" s="0" t="n">
         <v>728.647333987447</v>
@@ -46886,34 +46886,34 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="n">
-        <v>708.8897263834907</v>
+        <v>703.9765424678667</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>687.0617576393785</v>
+        <v>769.6047183658136</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>703.9765424678668</v>
+        <v>761.1020854439439</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>714.1116272443663</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>745.5751197863648</v>
+        <v>833.0915405682395</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>699.3538242600962</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>731.8297828355057</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>745.5751197863647</v>
+        <v>714.1116272443662</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>708.8897263834907</v>
+        <v>753.1021251947603</v>
       </c>
       <c r="J155" s="0" t="n">
-        <v>731.8297828355056</v>
+        <v>719.6616430933767</v>
       </c>
       <c r="K155" s="0" t="n">
         <v>725.5603908377186</v>
@@ -47188,34 +47188,34 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="n">
-        <v>706.395711573427</v>
+        <v>701.6299729376137</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>685.2228029724824</v>
+        <v>774.0543313329046</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>706.3957115734266</v>
+        <v>757.0411710381268</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>716.8443616805023</v>
+        <v>716.8443616805021</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>741.9801716124884</v>
+        <v>839.5053469121124</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="G156" s="0" t="n">
+        <v>728.6473339874472</v>
+      </c>
+      <c r="H156" s="0" t="n">
+        <v>716.8443616805021</v>
+      </c>
+      <c r="I156" s="0" t="n">
+        <v>757.0411710381267</v>
+      </c>
+      <c r="J156" s="0" t="n">
         <v>722.5660872480571</v>
-      </c>
-      <c r="H156" s="0" t="n">
-        <v>749.2812906226463</v>
-      </c>
-      <c r="I156" s="0" t="n">
-        <v>706.3957115734269</v>
-      </c>
-      <c r="J156" s="0" t="n">
-        <v>728.647333987447</v>
       </c>
       <c r="K156" s="0" t="n">
         <v>722.5660872480571</v>
@@ -47490,34 +47490,34 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="n">
-        <v>703.976542467867</v>
+        <v>703.9765424678667</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>687.0617576393785</v>
+        <v>778.6416090942946</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>753.1021251947604</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>714.1116272443663</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>745.5751197863648</v>
+        <v>833.0915405682395</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="G157" s="0" t="n">
+        <v>731.8297828355057</v>
+      </c>
+      <c r="H157" s="0" t="n">
+        <v>714.1116272443662</v>
+      </c>
+      <c r="I157" s="0" t="n">
+        <v>761.1020854439438</v>
+      </c>
+      <c r="J157" s="0" t="n">
         <v>725.5603908377185</v>
-      </c>
-      <c r="H157" s="0" t="n">
-        <v>745.5751197863647</v>
-      </c>
-      <c r="I157" s="0" t="n">
-        <v>708.8897263834907</v>
-      </c>
-      <c r="J157" s="0" t="n">
-        <v>731.8297828355056</v>
       </c>
       <c r="K157" s="0" t="n">
         <v>719.6616430933768</v>
@@ -47792,31 +47792,31 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="n">
-        <v>701.6299729376141</v>
+        <v>706.3957115734266</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>688.9576069885348</v>
+        <v>774.0543313329046</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>706.3957115734266</v>
+        <v>749.2812906226467</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>711.4609025193474</v>
+        <v>722.566087248057</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>749.2812906226463</v>
+        <v>839.5053469121124</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>706.3957115734266</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>735.1106921944618</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>749.2812906226463</v>
+        <v>716.8443616805021</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>706.395711573427</v>
+        <v>765.2886388548784</v>
       </c>
       <c r="J158" s="0" t="n">
         <v>728.647333987447</v>
@@ -48094,31 +48094,31 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="n">
-        <v>703.976542467867</v>
+        <v>703.9765424678667</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>687.0617576393785</v>
+        <v>769.6047183658136</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>753.1021251947604</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>714.1116272443664</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>745.5751197863648</v>
+        <v>846.1175874428537</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>738.4931082946456</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>745.5751197863647</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>703.976542467867</v>
+        <v>761.1020854439438</v>
       </c>
       <c r="J159" s="0" t="n">
         <v>731.8297828355056</v>
@@ -48396,34 +48396,34 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="n">
-        <v>706.395711573427</v>
+        <v>706.3957115734266</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>685.2228029724824</v>
+        <v>774.0543313329047</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>711.4609025193472</v>
+        <v>757.0411710381268</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>716.8443616805023</v>
+        <v>722.566087248057</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>741.9801716124884</v>
+        <v>852.9344014363328</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>706.3957115734266</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>735.1106921944618</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>741.9801716124883</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>701.6299729376141</v>
+        <v>765.2886388548784</v>
       </c>
       <c r="J160" s="0" t="n">
-        <v>735.1106921944616</v>
+        <v>735.1106921944615</v>
       </c>
       <c r="K160" s="0" t="n">
         <v>728.6473339874472</v>
@@ -48698,34 +48698,34 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="n">
-        <v>708.8897263834907</v>
+        <v>703.9765424678667</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>683.4390355711307</v>
+        <v>769.6047183658137</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>753.1021251947606</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>714.1116272443664</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>738.4931082946455</v>
+        <v>859.9621181090176</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>731.8297828355054</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>719.6616430933767</v>
+        <v>738.4931082946456</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>745.5751197863648</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>703.976542467867</v>
+        <v>769.6047183658135</v>
       </c>
       <c r="J161" s="0" t="n">
-        <v>738.4931082946455</v>
+        <v>731.8297828355056</v>
       </c>
       <c r="K161" s="0" t="n">
         <v>725.5603908377186</v>
@@ -49000,34 +49000,34 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="n">
-        <v>706.395711573427</v>
+        <v>701.6299729376137</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>681.7087992584023</v>
+        <v>765.2886388548786</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>706.3957115734266</v>
+        <v>749.2812906226467</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>716.8443616805023</v>
+        <v>716.8443616805021</v>
       </c>
       <c r="E162" s="0" t="n">
+        <v>867.2072624944706</v>
+      </c>
+      <c r="F162" s="0" t="n">
+        <v>735.1106921944613</v>
+      </c>
+      <c r="G162" s="0" t="n">
+        <v>741.9801716124886</v>
+      </c>
+      <c r="H162" s="0" t="n">
+        <v>722.5660872480569</v>
+      </c>
+      <c r="I162" s="0" t="n">
+        <v>765.2886388548785</v>
+      </c>
+      <c r="J162" s="0" t="n">
         <v>735.1106921944615</v>
-      </c>
-      <c r="F162" s="0" t="n">
-        <v>701.6299729376137</v>
-      </c>
-      <c r="G162" s="0" t="n">
-        <v>722.5660872480571</v>
-      </c>
-      <c r="H162" s="0" t="n">
-        <v>741.9801716124883</v>
-      </c>
-      <c r="I162" s="0" t="n">
-        <v>701.6299729376141</v>
-      </c>
-      <c r="J162" s="0" t="n">
-        <v>741.9801716124884</v>
       </c>
       <c r="K162" s="0" t="n">
         <v>722.5660872480571</v>
@@ -49302,34 +49302,34 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="n">
-        <v>703.976542467867</v>
+        <v>703.9765424678667</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>680.030487559458</v>
+        <v>761.102085443944</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>703.9765424678668</v>
+        <v>753.1021251947606</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>714.1116272443664</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="E163" s="0" t="n">
+        <v>859.9621181090176</v>
+      </c>
+      <c r="F163" s="0" t="n">
+        <v>738.4931082946453</v>
+      </c>
+      <c r="G163" s="0" t="n">
+        <v>745.5751197863649</v>
+      </c>
+      <c r="H163" s="0" t="n">
+        <v>719.6616430933766</v>
+      </c>
+      <c r="I163" s="0" t="n">
+        <v>769.6047183658136</v>
+      </c>
+      <c r="J163" s="0" t="n">
         <v>738.4931082946455</v>
-      </c>
-      <c r="F163" s="0" t="n">
-        <v>703.9765424678667</v>
-      </c>
-      <c r="G163" s="0" t="n">
-        <v>725.5603908377185</v>
-      </c>
-      <c r="H163" s="0" t="n">
-        <v>738.4931082946454</v>
-      </c>
-      <c r="I163" s="0" t="n">
-        <v>703.976542467867</v>
-      </c>
-      <c r="J163" s="0" t="n">
-        <v>745.5751197863649</v>
       </c>
       <c r="K163" s="0" t="n">
         <v>725.5603908377186</v>
@@ -49604,34 +49604,34 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="n">
-        <v>701.6299729376141</v>
+        <v>701.6299729376137</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>681.7087992584023</v>
+        <v>757.0411710381269</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>701.6299729376138</v>
+        <v>749.2812906226467</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>711.4609025193475</v>
+        <v>716.8443616805021</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>741.9801716124884</v>
+        <v>867.2072624944706</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>706.3957115734266</v>
+        <v>741.9801716124882</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>728.647333987447</v>
+        <v>749.2812906226466</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>741.9801716124884</v>
+        <v>716.8443616805021</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>706.395711573427</v>
+        <v>765.2886388548785</v>
       </c>
       <c r="J164" s="0" t="n">
-        <v>749.2812906226465</v>
+        <v>735.1106921944616</v>
       </c>
       <c r="K164" s="0" t="n">
         <v>728.6473339874472</v>
@@ -49906,34 +49906,34 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="n">
-        <v>703.976542467867</v>
+        <v>703.9765424678667</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>683.4390355711307</v>
+        <v>761.102085443944</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>699.3538242600962</v>
+        <v>745.5751197863651</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>708.8897263834907</v>
+        <v>719.6616430933767</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>738.4931082946455</v>
+        <v>874.6765615016552</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>745.5751197863646</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>745.5751197863649</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>738.4931082946455</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>703.976542467867</v>
+        <v>761.1020854439439</v>
       </c>
       <c r="J165" s="0" t="n">
-        <v>745.5751197863649</v>
+        <v>731.8297828355056</v>
       </c>
       <c r="K165" s="0" t="n">
         <v>731.8297828355057</v>
@@ -50208,34 +50208,34 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="n">
-        <v>706.395711573427</v>
+        <v>706.3957115734266</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>681.7087992584023</v>
+        <v>757.0411710381269</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>697.1459830964862</v>
+        <v>741.9801716124887</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>706.395711573427</v>
+        <v>722.566087248057</v>
       </c>
       <c r="E166" s="0" t="n">
+        <v>882.3769501606788</v>
+      </c>
+      <c r="F166" s="0" t="n">
+        <v>741.9801716124882</v>
+      </c>
+      <c r="G166" s="0" t="n">
+        <v>749.2812906226466</v>
+      </c>
+      <c r="H166" s="0" t="n">
+        <v>722.5660872480569</v>
+      </c>
+      <c r="I166" s="0" t="n">
+        <v>757.0411710381268</v>
+      </c>
+      <c r="J166" s="0" t="n">
         <v>735.1106921944616</v>
-      </c>
-      <c r="F166" s="0" t="n">
-        <v>701.6299729376137</v>
-      </c>
-      <c r="G166" s="0" t="n">
-        <v>728.647333987447</v>
-      </c>
-      <c r="H166" s="0" t="n">
-        <v>735.1106921944615</v>
-      </c>
-      <c r="I166" s="0" t="n">
-        <v>701.6299729376141</v>
-      </c>
-      <c r="J166" s="0" t="n">
-        <v>749.2812906226465</v>
       </c>
       <c r="K166" s="0" t="n">
         <v>735.1106921944616</v>
@@ -50510,34 +50510,34 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="n">
-        <v>708.8897263834907</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>683.4390355711307</v>
+        <v>753.1021251947607</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>695.0043995295259</v>
+        <v>745.5751197863651</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>703.976542467867</v>
+        <v>719.6616430933767</v>
       </c>
       <c r="E167" s="0" t="n">
+        <v>890.3155780617686</v>
+      </c>
+      <c r="F167" s="0" t="n">
+        <v>738.4931082946453</v>
+      </c>
+      <c r="G167" s="0" t="n">
+        <v>753.1021251947604</v>
+      </c>
+      <c r="H167" s="0" t="n">
+        <v>719.6616430933766</v>
+      </c>
+      <c r="I167" s="0" t="n">
+        <v>753.1021251947606</v>
+      </c>
+      <c r="J167" s="0" t="n">
         <v>738.4931082946455</v>
-      </c>
-      <c r="F167" s="0" t="n">
-        <v>699.3538242600962</v>
-      </c>
-      <c r="G167" s="0" t="n">
-        <v>725.5603908377185</v>
-      </c>
-      <c r="H167" s="0" t="n">
-        <v>731.8297828355056</v>
-      </c>
-      <c r="I167" s="0" t="n">
-        <v>699.3538242600964</v>
-      </c>
-      <c r="J167" s="0" t="n">
-        <v>745.5751197863649</v>
       </c>
       <c r="K167" s="0" t="n">
         <v>731.8297828355057</v>
@@ -50812,34 +50812,34 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="n">
-        <v>706.395711573427</v>
+        <v>706.3957115734266</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>685.2228029724824</v>
+        <v>749.2812906226468</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>692.9270851602369</v>
+        <v>749.2812906226467</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>701.6299729376141</v>
+        <v>716.8443616805021</v>
       </c>
       <c r="E168" s="0" t="n">
+        <v>882.3769501606788</v>
+      </c>
+      <c r="F168" s="0" t="n">
+        <v>741.9801716124882</v>
+      </c>
+      <c r="G168" s="0" t="n">
+        <v>749.2812906226466</v>
+      </c>
+      <c r="H168" s="0" t="n">
+        <v>722.5660872480569</v>
+      </c>
+      <c r="I168" s="0" t="n">
+        <v>757.0411710381268</v>
+      </c>
+      <c r="J168" s="0" t="n">
         <v>735.1106921944616</v>
-      </c>
-      <c r="F168" s="0" t="n">
-        <v>697.1459830964862</v>
-      </c>
-      <c r="G168" s="0" t="n">
-        <v>728.647333987447</v>
-      </c>
-      <c r="H168" s="0" t="n">
-        <v>728.647333987447</v>
-      </c>
-      <c r="I168" s="0" t="n">
-        <v>697.1459830964866</v>
-      </c>
-      <c r="J168" s="0" t="n">
-        <v>741.9801716124886</v>
       </c>
       <c r="K168" s="0" t="n">
         <v>735.1106921944616</v>
@@ -51114,34 +51114,34 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="n">
-        <v>703.976542467867</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>687.0617576393786</v>
+        <v>753.1021251947607</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>695.0043995295259</v>
+        <v>753.1021251947606</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>703.976542467867</v>
+        <v>719.6616430933767</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>738.4931082946455</v>
+        <v>874.6765615016553</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>699.3538242600962</v>
+        <v>745.5751197863647</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>745.575119786365</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>695.0043995295262</v>
+        <v>761.1020854439439</v>
       </c>
       <c r="J169" s="0" t="n">
-        <v>738.4931082946455</v>
+        <v>731.8297828355056</v>
       </c>
       <c r="K169" s="0" t="n">
         <v>731.8297828355057</v>
@@ -51416,31 +51416,31 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="n">
-        <v>701.6299729376141</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>688.9576069885348</v>
+        <v>749.2812906226468</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>692.9270851602369</v>
+        <v>749.2812906226467</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>706.395711573427</v>
+        <v>716.8443616805021</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>735.1106921944616</v>
+        <v>882.3769501606789</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>741.9801716124882</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>741.9801716124886</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>722.566087248057</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>697.1459830964866</v>
+        <v>757.0411710381268</v>
       </c>
       <c r="J170" s="0" t="n">
         <v>735.1106921944616</v>
@@ -51718,34 +51718,34 @@
     </row>
     <row r="171">
       <c r="A171" s="0" t="n">
-        <v>703.976542467867</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>690.9121112617495</v>
+        <v>753.1021251947607</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>695.0043995295259</v>
+        <v>745.5751197863651</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>703.976542467867</v>
+        <v>714.1116272443662</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>731.8297828355057</v>
+        <v>890.3155780617687</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>699.3538242600962</v>
+        <v>738.4931082946453</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>738.4931082946456</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>719.6616430933767</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>699.3538242600964</v>
+        <v>753.1021251947606</v>
       </c>
       <c r="J171" s="0" t="n">
-        <v>731.8297828355057</v>
+        <v>738.4931082946455</v>
       </c>
       <c r="K171" s="0" t="n">
         <v>731.8297828355057</v>
@@ -52020,31 +52020,31 @@
     </row>
     <row r="172">
       <c r="A172" s="0" t="n">
-        <v>706.395711573427</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>692.927085160237</v>
+        <v>749.2812906226468</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>692.9270851602369</v>
+        <v>749.2812906226468</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>701.6299729376141</v>
+        <v>716.8443616805021</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>735.1106921944616</v>
+        <v>882.3769501606789</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>697.1459830964862</v>
+        <v>741.9801716124883</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>735.1106921944618</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>716.8443616805022</v>
+        <v>722.566087248057</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>697.1459830964866</v>
+        <v>749.2812906226467</v>
       </c>
       <c r="J172" s="0" t="n">
         <v>735.1106921944616</v>
@@ -52322,34 +52322,34 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="n">
-        <v>708.8897263834908</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>695.004399529526</v>
+        <v>745.5751197863651</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>695.0043995295259</v>
+        <v>753.1021251947607</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>703.976542467867</v>
+        <v>719.6616430933767</v>
       </c>
       <c r="E173" s="0" t="n">
+        <v>890.3155780617687</v>
+      </c>
+      <c r="F173" s="0" t="n">
+        <v>738.4931082946454</v>
+      </c>
+      <c r="G173" s="0" t="n">
+        <v>731.8297828355057</v>
+      </c>
+      <c r="H173" s="0" t="n">
+        <v>719.6616430933766</v>
+      </c>
+      <c r="I173" s="0" t="n">
+        <v>745.5751197863651</v>
+      </c>
+      <c r="J173" s="0" t="n">
         <v>738.4931082946455</v>
-      </c>
-      <c r="F173" s="0" t="n">
-        <v>695.0043995295259</v>
-      </c>
-      <c r="G173" s="0" t="n">
-        <v>725.5603908377185</v>
-      </c>
-      <c r="H173" s="0" t="n">
-        <v>719.6616430933767</v>
-      </c>
-      <c r="I173" s="0" t="n">
-        <v>699.3538242600964</v>
-      </c>
-      <c r="J173" s="0" t="n">
-        <v>738.4931082946456</v>
       </c>
       <c r="K173" s="0" t="n">
         <v>725.5603908377186</v>
@@ -52624,34 +52624,34 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="n">
-        <v>706.395711573427</v>
+        <v>706.3957115734266</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>692.927085160237</v>
+        <v>749.2812906226468</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>697.1459830964864</v>
+        <v>749.2812906226468</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>706.395711573427</v>
+        <v>716.8443616805022</v>
       </c>
       <c r="E174" s="0" t="n">
+        <v>882.3769501606789</v>
+      </c>
+      <c r="F174" s="0" t="n">
+        <v>741.9801716124883</v>
+      </c>
+      <c r="G174" s="0" t="n">
+        <v>728.6473339874472</v>
+      </c>
+      <c r="H174" s="0" t="n">
+        <v>722.566087248057</v>
+      </c>
+      <c r="I174" s="0" t="n">
+        <v>749.2812906226467</v>
+      </c>
+      <c r="J174" s="0" t="n">
         <v>741.9801716124886</v>
-      </c>
-      <c r="F174" s="0" t="n">
-        <v>692.9270851602369</v>
-      </c>
-      <c r="G174" s="0" t="n">
-        <v>722.5660872480571</v>
-      </c>
-      <c r="H174" s="0" t="n">
-        <v>722.5660872480571</v>
-      </c>
-      <c r="I174" s="0" t="n">
-        <v>697.1459830964866</v>
-      </c>
-      <c r="J174" s="0" t="n">
-        <v>735.1106921944616</v>
       </c>
       <c r="K174" s="0" t="n">
         <v>722.5660872480572</v>
@@ -52926,34 +52926,34 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="n">
-        <v>703.9765424678671</v>
+        <v>703.9765424678667</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>690.9121112617495</v>
+        <v>753.1021251947607</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>699.3538242600962</v>
+        <v>745.5751197863651</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>703.9765424678671</v>
+        <v>714.1116272443662</v>
       </c>
       <c r="E175" s="0" t="n">
+        <v>874.6765615016553</v>
+      </c>
+      <c r="F175" s="0" t="n">
+        <v>745.5751197863647</v>
+      </c>
+      <c r="G175" s="0" t="n">
+        <v>725.5603908377187</v>
+      </c>
+      <c r="H175" s="0" t="n">
+        <v>719.6616430933766</v>
+      </c>
+      <c r="I175" s="0" t="n">
+        <v>745.5751197863651</v>
+      </c>
+      <c r="J175" s="0" t="n">
         <v>738.4931082946455</v>
-      </c>
-      <c r="F175" s="0" t="n">
-        <v>690.9121112617494</v>
-      </c>
-      <c r="G175" s="0" t="n">
-        <v>719.6616430933767</v>
-      </c>
-      <c r="H175" s="0" t="n">
-        <v>719.6616430933768</v>
-      </c>
-      <c r="I175" s="0" t="n">
-        <v>695.0043995295262</v>
-      </c>
-      <c r="J175" s="0" t="n">
-        <v>738.4931082946456</v>
       </c>
       <c r="K175" s="0" t="n">
         <v>725.5603908377187</v>
@@ -53228,34 +53228,34 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="n">
-        <v>706.395711573427</v>
+        <v>706.3957115734266</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>688.9576069885348</v>
+        <v>757.041171038127</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>701.6299729376138</v>
+        <v>749.2812906226468</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>701.6299729376142</v>
+        <v>716.8443616805022</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>741.9801716124886</v>
+        <v>867.2072624944707</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>688.9576069885347</v>
+        <v>741.9801716124883</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>716.8443616805022</v>
+        <v>722.5660872480572</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>722.566087248057</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>692.9270851602371</v>
+        <v>741.9801716124887</v>
       </c>
       <c r="J176" s="0" t="n">
-        <v>741.9801716124886</v>
+        <v>735.1106921944616</v>
       </c>
       <c r="K176" s="0" t="n">
         <v>722.5660872480572</v>
@@ -53530,34 +53530,34 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="n">
-        <v>703.9765424678671</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>690.9121112617495</v>
+        <v>761.1020854439441</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>703.9765424678668</v>
+        <v>753.1021251947607</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>699.3538242600965</v>
+        <v>714.1116272443662</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>745.5751197863649</v>
+        <v>859.9621181090179</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>690.9121112617494</v>
+        <v>745.5751197863647</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>714.1116272443663</v>
+        <v>725.5603908377187</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>719.6616430933768</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>690.9121112617497</v>
+        <v>745.5751197863651</v>
       </c>
       <c r="J177" s="0" t="n">
-        <v>745.5751197863649</v>
+        <v>738.4931082946456</v>
       </c>
       <c r="K177" s="0" t="n">
         <v>725.5603908377187</v>
@@ -53832,34 +53832,34 @@
     </row>
     <row r="178">
       <c r="A178" s="0" t="n">
-        <v>706.395711573427</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>692.927085160237</v>
+        <v>757.041171038127</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>706.3957115734266</v>
+        <v>757.041171038127</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>701.6299729376142</v>
+        <v>716.8443616805022</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>749.2812906226466</v>
+        <v>852.934401436333</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>688.9576069885347</v>
+        <v>749.2812906226463</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>711.4609025193474</v>
+        <v>722.5660872480573</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>716.8443616805022</v>
+        <v>728.6473339874469</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>692.9270851602371</v>
+        <v>741.9801716124887</v>
       </c>
       <c r="J178" s="0" t="n">
-        <v>741.9801716124886</v>
+        <v>735.1106921944616</v>
       </c>
       <c r="K178" s="0" t="n">
         <v>728.6473339874472</v>
@@ -54134,34 +54134,34 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="n">
-        <v>703.9765424678671</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>695.004399529526</v>
+        <v>753.1021251947607</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>708.8897263834905</v>
+        <v>753.1021251947607</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>703.9765424678671</v>
+        <v>719.6616430933767</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>753.1021251947604</v>
+        <v>846.1175874428538</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>690.9121112617494</v>
+        <v>753.1021251947602</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>714.1116272443663</v>
+        <v>725.5603908377187</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>714.1116272443663</v>
+        <v>731.8297828355055</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>690.9121112617497</v>
+        <v>738.4931082946457</v>
       </c>
       <c r="J179" s="0" t="n">
-        <v>738.4931082946456</v>
+        <v>731.8297828355057</v>
       </c>
       <c r="K179" s="0" t="n">
         <v>731.8297828355057</v>
@@ -54436,34 +54436,34 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="n">
-        <v>706.395711573427</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>697.1459830964865</v>
+        <v>757.041171038127</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>711.4609025193473</v>
+        <v>749.2812906226468</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>701.6299729376142</v>
+        <v>722.5660872480571</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>749.2812906226466</v>
+        <v>852.934401436333</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>688.9576069885347</v>
+        <v>749.2812906226463</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>711.4609025193474</v>
+        <v>722.5660872480573</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>716.8443616805023</v>
+        <v>735.1106921944614</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>688.957606988535</v>
+        <v>735.1106921944619</v>
       </c>
       <c r="J180" s="0" t="n">
-        <v>735.1106921944616</v>
+        <v>728.6473339874472</v>
       </c>
       <c r="K180" s="0" t="n">
         <v>735.1106921944618</v>

--- a/output/freight_return.xlsx
+++ b/output/freight_return.xlsx
@@ -381,7 +381,7 @@
         <v>725.5603908377178</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>725.5603908377178</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="C1" s="0" t="n">
         <v>725.5603908377178</v>
@@ -393,10 +393,10 @@
         <v>731.8297828355048</v>
       </c>
       <c r="F1" s="0" t="n">
+        <v>725.5603908377178</v>
+      </c>
+      <c r="G1" s="0" t="n">
         <v>731.8297828355048</v>
-      </c>
-      <c r="G1" s="0" t="n">
-        <v>725.5603908377178</v>
       </c>
       <c r="H1" s="0" t="n">
         <v>731.8297828355048</v>
@@ -680,28 +680,28 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
-        <v>722.5660872480564</v>
+        <v>728.6473339874462</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>722.5660872480564</v>
+        <v>728.6473339874462</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>722.5660872480564</v>
       </c>
       <c r="D2" s="0" t="n">
+        <v>722.5660872480564</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <v>728.6473339874462</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F2" s="0" t="n">
+        <v>722.5660872480564</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>735.1106921944607</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>735.1106921944607</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>722.5660872480564</v>
-      </c>
       <c r="H2" s="0" t="n">
-        <v>735.1106921944607</v>
+        <v>728.6473339874462</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>728.6473339874462</v>
@@ -982,25 +982,25 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
-        <v>719.661643093376</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>725.5603908377178</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>725.5603908377178</v>
       </c>
       <c r="D3" s="0" t="n">
+        <v>725.5603908377178</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>725.5603908377178</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>719.661643093376</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <v>731.8297828355048</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>738.4931082946447</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>738.4931082946447</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>725.5603908377178</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>731.8297828355048</v>
@@ -1009,7 +1009,7 @@
         <v>731.8297828355048</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>725.5603908377178</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>725.5603908377178</v>
@@ -1284,34 +1284,34 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
+        <v>728.6473339874462</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>728.6473339874462</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>728.6473339874464</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <v>722.5660872480564</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>728.6473339874464</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>722.5660872480564</v>
-      </c>
-      <c r="D4" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>728.6473339874462</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F4" s="0" t="n">
+        <v>716.8443616805015</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>728.6473339874462</v>
+      </c>
+      <c r="H4" s="0" t="n">
         <v>735.1106921944607</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>741.9801716124875</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>728.6473339874464</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>735.1106921944609</v>
-      </c>
       <c r="I4" s="0" t="n">
+        <v>728.6473339874462</v>
+      </c>
+      <c r="J4" s="0" t="n">
         <v>735.1106921944607</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>722.5660872480564</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>728.6473339874464</v>
@@ -1586,22 +1586,22 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>725.5603908377178</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>731.8297828355048</v>
       </c>
       <c r="C5" s="0" t="n">
+        <v>725.5603908377178</v>
+      </c>
+      <c r="D5" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>725.5603908377178</v>
-      </c>
       <c r="E5" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>745.575119786364</v>
+        <v>719.661643093376</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>731.8297828355048</v>
@@ -1610,10 +1610,10 @@
         <v>738.4931082946447</v>
       </c>
       <c r="I5" s="0" t="n">
+        <v>731.8297828355048</v>
+      </c>
+      <c r="J5" s="0" t="n">
         <v>738.4931082946447</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>719.661643093376</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>725.5603908377178</v>
@@ -1888,34 +1888,34 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>722.5660872480564</v>
+        <v>728.6473339874462</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>728.6473339874462</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>722.5660872480564</v>
       </c>
       <c r="D6" s="0" t="n">
+        <v>716.8443616805015</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>728.6473339874462</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>722.5660872480564</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>741.9801716124875</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>749.2812906226455</v>
-      </c>
       <c r="G6" s="0" t="n">
-        <v>728.6473339874464</v>
+        <v>728.6473339874462</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>741.9801716124875</v>
       </c>
       <c r="I6" s="0" t="n">
+        <v>728.6473339874462</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>735.1106921944607</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>722.5660872480564</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>722.5660872480564</v>
@@ -2193,31 +2193,31 @@
         <v>725.5603908377178</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>725.5603908377178</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>753.1021251947593</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>738.4931082946447</v>
       </c>
       <c r="I7" s="0" t="n">
+        <v>725.5603908377178</v>
+      </c>
+      <c r="J7" s="0" t="n">
         <v>731.8297828355048</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>719.661643093376</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>725.5603908377178</v>
@@ -2492,10 +2492,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>722.5660872480564</v>
+        <v>728.6473339874464</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>741.9801716124877</v>
+        <v>728.6473339874462</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>722.5660872480564</v>
@@ -2504,22 +2504,22 @@
         <v>716.8443616805015</v>
       </c>
       <c r="E8" s="0" t="n">
+        <v>728.6473339874464</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>722.5660872480564</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>728.6473339874464</v>
+      </c>
+      <c r="H8" s="0" t="n">
         <v>741.9801716124875</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>749.2812906226455</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>735.1106921944609</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>735.1106921944609</v>
-      </c>
       <c r="I8" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>722.5660872480564</v>
+        <v>728.6473339874462</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>728.6473339874464</v>
@@ -2797,31 +2797,31 @@
         <v>725.5603908377178</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>714.1116272443656</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>753.1021251947593</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>745.575119786364</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>725.5603908377178</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>731.8297828355049</v>
@@ -3099,31 +3099,31 @@
         <v>722.5660872480564</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>741.9801716124877</v>
+        <v>728.6473339874462</v>
       </c>
       <c r="C10" s="0" t="n">
+        <v>716.8443616805016</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>716.8443616805015</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>728.6473339874464</v>
+      </c>
+      <c r="F10" s="0" t="n">
         <v>722.5660872480564</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>711.4609025193467</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>741.9801716124875</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>757.0411710381256</v>
-      </c>
       <c r="G10" s="0" t="n">
-        <v>741.9801716124877</v>
+        <v>728.6473339874464</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>741.9801716124875</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>728.6473339874464</v>
+        <v>728.6473339874462</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>735.1106921944609</v>
@@ -3398,34 +3398,34 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="C11" s="0" t="n">
+        <v>719.6616430933761</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>719.6616430933761</v>
+      </c>
+      <c r="E11" s="0" t="n">
         <v>725.5603908377178</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>714.1116272443656</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>738.4931082946447</v>
-      </c>
       <c r="F11" s="0" t="n">
-        <v>753.1021251947593</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="G11" s="0" t="n">
+        <v>731.8297828355048</v>
+      </c>
+      <c r="H11" s="0" t="n">
         <v>745.575119786364</v>
       </c>
-      <c r="H11" s="0" t="n">
-        <v>738.4931082946447</v>
-      </c>
       <c r="I11" s="0" t="n">
+        <v>719.6616430933761</v>
+      </c>
+      <c r="J11" s="0" t="n">
         <v>731.8297828355048</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>725.5603908377178</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>738.4931082946447</v>
@@ -3700,34 +3700,34 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>728.6473339874464</v>
+        <v>716.8443616805016</v>
       </c>
       <c r="B12" s="0" t="n">
+        <v>722.5660872480564</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>722.5660872480564</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>716.8443616805015</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>722.5660872480564</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>722.5660872480564</v>
+      </c>
+      <c r="G12" s="0" t="n">
         <v>735.1106921944609</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>728.6473339874464</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>716.8443616805016</v>
-      </c>
-      <c r="E12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <v>741.9801716124875</v>
       </c>
-      <c r="F12" s="0" t="n">
-        <v>757.0411710381256</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>741.9801716124877</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>735.1106921944609</v>
-      </c>
       <c r="I12" s="0" t="n">
-        <v>728.6473339874464</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>728.6473339874464</v>
+        <v>728.6473339874462</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>741.9801716124877</v>
@@ -4002,28 +4002,28 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>731.8297828355049</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>719.661643093376</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>714.1116272443656</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>753.1021251947593</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>745.575119786364</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>725.5603908377178</v>
@@ -4304,28 +4304,28 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>716.8443616805016</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>728.6473339874464</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="C14" s="0" t="n">
+        <v>716.8443616805016</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>716.8443616805015</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>716.8443616805016</v>
+      </c>
+      <c r="F14" s="0" t="n">
         <v>722.5660872480564</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>711.4609025193467</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>735.1106921944607</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>749.2812906226455</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>735.1106921944609</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>728.6473339874464</v>
+        <v>741.9801716124875</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>728.6473339874464</v>
@@ -4606,34 +4606,34 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>738.4931082946448</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>719.661643093376</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>708.88972638349</v>
+        <v>714.1116272443656</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>745.575119786364</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>738.4931082946447</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>745.575119786364</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>725.5603908377178</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>738.4931082946447</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>745.5751197863641</v>
@@ -4908,34 +4908,34 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>716.8443616805016</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>728.6473339874464</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="C16" s="0" t="n">
+        <v>716.8443616805016</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>716.8443616805015</v>
+      </c>
+      <c r="E16" s="0" t="n">
         <v>722.5660872480564</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>706.3957115734263</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>735.1106921944607</v>
-      </c>
       <c r="F16" s="0" t="n">
-        <v>749.2812906226455</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>735.1106921944609</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>728.6473339874464</v>
+        <v>741.9801716124875</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>722.5660872480564</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>728.6473339874464</v>
+        <v>741.9801716124875</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>741.9801716124878</v>
@@ -5210,34 +5210,34 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>738.4931082946448</v>
+        <v>714.1116272443656</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>731.8297828355049</v>
+        <v>719.661643093376</v>
       </c>
       <c r="C17" s="0" t="n">
+        <v>719.6616430933761</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>714.1116272443656</v>
+      </c>
+      <c r="E17" s="0" t="n">
         <v>725.5603908377179</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>703.9765424678664</v>
-      </c>
-      <c r="E17" s="0" t="n">
+      <c r="F17" s="0" t="n">
+        <v>725.5603908377179</v>
+      </c>
+      <c r="G17" s="0" t="n">
         <v>738.4931082946447</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <v>745.575119786364</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>731.8297828355048</v>
-      </c>
       <c r="H17" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>738.4931082946447</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>725.5603908377178</v>
+        <v>738.4931082946447</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>738.4931082946448</v>
@@ -5512,34 +5512,34 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
+        <v>711.4609025193467</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>716.8443616805015</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>716.8443616805016</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>711.4609025193467</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>728.6473339874464</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>722.5660872480564</v>
+      </c>
+      <c r="G18" s="0" t="n">
         <v>735.1106921944609</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>735.1106921944609</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>728.6473339874464</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>701.6299729376135</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>741.9801716124875</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>741.9801716124877</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>728.6473339874464</v>
-      </c>
       <c r="H18" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>735.1106921944607</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>716.8443616805016</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>722.5660872480564</v>
+        <v>741.9801716124875</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>741.9801716124878</v>
@@ -5814,34 +5814,34 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>731.8297828355049</v>
+        <v>714.1116272443658</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>731.8297828355049</v>
+        <v>714.1116272443656</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>731.8297828355049</v>
+        <v>714.1116272443656</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>699.3538242600958</v>
+        <v>708.88972638349</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>745.575119786364</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>745.575119786364</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>731.8297828355049</v>
+        <v>738.4931082946447</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>738.4931082946447</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>738.4931082946448</v>
@@ -6116,34 +6116,34 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
+        <v>716.8443616805016</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>711.4609025193467</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>711.4609025193467</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>711.4609025193467</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>722.5660872480564</v>
+      </c>
+      <c r="F20" s="0" t="n">
         <v>728.6473339874464</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>728.6473339874464</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>728.6473339874464</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>697.1459830964859</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>749.2812906226455</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>749.2812906226455</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>735.1106921944609</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>728.6473339874462</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>728.6473339874464</v>
+        <v>741.9801716124875</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>741.9801716124878</v>
@@ -6418,34 +6418,34 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>714.1116272443658</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>708.88972638349</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>708.88972638349</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>699.3538242600958</v>
+        <v>708.88972638349</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>753.1021251947593</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>753.1021251947594</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>714.1116272443658</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>745.575119786364</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>738.4931082946448</v>
@@ -6720,34 +6720,34 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>722.5660872480565</v>
+        <v>711.4609025193467</v>
       </c>
       <c r="B22" s="0" t="n">
+        <v>706.3957115734262</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>706.3957115734263</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>711.4609025193467</v>
+      </c>
+      <c r="E22" s="0" t="n">
         <v>722.5660872480564</v>
       </c>
-      <c r="C22" s="0" t="n">
-        <v>722.5660872480565</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>701.6299729376135</v>
-      </c>
-      <c r="E22" s="0" t="n">
+      <c r="F22" s="0" t="n">
+        <v>728.6473339874464</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>735.1106921944609</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>735.1106921944609</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>722.5660872480564</v>
+      </c>
+      <c r="J22" s="0" t="n">
         <v>749.2812906226455</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>749.2812906226455</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>741.9801716124877</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>741.9801716124877</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>711.4609025193467</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>728.6473339874464</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>741.9801716124878</v>
@@ -7022,34 +7022,34 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
+        <v>714.1116272443658</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>708.88972638349</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>703.9765424678664</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>708.88972638349</v>
+      </c>
+      <c r="E23" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>725.5603908377179</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>719.6616430933761</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>703.9765424678665</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>745.575119786364</v>
-      </c>
       <c r="F23" s="0" t="n">
-        <v>745.575119786364</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>745.5751197863641</v>
+        <v>738.4931082946448</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>738.4931082946447</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>714.1116272443658</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>731.8297828355049</v>
+        <v>753.1021251947593</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>745.5751197863641</v>
@@ -7324,34 +7324,34 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>722.5660872480565</v>
+        <v>716.8443616805016</v>
       </c>
       <c r="B24" s="0" t="n">
+        <v>706.3957115734263</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>701.6299729376135</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>711.4609025193469</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>716.8443616805016</v>
+      </c>
+      <c r="F24" s="0" t="n">
         <v>728.6473339874464</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>722.5660872480565</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>706.3957115734263</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>749.2812906226455</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>749.2812906226457</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>741.9801716124878</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>741.9801716124877</v>
+        <v>741.9801716124875</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>716.8443616805016</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>749.2812906226455</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>749.2812906226458</v>
@@ -7626,22 +7626,22 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>714.1116272443658</v>
       </c>
       <c r="B25" s="0" t="n">
+        <v>708.88972638349</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>699.3538242600958</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>714.1116272443658</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>714.1116272443658</v>
+      </c>
+      <c r="F25" s="0" t="n">
         <v>731.8297828355049</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>719.6616430933761</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>703.9765424678665</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>753.1021251947593</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>753.1021251947594</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>738.4931082946448</v>
@@ -7650,10 +7650,10 @@
         <v>745.575119786364</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>714.1116272443658</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>738.4931082946448</v>
+        <v>753.1021251947593</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>753.1021251947595</v>
@@ -7931,31 +7931,31 @@
         <v>716.8443616805016</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>728.6473339874465</v>
+        <v>706.3957115734263</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>722.5660872480565</v>
+        <v>697.1459830964859</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>701.6299729376135</v>
+        <v>716.8443616805016</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>757.0411710381256</v>
+        <v>711.4609025193469</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>757.0411710381256</v>
+        <v>735.1106921944609</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>741.9801716124878</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>741.9801716124877</v>
+        <v>741.9801716124875</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>722.5660872480564</v>
+        <v>716.8443616805016</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>741.9801716124878</v>
+        <v>749.2812906226455</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>757.0411710381259</v>
@@ -8230,34 +8230,34 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
+        <v>714.1116272443658</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>708.88972638349</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>699.3538242600958</v>
+      </c>
+      <c r="D27" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
-      <c r="B27" s="0" t="n">
-        <v>725.5603908377179</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>725.5603908377179</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>699.3538242600958</v>
-      </c>
       <c r="E27" s="0" t="n">
-        <v>761.1020854439428</v>
+        <v>708.88972638349</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>761.1020854439428</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>731.8297828355049</v>
+        <v>738.4931082946448</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>745.575119786364</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>714.1116272443658</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>738.4931082946448</v>
+        <v>753.1021251947593</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>753.1021251947595</v>
@@ -8535,31 +8535,31 @@
         <v>716.8443616805016</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>728.6473339874465</v>
+        <v>711.4609025193469</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>728.6473339874465</v>
+        <v>701.6299729376135</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>701.6299729376135</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>757.0411710381256</v>
+        <v>711.4609025193469</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>765.2886388548774</v>
+        <v>735.1106921944609</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>741.9801716124878</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>741.9801716124877</v>
+        <v>749.2812906226455</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>716.8443616805016</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>741.9801716124878</v>
+        <v>757.0411710381256</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>757.0411710381259</v>
@@ -8834,34 +8834,34 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>719.6616430933763</v>
+        <v>714.1116272443658</v>
       </c>
       <c r="B29" s="0" t="n">
+        <v>714.1116272443658</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>703.9765424678665</v>
+      </c>
+      <c r="D29" s="0" t="n">
         <v>725.5603908377179</v>
       </c>
-      <c r="C29" s="0" t="n">
-        <v>725.5603908377179</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>699.3538242600958</v>
-      </c>
       <c r="E29" s="0" t="n">
-        <v>753.1021251947594</v>
+        <v>708.8897263834901</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>769.6047183658125</v>
+        <v>738.4931082946448</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>731.8297828355049</v>
+        <v>745.5751197863641</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>745.575119786364</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>714.1116272443658</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>738.4931082946448</v>
+        <v>753.1021251947594</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>753.1021251947597</v>
@@ -9136,34 +9136,34 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
+        <v>716.8443616805016</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>711.4609025193469</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>701.6299729376135</v>
+      </c>
+      <c r="D30" s="0" t="n">
         <v>722.5660872480565</v>
       </c>
-      <c r="B30" s="0" t="n">
-        <v>722.5660872480565</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>722.5660872480565</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>697.145983096486</v>
-      </c>
       <c r="E30" s="0" t="n">
-        <v>757.0411710381256</v>
+        <v>706.3957115734263</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>765.2886388548774</v>
+        <v>741.9801716124878</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>741.9801716124878</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>741.9801716124877</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>711.4609025193469</v>
+        <v>716.8443616805016</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>741.9801716124878</v>
+        <v>749.2812906226455</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>749.2812906226458</v>
@@ -9438,25 +9438,25 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
+        <v>719.6616430933761</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>708.88972638349</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>703.9765424678665</v>
+      </c>
+      <c r="D31" s="0" t="n">
         <v>725.5603908377179</v>
       </c>
-      <c r="B31" s="0" t="n">
-        <v>719.6616430933761</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>719.6616430933761</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>699.353824260096</v>
-      </c>
       <c r="E31" s="0" t="n">
-        <v>761.1020854439428</v>
+        <v>703.9765424678665</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>761.1020854439428</v>
+        <v>745.5751197863641</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>731.8297828355049</v>
+        <v>745.5751197863641</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>745.575119786364</v>
@@ -9465,7 +9465,7 @@
         <v>714.1116272443658</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>745.5751197863641</v>
+        <v>753.1021251947594</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>753.1021251947597</v>
@@ -9740,34 +9740,34 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>722.5660872480565</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>722.5660872480565</v>
+        <v>711.4609025193469</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>701.6299729376135</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>697.145983096486</v>
+        <v>728.6473339874465</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>765.2886388548774</v>
+        <v>701.6299729376135</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>757.0411710381258</v>
+        <v>741.9801716124878</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>749.2812906226457</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>749.2812906226457</v>
+        <v>749.2812906226455</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>711.4609025193467</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>741.9801716124878</v>
+        <v>749.2812906226455</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>749.2812906226458</v>
@@ -10045,31 +10045,31 @@
         <v>725.5603908377179</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>714.1116272443658</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>719.6616430933763</v>
+        <v>703.9765424678665</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>699.353824260096</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>761.1020854439428</v>
+        <v>703.9765424678665</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>761.1020854439428</v>
+        <v>738.4931082946448</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>731.8297828355049</v>
+        <v>753.1021251947595</v>
       </c>
       <c r="H33" s="0" t="n">
+        <v>745.575119786364</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>708.88972638349</v>
+      </c>
+      <c r="J33" s="0" t="n">
         <v>753.1021251947594</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>714.1116272443658</v>
-      </c>
-      <c r="J33" s="0" t="n">
-        <v>738.4931082946448</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>745.5751197863642</v>
@@ -10344,34 +10344,34 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
+        <v>728.6473339874464</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>716.8443616805016</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>701.6299729376135</v>
+      </c>
+      <c r="D34" s="0" t="n">
         <v>722.5660872480565</v>
       </c>
-      <c r="B34" s="0" t="n">
-        <v>722.5660872480565</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>722.5660872480565</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>697.145983096486</v>
-      </c>
       <c r="E34" s="0" t="n">
-        <v>757.0411710381258</v>
+        <v>701.6299729376135</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>757.0411710381258</v>
+        <v>741.9801716124878</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>749.2812906226458</v>
       </c>
       <c r="H34" s="0" t="n">
+        <v>749.2812906226455</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>711.4609025193469</v>
+      </c>
+      <c r="J34" s="0" t="n">
         <v>757.0411710381256</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>716.8443616805016</v>
-      </c>
-      <c r="J34" s="0" t="n">
-        <v>735.110692194461</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>741.9801716124879</v>
@@ -10646,34 +10646,34 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>719.6616430933763</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="B35" s="0" t="n">
+        <v>719.6616430933761</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>699.353824260096</v>
+      </c>
+      <c r="D35" s="0" t="n">
         <v>725.5603908377179</v>
       </c>
-      <c r="C35" s="0" t="n">
-        <v>719.6616430933763</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>699.353824260096</v>
-      </c>
       <c r="E35" s="0" t="n">
+        <v>703.9765424678665</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>745.5751197863641</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>745.5751197863641</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>745.575119786364</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>714.1116272443658</v>
+      </c>
+      <c r="J35" s="0" t="n">
         <v>761.1020854439428</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>753.1021251947595</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>738.4931082946448</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>753.1021251947594</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>719.6616430933761</v>
-      </c>
-      <c r="J35" s="0" t="n">
-        <v>738.4931082946448</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>738.4931082946449</v>
@@ -10948,34 +10948,34 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>722.5660872480565</v>
+        <v>728.6473339874464</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>722.5660872480565</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>697.145983096486</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>697.145983096486</v>
+        <v>722.5660872480565</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>765.2886388548774</v>
+        <v>706.3957115734263</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>757.0411710381258</v>
+        <v>749.2812906226458</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>741.9801716124878</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>757.0411710381258</v>
+        <v>749.2812906226457</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>716.8443616805016</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>741.9801716124878</v>
+        <v>765.2886388548774</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>741.9801716124879</v>
@@ -11256,28 +11256,28 @@
         <v>719.6616430933761</v>
       </c>
       <c r="C37" s="0" t="n">
+        <v>699.353824260096</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>725.5603908377179</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>703.9765424678665</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>745.5751197863642</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>745.5751197863642</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>745.575119786364</v>
+      </c>
+      <c r="I37" s="0" t="n">
         <v>714.1116272443658</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>695.0043995295257</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>761.1020854439428</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>753.1021251947595</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>738.4931082946448</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>753.1021251947595</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>719.6616430933761</v>
-      </c>
       <c r="J37" s="0" t="n">
-        <v>745.5751197863642</v>
+        <v>769.6047183658125</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>738.4931082946449</v>
@@ -11555,31 +11555,31 @@
         <v>728.6473339874465</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>722.5660872480565</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>716.8443616805017</v>
+        <v>697.145983096486</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>692.9270851602366</v>
+        <v>728.6473339874465</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>765.2886388548775</v>
+        <v>701.6299729376135</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>757.0411710381259</v>
+        <v>749.2812906226458</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>741.9801716124878</v>
+        <v>749.2812906226458</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>757.0411710381258</v>
+        <v>749.2812906226457</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>711.4609025193469</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>741.9801716124878</v>
+        <v>765.2886388548774</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>741.9801716124879</v>
@@ -11854,34 +11854,34 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
+        <v>731.8297828355049</v>
+      </c>
+      <c r="B39" s="0" t="n">
         <v>725.5603908377179</v>
       </c>
-      <c r="B39" s="0" t="n">
-        <v>714.1116272443658</v>
-      </c>
       <c r="C39" s="0" t="n">
-        <v>714.1116272443658</v>
+        <v>699.353824260096</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>695.0043995295257</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>761.1020854439429</v>
+        <v>703.9765424678665</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>753.1021251947595</v>
+        <v>745.5751197863642</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>745.5751197863641</v>
+        <v>745.5751197863642</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>761.1020854439428</v>
+        <v>753.1021251947594</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>714.1116272443658</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>745.5751197863642</v>
+        <v>769.6047183658125</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>745.5751197863642</v>
@@ -12156,34 +12156,34 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>722.5660872480565</v>
+        <v>728.6473339874465</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>711.4609025193469</v>
+        <v>728.6473339874465</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>716.8443616805017</v>
+        <v>697.145983096486</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>692.9270851602366</v>
+        <v>735.110692194461</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>757.0411710381258</v>
+        <v>706.3957115734264</v>
       </c>
       <c r="F40" s="0" t="n">
+        <v>741.9801716124878</v>
+      </c>
+      <c r="G40" s="0" t="n">
         <v>749.2812906226458</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>749.2812906226457</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>757.0411710381258</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>711.4609025193469</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>741.9801716124878</v>
+        <v>765.2886388548775</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>741.9801716124879</v>
@@ -12458,25 +12458,25 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>719.6616430933763</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="B41" s="0" t="n">
+        <v>725.5603908377179</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>699.353824260096</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>731.8297828355051</v>
+      </c>
+      <c r="E41" s="0" t="n">
         <v>708.8897263834901</v>
       </c>
-      <c r="C41" s="0" t="n">
-        <v>719.6616430933763</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>695.0043995295257</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>761.1020854439429</v>
-      </c>
       <c r="F41" s="0" t="n">
-        <v>753.1021251947595</v>
+        <v>745.5751197863642</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>753.1021251947595</v>
+        <v>745.5751197863642</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>753.1021251947595</v>
@@ -12485,7 +12485,7 @@
         <v>714.1116272443658</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>745.5751197863642</v>
+        <v>761.1020854439429</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>745.5751197863642</v>
@@ -12760,34 +12760,34 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
+        <v>728.6473339874465</v>
+      </c>
+      <c r="B42" s="0" t="n">
         <v>722.5660872480565</v>
       </c>
-      <c r="B42" s="0" t="n">
-        <v>706.3957115734263</v>
-      </c>
       <c r="C42" s="0" t="n">
-        <v>722.5660872480566</v>
+        <v>697.145983096486</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>692.9270851602366</v>
+        <v>728.6473339874465</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>757.0411710381258</v>
+        <v>711.460902519347</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>749.2812906226458</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>757.0411710381259</v>
+        <v>741.9801716124879</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>757.0411710381258</v>
+        <v>749.2812906226457</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>716.8443616805016</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>749.2812906226458</v>
+        <v>765.2886388548775</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>749.2812906226459</v>
@@ -13062,34 +13062,34 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>719.6616430933763</v>
+        <v>731.8297828355051</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>708.8897263834901</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>719.6616430933763</v>
+        <v>695.0043995295257</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>695.0043995295257</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>753.1021251947595</v>
+        <v>714.1116272443659</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>753.1021251947595</v>
+        <v>753.1021251947597</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>761.1020854439429</v>
+        <v>745.5751197863642</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>761.1020854439429</v>
+        <v>745.5751197863641</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>745.5751197863642</v>
+        <v>761.1020854439429</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>753.1021251947598</v>
@@ -13364,34 +13364,34 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
+        <v>735.110692194461</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>728.6473339874465</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>692.9270851602366</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>728.6473339874465</v>
+      </c>
+      <c r="E44" s="0" t="n">
         <v>716.8443616805017</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>706.3957115734264</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>716.8443616805017</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>692.9270851602366</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>749.2812906226457</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>749.2812906226458</v>
       </c>
       <c r="G44" s="0" t="n">
+        <v>749.2812906226458</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>749.2812906226457</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>716.8443616805016</v>
+      </c>
+      <c r="J44" s="0" t="n">
         <v>765.2886388548775</v>
-      </c>
-      <c r="H44" s="0" t="n">
-        <v>765.2886388548775</v>
-      </c>
-      <c r="I44" s="0" t="n">
-        <v>722.5660872480565</v>
-      </c>
-      <c r="J44" s="0" t="n">
-        <v>749.2812906226458</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>749.2812906226459</v>
@@ -13666,34 +13666,34 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>714.1116272443659</v>
+        <v>731.8297828355051</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>708.8897263834901</v>
+        <v>731.8297828355051</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>714.1116272443659</v>
+        <v>695.0043995295257</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>695.0043995295257</v>
+        <v>725.560390837718</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>745.5751197863641</v>
+        <v>719.6616430933763</v>
       </c>
       <c r="F45" s="0" t="n">
+        <v>745.5751197863642</v>
+      </c>
+      <c r="G45" s="0" t="n">
         <v>753.1021251947597</v>
       </c>
-      <c r="G45" s="0" t="n">
-        <v>769.6047183658125</v>
-      </c>
       <c r="H45" s="0" t="n">
-        <v>769.6047183658125</v>
+        <v>753.1021251947595</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>745.5751197863642</v>
+        <v>761.1020854439429</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>745.5751197863643</v>
@@ -13968,34 +13968,34 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>711.460902519347</v>
+        <v>728.6473339874465</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>706.3957115734264</v>
+        <v>735.110692194461</v>
       </c>
       <c r="C46" s="0" t="n">
+        <v>692.9270851602366</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>722.5660872480565</v>
+      </c>
+      <c r="E46" s="0" t="n">
         <v>716.8443616805017</v>
       </c>
-      <c r="D46" s="0" t="n">
-        <v>697.1459830964861</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>741.9801716124878</v>
-      </c>
       <c r="F46" s="0" t="n">
-        <v>757.0411710381259</v>
+        <v>741.9801716124879</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>774.0543313329034</v>
+        <v>749.2812906226458</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>765.2886388548775</v>
+        <v>749.2812906226457</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>716.8443616805016</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>749.2812906226458</v>
+        <v>757.0411710381259</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>741.980171612488</v>
@@ -14270,34 +14270,34 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>714.1116272443659</v>
+        <v>731.8297828355051</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>703.9765424678665</v>
+        <v>731.8297828355051</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>714.1116272443659</v>
+        <v>695.0043995295257</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>699.353824260096</v>
+        <v>725.560390837718</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>738.4931082946448</v>
+        <v>719.6616430933764</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>753.1021251947597</v>
+        <v>745.5751197863642</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>778.6416090942935</v>
+        <v>745.5751197863642</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>761.1020854439429</v>
+        <v>753.1021251947595</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>719.6616430933763</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>753.1021251947597</v>
+        <v>761.1020854439429</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>738.493108294645</v>
@@ -14572,28 +14572,28 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>716.8443616805017</v>
+        <v>728.6473339874465</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>701.6299729376136</v>
+        <v>728.6473339874465</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>711.460902519347</v>
+        <v>697.145983096486</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>701.6299729376136</v>
+        <v>722.5660872480565</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>735.110692194461</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="F48" s="0" t="n">
+        <v>741.9801716124879</v>
+      </c>
+      <c r="G48" s="0" t="n">
         <v>749.2812906226458</v>
       </c>
-      <c r="G48" s="0" t="n">
-        <v>783.3708108059428</v>
-      </c>
       <c r="H48" s="0" t="n">
-        <v>757.0411710381259</v>
+        <v>749.2812906226457</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>722.5660872480565</v>
@@ -14874,34 +14874,34 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>714.1116272443659</v>
+        <v>725.560390837718</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>703.9765424678665</v>
+        <v>731.8297828355051</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>714.1116272443659</v>
+        <v>695.0043995295257</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>699.353824260096</v>
+        <v>725.560390837718</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>738.4931082946448</v>
+        <v>719.6616430933764</v>
       </c>
       <c r="F49" s="0" t="n">
+        <v>745.5751197863642</v>
+      </c>
+      <c r="G49" s="0" t="n">
         <v>753.1021251947597</v>
-      </c>
-      <c r="G49" s="0" t="n">
-        <v>778.6416090942935</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>753.1021251947595</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>719.6616430933763</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>753.1021251947597</v>
+        <v>753.1021251947595</v>
       </c>
       <c r="K49" s="0" t="n">
         <v>745.5751197863643</v>
@@ -15176,34 +15176,34 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>716.8443616805017</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>706.3957115734264</v>
+        <v>735.110692194461</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>711.460902519347</v>
+        <v>692.9270851602366</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>697.1459830964861</v>
+        <v>728.6473339874465</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>741.9801716124878</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>749.2812906226458</v>
+        <v>749.2812906226459</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>774.0543313329035</v>
+        <v>757.0411710381259</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>757.0411710381259</v>
+        <v>749.2812906226457</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>722.5660872480565</v>
       </c>
       <c r="J50" s="0" t="n">
-        <v>757.0411710381259</v>
+        <v>749.2812906226458</v>
       </c>
       <c r="K50" s="0" t="n">
         <v>749.2812906226459</v>
@@ -15478,34 +15478,34 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>714.1116272443659</v>
+        <v>725.560390837718</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>703.9765424678666</v>
+        <v>738.4931082946449</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>714.1116272443659</v>
+        <v>690.9121112617493</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>695.0043995295257</v>
+        <v>731.8297828355051</v>
       </c>
       <c r="E51" s="0" t="n">
+        <v>719.6616430933764</v>
+      </c>
+      <c r="F51" s="0" t="n">
         <v>745.5751197863642</v>
       </c>
-      <c r="F51" s="0" t="n">
-        <v>753.1021251947597</v>
-      </c>
       <c r="G51" s="0" t="n">
-        <v>778.6416090942935</v>
+        <v>761.102085443943</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>761.102085443943</v>
+        <v>745.5751197863641</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>719.6616430933763</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>761.102085443943</v>
+        <v>745.5751197863642</v>
       </c>
       <c r="K51" s="0" t="n">
         <v>753.1021251947598</v>
@@ -15780,34 +15780,34 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>711.460902519347</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>701.6299729376136</v>
+        <v>741.9801716124879</v>
       </c>
       <c r="C52" s="0" t="n">
+        <v>688.9576069885345</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>728.6473339874465</v>
+      </c>
+      <c r="E52" s="0" t="n">
         <v>716.8443616805018</v>
       </c>
-      <c r="D52" s="0" t="n">
-        <v>692.9270851602367</v>
-      </c>
-      <c r="E52" s="0" t="n">
+      <c r="F52" s="0" t="n">
+        <v>741.9801716124879</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>765.2886388548776</v>
+      </c>
+      <c r="H52" s="0" t="n">
         <v>741.9801716124878</v>
       </c>
-      <c r="F52" s="0" t="n">
-        <v>757.0411710381259</v>
-      </c>
-      <c r="G52" s="0" t="n">
-        <v>783.3708108059429</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <v>757.0411710381259</v>
-      </c>
       <c r="I52" s="0" t="n">
-        <v>722.5660872480565</v>
+        <v>728.6473339874465</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>765.2886388548776</v>
+        <v>741.9801716124879</v>
       </c>
       <c r="K52" s="0" t="n">
         <v>749.2812906226459</v>
@@ -16082,34 +16082,34 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>708.8897263834903</v>
+        <v>719.6616430933763</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>699.353824260096</v>
+        <v>738.4931082946449</v>
       </c>
       <c r="C53" s="0" t="n">
+        <v>687.0617576393782</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>725.560390837718</v>
+      </c>
+      <c r="E53" s="0" t="n">
         <v>719.6616430933764</v>
       </c>
-      <c r="D53" s="0" t="n">
-        <v>695.0043995295257</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>738.4931082946449</v>
-      </c>
       <c r="F53" s="0" t="n">
-        <v>761.102085443943</v>
+        <v>745.5751197863642</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>788.2463273961331</v>
+        <v>769.6047183658127</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>753.1021251947597</v>
+        <v>738.4931082946448</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>731.8297828355051</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>761.102085443943</v>
+        <v>745.5751197863642</v>
       </c>
       <c r="K53" s="0" t="n">
         <v>745.5751197863643</v>
@@ -16384,34 +16384,34 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>706.3957115734264</v>
+        <v>716.8443616805017</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>697.1459830964861</v>
+        <v>735.1106921944611</v>
       </c>
       <c r="C54" s="0" t="n">
+        <v>685.2228029724822</v>
+      </c>
+      <c r="D54" s="0" t="n">
         <v>722.5660872480566</v>
       </c>
-      <c r="D54" s="0" t="n">
-        <v>692.9270851602367</v>
-      </c>
       <c r="E54" s="0" t="n">
+        <v>716.8443616805018</v>
+      </c>
+      <c r="F54" s="0" t="n">
         <v>741.9801716124879</v>
       </c>
-      <c r="F54" s="0" t="n">
-        <v>765.2886388548776</v>
-      </c>
       <c r="G54" s="0" t="n">
-        <v>793.2726856423177</v>
+        <v>774.0543313329035</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>749.2812906226458</v>
+        <v>735.110692194461</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>728.6473339874465</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>765.2886388548776</v>
+        <v>749.2812906226458</v>
       </c>
       <c r="K54" s="0" t="n">
         <v>741.980171612488</v>
@@ -16686,34 +16686,34 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>703.9765424678666</v>
+        <v>714.1116272443659</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>699.353824260096</v>
+        <v>738.4931082946449</v>
       </c>
       <c r="C55" s="0" t="n">
+        <v>687.0617576393782</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>725.560390837718</v>
+      </c>
+      <c r="E55" s="0" t="n">
         <v>719.6616430933764</v>
       </c>
-      <c r="D55" s="0" t="n">
-        <v>695.0043995295258</v>
-      </c>
-      <c r="E55" s="0" t="n">
+      <c r="F55" s="0" t="n">
         <v>738.4931082946449</v>
       </c>
-      <c r="F55" s="0" t="n">
-        <v>761.102085443943</v>
-      </c>
       <c r="G55" s="0" t="n">
-        <v>788.2463273961331</v>
+        <v>778.6416090942936</v>
       </c>
       <c r="H55" s="0" t="n">
+        <v>738.4931082946448</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>731.8297828355051</v>
+      </c>
+      <c r="J55" s="0" t="n">
         <v>753.1021251947597</v>
-      </c>
-      <c r="I55" s="0" t="n">
-        <v>725.5603908377179</v>
-      </c>
-      <c r="J55" s="0" t="n">
-        <v>769.6047183658127</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>738.493108294645</v>
@@ -16988,34 +16988,34 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>701.6299729376136</v>
+        <v>716.8443616805017</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>697.1459830964861</v>
+        <v>741.9801716124879</v>
       </c>
       <c r="C56" s="0" t="n">
+        <v>685.2228029724822</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>722.5660872480566</v>
+      </c>
+      <c r="E56" s="0" t="n">
         <v>716.8443616805018</v>
       </c>
-      <c r="D56" s="0" t="n">
-        <v>697.1459830964861</v>
-      </c>
-      <c r="E56" s="0" t="n">
-        <v>735.1106921944611</v>
-      </c>
       <c r="F56" s="0" t="n">
-        <v>757.0411710381259</v>
+        <v>741.9801716124879</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>783.3708108059429</v>
+        <v>774.0543313329035</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>757.0411710381259</v>
+        <v>735.110692194461</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>722.5660872480565</v>
+        <v>728.6473339874465</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>774.0543313329035</v>
+        <v>749.2812906226458</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>741.980171612488</v>
@@ -17290,34 +17290,34 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>699.353824260096</v>
+        <v>714.1116272443659</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>695.0043995295257</v>
+        <v>745.5751197863642</v>
       </c>
       <c r="C57" s="0" t="n">
+        <v>683.4390355711305</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>725.560390837718</v>
+      </c>
+      <c r="E57" s="0" t="n">
         <v>714.111627244366</v>
       </c>
-      <c r="D57" s="0" t="n">
-        <v>699.3538242600961</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <v>738.4931082946449</v>
-      </c>
       <c r="F57" s="0" t="n">
-        <v>753.1021251947597</v>
+        <v>745.5751197863642</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>788.2463273961331</v>
+        <v>769.6047183658127</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>753.1021251947597</v>
+        <v>738.4931082946448</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>719.6616430933763</v>
+        <v>725.560390837718</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>778.6416090942936</v>
+        <v>745.5751197863642</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>745.5751197863643</v>
@@ -17592,34 +17592,34 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>697.1459830964861</v>
+        <v>716.8443616805017</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>697.1459830964861</v>
+        <v>749.2812906226459</v>
       </c>
       <c r="C58" s="0" t="n">
+        <v>681.7087992584021</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>728.6473339874465</v>
+      </c>
+      <c r="E58" s="0" t="n">
         <v>716.8443616805018</v>
       </c>
-      <c r="D58" s="0" t="n">
-        <v>697.1459830964861</v>
-      </c>
-      <c r="E58" s="0" t="n">
-        <v>735.1106921944611</v>
-      </c>
       <c r="F58" s="0" t="n">
-        <v>757.0411710381259</v>
+        <v>749.2812906226459</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>793.2726856423178</v>
+        <v>765.2886388548777</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>757.0411710381259</v>
+        <v>735.110692194461</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>716.8443616805017</v>
+        <v>728.6473339874465</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>774.0543313329035</v>
+        <v>749.2812906226458</v>
       </c>
       <c r="K58" s="0" t="n">
         <v>749.281290622646</v>
@@ -17894,34 +17894,34 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>699.353824260096</v>
+        <v>714.1116272443659</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>695.0043995295257</v>
+        <v>753.1021251947597</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>683.4390355711305</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>695.0043995295258</v>
+        <v>725.560390837718</v>
       </c>
       <c r="E59" s="0" t="n">
+        <v>719.6616430933764</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>745.5751197863643</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>769.6047183658127</v>
+      </c>
+      <c r="H59" s="0" t="n">
         <v>738.4931082946449</v>
       </c>
-      <c r="F59" s="0" t="n">
-        <v>761.102085443943</v>
-      </c>
-      <c r="G59" s="0" t="n">
-        <v>798.4545523741061</v>
-      </c>
-      <c r="H59" s="0" t="n">
-        <v>761.102085443943</v>
-      </c>
       <c r="I59" s="0" t="n">
-        <v>714.1116272443658</v>
+        <v>731.8297828355051</v>
       </c>
       <c r="J59" s="0" t="n">
-        <v>769.6047183658127</v>
+        <v>745.5751197863642</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>753.1021251947598</v>
@@ -18196,34 +18196,34 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>701.6299729376136</v>
+        <v>711.460902519347</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>697.1459830964861</v>
+        <v>757.0411710381259</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>711.4609025193471</v>
+        <v>685.2228029724822</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>692.9270851602367</v>
+        <v>728.6473339874465</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>735.1106921944611</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>765.2886388548776</v>
+        <v>741.980171612488</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>793.2726856423178</v>
+        <v>774.0543313329036</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>765.2886388548776</v>
+        <v>741.9801716124879</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>711.460902519347</v>
+        <v>728.6473339874465</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>765.2886388548777</v>
+        <v>741.9801716124879</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>749.281290622646</v>
@@ -18498,34 +18498,34 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>699.3538242600961</v>
+        <v>714.1116272443659</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>699.353824260096</v>
+        <v>761.102085443943</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>683.4390355711305</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>695.0043995295258</v>
+        <v>731.8297828355051</v>
       </c>
       <c r="E61" s="0" t="n">
+        <v>719.6616430933764</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>745.5751197863643</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>778.6416090942937</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>745.5751197863642</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>725.560390837718</v>
+      </c>
+      <c r="J61" s="0" t="n">
         <v>738.4931082946449</v>
-      </c>
-      <c r="F61" s="0" t="n">
-        <v>769.6047183658127</v>
-      </c>
-      <c r="G61" s="0" t="n">
-        <v>788.2463273961332</v>
-      </c>
-      <c r="H61" s="0" t="n">
-        <v>769.6047183658126</v>
-      </c>
-      <c r="I61" s="0" t="n">
-        <v>714.1116272443659</v>
-      </c>
-      <c r="J61" s="0" t="n">
-        <v>769.6047183658127</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>753.1021251947598</v>
@@ -18800,34 +18800,34 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>701.6299729376136</v>
+        <v>711.460902519347</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>701.6299729376136</v>
+        <v>765.2886388548776</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>711.4609025193471</v>
+        <v>685.2228029724822</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>692.9270851602367</v>
+        <v>728.6473339874465</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>741.9801716124879</v>
+        <v>722.5660872480568</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>774.0543313329035</v>
+        <v>749.2812906226459</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>783.3708108059429</v>
+        <v>774.0543313329036</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>774.0543313329035</v>
+        <v>749.2812906226458</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>711.460902519347</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>774.0543313329036</v>
+        <v>735.1106921944611</v>
       </c>
       <c r="K62" s="0" t="n">
         <v>757.0411710381261</v>
@@ -19102,34 +19102,34 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>699.3538242600961</v>
+        <v>714.1116272443659</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>699.353824260096</v>
+        <v>769.6047183658127</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>683.4390355711305</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>690.9121112617493</v>
+        <v>725.560390837718</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>745.5751197863642</v>
+        <v>725.5603908377182</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>769.6047183658127</v>
+        <v>753.1021251947598</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>778.6416090942936</v>
+        <v>778.6416090942937</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>769.6047183658127</v>
+        <v>753.1021251947597</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>708.8897263834901</v>
+        <v>725.560390837718</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>778.6416090942937</v>
+        <v>731.8297828355051</v>
       </c>
       <c r="K63" s="0" t="n">
         <v>761.1020854439432</v>
@@ -19404,34 +19404,34 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>697.1459830964861</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>697.1459830964861</v>
+        <v>774.0543313329035</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>711.4609025193471</v>
+        <v>681.7087992584021</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>688.9576069885346</v>
+        <v>728.6473339874465</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>741.9801716124879</v>
+        <v>722.5660872480568</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>765.2886388548777</v>
+        <v>757.041171038126</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>774.0543313329036</v>
+        <v>774.0543313329038</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>774.0543313329035</v>
+        <v>757.0411710381259</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>711.460902519347</v>
+        <v>728.6473339874465</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>783.3708108059431</v>
+        <v>728.6473339874466</v>
       </c>
       <c r="K64" s="0" t="n">
         <v>765.2886388548777</v>
@@ -19706,34 +19706,34 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>699.3538242600961</v>
+        <v>719.6616430933764</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>695.0043995295257</v>
+        <v>778.6416090942936</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>708.8897263834903</v>
+        <v>680.0304875594579</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>687.0617576393784</v>
+        <v>725.560390837718</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>745.5751197863642</v>
+        <v>725.5603908377183</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>761.102085443943</v>
+        <v>753.1021251947598</v>
       </c>
       <c r="G65" s="0" t="n">
         <v>778.6416090942937</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>769.6047183658127</v>
+        <v>753.1021251947597</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>708.8897263834901</v>
+        <v>731.8297828355051</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>788.2463273961332</v>
+        <v>731.8297828355052</v>
       </c>
       <c r="K65" s="0" t="n">
         <v>769.6047183658128</v>
@@ -20008,34 +20008,34 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>692.9270851602366</v>
+        <v>783.3708108059429</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>711.4609025193471</v>
+        <v>678.4025422099746</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>685.2228029724822</v>
+        <v>728.6473339874465</v>
       </c>
       <c r="E66" s="0" t="n">
+        <v>728.6473339874467</v>
+      </c>
+      <c r="F66" s="0" t="n">
         <v>749.2812906226459</v>
       </c>
-      <c r="F66" s="0" t="n">
-        <v>765.2886388548777</v>
-      </c>
       <c r="G66" s="0" t="n">
-        <v>783.3708108059431</v>
+        <v>774.0543313329038</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>774.0543313329035</v>
+        <v>757.0411710381259</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>711.460902519347</v>
+        <v>728.6473339874466</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>783.3708108059431</v>
+        <v>735.1106921944611</v>
       </c>
       <c r="K66" s="0" t="n">
         <v>774.0543313329038</v>
@@ -20310,34 +20310,34 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
-        <v>699.3538242600961</v>
+        <v>719.6616430933764</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>690.9121112617493</v>
+        <v>778.6416090942936</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>676.8234517093416</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>687.0617576393784</v>
+        <v>725.560390837718</v>
       </c>
       <c r="E67" s="0" t="n">
+        <v>725.5603908377183</v>
+      </c>
+      <c r="F67" s="0" t="n">
         <v>745.5751197863643</v>
       </c>
-      <c r="F67" s="0" t="n">
-        <v>769.6047183658127</v>
-      </c>
       <c r="G67" s="0" t="n">
-        <v>788.2463273961332</v>
+        <v>769.6047183658128</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>778.6416090942936</v>
+        <v>753.1021251947597</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>708.8897263834901</v>
+        <v>725.560390837718</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>778.6416090942937</v>
+        <v>738.4931082946449</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>778.6416090942937</v>
@@ -20612,34 +20612,34 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>697.1459830964861</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>692.9270851602366</v>
+        <v>783.3708108059431</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>716.8443616805018</v>
+        <v>675.2917499172754</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>685.2228029724822</v>
+        <v>728.6473339874465</v>
       </c>
       <c r="E68" s="0" t="n">
+        <v>728.6473339874467</v>
+      </c>
+      <c r="F68" s="0" t="n">
         <v>749.2812906226459</v>
       </c>
-      <c r="F68" s="0" t="n">
-        <v>765.2886388548777</v>
-      </c>
       <c r="G68" s="0" t="n">
-        <v>793.2726856423178</v>
+        <v>765.2886388548778</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>783.3708108059431</v>
+        <v>749.2812906226458</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>706.3957115734264</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="J68" s="0" t="n">
-        <v>774.0543313329038</v>
+        <v>735.1106921944611</v>
       </c>
       <c r="K68" s="0" t="n">
         <v>783.3708108059432</v>
@@ -20914,34 +20914,34 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="n">
-        <v>695.0043995295258</v>
+        <v>719.6616430933764</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>690.9121112617493</v>
+        <v>788.2463273961332</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>676.8234517093417</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>687.0617576393784</v>
+        <v>725.560390837718</v>
       </c>
       <c r="E69" s="0" t="n">
+        <v>725.5603908377183</v>
+      </c>
+      <c r="F69" s="0" t="n">
         <v>753.1021251947598</v>
       </c>
-      <c r="F69" s="0" t="n">
-        <v>769.6047183658127</v>
-      </c>
       <c r="G69" s="0" t="n">
-        <v>798.4545523741062</v>
+        <v>769.6047183658128</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>788.2463273961332</v>
+        <v>745.5751197863642</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>708.8897263834903</v>
+        <v>719.6616430933763</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>778.6416090942937</v>
+        <v>731.8297828355052</v>
       </c>
       <c r="K69" s="0" t="n">
         <v>778.6416090942937</v>
@@ -21216,34 +21216,34 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
-        <v>697.1459830964861</v>
+        <v>722.5660872480568</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>692.9270851602366</v>
+        <v>793.2726856423178</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>711.4609025193471</v>
+        <v>678.4025422099746</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>685.2228029724823</v>
+        <v>728.6473339874465</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>757.041171038126</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>765.2886388548777</v>
+        <v>757.0411710381261</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>803.7967388062805</v>
+        <v>765.2886388548778</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>793.2726856423178</v>
+        <v>749.2812906226458</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>711.460902519347</v>
+        <v>716.8443616805017</v>
       </c>
       <c r="J70" s="0" t="n">
-        <v>783.3708108059432</v>
+        <v>735.1106921944611</v>
       </c>
       <c r="K70" s="0" t="n">
         <v>774.0543313329038</v>
@@ -21518,34 +21518,34 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="n">
-        <v>699.3538242600961</v>
+        <v>725.5603908377182</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>690.9121112617493</v>
+        <v>798.4545523741062</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>708.8897263834903</v>
+        <v>680.0304875594579</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>683.4390355711306</v>
+        <v>725.560390837718</v>
       </c>
       <c r="E71" s="0" t="n">
+        <v>719.6616430933765</v>
+      </c>
+      <c r="F71" s="0" t="n">
         <v>761.1020854439431</v>
       </c>
-      <c r="F71" s="0" t="n">
-        <v>769.6047183658127</v>
-      </c>
       <c r="G71" s="0" t="n">
-        <v>798.4545523741062</v>
+        <v>769.6047183658128</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>798.4545523741062</v>
+        <v>753.1021251947597</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>708.8897263834903</v>
+        <v>714.1116272443659</v>
       </c>
       <c r="J71" s="0" t="n">
-        <v>778.6416090942937</v>
+        <v>738.493108294645</v>
       </c>
       <c r="K71" s="0" t="n">
         <v>778.6416090942937</v>
@@ -21820,34 +21820,34 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>688.9576069885346</v>
+        <v>803.7967388062805</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>678.4025422099746</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>685.2228029724823</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>757.041171038126</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>774.0543313329036</v>
+        <v>757.0411710381261</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>793.2726856423179</v>
+        <v>774.0543313329038</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>803.7967388062805</v>
+        <v>749.2812906226459</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>706.3957115734264</v>
+        <v>711.460902519347</v>
       </c>
       <c r="J72" s="0" t="n">
-        <v>774.0543313329038</v>
+        <v>735.1106921944611</v>
       </c>
       <c r="K72" s="0" t="n">
         <v>774.0543313329038</v>
@@ -22122,34 +22122,34 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>690.9121112617493</v>
+        <v>798.4545523741062</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>708.8897263834903</v>
+        <v>676.8234517093417</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>687.0617576393784</v>
+        <v>725.560390837718</v>
       </c>
       <c r="E73" s="0" t="n">
+        <v>719.6616430933765</v>
+      </c>
+      <c r="F73" s="0" t="n">
         <v>761.1020854439431</v>
       </c>
-      <c r="F73" s="0" t="n">
-        <v>778.6416090942937</v>
-      </c>
       <c r="G73" s="0" t="n">
-        <v>788.2463273961332</v>
+        <v>769.6047183658129</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>798.4545523741062</v>
+        <v>745.5751197863642</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>703.9765424678666</v>
+        <v>714.1116272443659</v>
       </c>
       <c r="J73" s="0" t="n">
-        <v>769.6047183658128</v>
+        <v>731.8297828355052</v>
       </c>
       <c r="K73" s="0" t="n">
         <v>778.6416090942937</v>
@@ -22424,34 +22424,34 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>692.9270851602367</v>
+        <v>803.7967388062805</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>711.4609025193471</v>
+        <v>675.2917499172755</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>685.2228029724823</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>757.041171038126</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>783.3708108059432</v>
+        <v>757.0411710381261</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>783.3708108059432</v>
+        <v>765.2886388548778</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>793.2726856423179</v>
+        <v>749.2812906226459</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>716.8443616805017</v>
       </c>
       <c r="J74" s="0" t="n">
-        <v>765.2886388548778</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="K74" s="0" t="n">
         <v>783.3708108059432</v>
@@ -22726,34 +22726,34 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
-        <v>708.8897263834903</v>
+        <v>725.5603908377182</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>695.0043995295257</v>
+        <v>809.3042050058709</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>676.8234517093417</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>687.0617576393784</v>
+        <v>725.560390837718</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>761.1020854439431</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>778.6416090942937</v>
+        <v>753.1021251947598</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>778.6416090942937</v>
+        <v>761.1020854439432</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>798.4545523741062</v>
+        <v>753.1021251947597</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>708.8897263834903</v>
+        <v>719.6616430933764</v>
       </c>
       <c r="J75" s="0" t="n">
-        <v>761.1020854439432</v>
+        <v>731.8297828355052</v>
       </c>
       <c r="K75" s="0" t="n">
         <v>788.2463273961333</v>
@@ -23028,34 +23028,34 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>722.5660872480568</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>692.9270851602367</v>
+        <v>803.7967388062805</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>716.8443616805018</v>
+        <v>675.2917499172755</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>688.9576069885346</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>757.041171038126</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>783.3708108059432</v>
+        <v>757.0411710381261</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>783.3708108059432</v>
+        <v>765.2886388548778</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>793.2726856423179</v>
+        <v>749.2812906226459</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="J76" s="0" t="n">
-        <v>757.0411710381261</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="K76" s="0" t="n">
         <v>783.3708108059432</v>
@@ -23330,34 +23330,34 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="n">
-        <v>708.8897263834903</v>
+        <v>725.5603908377182</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>695.0043995295258</v>
+        <v>798.4545523741062</v>
       </c>
       <c r="C77" s="0" t="n">
+        <v>673.8060146925507</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>719.6616430933763</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>714.1116272443661</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>761.1020854439431</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>761.1020854439432</v>
+      </c>
+      <c r="H77" s="0" t="n">
+        <v>753.1021251947597</v>
+      </c>
+      <c r="I77" s="0" t="n">
         <v>719.6616430933764</v>
       </c>
-      <c r="D77" s="0" t="n">
-        <v>690.9121112617494</v>
-      </c>
-      <c r="E77" s="0" t="n">
-        <v>761.1020854439431</v>
-      </c>
-      <c r="F77" s="0" t="n">
-        <v>788.2463273961333</v>
-      </c>
-      <c r="G77" s="0" t="n">
-        <v>778.6416090942937</v>
-      </c>
-      <c r="H77" s="0" t="n">
-        <v>798.4545523741062</v>
-      </c>
-      <c r="I77" s="0" t="n">
-        <v>703.9765424678666</v>
-      </c>
       <c r="J77" s="0" t="n">
-        <v>753.1021251947599</v>
+        <v>725.5603908377182</v>
       </c>
       <c r="K77" s="0" t="n">
         <v>778.6416090942938</v>
@@ -23632,34 +23632,34 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>697.1459830964861</v>
+        <v>803.7967388062805</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>716.8443616805018</v>
+        <v>672.3648665725824</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>692.9270851602367</v>
+        <v>716.8443616805017</v>
       </c>
       <c r="E78" s="0" t="n">
+        <v>711.4609025193472</v>
+      </c>
+      <c r="F78" s="0" t="n">
         <v>765.2886388548777</v>
       </c>
-      <c r="F78" s="0" t="n">
-        <v>783.3708108059432</v>
-      </c>
       <c r="G78" s="0" t="n">
-        <v>774.0543313329038</v>
+        <v>765.2886388548778</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>793.272685642318</v>
+        <v>757.041171038126</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>701.6299729376136</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="J78" s="0" t="n">
-        <v>749.281290622646</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="K78" s="0" t="n">
         <v>774.0543313329038</v>
@@ -23934,34 +23934,34 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="n">
-        <v>708.8897263834903</v>
+        <v>725.5603908377183</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>699.3538242600961</v>
+        <v>798.4545523741062</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>670.9669674926351</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>695.0043995295258</v>
+        <v>714.1116272443659</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>769.6047183658127</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>778.6416090942937</v>
+        <v>761.1020854439431</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>769.6047183658128</v>
+        <v>769.6047183658129</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>798.4545523741064</v>
+        <v>753.1021251947597</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>699.3538242600961</v>
+        <v>719.6616430933764</v>
       </c>
       <c r="J79" s="0" t="n">
-        <v>753.1021251947599</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="K79" s="0" t="n">
         <v>769.6047183658129</v>
@@ -24236,34 +24236,34 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>701.6299729376136</v>
+        <v>803.7967388062805</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>711.4609025193471</v>
+        <v>672.3648665725824</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>697.1459830964862</v>
+        <v>711.460902519347</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>774.0543313329036</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>783.3708108059432</v>
+        <v>757.0411710381261</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>774.0543313329038</v>
+        <v>765.2886388548778</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>793.272685642318</v>
+        <v>757.041171038126</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="J80" s="0" t="n">
-        <v>749.281290622646</v>
+        <v>735.1106921944612</v>
       </c>
       <c r="K80" s="0" t="n">
         <v>765.2886388548778</v>
@@ -24538,34 +24538,34 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="n">
-        <v>708.8897263834903</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>703.9765424678666</v>
+        <v>809.3042050058709</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>670.9669674926351</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>695.0043995295258</v>
+        <v>708.8897263834901</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>778.6416090942937</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>788.2463273961333</v>
+        <v>761.1020854439431</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>778.6416090942938</v>
+        <v>761.1020854439432</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>798.4545523741064</v>
+        <v>761.102085443943</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>714.111627244366</v>
       </c>
       <c r="J81" s="0" t="n">
-        <v>753.1021251947599</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="K81" s="0" t="n">
         <v>769.6047183658129</v>
@@ -24840,34 +24840,34 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="n">
-        <v>711.4609025193471</v>
+        <v>735.1106921944613</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>701.6299729376136</v>
+        <v>814.9820644974362</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>669.6110195434679</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>697.1459830964862</v>
+        <v>711.460902519347</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>774.0543313329036</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>783.3708108059432</v>
+        <v>765.2886388548777</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>774.0543313329038</v>
+        <v>765.2886388548778</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>803.7967388062806</v>
+        <v>765.2886388548776</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="J82" s="0" t="n">
-        <v>757.0411710381262</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="K82" s="0" t="n">
         <v>765.2886388548778</v>
@@ -25142,34 +25142,34 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="n">
-        <v>708.8897263834903</v>
+        <v>738.4931082946451</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>703.9765424678666</v>
+        <v>809.304205005871</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>670.9669674926351</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>699.3538242600961</v>
+        <v>714.1116272443659</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>769.6047183658128</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>788.2463273961334</v>
+        <v>769.6047183658127</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>778.6416090942938</v>
+        <v>769.6047183658129</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>798.4545523741064</v>
+        <v>761.102085443943</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>714.111627244366</v>
       </c>
       <c r="J83" s="0" t="n">
-        <v>753.1021251947599</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="K83" s="0" t="n">
         <v>769.6047183658129</v>
@@ -25444,34 +25444,34 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="n">
-        <v>711.4609025193471</v>
+        <v>735.1106921944613</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>803.7967388062806</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>672.3648665725824</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>697.1459830964862</v>
+        <v>711.460902519347</v>
       </c>
       <c r="E84" s="0" t="n">
+        <v>711.4609025193472</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>774.0543313329036</v>
+      </c>
+      <c r="G84" s="0" t="n">
         <v>774.0543313329038</v>
       </c>
-      <c r="F84" s="0" t="n">
-        <v>783.3708108059432</v>
-      </c>
-      <c r="G84" s="0" t="n">
-        <v>783.3708108059432</v>
-      </c>
       <c r="H84" s="0" t="n">
-        <v>793.272685642318</v>
+        <v>765.2886388548776</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="J84" s="0" t="n">
-        <v>757.0411710381262</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="K84" s="0" t="n">
         <v>774.0543313329038</v>
@@ -25746,34 +25746,34 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="n">
+        <v>738.4931082946451</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>809.304205005871</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>673.8060146925507</v>
+      </c>
+      <c r="D85" s="0" t="n">
         <v>708.8897263834903</v>
       </c>
-      <c r="B85" s="0" t="n">
-        <v>703.9765424678667</v>
-      </c>
-      <c r="C85" s="0" t="n">
-        <v>703.9765424678667</v>
-      </c>
-      <c r="D85" s="0" t="n">
-        <v>695.0043995295258</v>
-      </c>
       <c r="E85" s="0" t="n">
-        <v>778.6416090942937</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>778.6416090942938</v>
+        <v>769.6047183658128</v>
       </c>
       <c r="G85" s="0" t="n">
         <v>778.6416090942938</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>788.2463273961333</v>
+        <v>761.102085443943</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>714.111627244366</v>
       </c>
       <c r="J85" s="0" t="n">
-        <v>753.10212519476</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="K85" s="0" t="n">
         <v>778.6416090942938</v>
@@ -26048,34 +26048,34 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>741.9801716124881</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>803.7967388062806</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>672.3648665725824</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>692.9270851602367</v>
+        <v>711.460902519347</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>774.0543313329038</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>783.3708108059432</v>
+        <v>765.2886388548777</v>
       </c>
       <c r="G86" s="0" t="n">
         <v>774.0543313329038</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>783.3708108059432</v>
+        <v>757.041171038126</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="J86" s="0" t="n">
-        <v>757.0411710381262</v>
+        <v>735.1106921944612</v>
       </c>
       <c r="K86" s="0" t="n">
         <v>774.0543313329038</v>
@@ -26350,34 +26350,34 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>745.5751197863644</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>798.4545523741064</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>673.8060146925507</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>695.0043995295258</v>
+        <v>714.111627244366</v>
       </c>
       <c r="E87" s="0" t="n">
+        <v>714.1116272443661</v>
+      </c>
+      <c r="F87" s="0" t="n">
         <v>769.6047183658128</v>
-      </c>
-      <c r="F87" s="0" t="n">
-        <v>788.2463273961334</v>
       </c>
       <c r="G87" s="0" t="n">
         <v>769.6047183658129</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>788.2463273961334</v>
+        <v>753.1021251947597</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>714.111627244366</v>
       </c>
       <c r="J87" s="0" t="n">
-        <v>753.10212519476</v>
+        <v>738.4931082946451</v>
       </c>
       <c r="K87" s="0" t="n">
         <v>778.6416090942938</v>
@@ -26652,34 +26652,34 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>749.2812906226461</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>803.7967388062806</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>672.3648665725824</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>692.9270851602367</v>
+        <v>711.460902519347</v>
       </c>
       <c r="E88" s="0" t="n">
+        <v>716.8443616805019</v>
+      </c>
+      <c r="F88" s="0" t="n">
         <v>765.2886388548778</v>
       </c>
-      <c r="F88" s="0" t="n">
-        <v>793.272685642318</v>
-      </c>
       <c r="G88" s="0" t="n">
-        <v>765.2886388548778</v>
+        <v>774.0543313329038</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>793.272685642318</v>
+        <v>749.2812906226459</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="J88" s="0" t="n">
-        <v>749.2812906226461</v>
+        <v>741.9801716124881</v>
       </c>
       <c r="K88" s="0" t="n">
         <v>774.0543313329038</v>
@@ -26954,34 +26954,34 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>745.5751197863644</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>699.3538242600961</v>
+        <v>809.304205005871</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>670.9669674926351</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>695.0043995295258</v>
+        <v>708.8897263834903</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>769.6047183658128</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>788.2463273961334</v>
+        <v>761.1020854439432</v>
       </c>
       <c r="G89" s="0" t="n">
         <v>769.6047183658129</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>798.4545523741065</v>
+        <v>745.5751197863642</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>714.111627244366</v>
       </c>
       <c r="J89" s="0" t="n">
-        <v>753.10212519476</v>
+        <v>745.5751197863644</v>
       </c>
       <c r="K89" s="0" t="n">
         <v>769.6047183658129</v>
@@ -27256,34 +27256,34 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="n">
+        <v>749.2812906226461</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>803.7967388062806</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>669.6110195434679</v>
+      </c>
+      <c r="D90" s="0" t="n">
         <v>711.4609025193471</v>
       </c>
-      <c r="B90" s="0" t="n">
-        <v>701.6299729376137</v>
-      </c>
-      <c r="C90" s="0" t="n">
-        <v>701.6299729376137</v>
-      </c>
-      <c r="D90" s="0" t="n">
-        <v>697.1459830964862</v>
-      </c>
       <c r="E90" s="0" t="n">
+        <v>716.8443616805019</v>
+      </c>
+      <c r="F90" s="0" t="n">
         <v>765.2886388548778</v>
       </c>
-      <c r="F90" s="0" t="n">
-        <v>783.3708108059433</v>
-      </c>
       <c r="G90" s="0" t="n">
-        <v>774.0543313329038</v>
+        <v>765.2886388548779</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>803.7967388062807</v>
+        <v>749.2812906226459</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="J90" s="0" t="n">
-        <v>757.0411710381263</v>
+        <v>749.281290622646</v>
       </c>
       <c r="K90" s="0" t="n">
         <v>765.2886388548778</v>
@@ -27558,34 +27558,34 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="n">
+        <v>745.5751197863644</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>809.304205005871</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>670.9669674926351</v>
+      </c>
+      <c r="D91" s="0" t="n">
         <v>714.111627244366</v>
       </c>
-      <c r="B91" s="0" t="n">
-        <v>703.9765424678667</v>
-      </c>
-      <c r="C91" s="0" t="n">
-        <v>699.3538242600962</v>
-      </c>
-      <c r="D91" s="0" t="n">
-        <v>695.0043995295258</v>
-      </c>
       <c r="E91" s="0" t="n">
+        <v>719.6616430933765</v>
+      </c>
+      <c r="F91" s="0" t="n">
         <v>761.1020854439432</v>
       </c>
-      <c r="F91" s="0" t="n">
-        <v>788.2463273961334</v>
-      </c>
       <c r="G91" s="0" t="n">
-        <v>778.6416090942938</v>
+        <v>769.6047183658129</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>809.3042050058712</v>
+        <v>745.5751197863643</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>699.3538242600961</v>
+        <v>714.111627244366</v>
       </c>
       <c r="J91" s="0" t="n">
-        <v>761.1020854439435</v>
+        <v>753.1021251947599</v>
       </c>
       <c r="K91" s="0" t="n">
         <v>761.1020854439432</v>
@@ -27860,34 +27860,34 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="n">
+        <v>741.9801716124881</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>803.7967388062806</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>672.3648665725824</v>
+      </c>
+      <c r="D92" s="0" t="n">
         <v>711.4609025193471</v>
       </c>
-      <c r="B92" s="0" t="n">
-        <v>701.6299729376137</v>
-      </c>
-      <c r="C92" s="0" t="n">
-        <v>697.1459830964862</v>
-      </c>
-      <c r="D92" s="0" t="n">
-        <v>697.1459830964862</v>
-      </c>
       <c r="E92" s="0" t="n">
-        <v>757.0411710381261</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>783.3708108059433</v>
+        <v>765.2886388548778</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>774.0543313329038</v>
+        <v>765.2886388548779</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>814.9820644974363</v>
+        <v>741.980171612488</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>697.1459830964861</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="J92" s="0" t="n">
-        <v>757.0411710381263</v>
+        <v>757.0411710381262</v>
       </c>
       <c r="K92" s="0" t="n">
         <v>765.2886388548778</v>
@@ -28162,34 +28162,34 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="n">
+        <v>738.4931082946451</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>809.304205005871</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>670.9669674926353</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>708.8897263834903</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>719.6616430933765</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>769.6047183658128</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>769.6047183658129</v>
+      </c>
+      <c r="H93" s="0" t="n">
+        <v>738.493108294645</v>
+      </c>
+      <c r="I93" s="0" t="n">
         <v>708.8897263834904</v>
       </c>
-      <c r="B93" s="0" t="n">
-        <v>703.9765424678667</v>
-      </c>
-      <c r="C93" s="0" t="n">
-        <v>699.3538242600962</v>
-      </c>
-      <c r="D93" s="0" t="n">
-        <v>695.0043995295258</v>
-      </c>
-      <c r="E93" s="0" t="n">
+      <c r="J93" s="0" t="n">
         <v>761.1020854439432</v>
-      </c>
-      <c r="F93" s="0" t="n">
-        <v>788.2463273961334</v>
-      </c>
-      <c r="G93" s="0" t="n">
-        <v>778.6416090942938</v>
-      </c>
-      <c r="H93" s="0" t="n">
-        <v>820.835589010824</v>
-      </c>
-      <c r="I93" s="0" t="n">
-        <v>695.0043995295258</v>
-      </c>
-      <c r="J93" s="0" t="n">
-        <v>753.10212519476</v>
       </c>
       <c r="K93" s="0" t="n">
         <v>769.6047183658129</v>
@@ -28464,34 +28464,34 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="n">
+        <v>735.1106921944613</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>803.7967388062806</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>672.3648665725824</v>
+      </c>
+      <c r="D94" s="0" t="n">
         <v>706.3957115734265</v>
       </c>
-      <c r="B94" s="0" t="n">
-        <v>701.6299729376137</v>
-      </c>
-      <c r="C94" s="0" t="n">
-        <v>697.1459830964862</v>
-      </c>
-      <c r="D94" s="0" t="n">
-        <v>692.9270851602367</v>
-      </c>
       <c r="E94" s="0" t="n">
+        <v>716.8443616805019</v>
+      </c>
+      <c r="F94" s="0" t="n">
         <v>765.2886388548778</v>
       </c>
-      <c r="F94" s="0" t="n">
-        <v>793.2726856423182</v>
-      </c>
       <c r="G94" s="0" t="n">
-        <v>783.3708108059432</v>
+        <v>774.0543313329039</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>814.9820644974363</v>
+        <v>735.1106921944611</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>697.1459830964861</v>
+        <v>706.3957115734265</v>
       </c>
       <c r="J94" s="0" t="n">
-        <v>757.0411710381263</v>
+        <v>765.2886388548778</v>
       </c>
       <c r="K94" s="0" t="n">
         <v>765.2886388548778</v>
@@ -28766,34 +28766,34 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>738.4931082946451</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>699.3538242600961</v>
+        <v>798.4545523741064</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>699.3538242600962</v>
+        <v>670.9669674926353</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>690.9121112617494</v>
+        <v>708.8897263834903</v>
       </c>
       <c r="E95" s="0" t="n">
+        <v>719.6616430933765</v>
+      </c>
+      <c r="F95" s="0" t="n">
         <v>761.1020854439432</v>
       </c>
-      <c r="F95" s="0" t="n">
-        <v>798.4545523741065</v>
-      </c>
       <c r="G95" s="0" t="n">
-        <v>788.2463273961334</v>
+        <v>778.6416090942939</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>809.3042050058712</v>
+        <v>738.493108294645</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>699.3538242600961</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="J95" s="0" t="n">
-        <v>761.1020854439435</v>
+        <v>769.6047183658129</v>
       </c>
       <c r="K95" s="0" t="n">
         <v>769.6047183658129</v>
@@ -29068,34 +29068,34 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>741.9801716124881</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>793.272685642318</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>697.1459830964862</v>
+        <v>669.6110195434679</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>688.9576069885347</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="E96" s="0" t="n">
+        <v>716.8443616805019</v>
+      </c>
+      <c r="F96" s="0" t="n">
         <v>765.2886388548778</v>
-      </c>
-      <c r="F96" s="0" t="n">
-        <v>793.2726856423182</v>
       </c>
       <c r="G96" s="0" t="n">
         <v>783.3708108059433</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>803.7967388062807</v>
+        <v>741.980171612488</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>697.1459830964861</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="J96" s="0" t="n">
-        <v>765.2886388548781</v>
+        <v>774.0543313329038</v>
       </c>
       <c r="K96" s="0" t="n">
         <v>774.0543313329038</v>
@@ -29370,34 +29370,34 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="n">
-        <v>699.3538242600961</v>
+        <v>745.5751197863644</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>798.4545523741064</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>699.3538242600962</v>
+        <v>668.2957637662623</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>687.0617576393784</v>
+        <v>714.111627244366</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>761.1020854439432</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>788.2463273961334</v>
+        <v>769.6047183658128</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>788.2463273961334</v>
+        <v>778.6416090942939</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>798.4545523741065</v>
+        <v>745.5751197863643</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>695.0043995295258</v>
+        <v>714.111627244366</v>
       </c>
       <c r="J97" s="0" t="n">
-        <v>761.1020854439435</v>
+        <v>778.6416090942939</v>
       </c>
       <c r="K97" s="0" t="n">
         <v>778.6416090942939</v>
@@ -29672,34 +29672,34 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>749.2812906226461</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>793.272685642318</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>667.0199789837159</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>685.2228029724823</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>765.2886388548778</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>793.2726856423182</v>
+        <v>774.0543313329038</v>
       </c>
       <c r="G98" s="0" t="n">
         <v>783.3708108059433</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>803.7967388062807</v>
+        <v>749.2812906226459</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>697.1459830964861</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="J98" s="0" t="n">
-        <v>757.0411710381263</v>
+        <v>774.0543313329038</v>
       </c>
       <c r="K98" s="0" t="n">
         <v>774.0543313329038</v>
@@ -29974,34 +29974,34 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>745.5751197863646</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>798.4545523741064</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>665.7824806662135</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>687.0617576393784</v>
+        <v>714.111627244366</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>761.1020854439432</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>798.4545523741065</v>
+        <v>769.6047183658129</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>778.6416090942939</v>
+        <v>788.2463273961334</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>798.4545523741065</v>
+        <v>745.5751197863643</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>699.3538242600961</v>
+        <v>714.111627244366</v>
       </c>
       <c r="J99" s="0" t="n">
-        <v>761.1020854439435</v>
+        <v>769.6047183658129</v>
       </c>
       <c r="K99" s="0" t="n">
         <v>778.6416090942939</v>
@@ -30276,34 +30276,34 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>749.2812906226461</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>793.272685642318</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>664.5821198320261</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>688.9576069885347</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>765.2886388548778</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>803.7967388062807</v>
+        <v>774.0543313329038</v>
       </c>
       <c r="G100" s="0" t="n">
+        <v>793.2726856423182</v>
+      </c>
+      <c r="H100" s="0" t="n">
+        <v>741.980171612488</v>
+      </c>
+      <c r="I100" s="0" t="n">
+        <v>711.4609025193471</v>
+      </c>
+      <c r="J100" s="0" t="n">
         <v>774.0543313329039</v>
-      </c>
-      <c r="H100" s="0" t="n">
-        <v>793.2726856423182</v>
-      </c>
-      <c r="I100" s="0" t="n">
-        <v>697.1459830964861</v>
-      </c>
-      <c r="J100" s="0" t="n">
-        <v>757.0411710381263</v>
       </c>
       <c r="K100" s="0" t="n">
         <v>783.3708108059433</v>
@@ -30578,34 +30578,34 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>753.10212519476</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>788.2463273961333</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>665.7824806662135</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>687.0617576393784</v>
+        <v>708.8897263834903</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>769.6047183658128</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>798.4545523741065</v>
+        <v>769.6047183658129</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>769.6047183658129</v>
+        <v>788.2463273961334</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>788.2463273961334</v>
+        <v>738.493108294645</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>695.0043995295258</v>
+        <v>714.111627244366</v>
       </c>
       <c r="J101" s="0" t="n">
-        <v>761.1020854439435</v>
+        <v>778.6416090942939</v>
       </c>
       <c r="K101" s="0" t="n">
         <v>788.2463273961334</v>
@@ -30880,34 +30880,34 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="n">
+        <v>757.0411710381263</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>793.272685642318</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>664.5821198320261</v>
+      </c>
+      <c r="D102" s="0" t="n">
         <v>706.3957115734265</v>
       </c>
-      <c r="B102" s="0" t="n">
-        <v>706.3957115734265</v>
-      </c>
-      <c r="C102" s="0" t="n">
-        <v>701.6299729376137</v>
-      </c>
-      <c r="D102" s="0" t="n">
-        <v>685.2228029724823</v>
-      </c>
       <c r="E102" s="0" t="n">
-        <v>774.0543313329038</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>803.7967388062807</v>
+        <v>765.2886388548778</v>
       </c>
       <c r="G102" s="0" t="n">
+        <v>793.2726856423182</v>
+      </c>
+      <c r="H102" s="0" t="n">
+        <v>741.980171612488</v>
+      </c>
+      <c r="I102" s="0" t="n">
+        <v>716.8443616805019</v>
+      </c>
+      <c r="J102" s="0" t="n">
         <v>774.0543313329039</v>
-      </c>
-      <c r="H102" s="0" t="n">
-        <v>793.2726856423182</v>
-      </c>
-      <c r="I102" s="0" t="n">
-        <v>692.9270851602367</v>
-      </c>
-      <c r="J102" s="0" t="n">
-        <v>757.0411710381264</v>
       </c>
       <c r="K102" s="0" t="n">
         <v>793.2726856423182</v>
@@ -31182,34 +31182,34 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>753.10212519476</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>788.2463273961333</v>
       </c>
       <c r="C103" s="0" t="n">
+        <v>665.7824806662136</v>
+      </c>
+      <c r="D103" s="0" t="n">
         <v>703.9765424678667</v>
       </c>
-      <c r="D103" s="0" t="n">
-        <v>683.4390355711306</v>
-      </c>
       <c r="E103" s="0" t="n">
-        <v>778.6416090942938</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>798.4545523741065</v>
+        <v>761.1020854439432</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>769.604718365813</v>
+        <v>788.2463273961334</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>798.4545523741065</v>
+        <v>745.5751197863643</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>690.9121112617494</v>
+        <v>714.111627244366</v>
       </c>
       <c r="J103" s="0" t="n">
-        <v>753.1021251947601</v>
+        <v>769.6047183658129</v>
       </c>
       <c r="K103" s="0" t="n">
         <v>788.2463273961334</v>
@@ -31484,34 +31484,34 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="n">
+        <v>757.0411710381263</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>793.272685642318</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>664.5821198320261</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>706.3957115734265</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>722.5660872480569</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>757.0411710381262</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <v>793.2726856423182</v>
+      </c>
+      <c r="H104" s="0" t="n">
+        <v>749.281290622646</v>
+      </c>
+      <c r="I104" s="0" t="n">
         <v>711.4609025193471</v>
       </c>
-      <c r="B104" s="0" t="n">
-        <v>706.3957115734265</v>
-      </c>
-      <c r="C104" s="0" t="n">
-        <v>706.3957115734265</v>
-      </c>
-      <c r="D104" s="0" t="n">
-        <v>681.7087992584022</v>
-      </c>
-      <c r="E104" s="0" t="n">
-        <v>774.0543313329038</v>
-      </c>
-      <c r="F104" s="0" t="n">
-        <v>803.7967388062807</v>
-      </c>
-      <c r="G104" s="0" t="n">
-        <v>765.2886388548779</v>
-      </c>
-      <c r="H104" s="0" t="n">
-        <v>793.2726856423182</v>
-      </c>
-      <c r="I104" s="0" t="n">
-        <v>692.9270851602367</v>
-      </c>
       <c r="J104" s="0" t="n">
-        <v>757.0411710381264</v>
+        <v>774.0543313329039</v>
       </c>
       <c r="K104" s="0" t="n">
         <v>783.3708108059433</v>
@@ -31786,34 +31786,34 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="n">
+        <v>761.1020854439435</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>788.2463273961333</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>663.4177819805135</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>703.9765424678667</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>719.6616430933766</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>761.1020854439432</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <v>798.4545523741065</v>
+      </c>
+      <c r="H105" s="0" t="n">
+        <v>745.5751197863644</v>
+      </c>
+      <c r="I105" s="0" t="n">
         <v>708.8897263834904</v>
       </c>
-      <c r="B105" s="0" t="n">
-        <v>708.8897263834904</v>
-      </c>
-      <c r="C105" s="0" t="n">
-        <v>703.9765424678667</v>
-      </c>
-      <c r="D105" s="0" t="n">
-        <v>680.0304875594579</v>
-      </c>
-      <c r="E105" s="0" t="n">
-        <v>769.6047183658129</v>
-      </c>
-      <c r="F105" s="0" t="n">
-        <v>809.3042050058712</v>
-      </c>
-      <c r="G105" s="0" t="n">
+      <c r="J105" s="0" t="n">
         <v>769.604718365813</v>
-      </c>
-      <c r="H105" s="0" t="n">
-        <v>798.4545523741065</v>
-      </c>
-      <c r="I105" s="0" t="n">
-        <v>695.0043995295258</v>
-      </c>
-      <c r="J105" s="0" t="n">
-        <v>761.1020854439436</v>
       </c>
       <c r="K105" s="0" t="n">
         <v>778.6416090942939</v>
@@ -32088,34 +32088,34 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="n">
-        <v>711.4609025193471</v>
+        <v>765.2886388548779</v>
       </c>
       <c r="B106" s="0" t="n">
+        <v>783.3708108059432</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>664.5821198320261</v>
+      </c>
+      <c r="D106" s="0" t="n">
         <v>706.3957115734265</v>
       </c>
-      <c r="C106" s="0" t="n">
-        <v>701.6299729376137</v>
-      </c>
-      <c r="D106" s="0" t="n">
-        <v>678.4025422099747</v>
-      </c>
       <c r="E106" s="0" t="n">
-        <v>774.0543313329038</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>814.9820644974365</v>
+        <v>765.2886388548778</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>765.2886388548779</v>
+        <v>803.7967388062807</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>803.7967388062807</v>
+        <v>749.281290622646</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>692.9270851602367</v>
+        <v>706.3957115734265</v>
       </c>
       <c r="J106" s="0" t="n">
-        <v>765.2886388548782</v>
+        <v>774.0543313329039</v>
       </c>
       <c r="K106" s="0" t="n">
         <v>774.0543313329039</v>
@@ -32390,34 +32390,34 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="n">
+        <v>769.604718365813</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>788.2463273961334</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>663.4177819805135</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>703.9765424678667</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>714.1116272443661</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>761.1020854439432</v>
+      </c>
+      <c r="G107" s="0" t="n">
+        <v>798.4545523741065</v>
+      </c>
+      <c r="H107" s="0" t="n">
+        <v>753.1021251947599</v>
+      </c>
+      <c r="I107" s="0" t="n">
         <v>708.8897263834904</v>
       </c>
-      <c r="B107" s="0" t="n">
-        <v>708.8897263834904</v>
-      </c>
-      <c r="C107" s="0" t="n">
-        <v>703.9765424678667</v>
-      </c>
-      <c r="D107" s="0" t="n">
-        <v>680.0304875594579</v>
-      </c>
-      <c r="E107" s="0" t="n">
-        <v>769.6047183658129</v>
-      </c>
-      <c r="F107" s="0" t="n">
-        <v>809.3042050058713</v>
-      </c>
-      <c r="G107" s="0" t="n">
-        <v>769.604718365813</v>
-      </c>
-      <c r="H107" s="0" t="n">
-        <v>809.3042050058712</v>
-      </c>
-      <c r="I107" s="0" t="n">
-        <v>695.0043995295258</v>
-      </c>
       <c r="J107" s="0" t="n">
-        <v>769.6047183658131</v>
+        <v>778.6416090942939</v>
       </c>
       <c r="K107" s="0" t="n">
         <v>778.6416090942939</v>
@@ -32692,34 +32692,34 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="n">
+        <v>765.2886388548779</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>793.272685642318</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>664.5821198320261</v>
+      </c>
+      <c r="D108" s="0" t="n">
         <v>706.3957115734265</v>
       </c>
-      <c r="B108" s="0" t="n">
-        <v>706.3957115734265</v>
-      </c>
-      <c r="C108" s="0" t="n">
-        <v>701.6299729376137</v>
-      </c>
-      <c r="D108" s="0" t="n">
-        <v>681.7087992584022</v>
-      </c>
       <c r="E108" s="0" t="n">
-        <v>765.2886388548778</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>803.7967388062808</v>
+        <v>757.0411710381262</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>765.2886388548779</v>
+        <v>803.7967388062807</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>814.9820644974363</v>
+        <v>749.281290622646</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>697.1459830964862</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="J108" s="0" t="n">
-        <v>774.0543313329041</v>
+        <v>783.3708108059434</v>
       </c>
       <c r="K108" s="0" t="n">
         <v>783.3708108059433</v>
@@ -32994,34 +32994,34 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="n">
+        <v>769.604718365813</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>788.2463273961334</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>663.4177819805135</v>
+      </c>
+      <c r="D109" s="0" t="n">
         <v>708.8897263834904</v>
       </c>
-      <c r="B109" s="0" t="n">
-        <v>708.8897263834904</v>
-      </c>
-      <c r="C109" s="0" t="n">
-        <v>699.3538242600962</v>
-      </c>
-      <c r="D109" s="0" t="n">
-        <v>680.0304875594579</v>
-      </c>
       <c r="E109" s="0" t="n">
+        <v>714.1116272443661</v>
+      </c>
+      <c r="F109" s="0" t="n">
         <v>761.1020854439432</v>
       </c>
-      <c r="F109" s="0" t="n">
-        <v>798.4545523741066</v>
-      </c>
       <c r="G109" s="0" t="n">
-        <v>761.1020854439433</v>
+        <v>798.4545523741065</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>809.3042050058712</v>
+        <v>745.5751197863644</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>699.3538242600961</v>
+        <v>714.111627244366</v>
       </c>
       <c r="J109" s="0" t="n">
-        <v>778.6416090942942</v>
+        <v>778.6416090942939</v>
       </c>
       <c r="K109" s="0" t="n">
         <v>788.2463273961334</v>
@@ -33296,34 +33296,34 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="n">
-        <v>711.4609025193471</v>
+        <v>774.054331332904</v>
       </c>
       <c r="B110" s="0" t="n">
+        <v>783.3708108059432</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>664.5821198320261</v>
+      </c>
+      <c r="D110" s="0" t="n">
         <v>706.3957115734265</v>
       </c>
-      <c r="C110" s="0" t="n">
-        <v>697.1459830964862</v>
-      </c>
-      <c r="D110" s="0" t="n">
-        <v>681.7087992584022</v>
-      </c>
       <c r="E110" s="0" t="n">
+        <v>711.4609025193472</v>
+      </c>
+      <c r="F110" s="0" t="n">
         <v>765.2886388548778</v>
       </c>
-      <c r="F110" s="0" t="n">
-        <v>793.2726856423183</v>
-      </c>
       <c r="G110" s="0" t="n">
-        <v>765.2886388548779</v>
+        <v>793.2726856423182</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>803.7967388062807</v>
+        <v>749.281290622646</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="J110" s="0" t="n">
-        <v>774.0543313329041</v>
+        <v>783.3708108059434</v>
       </c>
       <c r="K110" s="0" t="n">
         <v>793.2726856423182</v>
@@ -33598,34 +33598,34 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>769.6047183658131</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>778.6416090942938</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>695.0043995295259</v>
+        <v>665.7824806662136</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>680.0304875594579</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>769.6047183658129</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>788.2463273961336</v>
+        <v>761.1020854439432</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>761.1020854439433</v>
+        <v>798.4545523741065</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>809.3042050058713</v>
+        <v>745.5751197863644</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>699.3538242600962</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="J111" s="0" t="n">
-        <v>769.6047183658131</v>
+        <v>778.6416090942939</v>
       </c>
       <c r="K111" s="0" t="n">
         <v>788.2463273961334</v>
@@ -33900,34 +33900,34 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="n">
+        <v>765.2886388548781</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>783.3708108059432</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>667.0199789837159</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>706.3957115734265</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>711.4609025193472</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <v>765.2886388548778</v>
+      </c>
+      <c r="G112" s="0" t="n">
+        <v>793.2726856423182</v>
+      </c>
+      <c r="H112" s="0" t="n">
+        <v>741.980171612488</v>
+      </c>
+      <c r="I112" s="0" t="n">
         <v>716.8443616805019</v>
       </c>
-      <c r="B112" s="0" t="n">
-        <v>701.6299729376137</v>
-      </c>
-      <c r="C112" s="0" t="n">
-        <v>697.1459830964862</v>
-      </c>
-      <c r="D112" s="0" t="n">
-        <v>678.4025422099747</v>
-      </c>
-      <c r="E112" s="0" t="n">
-        <v>774.0543313329038</v>
-      </c>
-      <c r="F112" s="0" t="n">
-        <v>793.2726856423183</v>
-      </c>
-      <c r="G112" s="0" t="n">
-        <v>757.0411710381263</v>
-      </c>
-      <c r="H112" s="0" t="n">
-        <v>814.9820644974365</v>
-      </c>
-      <c r="I112" s="0" t="n">
-        <v>697.1459830964862</v>
-      </c>
       <c r="J112" s="0" t="n">
-        <v>765.2886388548782</v>
+        <v>783.3708108059434</v>
       </c>
       <c r="K112" s="0" t="n">
         <v>783.3708108059433</v>
@@ -34202,34 +34202,34 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="n">
-        <v>719.6616430933765</v>
+        <v>769.6047183658131</v>
       </c>
       <c r="B113" s="0" t="n">
+        <v>788.2463273961334</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>665.7824806662136</v>
+      </c>
+      <c r="D113" s="0" t="n">
         <v>703.9765424678667</v>
       </c>
-      <c r="C113" s="0" t="n">
-        <v>695.0043995295259</v>
-      </c>
-      <c r="D113" s="0" t="n">
-        <v>676.8234517093417</v>
-      </c>
       <c r="E113" s="0" t="n">
-        <v>769.6047183658129</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>788.2463273961336</v>
+        <v>761.1020854439432</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>761.1020854439435</v>
+        <v>788.2463273961334</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>809.3042050058713</v>
+        <v>745.5751197863644</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>699.3538242600962</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="J113" s="0" t="n">
-        <v>761.1020854439436</v>
+        <v>778.6416090942939</v>
       </c>
       <c r="K113" s="0" t="n">
         <v>778.6416090942939</v>
@@ -34504,34 +34504,34 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="n">
-        <v>722.5660872480569</v>
+        <v>774.054331332904</v>
       </c>
       <c r="B114" s="0" t="n">
+        <v>783.3708108059433</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>667.0199789837159</v>
+      </c>
+      <c r="D114" s="0" t="n">
         <v>701.6299729376137</v>
       </c>
-      <c r="C114" s="0" t="n">
-        <v>692.9270851602369</v>
-      </c>
-      <c r="D114" s="0" t="n">
-        <v>675.2917499172755</v>
-      </c>
       <c r="E114" s="0" t="n">
+        <v>706.3957115734266</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>757.0411710381262</v>
+      </c>
+      <c r="G114" s="0" t="n">
+        <v>793.2726856423182</v>
+      </c>
+      <c r="H114" s="0" t="n">
+        <v>749.281290622646</v>
+      </c>
+      <c r="I114" s="0" t="n">
+        <v>711.4609025193472</v>
+      </c>
+      <c r="J114" s="0" t="n">
         <v>774.0543313329039</v>
-      </c>
-      <c r="F114" s="0" t="n">
-        <v>793.2726856423183</v>
-      </c>
-      <c r="G114" s="0" t="n">
-        <v>757.0411710381263</v>
-      </c>
-      <c r="H114" s="0" t="n">
-        <v>814.9820644974365</v>
-      </c>
-      <c r="I114" s="0" t="n">
-        <v>697.1459830964862</v>
-      </c>
-      <c r="J114" s="0" t="n">
-        <v>757.0411710381264</v>
       </c>
       <c r="K114" s="0" t="n">
         <v>774.0543313329039</v>
@@ -34806,34 +34806,34 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="n">
-        <v>725.5603908377183</v>
+        <v>778.641609094294</v>
       </c>
       <c r="B115" s="0" t="n">
+        <v>788.2463273961334</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>668.2957637662624</v>
+      </c>
+      <c r="D115" s="0" t="n">
         <v>699.3538242600962</v>
       </c>
-      <c r="C115" s="0" t="n">
-        <v>690.9121112617494</v>
-      </c>
-      <c r="D115" s="0" t="n">
-        <v>673.8060146925507</v>
-      </c>
       <c r="E115" s="0" t="n">
-        <v>769.6047183658129</v>
+        <v>703.9765424678667</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>798.4545523741066</v>
+        <v>761.1020854439432</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>753.10212519476</v>
+        <v>798.4545523741065</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>820.8355890108242</v>
+        <v>753.1021251947599</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>695.0043995295258</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="J115" s="0" t="n">
-        <v>761.1020854439436</v>
+        <v>769.604718365813</v>
       </c>
       <c r="K115" s="0" t="n">
         <v>778.6416090942939</v>
@@ -35108,34 +35108,34 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="n">
-        <v>728.6473339874468</v>
+        <v>783.3708108059434</v>
       </c>
       <c r="B116" s="0" t="n">
+        <v>783.3708108059433</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>667.0199789837159</v>
+      </c>
+      <c r="D116" s="0" t="n">
         <v>697.1459830964862</v>
       </c>
-      <c r="C116" s="0" t="n">
-        <v>692.9270851602369</v>
-      </c>
-      <c r="D116" s="0" t="n">
-        <v>675.2917499172755</v>
-      </c>
       <c r="E116" s="0" t="n">
-        <v>774.0543313329039</v>
+        <v>706.3957115734266</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>803.7967388062808</v>
+        <v>765.2886388548778</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>757.0411710381263</v>
+        <v>793.2726856423182</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>814.9820644974366</v>
+        <v>757.0411710381261</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>697.1459830964862</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="J116" s="0" t="n">
-        <v>757.0411710381265</v>
+        <v>765.2886388548779</v>
       </c>
       <c r="K116" s="0" t="n">
         <v>783.3708108059433</v>
@@ -35410,34 +35410,34 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="n">
-        <v>731.8297828355053</v>
+        <v>778.641609094294</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>699.3538242600962</v>
+        <v>778.6416090942939</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>690.9121112617494</v>
+        <v>668.2957637662624</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>673.8060146925507</v>
+        <v>695.0043995295258</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>769.604718365813</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>798.4545523741066</v>
+        <v>769.6047183658129</v>
       </c>
       <c r="G117" s="0" t="n">
+        <v>788.2463273961334</v>
+      </c>
+      <c r="H117" s="0" t="n">
+        <v>761.1020854439432</v>
+      </c>
+      <c r="I117" s="0" t="n">
+        <v>714.1116272443661</v>
+      </c>
+      <c r="J117" s="0" t="n">
         <v>761.1020854439435</v>
-      </c>
-      <c r="H117" s="0" t="n">
-        <v>809.3042050058713</v>
-      </c>
-      <c r="I117" s="0" t="n">
-        <v>699.3538242600962</v>
-      </c>
-      <c r="J117" s="0" t="n">
-        <v>761.1020854439437</v>
       </c>
       <c r="K117" s="0" t="n">
         <v>788.2463273961334</v>
@@ -35712,34 +35712,34 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="n">
-        <v>728.6473339874468</v>
+        <v>783.3708108059434</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>783.3708108059433</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>692.9270851602369</v>
+        <v>667.0199789837159</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>675.2917499172755</v>
+        <v>697.1459830964862</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>774.0543313329039</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>793.2726856423183</v>
+        <v>765.2886388548778</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>757.0411710381263</v>
+        <v>783.3708108059433</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>803.7967388062809</v>
+        <v>757.0411710381261</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="J118" s="0" t="n">
-        <v>757.0411710381265</v>
+        <v>765.2886388548779</v>
       </c>
       <c r="K118" s="0" t="n">
         <v>793.2726856423182</v>
@@ -36014,34 +36014,34 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="n">
-        <v>731.8297828355053</v>
+        <v>778.641609094294</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>699.3538242600962</v>
+        <v>778.6416090942939</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>690.9121112617494</v>
+        <v>668.2957637662624</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>673.8060146925507</v>
+        <v>695.0043995295258</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>778.6416090942939</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>788.2463273961336</v>
+        <v>769.6047183658129</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>753.1021251947601</v>
+        <v>788.2463273961334</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>809.3042050058714</v>
+        <v>761.1020854439432</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>699.3538242600962</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="J119" s="0" t="n">
-        <v>753.1021251947602</v>
+        <v>761.1020854439435</v>
       </c>
       <c r="K119" s="0" t="n">
         <v>788.2463273961334</v>
@@ -36316,34 +36316,34 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="n">
-        <v>735.1106921944613</v>
+        <v>774.054331332904</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>783.3708108059433</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>688.9576069885347</v>
+        <v>669.611019543468</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>672.3648665725825</v>
+        <v>692.9270851602369</v>
       </c>
       <c r="E120" s="0" t="n">
+        <v>716.8443616805019</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>765.2886388548778</v>
+      </c>
+      <c r="G120" s="0" t="n">
         <v>783.3708108059434</v>
       </c>
-      <c r="F120" s="0" t="n">
-        <v>793.2726856423183</v>
-      </c>
-      <c r="G120" s="0" t="n">
+      <c r="H120" s="0" t="n">
+        <v>765.2886388548778</v>
+      </c>
+      <c r="I120" s="0" t="n">
+        <v>716.8443616805019</v>
+      </c>
+      <c r="J120" s="0" t="n">
         <v>757.0411710381263</v>
-      </c>
-      <c r="H120" s="0" t="n">
-        <v>814.9820644974366</v>
-      </c>
-      <c r="I120" s="0" t="n">
-        <v>697.1459830964862</v>
-      </c>
-      <c r="J120" s="0" t="n">
-        <v>757.0411710381265</v>
       </c>
       <c r="K120" s="0" t="n">
         <v>783.3708108059434</v>
@@ -36618,34 +36618,34 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="n">
-        <v>731.8297828355053</v>
+        <v>778.641609094294</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>778.6416090942939</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>690.9121112617495</v>
+        <v>670.9669674926353</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>670.9669674926353</v>
+        <v>690.9121112617494</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>778.6416090942939</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="F121" s="0" t="n">
+        <v>769.6047183658129</v>
+      </c>
+      <c r="G121" s="0" t="n">
         <v>788.2463273961336</v>
       </c>
-      <c r="G121" s="0" t="n">
-        <v>753.1021251947601</v>
-      </c>
       <c r="H121" s="0" t="n">
-        <v>820.8355890108243</v>
+        <v>769.6047183658129</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>695.0043995295258</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="J121" s="0" t="n">
-        <v>761.1020854439437</v>
+        <v>753.10212519476</v>
       </c>
       <c r="K121" s="0" t="n">
         <v>788.2463273961336</v>
@@ -36920,34 +36920,34 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="n">
-        <v>728.6473339874468</v>
+        <v>783.3708108059434</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>774.0543313329039</v>
       </c>
       <c r="C122" s="0" t="n">
+        <v>669.611019543468</v>
+      </c>
+      <c r="D122" s="0" t="n">
         <v>692.9270851602369</v>
       </c>
-      <c r="D122" s="0" t="n">
-        <v>669.6110195434679</v>
-      </c>
       <c r="E122" s="0" t="n">
-        <v>774.0543313329039</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>783.3708108059434</v>
+        <v>765.2886388548778</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>757.0411710381263</v>
+        <v>793.2726856423183</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>814.9820644974366</v>
+        <v>774.0543313329038</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>692.9270851602369</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="J122" s="0" t="n">
-        <v>765.2886388548783</v>
+        <v>749.2812906226462</v>
       </c>
       <c r="K122" s="0" t="n">
         <v>793.2726856423183</v>
@@ -37222,34 +37222,34 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="n">
-        <v>731.8297828355053</v>
+        <v>788.2463273961337</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>699.3538242600962</v>
+        <v>778.6416090942939</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>690.9121112617495</v>
+        <v>670.9669674926354</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>670.9669674926353</v>
+        <v>695.0043995295259</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>778.6416090942939</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>778.6416090942939</v>
+        <v>769.6047183658129</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>753.1021251947601</v>
+        <v>788.2463273961336</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>809.3042050058714</v>
+        <v>769.6047183658129</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>690.9121112617494</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="J123" s="0" t="n">
-        <v>761.1020854439437</v>
+        <v>745.5751197863646</v>
       </c>
       <c r="K123" s="0" t="n">
         <v>788.2463273961336</v>
@@ -37524,34 +37524,34 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="n">
-        <v>735.1106921944613</v>
+        <v>783.3708108059434</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>783.3708108059433</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>692.9270851602369</v>
+        <v>669.611019543468</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>672.3648665725825</v>
+        <v>697.1459830964862</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>774.0543313329039</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>774.054331332904</v>
+        <v>765.2886388548778</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>757.0411710381263</v>
+        <v>783.3708108059434</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>803.7967388062809</v>
+        <v>774.0543313329038</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>688.9576069885347</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="J124" s="0" t="n">
-        <v>765.2886388548783</v>
+        <v>741.9801716124882</v>
       </c>
       <c r="K124" s="0" t="n">
         <v>783.3708108059434</v>
@@ -37826,34 +37826,34 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="n">
-        <v>738.4931082946451</v>
+        <v>788.2463273961337</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>788.2463273961334</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>690.9121112617495</v>
+        <v>670.9669674926354</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>670.9669674926353</v>
+        <v>695.0043995295259</v>
       </c>
       <c r="E125" s="0" t="n">
+        <v>731.8297828355054</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>769.6047183658129</v>
+      </c>
+      <c r="G125" s="0" t="n">
         <v>778.6416090942939</v>
       </c>
-      <c r="F125" s="0" t="n">
-        <v>778.6416090942939</v>
-      </c>
-      <c r="G125" s="0" t="n">
-        <v>753.1021251947601</v>
-      </c>
       <c r="H125" s="0" t="n">
-        <v>798.4545523741067</v>
+        <v>769.6047183658129</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>690.9121112617494</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="J125" s="0" t="n">
-        <v>761.1020854439437</v>
+        <v>738.4931082946453</v>
       </c>
       <c r="K125" s="0" t="n">
         <v>788.2463273961336</v>
@@ -38128,34 +38128,34 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="n">
+        <v>793.2726856423183</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>793.2726856423182</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>672.3648665725825</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>692.9270851602369</v>
+      </c>
+      <c r="E126" s="0" t="n">
         <v>735.1106921944613</v>
       </c>
-      <c r="B126" s="0" t="n">
-        <v>706.3957115734265</v>
-      </c>
-      <c r="C126" s="0" t="n">
-        <v>688.9576069885347</v>
-      </c>
-      <c r="D126" s="0" t="n">
-        <v>669.6110195434679</v>
-      </c>
-      <c r="E126" s="0" t="n">
-        <v>783.3708108059434</v>
-      </c>
       <c r="F126" s="0" t="n">
+        <v>774.0543313329038</v>
+      </c>
+      <c r="G126" s="0" t="n">
         <v>774.054331332904</v>
       </c>
-      <c r="G126" s="0" t="n">
-        <v>749.2812906226462</v>
-      </c>
       <c r="H126" s="0" t="n">
-        <v>793.2726856423183</v>
+        <v>765.2886388548779</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>692.9270851602369</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="J126" s="0" t="n">
-        <v>765.2886388548783</v>
+        <v>735.1106921944614</v>
       </c>
       <c r="K126" s="0" t="n">
         <v>793.2726856423183</v>
@@ -38430,34 +38430,34 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="n">
+        <v>788.2463273961337</v>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>798.4545523741065</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>673.8060146925508</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <v>690.9121112617494</v>
+      </c>
+      <c r="E127" s="0" t="n">
         <v>731.8297828355054</v>
       </c>
-      <c r="B127" s="0" t="n">
-        <v>703.9765424678667</v>
-      </c>
-      <c r="C127" s="0" t="n">
-        <v>690.9121112617495</v>
-      </c>
-      <c r="D127" s="0" t="n">
-        <v>668.2957637662623</v>
-      </c>
-      <c r="E127" s="0" t="n">
-        <v>778.6416090942939</v>
-      </c>
       <c r="F127" s="0" t="n">
-        <v>778.6416090942939</v>
+        <v>769.6047183658129</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>753.1021251947601</v>
+        <v>769.604718365813</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>798.4545523741067</v>
+        <v>769.6047183658129</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>695.0043995295259</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="J127" s="0" t="n">
-        <v>769.6047183658134</v>
+        <v>738.4931082946453</v>
       </c>
       <c r="K127" s="0" t="n">
         <v>788.2463273961336</v>
@@ -38732,34 +38732,34 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="n">
+        <v>783.3708108059435</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>793.2726856423182</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>675.2917499172756</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <v>692.9270851602369</v>
+      </c>
+      <c r="E128" s="0" t="n">
         <v>728.6473339874468</v>
       </c>
-      <c r="B128" s="0" t="n">
-        <v>701.6299729376137</v>
-      </c>
-      <c r="C128" s="0" t="n">
-        <v>688.9576069885347</v>
-      </c>
-      <c r="D128" s="0" t="n">
-        <v>667.0199789837159</v>
-      </c>
-      <c r="E128" s="0" t="n">
+      <c r="F128" s="0" t="n">
+        <v>765.2886388548779</v>
+      </c>
+      <c r="G128" s="0" t="n">
+        <v>774.054331332904</v>
+      </c>
+      <c r="H128" s="0" t="n">
         <v>774.0543313329039</v>
       </c>
-      <c r="F128" s="0" t="n">
-        <v>774.054331332904</v>
-      </c>
-      <c r="G128" s="0" t="n">
-        <v>749.2812906226462</v>
-      </c>
-      <c r="H128" s="0" t="n">
-        <v>803.7967388062809</v>
-      </c>
       <c r="I128" s="0" t="n">
-        <v>697.1459830964862</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="J128" s="0" t="n">
-        <v>774.0543313329043</v>
+        <v>741.9801716124882</v>
       </c>
       <c r="K128" s="0" t="n">
         <v>793.2726856423183</v>
@@ -39034,34 +39034,34 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="n">
-        <v>731.8297828355054</v>
+        <v>778.6416090942942</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>798.4545523741065</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>690.9121112617495</v>
+        <v>673.8060146925508</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>668.2957637662623</v>
+        <v>695.0043995295259</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>769.604718365813</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>778.6416090942939</v>
+        <v>769.6047183658129</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>753.1021251947601</v>
+        <v>769.6047183658131</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>809.3042050058714</v>
+        <v>769.6047183658129</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>695.0043995295259</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="J129" s="0" t="n">
-        <v>778.6416090942944</v>
+        <v>738.4931082946453</v>
       </c>
       <c r="K129" s="0" t="n">
         <v>788.2463273961336</v>
@@ -39336,34 +39336,34 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="n">
+        <v>774.054331332904</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>793.2726856423182</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>672.3648665725825</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>697.1459830964862</v>
+      </c>
+      <c r="E130" s="0" t="n">
         <v>728.6473339874468</v>
       </c>
-      <c r="B130" s="0" t="n">
-        <v>701.6299729376137</v>
-      </c>
-      <c r="C130" s="0" t="n">
-        <v>692.9270851602369</v>
-      </c>
-      <c r="D130" s="0" t="n">
-        <v>667.0199789837159</v>
-      </c>
-      <c r="E130" s="0" t="n">
-        <v>774.054331332904</v>
-      </c>
       <c r="F130" s="0" t="n">
-        <v>783.3708108059434</v>
+        <v>774.0543313329039</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>757.0411710381263</v>
+        <v>765.2886388548781</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>803.7967388062809</v>
+        <v>765.2886388548779</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>697.1459830964862</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="J130" s="0" t="n">
-        <v>774.0543313329043</v>
+        <v>741.9801716124883</v>
       </c>
       <c r="K130" s="0" t="n">
         <v>783.3708108059434</v>
@@ -39638,34 +39638,34 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="n">
-        <v>725.5603908377183</v>
+        <v>769.6047183658131</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>798.4545523741065</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>690.9121112617495</v>
+        <v>670.9669674926354</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>668.2957637662623</v>
+        <v>699.3538242600962</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>778.6416090942939</v>
+        <v>731.8297828355054</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>788.2463273961336</v>
+        <v>769.6047183658129</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>753.1021251947601</v>
+        <v>769.6047183658131</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>809.3042050058714</v>
+        <v>769.6047183658129</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>699.3538242600962</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="J131" s="0" t="n">
-        <v>778.6416090942944</v>
+        <v>745.5751197863647</v>
       </c>
       <c r="K131" s="0" t="n">
         <v>778.641609094294</v>
@@ -39940,34 +39940,34 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="n">
-        <v>728.6473339874468</v>
+        <v>774.054331332904</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>803.7967388062807</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>692.9270851602369</v>
+        <v>672.3648665725825</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>669.611019543468</v>
+        <v>697.1459830964864</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>783.3708108059434</v>
+        <v>735.1106921944614</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>793.2726856423183</v>
+        <v>765.2886388548779</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>749.2812906226463</v>
+        <v>765.2886388548781</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>814.9820644974366</v>
+        <v>765.2886388548779</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>701.6299729376138</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="J132" s="0" t="n">
-        <v>783.3708108059438</v>
+        <v>741.9801716124883</v>
       </c>
       <c r="K132" s="0" t="n">
         <v>774.054331332904</v>
@@ -40242,34 +40242,34 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="n">
-        <v>731.8297828355054</v>
+        <v>778.6416090942942</v>
       </c>
       <c r="B133" s="0" t="n">
+        <v>809.3042050058712</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>670.9669674926354</v>
+      </c>
+      <c r="D133" s="0" t="n">
         <v>699.3538242600962</v>
       </c>
-      <c r="C133" s="0" t="n">
-        <v>690.9121112617495</v>
-      </c>
-      <c r="D133" s="0" t="n">
-        <v>670.9669674926353</v>
-      </c>
       <c r="E133" s="0" t="n">
-        <v>778.6416090942939</v>
+        <v>738.4931082946453</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>788.2463273961336</v>
+        <v>769.6047183658129</v>
       </c>
       <c r="G133" s="0" t="n">
+        <v>761.1020854439435</v>
+      </c>
+      <c r="H133" s="0" t="n">
+        <v>761.1020854439433</v>
+      </c>
+      <c r="I133" s="0" t="n">
+        <v>719.6616430933765</v>
+      </c>
+      <c r="J133" s="0" t="n">
         <v>745.5751197863647</v>
-      </c>
-      <c r="H133" s="0" t="n">
-        <v>820.8355890108244</v>
-      </c>
-      <c r="I133" s="0" t="n">
-        <v>703.9765424678668</v>
-      </c>
-      <c r="J133" s="0" t="n">
-        <v>778.6416090942944</v>
       </c>
       <c r="K133" s="0" t="n">
         <v>778.641609094294</v>
@@ -40544,34 +40544,34 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="n">
-        <v>728.6473339874468</v>
+        <v>774.054331332904</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>803.7967388062807</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>688.9576069885347</v>
+        <v>672.3648665725825</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>672.3648665725825</v>
+        <v>697.1459830964864</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>783.3708108059434</v>
+        <v>741.9801716124882</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>783.3708108059434</v>
+        <v>774.0543313329039</v>
       </c>
       <c r="G134" s="0" t="n">
+        <v>765.2886388548781</v>
+      </c>
+      <c r="H134" s="0" t="n">
+        <v>757.0411710381262</v>
+      </c>
+      <c r="I134" s="0" t="n">
+        <v>716.8443616805019</v>
+      </c>
+      <c r="J134" s="0" t="n">
         <v>741.9801716124883</v>
-      </c>
-      <c r="H134" s="0" t="n">
-        <v>814.9820644974366</v>
-      </c>
-      <c r="I134" s="0" t="n">
-        <v>706.3957115734266</v>
-      </c>
-      <c r="J134" s="0" t="n">
-        <v>783.3708108059438</v>
       </c>
       <c r="K134" s="0" t="n">
         <v>783.3708108059434</v>
@@ -40846,34 +40846,34 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="n">
-        <v>731.8297828355054</v>
+        <v>778.6416090942942</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>809.3042050058713</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>687.0617576393785</v>
+        <v>673.8060146925509</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>673.8060146925508</v>
+        <v>695.0043995295259</v>
       </c>
       <c r="E135" s="0" t="n">
+        <v>738.4931082946453</v>
+      </c>
+      <c r="F135" s="0" t="n">
         <v>778.6416090942939</v>
       </c>
-      <c r="F135" s="0" t="n">
-        <v>788.2463273961336</v>
-      </c>
       <c r="G135" s="0" t="n">
-        <v>745.5751197863647</v>
+        <v>769.6047183658131</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>820.8355890108244</v>
+        <v>761.1020854439433</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>703.9765424678668</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="J135" s="0" t="n">
-        <v>778.6416090942945</v>
+        <v>738.4931082946454</v>
       </c>
       <c r="K135" s="0" t="n">
         <v>788.2463273961336</v>
@@ -41148,34 +41148,34 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="n">
-        <v>735.1106921944613</v>
+        <v>774.054331332904</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>803.7967388062808</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>685.2228029724824</v>
+        <v>675.2917499172756</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>672.3648665725825</v>
+        <v>697.1459830964864</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>783.3708108059434</v>
+        <v>741.9801716124882</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>793.2726856423183</v>
+        <v>783.3708108059433</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>749.2812906226463</v>
+        <v>774.054331332904</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>814.9820644974366</v>
+        <v>757.0411710381263</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>701.6299729376138</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="J136" s="0" t="n">
-        <v>774.0543313329044</v>
+        <v>741.9801716124883</v>
       </c>
       <c r="K136" s="0" t="n">
         <v>783.3708108059434</v>
@@ -41450,34 +41450,34 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="n">
+        <v>778.6416090942942</v>
+      </c>
+      <c r="B137" s="0" t="n">
+        <v>798.4545523741066</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>673.8060146925509</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <v>699.3538242600962</v>
+      </c>
+      <c r="E137" s="0" t="n">
         <v>738.4931082946453</v>
       </c>
-      <c r="B137" s="0" t="n">
-        <v>708.8897263834904</v>
-      </c>
-      <c r="C137" s="0" t="n">
-        <v>683.4390355711307</v>
-      </c>
-      <c r="D137" s="0" t="n">
-        <v>673.8060146925508</v>
-      </c>
-      <c r="E137" s="0" t="n">
-        <v>788.2463273961336</v>
-      </c>
       <c r="F137" s="0" t="n">
-        <v>788.2463273961336</v>
+        <v>778.6416090942939</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>745.5751197863647</v>
+        <v>778.641609094294</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>820.8355890108244</v>
+        <v>761.1020854439435</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>703.9765424678668</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="J137" s="0" t="n">
-        <v>778.6416090942945</v>
+        <v>738.4931082946454</v>
       </c>
       <c r="K137" s="0" t="n">
         <v>778.641609094294</v>
@@ -41752,34 +41752,34 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="n">
-        <v>735.1106921944613</v>
+        <v>783.3708108059435</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>793.2726856423183</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>681.7087992584023</v>
+        <v>675.2917499172756</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>672.3648665725825</v>
+        <v>697.1459830964864</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>793.2726856423183</v>
+        <v>741.9801716124883</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>793.2726856423183</v>
+        <v>783.3708108059433</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>741.9801716124883</v>
+        <v>783.3708108059434</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>814.9820644974366</v>
+        <v>765.2886388548779</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>701.6299729376138</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="J138" s="0" t="n">
-        <v>783.370810805944</v>
+        <v>735.1106921944615</v>
       </c>
       <c r="K138" s="0" t="n">
         <v>774.054331332904</v>
@@ -42054,34 +42054,34 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="n">
-        <v>738.4931082946453</v>
+        <v>788.2463273961337</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>788.2463273961336</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>683.4390355711307</v>
+        <v>676.823451709342</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>670.9669674926353</v>
+        <v>695.0043995295259</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>798.4545523741066</v>
+        <v>738.4931082946454</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>788.2463273961336</v>
+        <v>778.6416090942939</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>738.4931082946454</v>
+        <v>788.2463273961337</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>809.3042050058714</v>
+        <v>769.604718365813</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>703.9765424678668</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="J139" s="0" t="n">
-        <v>778.6416090942945</v>
+        <v>731.8297828355055</v>
       </c>
       <c r="K139" s="0" t="n">
         <v>769.6047183658131</v>
@@ -42356,34 +42356,34 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="n">
-        <v>735.1106921944613</v>
+        <v>793.2726856423184</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>711.4609025193472</v>
+        <v>793.2726856423183</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>685.2228029724824</v>
+        <v>675.2917499172758</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>669.611019543468</v>
+        <v>692.9270851602369</v>
       </c>
       <c r="E140" s="0" t="n">
+        <v>741.9801716124883</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>783.3708108059433</v>
+      </c>
+      <c r="G140" s="0" t="n">
         <v>793.2726856423183</v>
       </c>
-      <c r="F140" s="0" t="n">
-        <v>793.2726856423183</v>
-      </c>
-      <c r="G140" s="0" t="n">
-        <v>741.9801716124883</v>
-      </c>
       <c r="H140" s="0" t="n">
-        <v>814.9820644974366</v>
+        <v>765.2886388548779</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>701.6299729376138</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="J140" s="0" t="n">
-        <v>783.370810805944</v>
+        <v>728.6473339874469</v>
       </c>
       <c r="K140" s="0" t="n">
         <v>774.054331332904</v>
@@ -42658,34 +42658,34 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="n">
-        <v>731.8297828355054</v>
+        <v>798.4545523741067</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>798.4545523741066</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>687.0617576393785</v>
+        <v>676.823451709342</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>670.9669674926353</v>
+        <v>690.9121112617495</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>798.4545523741066</v>
+        <v>745.5751197863647</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>798.4545523741066</v>
+        <v>788.2463273961334</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>745.5751197863647</v>
+        <v>788.2463273961337</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>809.3042050058714</v>
+        <v>769.604718365813</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>699.3538242600962</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="J141" s="0" t="n">
-        <v>778.6416090942946</v>
+        <v>725.5603908377185</v>
       </c>
       <c r="K141" s="0" t="n">
         <v>778.641609094294</v>
@@ -42960,34 +42960,34 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="n">
-        <v>728.6473339874468</v>
+        <v>803.796738806281</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>793.2726856423183</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>685.2228029724824</v>
+        <v>675.2917499172758</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>669.611019543468</v>
+        <v>692.9270851602369</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>803.7967388062808</v>
+        <v>749.2812906226463</v>
       </c>
       <c r="F142" s="0" t="n">
+        <v>793.2726856423182</v>
+      </c>
+      <c r="G142" s="0" t="n">
         <v>793.2726856423183</v>
       </c>
-      <c r="G142" s="0" t="n">
-        <v>741.9801716124883</v>
-      </c>
       <c r="H142" s="0" t="n">
-        <v>814.9820644974366</v>
+        <v>765.2886388548779</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>701.6299729376138</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="J142" s="0" t="n">
-        <v>783.370810805944</v>
+        <v>722.566087248057</v>
       </c>
       <c r="K142" s="0" t="n">
         <v>774.054331332904</v>
@@ -43262,34 +43262,34 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="n">
-        <v>731.8297828355054</v>
+        <v>809.3042050058715</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>798.4545523741066</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>683.4390355711307</v>
+        <v>673.8060146925509</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>668.2957637662624</v>
+        <v>690.9121112617495</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>798.4545523741066</v>
+        <v>753.1021251947601</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>798.4545523741066</v>
+        <v>788.2463273961334</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>738.4931082946454</v>
+        <v>788.2463273961337</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>809.3042050058714</v>
+        <v>769.604718365813</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>703.9765424678668</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="J143" s="0" t="n">
-        <v>788.2463273961341</v>
+        <v>719.6616430933767</v>
       </c>
       <c r="K143" s="0" t="n">
         <v>778.641609094294</v>
@@ -43564,34 +43564,34 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="n">
-        <v>728.6473339874468</v>
+        <v>814.9820644974367</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>793.2726856423183</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>685.2228029724824</v>
+        <v>675.2917499172758</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>669.611019543468</v>
+        <v>688.9576069885348</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>793.2726856423183</v>
+        <v>749.2812906226463</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>793.2726856423183</v>
+        <v>793.2726856423182</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>735.1106921944615</v>
+        <v>783.3708108059434</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>814.9820644974366</v>
+        <v>774.054331332904</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>706.3957115734266</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="J144" s="0" t="n">
-        <v>793.2726856423188</v>
+        <v>722.5660872480571</v>
       </c>
       <c r="K144" s="0" t="n">
         <v>783.3708108059434</v>
@@ -43866,34 +43866,34 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="n">
-        <v>731.8297828355054</v>
+        <v>820.8355890108244</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>788.2463273961336</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>683.4390355711307</v>
+        <v>676.823451709342</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>668.2957637662624</v>
+        <v>687.0617576393785</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>798.4545523741066</v>
+        <v>745.5751197863647</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>788.2463273961336</v>
+        <v>788.2463273961334</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>738.4931082946454</v>
+        <v>778.641609094294</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>809.3042050058714</v>
+        <v>778.6416090942939</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>708.8897263834905</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="J145" s="0" t="n">
-        <v>788.2463273961342</v>
+        <v>725.5603908377185</v>
       </c>
       <c r="K145" s="0" t="n">
         <v>778.641609094294</v>
@@ -44168,34 +44168,34 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="n">
-        <v>728.6473339874469</v>
+        <v>814.9820644974367</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>793.2726856423183</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>681.7087992584023</v>
+        <v>675.2917499172758</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>669.611019543468</v>
+        <v>688.9576069885348</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>803.7967388062808</v>
+        <v>741.9801716124883</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>793.2726856423183</v>
+        <v>793.2726856423182</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>735.1106921944615</v>
+        <v>783.3708108059434</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>803.7967388062809</v>
+        <v>774.054331332904</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>711.4609025193473</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="J146" s="0" t="n">
-        <v>793.2726856423189</v>
+        <v>728.647333987447</v>
       </c>
       <c r="K146" s="0" t="n">
         <v>783.3708108059434</v>
@@ -44470,34 +44470,34 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="n">
-        <v>725.5603908377184</v>
+        <v>820.8355890108244</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>788.2463273961336</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>683.4390355711307</v>
+        <v>673.8060146925509</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>670.9669674926353</v>
+        <v>690.9121112617495</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>809.3042050058713</v>
+        <v>738.4931082946454</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>798.4545523741066</v>
+        <v>798.4545523741065</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>738.4931082946455</v>
+        <v>788.2463273961337</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>809.3042050058714</v>
+        <v>769.604718365813</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>708.8897263834905</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="J147" s="0" t="n">
-        <v>788.2463273961342</v>
+        <v>725.5603908377185</v>
       </c>
       <c r="K147" s="0" t="n">
         <v>788.2463273961337</v>
@@ -44772,34 +44772,34 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="n">
-        <v>728.6473339874469</v>
+        <v>814.9820644974367</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>793.2726856423183</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>681.7087992584023</v>
+        <v>675.2917499172758</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>669.611019543468</v>
+        <v>688.9576069885348</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>814.9820644974366</v>
+        <v>735.1106921944615</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>793.2726856423183</v>
+        <v>793.2726856423182</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>735.1106921944615</v>
+        <v>783.3708108059435</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>803.796738806281</v>
+        <v>774.054331332904</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>706.3957115734268</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="J148" s="0" t="n">
-        <v>783.3708108059441</v>
+        <v>722.5660872480571</v>
       </c>
       <c r="K148" s="0" t="n">
         <v>793.2726856423183</v>
@@ -45074,34 +45074,34 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="n">
-        <v>731.8297828355055</v>
+        <v>809.3042050058715</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>788.2463273961336</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>680.030487559458</v>
+        <v>673.8060146925509</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>670.9669674926353</v>
+        <v>690.9121112617495</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>820.8355890108242</v>
+        <v>738.4931082946454</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>798.4545523741066</v>
+        <v>788.2463273961334</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>731.8297828355056</v>
+        <v>788.2463273961337</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>809.3042050058715</v>
+        <v>778.641609094294</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>708.8897263834905</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="J149" s="0" t="n">
-        <v>778.6416090942946</v>
+        <v>725.5603908377185</v>
       </c>
       <c r="K149" s="0" t="n">
         <v>788.2463273961337</v>
@@ -45376,34 +45376,34 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="n">
-        <v>728.6473339874469</v>
+        <v>803.796738806281</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>793.2726856423183</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>681.7087992584023</v>
+        <v>675.2917499172758</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>672.3648665725825</v>
+        <v>688.9576069885348</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>814.9820644974366</v>
+        <v>735.1106921944615</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>803.7967388062809</v>
+        <v>793.2726856423182</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>735.1106921944615</v>
+        <v>783.3708108059435</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>814.9820644974367</v>
+        <v>783.3708108059434</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>711.4609025193473</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="J150" s="0" t="n">
-        <v>774.0543313329047</v>
+        <v>722.5660872480571</v>
       </c>
       <c r="K150" s="0" t="n">
         <v>793.2726856423183</v>
@@ -45678,34 +45678,34 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="n">
-        <v>731.8297828355055</v>
+        <v>809.3042050058716</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>798.4545523741066</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>680.030487559458</v>
+        <v>676.823451709342</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>673.8060146925508</v>
+        <v>690.9121112617495</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>820.8355890108243</v>
+        <v>738.4931082946454</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>809.3042050058714</v>
+        <v>788.2463273961334</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>738.4931082946455</v>
+        <v>778.6416090942942</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>820.8355890108244</v>
+        <v>778.641609094294</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>708.8897263834906</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="J151" s="0" t="n">
-        <v>769.6047183658137</v>
+        <v>725.5603908377185</v>
       </c>
       <c r="K151" s="0" t="n">
         <v>788.2463273961337</v>
@@ -45980,34 +45980,34 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="n">
-        <v>735.1106921944614</v>
+        <v>814.9820644974368</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>793.2726856423183</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>678.4025422099749</v>
+        <v>678.402542209975</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>675.2917499172756</v>
+        <v>692.927085160237</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>826.8702133758215</v>
+        <v>741.9801716124883</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>814.9820644974366</v>
+        <v>783.3708108059434</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>741.9801716124884</v>
+        <v>783.3708108059435</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>814.9820644974367</v>
+        <v>783.3708108059434</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>711.4609025193473</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="J152" s="0" t="n">
-        <v>774.0543313329047</v>
+        <v>722.5660872480571</v>
       </c>
       <c r="K152" s="0" t="n">
         <v>783.3708108059434</v>
@@ -46282,34 +46282,34 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="n">
-        <v>731.8297828355055</v>
+        <v>809.3042050058716</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>788.2463273961336</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>680.030487559458</v>
+        <v>680.0304875594582</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>676.8234517093418</v>
+        <v>695.004399529526</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>820.8355890108243</v>
+        <v>745.5751197863648</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>809.3042050058714</v>
+        <v>788.2463273961336</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>738.4931082946455</v>
+        <v>778.6416090942942</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>809.3042050058715</v>
+        <v>778.641609094294</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>708.8897263834906</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="J153" s="0" t="n">
-        <v>778.6416090942947</v>
+        <v>725.5603908377185</v>
       </c>
       <c r="K153" s="0" t="n">
         <v>788.2463273961337</v>
@@ -46584,34 +46584,34 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="n">
-        <v>728.6473339874469</v>
+        <v>803.7967388062812</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>793.2726856423183</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>678.4025422099749</v>
+        <v>678.402542209975</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>675.2917499172756</v>
+        <v>692.927085160237</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>826.8702133758215</v>
+        <v>749.2812906226463</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>814.9820644974366</v>
+        <v>793.2726856423183</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>735.1106921944616</v>
+        <v>774.0543313329041</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>803.796738806281</v>
+        <v>774.054331332904</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>711.4609025193473</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="J154" s="0" t="n">
-        <v>783.3708108059441</v>
+        <v>728.647333987447</v>
       </c>
       <c r="K154" s="0" t="n">
         <v>793.2726856423183</v>
@@ -46886,34 +46886,34 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="n">
+        <v>809.3042050058716</v>
+      </c>
+      <c r="B155" s="0" t="n">
+        <v>798.4545523741066</v>
+      </c>
+      <c r="C155" s="0" t="n">
+        <v>680.0304875594582</v>
+      </c>
+      <c r="D155" s="0" t="n">
+        <v>695.004399529526</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <v>745.5751197863648</v>
+      </c>
+      <c r="F155" s="0" t="n">
+        <v>788.2463273961336</v>
+      </c>
+      <c r="G155" s="0" t="n">
+        <v>778.6416090942942</v>
+      </c>
+      <c r="H155" s="0" t="n">
+        <v>769.6047183658131</v>
+      </c>
+      <c r="I155" s="0" t="n">
+        <v>714.1116272443661</v>
+      </c>
+      <c r="J155" s="0" t="n">
         <v>731.8297828355055</v>
-      </c>
-      <c r="B155" s="0" t="n">
-        <v>703.9765424678667</v>
-      </c>
-      <c r="C155" s="0" t="n">
-        <v>676.8234517093418</v>
-      </c>
-      <c r="D155" s="0" t="n">
-        <v>673.8060146925508</v>
-      </c>
-      <c r="E155" s="0" t="n">
-        <v>820.8355890108243</v>
-      </c>
-      <c r="F155" s="0" t="n">
-        <v>809.3042050058714</v>
-      </c>
-      <c r="G155" s="0" t="n">
-        <v>731.8297828355056</v>
-      </c>
-      <c r="H155" s="0" t="n">
-        <v>798.4545523741068</v>
-      </c>
-      <c r="I155" s="0" t="n">
-        <v>714.1116272443662</v>
-      </c>
-      <c r="J155" s="0" t="n">
-        <v>778.6416090942947</v>
       </c>
       <c r="K155" s="0" t="n">
         <v>798.4545523741067</v>
@@ -47188,34 +47188,34 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="n">
+        <v>814.9820644974368</v>
+      </c>
+      <c r="B156" s="0" t="n">
+        <v>803.7967388062808</v>
+      </c>
+      <c r="C156" s="0" t="n">
+        <v>678.402542209975</v>
+      </c>
+      <c r="D156" s="0" t="n">
+        <v>692.927085160237</v>
+      </c>
+      <c r="E156" s="0" t="n">
+        <v>741.9801716124884</v>
+      </c>
+      <c r="F156" s="0" t="n">
+        <v>783.3708108059434</v>
+      </c>
+      <c r="G156" s="0" t="n">
+        <v>783.3708108059435</v>
+      </c>
+      <c r="H156" s="0" t="n">
+        <v>765.2886388548781</v>
+      </c>
+      <c r="I156" s="0" t="n">
+        <v>711.4609025193472</v>
+      </c>
+      <c r="J156" s="0" t="n">
         <v>735.1106921944615</v>
-      </c>
-      <c r="B156" s="0" t="n">
-        <v>701.6299729376137</v>
-      </c>
-      <c r="C156" s="0" t="n">
-        <v>675.2917499172756</v>
-      </c>
-      <c r="D156" s="0" t="n">
-        <v>675.2917499172756</v>
-      </c>
-      <c r="E156" s="0" t="n">
-        <v>814.9820644974366</v>
-      </c>
-      <c r="F156" s="0" t="n">
-        <v>803.7967388062809</v>
-      </c>
-      <c r="G156" s="0" t="n">
-        <v>735.1106921944616</v>
-      </c>
-      <c r="H156" s="0" t="n">
-        <v>793.2726856423185</v>
-      </c>
-      <c r="I156" s="0" t="n">
-        <v>711.4609025193473</v>
-      </c>
-      <c r="J156" s="0" t="n">
-        <v>774.0543313329047</v>
       </c>
       <c r="K156" s="0" t="n">
         <v>803.7967388062809</v>
@@ -47490,34 +47490,34 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="n">
-        <v>738.4931082946454</v>
+        <v>809.3042050058716</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>699.3538242600962</v>
+        <v>809.3042050058713</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>673.8060146925508</v>
+        <v>680.0304875594582</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>673.8060146925508</v>
+        <v>690.9121112617495</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>809.3042050058714</v>
+        <v>738.4931082946455</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>809.3042050058714</v>
+        <v>788.2463273961336</v>
       </c>
       <c r="G157" s="0" t="n">
+        <v>788.2463273961337</v>
+      </c>
+      <c r="H157" s="0" t="n">
+        <v>761.1020854439435</v>
+      </c>
+      <c r="I157" s="0" t="n">
+        <v>714.1116272443661</v>
+      </c>
+      <c r="J157" s="0" t="n">
         <v>738.4931082946455</v>
-      </c>
-      <c r="H157" s="0" t="n">
-        <v>798.4545523741068</v>
-      </c>
-      <c r="I157" s="0" t="n">
-        <v>714.1116272443663</v>
-      </c>
-      <c r="J157" s="0" t="n">
-        <v>769.6047183658137</v>
       </c>
       <c r="K157" s="0" t="n">
         <v>809.3042050058714</v>
@@ -47792,34 +47792,34 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="n">
+        <v>803.7967388062812</v>
+      </c>
+      <c r="B158" s="0" t="n">
+        <v>803.7967388062808</v>
+      </c>
+      <c r="C158" s="0" t="n">
+        <v>678.402542209975</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>692.927085160237</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>741.9801716124884</v>
+      </c>
+      <c r="F158" s="0" t="n">
+        <v>793.2726856423183</v>
+      </c>
+      <c r="G158" s="0" t="n">
+        <v>793.2726856423184</v>
+      </c>
+      <c r="H158" s="0" t="n">
+        <v>757.0411710381263</v>
+      </c>
+      <c r="I158" s="0" t="n">
+        <v>711.4609025193472</v>
+      </c>
+      <c r="J158" s="0" t="n">
         <v>735.1106921944615</v>
-      </c>
-      <c r="B158" s="0" t="n">
-        <v>701.6299729376137</v>
-      </c>
-      <c r="C158" s="0" t="n">
-        <v>672.3648665725825</v>
-      </c>
-      <c r="D158" s="0" t="n">
-        <v>672.3648665725825</v>
-      </c>
-      <c r="E158" s="0" t="n">
-        <v>803.7967388062809</v>
-      </c>
-      <c r="F158" s="0" t="n">
-        <v>814.9820644974366</v>
-      </c>
-      <c r="G158" s="0" t="n">
-        <v>741.9801716124884</v>
-      </c>
-      <c r="H158" s="0" t="n">
-        <v>793.2726856423185</v>
-      </c>
-      <c r="I158" s="0" t="n">
-        <v>716.8443616805022</v>
-      </c>
-      <c r="J158" s="0" t="n">
-        <v>765.2886388548787</v>
       </c>
       <c r="K158" s="0" t="n">
         <v>803.7967388062809</v>
@@ -48094,34 +48094,34 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="n">
-        <v>731.8297828355055</v>
+        <v>798.4545523741069</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>798.4545523741066</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>670.9669674926353</v>
+        <v>676.823451709342</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>670.9669674926354</v>
+        <v>695.004399529526</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>809.3042050058714</v>
+        <v>745.5751197863648</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>809.3042050058714</v>
+        <v>788.2463273961336</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>745.5751197863649</v>
+        <v>788.2463273961337</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>788.2463273961338</v>
+        <v>753.1021251947601</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>714.1116272443663</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="J159" s="0" t="n">
-        <v>769.6047183658138</v>
+        <v>731.8297828355056</v>
       </c>
       <c r="K159" s="0" t="n">
         <v>798.4545523741067</v>
@@ -48396,34 +48396,34 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="n">
-        <v>728.6473339874469</v>
+        <v>803.7967388062812</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>793.2726856423183</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>669.611019543468</v>
+        <v>675.2917499172758</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>672.3648665725825</v>
+        <v>697.1459830964864</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>803.7967388062809</v>
+        <v>741.9801716124884</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>803.7967388062809</v>
+        <v>783.3708108059434</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>741.9801716124884</v>
+        <v>793.2726856423185</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>793.2726856423185</v>
+        <v>749.2812906226462</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>711.4609025193474</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="J160" s="0" t="n">
-        <v>765.2886388548787</v>
+        <v>728.647333987447</v>
       </c>
       <c r="K160" s="0" t="n">
         <v>803.7967388062809</v>
@@ -48698,34 +48698,34 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="n">
+        <v>798.4545523741069</v>
+      </c>
+      <c r="B161" s="0" t="n">
+        <v>788.2463273961336</v>
+      </c>
+      <c r="C161" s="0" t="n">
+        <v>676.823451709342</v>
+      </c>
+      <c r="D161" s="0" t="n">
+        <v>695.004399529526</v>
+      </c>
+      <c r="E161" s="0" t="n">
+        <v>745.5751197863648</v>
+      </c>
+      <c r="F161" s="0" t="n">
+        <v>788.2463273961336</v>
+      </c>
+      <c r="G161" s="0" t="n">
+        <v>788.2463273961338</v>
+      </c>
+      <c r="H161" s="0" t="n">
+        <v>753.1021251947601</v>
+      </c>
+      <c r="I161" s="0" t="n">
+        <v>708.8897263834904</v>
+      </c>
+      <c r="J161" s="0" t="n">
         <v>725.5603908377185</v>
-      </c>
-      <c r="B161" s="0" t="n">
-        <v>699.3538242600962</v>
-      </c>
-      <c r="C161" s="0" t="n">
-        <v>668.2957637662624</v>
-      </c>
-      <c r="D161" s="0" t="n">
-        <v>673.8060146925508</v>
-      </c>
-      <c r="E161" s="0" t="n">
-        <v>798.4545523741067</v>
-      </c>
-      <c r="F161" s="0" t="n">
-        <v>809.3042050058714</v>
-      </c>
-      <c r="G161" s="0" t="n">
-        <v>738.4931082946455</v>
-      </c>
-      <c r="H161" s="0" t="n">
-        <v>788.2463273961339</v>
-      </c>
-      <c r="I161" s="0" t="n">
-        <v>714.1116272443663</v>
-      </c>
-      <c r="J161" s="0" t="n">
-        <v>761.1020854439441</v>
       </c>
       <c r="K161" s="0" t="n">
         <v>798.4545523741067</v>
@@ -49000,34 +49000,34 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="n">
-        <v>722.566087248057</v>
+        <v>793.2726856423185</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>783.3708108059434</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>669.611019543468</v>
+        <v>678.402542209975</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>672.3648665725825</v>
+        <v>692.927085160237</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>793.2726856423184</v>
+        <v>749.2812906226465</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>814.9820644974366</v>
+        <v>783.3708108059434</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>741.9801716124884</v>
+        <v>793.2726856423185</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>783.3708108059436</v>
+        <v>757.0411710381263</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>716.8443616805022</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="J162" s="0" t="n">
-        <v>765.2886388548787</v>
+        <v>722.5660872480571</v>
       </c>
       <c r="K162" s="0" t="n">
         <v>803.7967388062809</v>
@@ -49302,34 +49302,34 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>788.2463273961339</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>778.641609094294</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>670.9669674926354</v>
+        <v>680.0304875594582</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>673.8060146925508</v>
+        <v>690.9121112617495</v>
       </c>
       <c r="E163" s="0" t="n">
+        <v>753.1021251947603</v>
+      </c>
+      <c r="F163" s="0" t="n">
         <v>788.2463273961337</v>
       </c>
-      <c r="F163" s="0" t="n">
-        <v>809.3042050058714</v>
-      </c>
       <c r="G163" s="0" t="n">
-        <v>745.5751197863649</v>
+        <v>798.4545523741068</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>788.2463273961339</v>
+        <v>761.1020854439435</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>714.1116272443663</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="J163" s="0" t="n">
-        <v>761.1020854439441</v>
+        <v>719.6616430933767</v>
       </c>
       <c r="K163" s="0" t="n">
         <v>798.4545523741067</v>
@@ -49604,34 +49604,34 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="n">
-        <v>722.566087248057</v>
+        <v>783.3708108059437</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>783.3708108059434</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>672.3648665725825</v>
+        <v>681.7087992584025</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>675.2917499172756</v>
+        <v>692.927085160237</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>783.3708108059435</v>
+        <v>749.2812906226465</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>814.9820644974366</v>
+        <v>783.3708108059434</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>741.9801716124886</v>
+        <v>803.7967388062812</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>783.3708108059436</v>
+        <v>757.0411710381264</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>716.8443616805022</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="J164" s="0" t="n">
-        <v>757.041171038127</v>
+        <v>722.5660872480571</v>
       </c>
       <c r="K164" s="0" t="n">
         <v>803.7967388062809</v>
@@ -49906,34 +49906,34 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>778.6416090942943</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>778.641609094294</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>673.8060146925508</v>
+        <v>680.0304875594582</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>676.8234517093418</v>
+        <v>690.9121112617495</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>778.6416090942942</v>
+        <v>745.5751197863649</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>809.3042050058714</v>
+        <v>788.2463273961337</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>738.4931082946455</v>
+        <v>798.4545523741069</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>788.2463273961339</v>
+        <v>753.1021251947601</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>714.1116272443663</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="J165" s="0" t="n">
-        <v>761.1020854439441</v>
+        <v>719.6616430933768</v>
       </c>
       <c r="K165" s="0" t="n">
         <v>798.4545523741067</v>
@@ -50208,34 +50208,34 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="n">
-        <v>722.566087248057</v>
+        <v>774.0543313329042</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>711.4609025193472</v>
+        <v>774.054331332904</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>675.2917499172756</v>
+        <v>681.7087992584025</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>675.2917499172756</v>
+        <v>688.9576069885348</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>774.0543313329041</v>
+        <v>749.2812906226465</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>803.7967388062809</v>
+        <v>783.3708108059435</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>735.1106921944616</v>
+        <v>803.7967388062812</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>783.3708108059436</v>
+        <v>749.2812906226463</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>711.4609025193474</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="J166" s="0" t="n">
-        <v>757.041171038127</v>
+        <v>722.5660872480571</v>
       </c>
       <c r="K166" s="0" t="n">
         <v>803.7967388062809</v>
@@ -50510,34 +50510,34 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="n">
-        <v>719.6616430933767</v>
+        <v>769.6047183658134</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>769.6047183658131</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>673.8060146925508</v>
+        <v>683.4390355711309</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>676.823451709342</v>
+        <v>690.9121112617495</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>778.6416090942942</v>
+        <v>745.5751197863649</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>809.3042050058714</v>
+        <v>788.2463273961337</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>738.4931082946456</v>
+        <v>809.3042050058716</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>778.6416090942943</v>
+        <v>753.1021251947602</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>708.8897263834906</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="J167" s="0" t="n">
-        <v>753.1021251947607</v>
+        <v>719.6616430933768</v>
       </c>
       <c r="K167" s="0" t="n">
         <v>809.3042050058714</v>
@@ -50812,34 +50812,34 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="n">
-        <v>716.8443616805022</v>
+        <v>774.0543313329042</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>711.4609025193472</v>
+        <v>774.054331332904</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>675.2917499172756</v>
+        <v>681.7087992584025</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>678.4025422099749</v>
+        <v>688.9576069885348</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>783.3708108059435</v>
+        <v>749.2812906226465</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>814.9820644974366</v>
+        <v>793.2726856423184</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>741.9801716124886</v>
+        <v>803.7967388062812</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>783.3708108059437</v>
+        <v>757.0411710381264</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>706.3957115734269</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="J168" s="0" t="n">
-        <v>757.041171038127</v>
+        <v>722.5660872480571</v>
       </c>
       <c r="K168" s="0" t="n">
         <v>803.7967388062809</v>
@@ -51114,34 +51114,34 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="n">
-        <v>719.6616430933767</v>
+        <v>778.6416090942944</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>714.1116272443661</v>
+        <v>769.6047183658131</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>673.8060146925508</v>
+        <v>680.0304875594582</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>680.0304875594582</v>
+        <v>687.0617576393786</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>778.6416090942942</v>
+        <v>753.1021251947603</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>820.8355890108244</v>
+        <v>798.4545523741067</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>745.5751197863649</v>
+        <v>798.4545523741069</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>778.6416090942943</v>
+        <v>753.1021251947602</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>708.8897263834907</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="J169" s="0" t="n">
-        <v>761.1020854439441</v>
+        <v>719.6616430933768</v>
       </c>
       <c r="K169" s="0" t="n">
         <v>809.3042050058714</v>
@@ -51416,34 +51416,34 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>783.3708108059437</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>711.4609025193472</v>
+        <v>774.054331332904</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>675.2917499172756</v>
+        <v>681.7087992584025</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>681.7087992584025</v>
+        <v>685.2228029724824</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>774.0543313329041</v>
+        <v>749.2812906226465</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>826.8702133758217</v>
+        <v>803.796738806281</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>741.9801716124886</v>
+        <v>793.2726856423186</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>774.0543313329042</v>
+        <v>757.0411710381264</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>706.3957115734269</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="J170" s="0" t="n">
-        <v>765.2886388548787</v>
+        <v>716.8443616805023</v>
       </c>
       <c r="K170" s="0" t="n">
         <v>803.796738806281</v>
@@ -51718,34 +51718,34 @@
     </row>
     <row r="171">
       <c r="A171" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>788.2463273961339</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>714.1116272443661</v>
+        <v>769.6047183658131</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>676.8234517093418</v>
+        <v>680.0304875594582</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>683.4390355711308</v>
+        <v>687.0617576393786</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>769.6047183658131</v>
+        <v>753.1021251947603</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>820.8355890108244</v>
+        <v>798.4545523741068</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>738.4931082946456</v>
+        <v>788.2463273961339</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>769.6047183658134</v>
+        <v>761.1020854439436</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>703.976542467867</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="J171" s="0" t="n">
-        <v>769.6047183658138</v>
+        <v>714.1116272443663</v>
       </c>
       <c r="K171" s="0" t="n">
         <v>798.4545523741067</v>
@@ -52020,34 +52020,34 @@
     </row>
     <row r="172">
       <c r="A172" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>793.2726856423186</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>711.4609025193472</v>
+        <v>765.2886388548781</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>678.4025422099749</v>
+        <v>678.402542209975</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>685.2228029724826</v>
+        <v>685.2228029724824</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>774.0543313329041</v>
+        <v>749.2812906226465</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>826.8702133758217</v>
+        <v>793.2726856423185</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>741.9801716124886</v>
+        <v>793.2726856423186</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>765.2886388548783</v>
+        <v>765.2886388548782</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>701.6299729376141</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="J172" s="0" t="n">
-        <v>774.0543313329048</v>
+        <v>711.4609025193474</v>
       </c>
       <c r="K172" s="0" t="n">
         <v>793.2726856423184</v>
@@ -52322,34 +52322,34 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="n">
-        <v>719.6616430933767</v>
+        <v>788.246327396134</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>714.1116272443661</v>
+        <v>761.1020854439435</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>680.0304875594582</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>683.4390355711308</v>
+        <v>687.0617576393786</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>778.6416090942942</v>
+        <v>745.5751197863649</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>833.0915405682389</v>
+        <v>798.4545523741068</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>738.4931082946456</v>
+        <v>788.2463273961339</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>761.1020854439437</v>
+        <v>761.1020854439436</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>699.3538242600964</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="J173" s="0" t="n">
-        <v>769.6047183658138</v>
+        <v>708.8897263834907</v>
       </c>
       <c r="K173" s="0" t="n">
         <v>798.4545523741068</v>
@@ -52624,34 +52624,34 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>793.2726856423187</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>716.8443616805019</v>
+        <v>757.0411710381263</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>678.4025422099749</v>
+        <v>681.7087992584025</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>681.7087992584025</v>
+        <v>685.2228029724824</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>783.3708108059435</v>
+        <v>749.2812906226465</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>826.8702133758217</v>
+        <v>803.7967388062812</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>741.9801716124886</v>
+        <v>783.3708108059437</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>757.0411710381267</v>
+        <v>765.2886388548782</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>697.1459830964865</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="J174" s="0" t="n">
-        <v>765.2886388548787</v>
+        <v>711.4609025193474</v>
       </c>
       <c r="K174" s="0" t="n">
         <v>793.2726856423185</v>
@@ -52926,34 +52926,34 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="n">
-        <v>719.6616430933767</v>
+        <v>788.246327396134</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>719.6616430933765</v>
+        <v>753.1021251947601</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>676.823451709342</v>
+        <v>680.0304875594583</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>680.0304875594582</v>
+        <v>687.0617576393786</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>778.6416090942942</v>
+        <v>753.1021251947603</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>820.8355890108244</v>
+        <v>798.4545523741068</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>738.4931082946456</v>
+        <v>778.6416090942944</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>753.1021251947603</v>
+        <v>769.6047183658133</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>699.3538242600964</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="J175" s="0" t="n">
-        <v>769.6047183658138</v>
+        <v>708.8897263834907</v>
       </c>
       <c r="K175" s="0" t="n">
         <v>798.4545523741068</v>
@@ -53228,34 +53228,34 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="n">
-        <v>716.8443616805022</v>
+        <v>783.3708108059438</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>716.8443616805019</v>
+        <v>757.0411710381263</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>678.4025422099749</v>
+        <v>681.7087992584025</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>681.7087992584025</v>
+        <v>685.2228029724824</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>783.3708108059435</v>
+        <v>757.0411710381267</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>826.8702133758217</v>
+        <v>793.2726856423185</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>735.1106921944616</v>
+        <v>774.0543313329043</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>749.2812906226465</v>
+        <v>765.2886388548782</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>701.6299729376141</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="J176" s="0" t="n">
-        <v>774.0543313329048</v>
+        <v>711.4609025193474</v>
       </c>
       <c r="K176" s="0" t="n">
         <v>803.7967388062812</v>
@@ -53530,34 +53530,34 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="n">
-        <v>719.6616430933767</v>
+        <v>788.246327396134</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>719.6616430933765</v>
+        <v>753.1021251947601</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>676.823451709342</v>
+        <v>683.4390355711309</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>683.4390355711308</v>
+        <v>687.0617576393786</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>778.6416090942942</v>
+        <v>753.1021251947603</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>833.0915405682389</v>
+        <v>798.4545523741069</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>731.8297828355057</v>
+        <v>769.6047183658134</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>745.5751197863649</v>
+        <v>769.6047183658133</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>699.3538242600964</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="J177" s="0" t="n">
-        <v>769.6047183658138</v>
+        <v>708.8897263834907</v>
       </c>
       <c r="K177" s="0" t="n">
         <v>809.3042050058716</v>
@@ -53832,34 +53832,34 @@
     </row>
     <row r="178">
       <c r="A178" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>793.2726856423187</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>716.8443616805019</v>
+        <v>757.0411710381263</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>675.2917499172758</v>
+        <v>685.2228029724826</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>681.7087992584025</v>
+        <v>688.9576069885348</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>783.3708108059435</v>
+        <v>749.2812906226466</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>826.8702133758217</v>
+        <v>803.7967388062812</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>735.1106921944616</v>
+        <v>765.2886388548784</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>741.9801716124886</v>
+        <v>765.2886388548782</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>701.6299729376141</v>
+        <v>722.566087248057</v>
       </c>
       <c r="J178" s="0" t="n">
-        <v>774.0543313329048</v>
+        <v>706.3957115734269</v>
       </c>
       <c r="K178" s="0" t="n">
         <v>814.9820644974368</v>
@@ -54134,34 +54134,34 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="n">
-        <v>725.5603908377186</v>
+        <v>798.454552374107</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>719.6616430933765</v>
+        <v>761.1020854439435</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>673.8060146925509</v>
+        <v>683.4390355711309</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>680.0304875594582</v>
+        <v>690.9121112617496</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>778.6416090942942</v>
+        <v>745.5751197863649</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>833.0915405682389</v>
+        <v>798.4545523741069</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>731.8297828355057</v>
+        <v>769.6047183658134</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>738.4931082946455</v>
+        <v>769.6047183658133</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>699.3538242600964</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="J179" s="0" t="n">
-        <v>778.6416090942948</v>
+        <v>703.976542467867</v>
       </c>
       <c r="K179" s="0" t="n">
         <v>809.3042050058716</v>
@@ -54436,34 +54436,34 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="n">
-        <v>728.647333987447</v>
+        <v>793.2726856423187</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>716.8443616805019</v>
+        <v>757.0411710381263</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>672.3648665725826</v>
+        <v>685.2228029724826</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>681.7087992584025</v>
+        <v>688.9576069885348</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>783.3708108059435</v>
+        <v>749.2812906226466</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>839.5053469121118</v>
+        <v>803.7967388062812</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>728.6473339874472</v>
+        <v>774.0543313329043</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>741.9801716124886</v>
+        <v>765.2886388548782</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>697.1459830964866</v>
+        <v>728.6473339874469</v>
       </c>
       <c r="J180" s="0" t="n">
-        <v>783.3708108059443</v>
+        <v>706.395711573427</v>
       </c>
       <c r="K180" s="0" t="n">
         <v>814.9820644974368</v>

--- a/output/freight_return.xlsx
+++ b/output/freight_return.xlsx
@@ -378,10 +378,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="n">
+        <v>731.8297828355048</v>
+      </c>
+      <c r="B1" s="0" t="n">
         <v>725.5603908377178</v>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>731.8297828355048</v>
       </c>
       <c r="C1" s="0" t="n">
         <v>725.5603908377178</v>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
-        <v>728.6473339874462</v>
+        <v>735.1106921944607</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>728.6473339874462</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>722.5660872480564</v>
@@ -985,7 +985,7 @@
         <v>731.8297828355048</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>719.661643093376</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>725.5603908377178</v>
@@ -1287,7 +1287,7 @@
         <v>728.6473339874462</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>728.6473339874462</v>
+        <v>716.8443616805015</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>728.6473339874464</v>
@@ -1586,10 +1586,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>714.1116272443656</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>725.5603908377178</v>
@@ -1888,10 +1888,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>728.6473339874462</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>728.6473339874462</v>
+        <v>716.8443616805015</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>722.5660872480564</v>
@@ -2193,7 +2193,7 @@
         <v>725.5603908377178</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>719.661643093376</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>719.6616430933761</v>
@@ -2492,10 +2492,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>728.6473339874464</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>728.6473339874462</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>722.5660872480564</v>
@@ -2794,10 +2794,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>725.5603908377178</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>719.661643093376</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>719.6616430933761</v>
@@ -3099,7 +3099,7 @@
         <v>722.5660872480564</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>728.6473339874462</v>
+        <v>716.8443616805015</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>716.8443616805016</v>
@@ -3398,10 +3398,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>725.5603908377178</v>
+        <v>719.661643093376</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>719.6616430933761</v>
@@ -3700,7 +3700,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>722.5660872480564</v>
@@ -4002,10 +4002,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>719.661643093376</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>719.6616430933761</v>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>722.5660872480564</v>
@@ -4606,10 +4606,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>719.661643093376</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>719.6616430933761</v>
@@ -4908,7 +4908,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>722.5660872480564</v>
@@ -5210,10 +5210,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>714.1116272443656</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>719.661643093376</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>719.6616430933761</v>
@@ -5512,10 +5512,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>711.4609025193467</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>716.8443616805015</v>
+        <v>716.8443616805016</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>716.8443616805016</v>
@@ -5814,10 +5814,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>714.1116272443658</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>714.1116272443656</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>714.1116272443656</v>
@@ -6119,7 +6119,7 @@
         <v>716.8443616805016</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>711.4609025193467</v>
+        <v>716.8443616805016</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>711.4609025193467</v>
@@ -6421,7 +6421,7 @@
         <v>714.1116272443658</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>708.88972638349</v>
+        <v>714.1116272443656</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>708.88972638349</v>
@@ -6720,10 +6720,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
+        <v>711.4609025193469</v>
+      </c>
+      <c r="B22" s="0" t="n">
         <v>711.4609025193467</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>706.3957115734262</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>706.3957115734263</v>
@@ -7022,10 +7022,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
+        <v>708.8897263834901</v>
+      </c>
+      <c r="B23" s="0" t="n">
         <v>714.1116272443658</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>708.88972638349</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>703.9765424678664</v>
@@ -7324,10 +7324,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
+        <v>706.3957115734263</v>
+      </c>
+      <c r="B24" s="0" t="n">
         <v>716.8443616805016</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>706.3957115734263</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>701.6299729376135</v>
@@ -7626,10 +7626,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>714.1116272443658</v>
+        <v>703.9765424678665</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>708.88972638349</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>699.3538242600958</v>
@@ -7928,10 +7928,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>706.3957115734263</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>706.3957115734263</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>697.1459830964859</v>
@@ -8230,10 +8230,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>714.1116272443658</v>
+        <v>703.9765424678665</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>708.88972638349</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>699.3538242600958</v>
@@ -8532,10 +8532,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>701.6299729376135</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>711.4609025193469</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>701.6299729376135</v>
@@ -8834,10 +8834,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>714.1116272443658</v>
+        <v>699.353824260096</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>714.1116272443658</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>703.9765424678665</v>
@@ -9136,10 +9136,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>701.6299729376135</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>711.4609025193469</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>701.6299729376135</v>
@@ -9438,10 +9438,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
+        <v>703.9765424678665</v>
+      </c>
+      <c r="B31" s="0" t="n">
         <v>719.6616430933761</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>708.88972638349</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>703.9765424678665</v>
@@ -9740,10 +9740,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>722.5660872480564</v>
+        <v>706.3957115734264</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>711.4609025193469</v>
+        <v>716.8443616805016</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>701.6299729376135</v>
@@ -10042,7 +10042,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>703.9765424678665</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>714.1116272443658</v>
@@ -10344,10 +10344,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>728.6473339874464</v>
+        <v>706.3957115734264</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>711.4609025193469</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>701.6299729376135</v>
@@ -10646,10 +10646,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>703.9765424678665</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>714.1116272443658</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>699.353824260096</v>
@@ -10948,10 +10948,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>728.6473339874464</v>
+        <v>706.3957115734264</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>722.5660872480565</v>
+        <v>711.4609025193469</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>697.145983096486</v>
@@ -11250,10 +11250,10 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>703.9765424678666</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>708.88972638349</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>699.353824260096</v>
@@ -11552,10 +11552,10 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>728.6473339874465</v>
+        <v>706.3957115734264</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>722.5660872480565</v>
+        <v>706.3957115734263</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>697.145983096486</v>
@@ -11854,10 +11854,10 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>731.8297828355049</v>
+        <v>703.9765424678666</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>708.8897263834901</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>699.353824260096</v>
@@ -12156,10 +12156,10 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>728.6473339874465</v>
+        <v>706.3957115734264</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>728.6473339874465</v>
+        <v>706.3957115734263</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>697.145983096486</v>
@@ -12458,10 +12458,10 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>731.8297828355049</v>
+        <v>703.9765424678666</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>708.8897263834901</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>699.353824260096</v>
@@ -12760,10 +12760,10 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>728.6473339874465</v>
+        <v>701.6299729376136</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>722.5660872480565</v>
+        <v>706.3957115734263</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>697.145983096486</v>
@@ -13062,10 +13062,10 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>731.8297828355051</v>
+        <v>699.353824260096</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>708.8897263834901</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>695.0043995295257</v>
@@ -13364,10 +13364,10 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>735.110692194461</v>
+        <v>697.1459830964861</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>728.6473339874465</v>
+        <v>711.4609025193469</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>692.9270851602366</v>
@@ -13666,10 +13666,10 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>731.8297828355051</v>
+        <v>695.0043995295257</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>731.8297828355051</v>
+        <v>708.8897263834901</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>695.0043995295257</v>
@@ -13968,10 +13968,10 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>728.6473339874465</v>
+        <v>692.9270851602367</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>735.110692194461</v>
+        <v>711.460902519347</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>692.9270851602366</v>
@@ -14270,10 +14270,10 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>731.8297828355051</v>
+        <v>690.9121112617493</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>731.8297828355051</v>
+        <v>708.8897263834901</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>695.0043995295257</v>
@@ -14572,10 +14572,10 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>728.6473339874465</v>
+        <v>692.9270851602367</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>728.6473339874465</v>
+        <v>711.460902519347</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>697.145983096486</v>
@@ -14874,10 +14874,10 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>725.560390837718</v>
+        <v>695.0043995295257</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>731.8297828355051</v>
+        <v>714.1116272443659</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>695.0043995295257</v>
@@ -15176,10 +15176,10 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>722.5660872480566</v>
+        <v>697.1459830964861</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>735.110692194461</v>
+        <v>716.8443616805017</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>692.9270851602366</v>
@@ -15478,10 +15478,10 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>725.560390837718</v>
+        <v>699.353824260096</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>738.4931082946449</v>
+        <v>714.1116272443659</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>690.9121112617493</v>
@@ -15780,10 +15780,10 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>722.5660872480566</v>
+        <v>701.6299729376136</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>741.9801716124879</v>
+        <v>716.8443616805017</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>688.9576069885345</v>
@@ -16082,10 +16082,10 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
+        <v>703.9765424678666</v>
+      </c>
+      <c r="B53" s="0" t="n">
         <v>719.6616430933763</v>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>738.4931082946449</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>687.0617576393782</v>
@@ -16384,10 +16384,10 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
+        <v>701.6299729376136</v>
+      </c>
+      <c r="B54" s="0" t="n">
         <v>716.8443616805017</v>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>735.1106921944611</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>685.2228029724822</v>
@@ -16686,10 +16686,10 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
+        <v>703.9765424678666</v>
+      </c>
+      <c r="B55" s="0" t="n">
         <v>714.1116272443659</v>
-      </c>
-      <c r="B55" s="0" t="n">
-        <v>738.4931082946449</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>687.0617576393782</v>
@@ -16988,10 +16988,10 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>716.8443616805017</v>
+        <v>701.6299729376136</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>741.9801716124879</v>
+        <v>711.460902519347</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>685.2228029724822</v>
@@ -17290,10 +17290,10 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>714.1116272443659</v>
+        <v>699.3538242600961</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>745.5751197863642</v>
+        <v>708.8897263834903</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>683.4390355711305</v>
@@ -17592,10 +17592,10 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>716.8443616805017</v>
+        <v>697.1459830964861</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>749.2812906226459</v>
+        <v>706.3957115734264</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>681.7087992584021</v>
@@ -17894,10 +17894,10 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>714.1116272443659</v>
+        <v>699.3538242600961</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>753.1021251947597</v>
+        <v>708.8897263834903</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>683.4390355711305</v>
@@ -18196,10 +18196,10 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>711.460902519347</v>
+        <v>697.1459830964861</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>757.0411710381259</v>
+        <v>706.3957115734264</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>685.2228029724822</v>
@@ -18498,10 +18498,10 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>714.1116272443659</v>
+        <v>695.0043995295258</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>761.102085443943</v>
+        <v>703.9765424678666</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>683.4390355711305</v>
@@ -18800,10 +18800,10 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>711.460902519347</v>
+        <v>692.9270851602367</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>765.2886388548776</v>
+        <v>701.6299729376136</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>685.2228029724822</v>
@@ -19102,10 +19102,10 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>714.1116272443659</v>
+        <v>690.9121112617493</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>769.6047183658127</v>
+        <v>703.9765424678666</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>683.4390355711305</v>
@@ -19404,10 +19404,10 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>716.8443616805018</v>
+        <v>692.9270851602367</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>774.0543313329035</v>
+        <v>701.6299729376136</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>681.7087992584021</v>
@@ -19706,10 +19706,10 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>719.6616430933764</v>
+        <v>690.9121112617493</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>778.6416090942936</v>
+        <v>703.9765424678666</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>680.0304875594579</v>
@@ -20008,10 +20008,10 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
-        <v>722.5660872480566</v>
+        <v>692.9270851602367</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>783.3708108059429</v>
+        <v>706.3957115734265</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>678.4025422099746</v>
@@ -20310,10 +20310,10 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
-        <v>719.6616430933764</v>
+        <v>690.9121112617493</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>778.6416090942936</v>
+        <v>703.9765424678666</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>676.8234517093416</v>
@@ -20612,10 +20612,10 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>722.5660872480566</v>
+        <v>688.9576069885346</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>783.3708108059431</v>
+        <v>706.3957115734265</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>675.2917499172754</v>
@@ -20914,10 +20914,10 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="n">
-        <v>719.6616430933764</v>
+        <v>687.0617576393784</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>788.2463273961332</v>
+        <v>708.8897263834903</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>676.8234517093417</v>
@@ -21216,10 +21216,10 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
-        <v>722.5660872480568</v>
+        <v>685.2228029724822</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>793.2726856423178</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>678.4025422099746</v>
@@ -21518,10 +21518,10 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="n">
-        <v>725.5603908377182</v>
+        <v>683.4390355711306</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>798.4545523741062</v>
+        <v>714.111627244366</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>680.0304875594579</v>
@@ -21820,10 +21820,10 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
-        <v>728.6473339874467</v>
+        <v>681.7087992584022</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>803.7967388062805</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>678.4025422099746</v>
@@ -22122,10 +22122,10 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="n">
-        <v>731.8297828355053</v>
+        <v>680.0304875594579</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>798.4545523741062</v>
+        <v>708.8897263834903</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>676.8234517093417</v>
@@ -22424,10 +22424,10 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
-        <v>728.6473339874467</v>
+        <v>678.4025422099746</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>803.7967388062805</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>675.2917499172755</v>
@@ -22726,10 +22726,10 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
-        <v>725.5603908377182</v>
+        <v>676.8234517093417</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>809.3042050058709</v>
+        <v>714.111627244366</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>676.8234517093417</v>
@@ -23028,10 +23028,10 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">
-        <v>722.5660872480568</v>
+        <v>675.2917499172755</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>803.7967388062805</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>675.2917499172755</v>
@@ -23330,10 +23330,10 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="n">
-        <v>725.5603908377182</v>
+        <v>676.8234517093417</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>798.4545523741062</v>
+        <v>714.111627244366</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>673.8060146925507</v>
@@ -23632,10 +23632,10 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
-        <v>728.6473339874467</v>
+        <v>675.2917499172755</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>803.7967388062805</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>672.3648665725824</v>
@@ -23934,10 +23934,10 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="n">
-        <v>725.5603908377183</v>
+        <v>676.8234517093417</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>798.4545523741062</v>
+        <v>714.111627244366</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>670.9669674926351</v>
@@ -24236,10 +24236,10 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="n">
-        <v>728.6473339874467</v>
+        <v>675.2917499172755</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>803.7967388062805</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>672.3648665725824</v>
@@ -24538,10 +24538,10 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="n">
-        <v>731.8297828355053</v>
+        <v>673.8060146925507</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>809.3042050058709</v>
+        <v>719.6616430933764</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>670.9669674926351</v>
@@ -24840,10 +24840,10 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="n">
-        <v>735.1106921944613</v>
+        <v>672.3648665725824</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>814.9820644974362</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>669.6110195434679</v>
@@ -25142,10 +25142,10 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="n">
-        <v>738.4931082946451</v>
+        <v>673.8060146925507</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>809.304205005871</v>
+        <v>714.111627244366</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>670.9669674926351</v>
@@ -25444,10 +25444,10 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="n">
-        <v>735.1106921944613</v>
+        <v>675.2917499172755</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>803.7967388062806</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>672.3648665725824</v>
@@ -25746,10 +25746,10 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="n">
-        <v>738.4931082946451</v>
+        <v>676.8234517093417</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>809.304205005871</v>
+        <v>714.111627244366</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>673.8060146925507</v>
@@ -26048,10 +26048,10 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="n">
-        <v>741.9801716124881</v>
+        <v>675.2917499172755</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>803.7967388062806</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>672.3648665725824</v>
@@ -26350,10 +26350,10 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="n">
-        <v>745.5751197863644</v>
+        <v>676.8234517093417</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>798.4545523741064</v>
+        <v>714.111627244366</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>673.8060146925507</v>
@@ -26652,10 +26652,10 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="n">
-        <v>749.2812906226461</v>
+        <v>675.2917499172755</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>803.7967388062806</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>672.3648665725824</v>
@@ -26954,10 +26954,10 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="n">
-        <v>745.5751197863644</v>
+        <v>676.8234517093417</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>809.304205005871</v>
+        <v>714.111627244366</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>670.9669674926351</v>
@@ -27256,10 +27256,10 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="n">
-        <v>749.2812906226461</v>
+        <v>678.4025422099747</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>803.7967388062806</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>669.6110195434679</v>
@@ -27558,10 +27558,10 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="n">
-        <v>745.5751197863644</v>
+        <v>676.8234517093417</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>809.304205005871</v>
+        <v>714.111627244366</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>670.9669674926351</v>
@@ -27860,10 +27860,10 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="n">
-        <v>741.9801716124881</v>
+        <v>675.2917499172755</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>803.7967388062806</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>672.3648665725824</v>
@@ -28162,10 +28162,10 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="n">
-        <v>738.4931082946451</v>
+        <v>673.8060146925507</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>809.304205005871</v>
+        <v>714.111627244366</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>670.9669674926353</v>
@@ -28464,10 +28464,10 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="n">
-        <v>735.1106921944613</v>
+        <v>675.2917499172755</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>803.7967388062806</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>672.3648665725824</v>
@@ -28766,10 +28766,10 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="n">
-        <v>738.4931082946451</v>
+        <v>673.8060146925507</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>798.4545523741064</v>
+        <v>714.111627244366</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>670.9669674926353</v>
@@ -29068,10 +29068,10 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="n">
-        <v>741.9801716124881</v>
+        <v>675.2917499172755</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>793.272685642318</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>669.6110195434679</v>
@@ -29370,10 +29370,10 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="n">
-        <v>745.5751197863644</v>
+        <v>676.8234517093417</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>798.4545523741064</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>668.2957637662623</v>
@@ -29672,10 +29672,10 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="n">
-        <v>749.2812906226461</v>
+        <v>678.4025422099747</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>793.272685642318</v>
+        <v>706.3957115734265</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>667.0199789837159</v>
@@ -29974,10 +29974,10 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="n">
-        <v>745.5751197863646</v>
+        <v>680.0304875594579</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>798.4545523741064</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>665.7824806662135</v>
@@ -30276,10 +30276,10 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="n">
-        <v>749.2812906226461</v>
+        <v>678.4025422099747</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>793.272685642318</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>664.5821198320261</v>
@@ -30578,10 +30578,10 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="n">
-        <v>753.10212519476</v>
+        <v>680.0304875594579</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>788.2463273961333</v>
+        <v>714.111627244366</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>665.7824806662135</v>
@@ -30880,10 +30880,10 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="n">
-        <v>757.0411710381263</v>
+        <v>681.7087992584022</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>793.272685642318</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>664.5821198320261</v>
@@ -31182,10 +31182,10 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="n">
-        <v>753.10212519476</v>
+        <v>680.0304875594579</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>788.2463273961333</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>665.7824806662136</v>
@@ -31484,10 +31484,10 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="n">
-        <v>757.0411710381263</v>
+        <v>681.7087992584022</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>793.272685642318</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>664.5821198320261</v>
@@ -31786,10 +31786,10 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="n">
-        <v>761.1020854439435</v>
+        <v>680.0304875594579</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>788.2463273961333</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>663.4177819805135</v>
@@ -32088,10 +32088,10 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="n">
-        <v>765.2886388548779</v>
+        <v>678.4025422099747</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>783.3708108059432</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>664.5821198320261</v>
@@ -32390,10 +32390,10 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="n">
-        <v>769.604718365813</v>
+        <v>676.8234517093417</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>788.2463273961334</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>663.4177819805135</v>
@@ -32692,10 +32692,10 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="n">
-        <v>765.2886388548779</v>
+        <v>678.4025422099747</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>793.272685642318</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>664.5821198320261</v>
@@ -32994,10 +32994,10 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="n">
-        <v>769.604718365813</v>
+        <v>676.8234517093417</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>788.2463273961334</v>
+        <v>725.5603908377183</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>663.4177819805135</v>
@@ -33296,10 +33296,10 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="n">
-        <v>774.054331332904</v>
+        <v>675.2917499172755</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>783.3708108059432</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>664.5821198320261</v>
@@ -33598,10 +33598,10 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="n">
-        <v>769.6047183658131</v>
+        <v>676.8234517093417</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>778.6416090942938</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>665.7824806662136</v>
@@ -33900,10 +33900,10 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="n">
-        <v>765.2886388548781</v>
+        <v>675.2917499172755</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>783.3708108059432</v>
+        <v>735.1106921944613</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>667.0199789837159</v>
@@ -34202,10 +34202,10 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="n">
-        <v>769.6047183658131</v>
+        <v>676.8234517093417</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>788.2463273961334</v>
+        <v>738.4931082946451</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>665.7824806662136</v>
@@ -34504,10 +34504,10 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="n">
-        <v>774.054331332904</v>
+        <v>678.4025422099747</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>783.3708108059433</v>
+        <v>741.9801716124882</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>667.0199789837159</v>
@@ -34806,10 +34806,10 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="n">
-        <v>778.641609094294</v>
+        <v>680.030487559458</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>788.2463273961334</v>
+        <v>738.4931082946453</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>668.2957637662624</v>
@@ -35108,10 +35108,10 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="n">
-        <v>783.3708108059434</v>
+        <v>681.7087992584023</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>783.3708108059433</v>
+        <v>741.9801716124882</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>667.0199789837159</v>
@@ -35410,10 +35410,10 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="n">
-        <v>778.641609094294</v>
+        <v>683.4390355711307</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>778.6416090942939</v>
+        <v>738.4931082946453</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>668.2957637662624</v>
@@ -35712,10 +35712,10 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="n">
-        <v>783.3708108059434</v>
+        <v>681.7087992584023</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>783.3708108059433</v>
+        <v>741.9801716124882</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>667.0199789837159</v>
@@ -36014,10 +36014,10 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="n">
-        <v>778.641609094294</v>
+        <v>680.030487559458</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>778.6416090942939</v>
+        <v>745.5751197863646</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>668.2957637662624</v>
@@ -36316,10 +36316,10 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="n">
-        <v>774.054331332904</v>
+        <v>681.7087992584023</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>783.3708108059433</v>
+        <v>749.2812906226462</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>669.611019543468</v>
@@ -36618,10 +36618,10 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="n">
-        <v>778.641609094294</v>
+        <v>683.4390355711307</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>778.6416090942939</v>
+        <v>753.10212519476</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>670.9669674926353</v>
@@ -36920,10 +36920,10 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="n">
-        <v>783.3708108059434</v>
+        <v>681.7087992584023</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>774.0543313329039</v>
+        <v>757.0411710381263</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>669.611019543468</v>
@@ -37222,10 +37222,10 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="n">
-        <v>788.2463273961337</v>
+        <v>680.030487559458</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>778.6416090942939</v>
+        <v>753.1021251947601</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>670.9669674926354</v>
@@ -37524,10 +37524,10 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="n">
-        <v>783.3708108059434</v>
+        <v>678.4025422099747</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>783.3708108059433</v>
+        <v>757.0411710381263</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>669.611019543468</v>
@@ -37826,10 +37826,10 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="n">
-        <v>788.2463273961337</v>
+        <v>676.8234517093418</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>788.2463273961334</v>
+        <v>753.1021251947601</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>670.9669674926354</v>
@@ -38128,10 +38128,10 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="n">
-        <v>793.2726856423183</v>
+        <v>675.2917499172756</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>793.2726856423182</v>
+        <v>749.2812906226462</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>672.3648665725825</v>
@@ -38430,10 +38430,10 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="n">
-        <v>788.2463273961337</v>
+        <v>676.8234517093418</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>798.4545523741065</v>
+        <v>753.1021251947601</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>673.8060146925508</v>
@@ -38732,10 +38732,10 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="n">
-        <v>783.3708108059435</v>
+        <v>675.2917499172756</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>793.2726856423182</v>
+        <v>757.0411710381263</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>675.2917499172756</v>
@@ -39034,10 +39034,10 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="n">
-        <v>778.6416090942942</v>
+        <v>676.8234517093418</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>798.4545523741065</v>
+        <v>753.1021251947601</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>673.8060146925508</v>
@@ -39336,10 +39336,10 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="n">
-        <v>774.054331332904</v>
+        <v>675.2917499172756</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>793.2726856423182</v>
+        <v>757.0411710381263</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>672.3648665725825</v>
@@ -39638,10 +39638,10 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="n">
-        <v>769.6047183658131</v>
+        <v>673.8060146925508</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>798.4545523741065</v>
+        <v>753.1021251947601</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>670.9669674926354</v>
@@ -39940,10 +39940,10 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="n">
-        <v>774.054331332904</v>
+        <v>675.2917499172756</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>803.7967388062807</v>
+        <v>757.0411710381263</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>672.3648665725825</v>
@@ -40242,10 +40242,10 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="n">
-        <v>778.6416090942942</v>
+        <v>673.8060146925508</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>809.3042050058712</v>
+        <v>753.1021251947601</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>670.9669674926354</v>
@@ -40544,10 +40544,10 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="n">
-        <v>774.054331332904</v>
+        <v>672.3648665725825</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>803.7967388062807</v>
+        <v>757.0411710381263</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>672.3648665725825</v>
@@ -40846,10 +40846,10 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="n">
-        <v>778.6416090942942</v>
+        <v>670.9669674926353</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>809.3042050058713</v>
+        <v>753.1021251947601</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>673.8060146925509</v>
@@ -41148,10 +41148,10 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="n">
-        <v>774.054331332904</v>
+        <v>669.611019543468</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>803.7967388062808</v>
+        <v>757.0411710381263</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>675.2917499172756</v>
@@ -41450,10 +41450,10 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="n">
-        <v>778.6416090942942</v>
+        <v>668.2957637662624</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>798.4545523741066</v>
+        <v>753.1021251947601</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>673.8060146925509</v>
@@ -41752,10 +41752,10 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="n">
-        <v>783.3708108059435</v>
+        <v>669.611019543468</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>793.2726856423183</v>
+        <v>749.2812906226463</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>675.2917499172756</v>
@@ -42054,10 +42054,10 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="n">
-        <v>788.2463273961337</v>
+        <v>668.2957637662624</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>788.2463273961336</v>
+        <v>745.5751197863647</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>676.823451709342</v>
@@ -42356,10 +42356,10 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="n">
-        <v>793.2726856423184</v>
+        <v>669.611019543468</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>793.2726856423183</v>
+        <v>749.2812906226463</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>675.2917499172758</v>
@@ -42658,10 +42658,10 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="n">
-        <v>798.4545523741067</v>
+        <v>668.2957637662624</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>798.4545523741066</v>
+        <v>753.1021251947601</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>676.823451709342</v>
@@ -42960,10 +42960,10 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="n">
-        <v>803.796738806281</v>
+        <v>667.0199789837159</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>793.2726856423183</v>
+        <v>757.0411710381264</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>675.2917499172758</v>
@@ -43262,10 +43262,10 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="n">
-        <v>809.3042050058715</v>
+        <v>668.2957637662624</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>798.4545523741066</v>
+        <v>753.1021251947601</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>673.8060146925509</v>
@@ -43564,10 +43564,10 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="n">
-        <v>814.9820644974367</v>
+        <v>669.611019543468</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>793.2726856423183</v>
+        <v>757.0411710381264</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>675.2917499172758</v>
@@ -43866,10 +43866,10 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="n">
-        <v>820.8355890108244</v>
+        <v>668.2957637662624</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>788.2463273961336</v>
+        <v>753.1021251947601</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>676.823451709342</v>
@@ -44168,10 +44168,10 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="n">
-        <v>814.9820644974367</v>
+        <v>669.611019543468</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>793.2726856423183</v>
+        <v>757.0411710381264</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>675.2917499172758</v>
@@ -44470,10 +44470,10 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="n">
-        <v>820.8355890108244</v>
+        <v>668.2957637662624</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>788.2463273961336</v>
+        <v>761.1020854439436</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>673.8060146925509</v>
@@ -44772,10 +44772,10 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="n">
-        <v>814.9820644974367</v>
+        <v>667.0199789837159</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>793.2726856423183</v>
+        <v>757.0411710381264</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>675.2917499172758</v>
@@ -45074,10 +45074,10 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="n">
-        <v>809.3042050058715</v>
+        <v>668.2957637662624</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>788.2463273961336</v>
+        <v>753.1021251947602</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>673.8060146925509</v>
@@ -45376,10 +45376,10 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="n">
-        <v>803.796738806281</v>
+        <v>667.0199789837159</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>793.2726856423183</v>
+        <v>757.0411710381264</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>675.2917499172758</v>
@@ -45678,10 +45678,10 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="n">
-        <v>809.3042050058716</v>
+        <v>668.2957637662624</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>798.4545523741066</v>
+        <v>753.1021251947602</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>676.823451709342</v>
@@ -45980,10 +45980,10 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="n">
-        <v>814.9820644974368</v>
+        <v>667.0199789837159</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>793.2726856423183</v>
+        <v>757.0411710381264</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>678.402542209975</v>
@@ -46282,10 +46282,10 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="n">
-        <v>809.3042050058716</v>
+        <v>668.2957637662624</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>788.2463273961336</v>
+        <v>753.1021251947602</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>680.0304875594582</v>
@@ -46584,10 +46584,10 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="n">
-        <v>803.7967388062812</v>
+        <v>667.019978983716</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>793.2726856423183</v>
+        <v>749.2812906226463</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>678.402542209975</v>
@@ -46886,10 +46886,10 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="n">
-        <v>809.3042050058716</v>
+        <v>665.7824806662136</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>798.4545523741066</v>
+        <v>753.1021251947602</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>680.0304875594582</v>
@@ -47188,10 +47188,10 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="n">
-        <v>814.9820644974368</v>
+        <v>664.5821198320261</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>803.7967388062808</v>
+        <v>757.0411710381264</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>678.402542209975</v>
@@ -47490,10 +47490,10 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="n">
-        <v>809.3042050058716</v>
+        <v>663.4177819805136</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>809.3042050058713</v>
+        <v>761.1020854439436</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>680.0304875594582</v>
@@ -47792,10 +47792,10 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="n">
-        <v>803.7967388062812</v>
+        <v>662.2883860573429</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>803.7967388062808</v>
+        <v>765.2886388548782</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>678.402542209975</v>
@@ -48094,10 +48094,10 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="n">
-        <v>798.4545523741069</v>
+        <v>661.1928834507606</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>798.4545523741066</v>
+        <v>761.1020854439437</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>676.823451709342</v>
@@ -48396,10 +48396,10 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="n">
-        <v>803.7967388062812</v>
+        <v>662.2883860573429</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>793.2726856423183</v>
+        <v>765.2886388548782</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>675.2917499172758</v>
@@ -48698,10 +48698,10 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="n">
-        <v>798.4545523741069</v>
+        <v>661.1928834507606</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>788.2463273961336</v>
+        <v>769.6047183658133</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>676.823451709342</v>
@@ -49000,10 +49000,10 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="n">
-        <v>793.2726856423185</v>
+        <v>660.1302570179864</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>783.3708108059434</v>
+        <v>765.2886388548782</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>678.402542209975</v>
@@ -49302,10 +49302,10 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="n">
-        <v>788.2463273961339</v>
+        <v>659.0995201408253</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>778.641609094294</v>
+        <v>761.1020854439437</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>680.0304875594582</v>
@@ -49604,10 +49604,10 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="n">
-        <v>783.3708108059437</v>
+        <v>660.1302570179864</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>783.3708108059434</v>
+        <v>757.0411710381265</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>681.7087992584025</v>
@@ -49906,10 +49906,10 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="n">
-        <v>778.6416090942943</v>
+        <v>661.1928834507607</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>778.641609094294</v>
+        <v>753.1021251947603</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>680.0304875594582</v>
@@ -50208,10 +50208,10 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="n">
-        <v>774.0543313329042</v>
+        <v>662.2883860573429</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>774.054331332904</v>
+        <v>749.2812906226465</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>681.7087992584025</v>
@@ -50510,10 +50510,10 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="n">
-        <v>769.6047183658134</v>
+        <v>663.4177819805136</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>769.6047183658131</v>
+        <v>753.1021251947603</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>683.4390355711309</v>
@@ -50812,10 +50812,10 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="n">
-        <v>774.0543313329042</v>
+        <v>664.5821198320263</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>774.054331332904</v>
+        <v>757.0411710381265</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>681.7087992584025</v>
@@ -51114,10 +51114,10 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="n">
-        <v>778.6416090942944</v>
+        <v>665.7824806662136</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>769.6047183658131</v>
+        <v>753.1021251947603</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>680.0304875594582</v>
@@ -51416,10 +51416,10 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="n">
-        <v>783.3708108059437</v>
+        <v>664.5821198320263</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>774.054331332904</v>
+        <v>749.2812906226465</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>681.7087992584025</v>
@@ -51718,10 +51718,10 @@
     </row>
     <row r="171">
       <c r="A171" s="0" t="n">
-        <v>788.2463273961339</v>
+        <v>663.4177819805136</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>769.6047183658131</v>
+        <v>745.5751197863649</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>680.0304875594582</v>
@@ -52020,10 +52020,10 @@
     </row>
     <row r="172">
       <c r="A172" s="0" t="n">
-        <v>793.2726856423186</v>
+        <v>662.288386057343</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>765.2886388548781</v>
+        <v>749.2812906226465</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>678.402542209975</v>
@@ -52322,10 +52322,10 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="n">
-        <v>788.246327396134</v>
+        <v>663.4177819805136</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>761.1020854439435</v>
+        <v>753.1021251947603</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>680.0304875594582</v>
@@ -52624,10 +52624,10 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="n">
-        <v>793.2726856423187</v>
+        <v>664.5821198320263</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>757.0411710381263</v>
+        <v>757.0411710381267</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>681.7087992584025</v>
@@ -52926,10 +52926,10 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="n">
-        <v>788.246327396134</v>
+        <v>665.7824806662136</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>753.1021251947601</v>
+        <v>753.1021251947603</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>680.0304875594583</v>
@@ -53228,10 +53228,10 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="n">
-        <v>783.3708108059438</v>
+        <v>664.5821198320263</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>757.0411710381263</v>
+        <v>757.0411710381267</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>681.7087992584025</v>
@@ -53530,10 +53530,10 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="n">
-        <v>788.246327396134</v>
+        <v>665.7824806662136</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>753.1021251947601</v>
+        <v>753.1021251947603</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>683.4390355711309</v>
@@ -53832,10 +53832,10 @@
     </row>
     <row r="178">
       <c r="A178" s="0" t="n">
-        <v>793.2726856423187</v>
+        <v>664.5821198320263</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>757.0411710381263</v>
+        <v>757.0411710381267</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>685.2228029724826</v>
@@ -54134,10 +54134,10 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="n">
-        <v>798.454552374107</v>
+        <v>665.7824806662136</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>761.1020854439435</v>
+        <v>753.1021251947604</v>
       </c>
       <c r="C179" s="0" t="n">
         <v>683.4390355711309</v>
@@ -54436,10 +54436,10 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="n">
-        <v>793.2726856423187</v>
+        <v>664.5821198320263</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>757.0411710381263</v>
+        <v>757.0411710381268</v>
       </c>
       <c r="C180" s="0" t="n">
         <v>685.2228029724826</v>

--- a/output/freight_return.xlsx
+++ b/output/freight_return.xlsx
@@ -378,34 +378,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="n">
+        <v>725.5603908377178</v>
+      </c>
+      <c r="B1" s="0" t="n">
         <v>731.8297828355048</v>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>725.5603908377178</v>
       </c>
       <c r="C1" s="0" t="n">
         <v>725.5603908377178</v>
       </c>
       <c r="D1" s="0" t="n">
+        <v>731.8297828355048</v>
+      </c>
+      <c r="E1" s="0" t="n">
         <v>725.5603908377178</v>
-      </c>
-      <c r="E1" s="0" t="n">
-        <v>731.8297828355048</v>
       </c>
       <c r="F1" s="0" t="n">
         <v>725.5603908377178</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="H1" s="0" t="n">
         <v>731.8297828355048</v>
       </c>
       <c r="I1" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="J1" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="K1" s="0" t="n">
         <v>725.5603908377178</v>
@@ -680,31 +680,31 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
+        <v>728.6473339874462</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>728.6473339874462</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>728.6473339874462</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>735.1106921944607</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>722.5660872480564</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>722.5660872480564</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>722.5660872480564</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>728.6473339874462</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>722.5660872480564</v>
       </c>
       <c r="G2" s="0" t="n">
+        <v>722.5660872480564</v>
+      </c>
+      <c r="H2" s="0" t="n">
         <v>735.1106921944607</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>728.6473339874462</v>
-      </c>
       <c r="I2" s="0" t="n">
-        <v>728.6473339874462</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>728.6473339874462</v>
@@ -985,28 +985,28 @@
         <v>731.8297828355048</v>
       </c>
       <c r="B3" s="0" t="n">
+        <v>731.8297828355048</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>731.8297828355048</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>738.4931082946447</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <v>719.661643093376</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>725.5603908377178</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>725.5603908377178</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>725.5603908377178</v>
-      </c>
-      <c r="F3" s="0" t="n">
+      <c r="H3" s="0" t="n">
+        <v>738.4931082946447</v>
+      </c>
+      <c r="I3" s="0" t="n">
         <v>719.661643093376</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>731.8297828355048</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>731.8297828355048</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>731.8297828355048</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>731.8297828355048</v>
@@ -1284,34 +1284,34 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
+        <v>735.1106921944609</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>735.1106921944607</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>728.6473339874462</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="D4" s="0" t="n">
+        <v>735.1106921944607</v>
+      </c>
+      <c r="E4" s="0" t="n">
         <v>716.8443616805015</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>728.6473339874464</v>
-      </c>
-      <c r="D4" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>722.5660872480564</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>728.6473339874462</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>716.8443616805015</v>
-      </c>
       <c r="G4" s="0" t="n">
-        <v>728.6473339874462</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>735.1106921944607</v>
       </c>
       <c r="I4" s="0" t="n">
+        <v>722.5660872480564</v>
+      </c>
+      <c r="J4" s="0" t="n">
         <v>728.6473339874462</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>735.1106921944607</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>728.6473339874464</v>
@@ -1586,34 +1586,34 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>725.5603908377178</v>
+        <v>738.4931082946447</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>714.1116272443656</v>
+        <v>738.4931082946447</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>725.5603908377178</v>
       </c>
       <c r="D5" s="0" t="n">
+        <v>738.4931082946447</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>719.661643093376</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>731.8297828355048</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>719.661643093376</v>
-      </c>
       <c r="G5" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>738.4931082946447</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>719.661643093376</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>725.5603908377178</v>
@@ -1888,34 +1888,34 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>722.5660872480564</v>
+        <v>735.1106921944609</v>
       </c>
       <c r="B6" s="0" t="n">
+        <v>741.9801716124875</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>728.6473339874464</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>741.9801716124875</v>
+      </c>
+      <c r="E6" s="0" t="n">
         <v>716.8443616805015</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>722.5660872480564</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>716.8443616805015</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>728.6473339874462</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>722.5660872480564</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>728.6473339874462</v>
+        <v>716.8443616805015</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>741.9801716124875</v>
+        <v>735.1106921944607</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>728.6473339874462</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>735.1106921944607</v>
+        <v>728.6473339874464</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>722.5660872480564</v>
@@ -2190,31 +2190,31 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
+        <v>731.8297828355048</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>738.4931082946447</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>725.5603908377178</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>719.661643093376</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>719.6616430933761</v>
-      </c>
       <c r="D7" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>738.4931082946447</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>725.5603908377178</v>
+        <v>714.1116272443656</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>725.5603908377178</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>725.5603908377178</v>
+        <v>714.1116272443656</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>725.5603908377178</v>
+        <v>719.661643093376</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>731.8297828355048</v>
@@ -2492,34 +2492,34 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>722.5660872480564</v>
+        <v>735.1106921944609</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>722.5660872480564</v>
+        <v>741.9801716124875</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>722.5660872480564</v>
+        <v>728.6473339874464</v>
       </c>
       <c r="D8" s="0" t="n">
+        <v>735.1106921944607</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>711.4609025193467</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>728.6473339874464</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <v>716.8443616805015</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>728.6473339874464</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>722.5660872480564</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>728.6473339874464</v>
-      </c>
       <c r="H8" s="0" t="n">
-        <v>741.9801716124875</v>
+        <v>728.6473339874462</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>722.5660872480564</v>
+        <v>716.8443616805015</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>728.6473339874462</v>
+        <v>735.1106921944609</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>728.6473339874464</v>
@@ -2794,34 +2794,34 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
+        <v>738.4931082946447</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>738.4931082946447</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>725.5603908377178</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>731.8297828355048</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>714.1116272443656</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>731.8297828355048</v>
+      </c>
+      <c r="G9" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="H9" s="0" t="n">
+        <v>731.8297828355048</v>
+      </c>
+      <c r="I9" s="0" t="n">
         <v>719.661643093376</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>719.6616430933761</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>719.6616430933761</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>725.5603908377178</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>725.5603908377178</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>725.5603908377178</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>745.575119786364</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>725.5603908377178</v>
-      </c>
       <c r="J9" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>738.4931082946447</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>731.8297828355049</v>
@@ -3096,34 +3096,34 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>722.5660872480564</v>
+        <v>735.1106921944609</v>
       </c>
       <c r="B10" s="0" t="n">
+        <v>735.1106921944607</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>728.6473339874464</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>728.6473339874462</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>711.4609025193467</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>735.1106921944609</v>
+      </c>
+      <c r="G10" s="0" t="n">
         <v>716.8443616805015</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>716.8443616805016</v>
-      </c>
-      <c r="D10" s="0" t="n">
+      <c r="H10" s="0" t="n">
+        <v>735.1106921944609</v>
+      </c>
+      <c r="I10" s="0" t="n">
         <v>716.8443616805015</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>728.6473339874464</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>722.5660872480564</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>728.6473339874464</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>741.9801716124875</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>722.5660872480564</v>
-      </c>
       <c r="J10" s="0" t="n">
-        <v>728.6473339874462</v>
+        <v>735.1106921944609</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>735.1106921944609</v>
@@ -3398,31 +3398,31 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>725.5603908377178</v>
+        <v>738.4931082946447</v>
       </c>
       <c r="B11" s="0" t="n">
+        <v>731.8297828355048</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>725.5603908377179</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>731.8297828355048</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>708.88972638349</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>731.8297828355048</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>714.1116272443656</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>738.4931082946447</v>
+      </c>
+      <c r="I11" s="0" t="n">
         <v>719.661643093376</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>719.6616430933761</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>719.6616430933761</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>725.5603908377178</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>719.6616430933761</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>731.8297828355048</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>745.575119786364</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>719.6616430933761</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>731.8297828355048</v>
@@ -3700,34 +3700,34 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>722.5660872480564</v>
+        <v>735.1106921944609</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>722.5660872480564</v>
+        <v>735.1106921944609</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>722.5660872480564</v>
       </c>
       <c r="D12" s="0" t="n">
+        <v>735.1106921944609</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>711.4609025193467</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>735.1106921944609</v>
+      </c>
+      <c r="G12" s="0" t="n">
         <v>716.8443616805015</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <v>722.5660872480564</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>722.5660872480564</v>
-      </c>
-      <c r="G12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <v>735.1106921944609</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>741.9801716124875</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>722.5660872480564</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>728.6473339874462</v>
+        <v>735.1106921944609</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>741.9801716124877</v>
@@ -4002,31 +4002,31 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>725.5603908377178</v>
+        <v>738.4931082946447</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>714.1116272443656</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="E13" s="0" t="n">
+        <v>714.1116272443658</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>738.4931082946447</v>
+      </c>
+      <c r="G13" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>719.6616430933761</v>
-      </c>
-      <c r="G13" s="0" t="n">
+      <c r="H13" s="0" t="n">
         <v>731.8297828355048</v>
       </c>
-      <c r="H13" s="0" t="n">
-        <v>745.575119786364</v>
-      </c>
       <c r="I13" s="0" t="n">
-        <v>725.5603908377178</v>
+        <v>719.661643093376</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>731.8297828355048</v>
@@ -4304,31 +4304,31 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
+        <v>728.6473339874464</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>735.1106921944609</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>722.5660872480564</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>722.5660872480564</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>716.8443616805016</v>
-      </c>
       <c r="D14" s="0" t="n">
-        <v>716.8443616805015</v>
+        <v>735.1106921944609</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>716.8443616805016</v>
       </c>
       <c r="F14" s="0" t="n">
+        <v>741.9801716124877</v>
+      </c>
+      <c r="G14" s="0" t="n">
         <v>722.5660872480564</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="H14" s="0" t="n">
         <v>735.1106921944609</v>
       </c>
-      <c r="H14" s="0" t="n">
-        <v>741.9801716124875</v>
-      </c>
       <c r="I14" s="0" t="n">
-        <v>728.6473339874464</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>735.1106921944609</v>
@@ -4606,34 +4606,34 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>725.5603908377178</v>
+        <v>738.4931082946447</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>714.1116272443656</v>
+        <v>738.4931082946447</v>
       </c>
       <c r="E15" s="0" t="n">
+        <v>714.1116272443658</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>738.4931082946447</v>
+      </c>
+      <c r="G15" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
-      <c r="F15" s="0" t="n">
-        <v>725.5603908377178</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>738.4931082946447</v>
-      </c>
       <c r="H15" s="0" t="n">
-        <v>745.575119786364</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>725.5603908377178</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>745.5751197863641</v>
@@ -4911,31 +4911,31 @@
         <v>722.5660872480564</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>722.5660872480564</v>
+        <v>735.1106921944609</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>716.8443616805016</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>716.8443616805015</v>
+        <v>741.9801716124877</v>
       </c>
       <c r="E16" s="0" t="n">
+        <v>716.8443616805016</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>735.1106921944609</v>
+      </c>
+      <c r="G16" s="0" t="n">
         <v>722.5660872480564</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <v>722.5660872480564</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>735.1106921944609</v>
-      </c>
       <c r="H16" s="0" t="n">
-        <v>741.9801716124875</v>
+        <v>728.6473339874464</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>722.5660872480564</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>741.9801716124875</v>
+        <v>735.1106921944609</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>741.9801716124878</v>
@@ -5213,31 +5213,31 @@
         <v>725.5603908377179</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>738.4931082946447</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>714.1116272443658</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>714.1116272443656</v>
+        <v>738.4931082946447</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>714.1116272443658</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>738.4931082946447</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>738.4931082946448</v>
@@ -5512,34 +5512,34 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
+        <v>728.6473339874464</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>735.1106921944609</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>711.4609025193469</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>735.1106921944609</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>716.8443616805016</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>735.1106921944609</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>728.6473339874464</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>728.6473339874464</v>
+      </c>
+      <c r="I18" s="0" t="n">
         <v>722.5660872480564</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>716.8443616805016</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>716.8443616805016</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>711.4609025193467</v>
-      </c>
-      <c r="E18" s="0" t="n">
+      <c r="J18" s="0" t="n">
         <v>728.6473339874464</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>722.5660872480564</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>735.1106921944609</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>735.1106921944607</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>716.8443616805016</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>741.9801716124875</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>741.9801716124878</v>
@@ -5814,25 +5814,25 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
+        <v>725.5603908377179</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>731.8297828355048</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>708.88972638349</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>731.8297828355048</v>
+      </c>
+      <c r="E19" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>719.6616430933761</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>714.1116272443656</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>708.88972638349</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>725.5603908377179</v>
-      </c>
       <c r="F19" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>731.8297828355048</v>
@@ -5841,7 +5841,7 @@
         <v>719.6616430933761</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>738.4931082946448</v>
@@ -6116,16 +6116,16 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>728.6473339874464</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>735.1106921944609</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>711.4609025193467</v>
+        <v>711.4609025193469</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>711.4609025193467</v>
+        <v>735.1106921944609</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>722.5660872480564</v>
@@ -6134,16 +6134,16 @@
         <v>728.6473339874464</v>
       </c>
       <c r="G20" s="0" t="n">
+        <v>728.6473339874464</v>
+      </c>
+      <c r="H20" s="0" t="n">
         <v>735.1106921944609</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>728.6473339874462</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>722.5660872480564</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>741.9801716124875</v>
+        <v>728.6473339874464</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>741.9801716124878</v>
@@ -6418,16 +6418,16 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>714.1116272443658</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>714.1116272443656</v>
+        <v>738.4931082946447</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>708.88972638349</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>708.88972638349</v>
+        <v>738.4931082946447</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>719.6616430933761</v>
@@ -6436,7 +6436,7 @@
         <v>731.8297828355049</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>731.8297828355049</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>731.8297828355048</v>
@@ -6445,7 +6445,7 @@
         <v>719.6616430933761</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>745.575119786364</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>738.4931082946448</v>
@@ -6720,34 +6720,34 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>711.4609025193469</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>711.4609025193467</v>
+        <v>741.9801716124877</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>706.3957115734263</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>711.4609025193467</v>
+        <v>741.9801716124877</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>722.5660872480564</v>
+        <v>716.8443616805016</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>728.6473339874464</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>728.6473339874464</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>728.6473339874464</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>722.5660872480564</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>749.2812906226455</v>
+        <v>735.1106921944609</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>741.9801716124878</v>
@@ -7022,34 +7022,34 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
+        <v>725.5603908377179</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>745.575119786364</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>708.8897263834901</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>714.1116272443658</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>703.9765424678664</v>
-      </c>
       <c r="D23" s="0" t="n">
-        <v>708.88972638349</v>
+        <v>745.575119786364</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
       <c r="F23" s="0" t="n">
+        <v>725.5603908377179</v>
+      </c>
+      <c r="G23" s="0" t="n">
         <v>731.8297828355049</v>
       </c>
-      <c r="G23" s="0" t="n">
-        <v>738.4931082946448</v>
-      </c>
       <c r="H23" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>753.1021251947593</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>745.5751197863641</v>
@@ -7324,34 +7324,34 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>706.3957115734263</v>
+        <v>722.5660872480565</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>749.2812906226455</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>701.6299729376135</v>
+        <v>711.4609025193469</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>711.4609025193469</v>
+        <v>749.2812906226457</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>728.6473339874464</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>741.9801716124878</v>
+        <v>735.1106921944609</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>741.9801716124875</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>749.2812906226455</v>
+        <v>735.1106921944609</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>749.2812906226458</v>
@@ -7626,34 +7626,34 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>703.9765424678665</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="B25" s="0" t="n">
+        <v>745.575119786364</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>714.1116272443658</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>753.1021251947594</v>
+      </c>
+      <c r="E25" s="0" t="n">
         <v>719.6616430933761</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>699.3538242600958</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>714.1116272443658</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>714.1116272443658</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>731.8297828355049</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>738.4931082946448</v>
+        <v>738.4931082946447</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>745.575119786364</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>714.1116272443658</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>753.1021251947593</v>
+        <v>738.4931082946447</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>753.1021251947595</v>
@@ -7928,34 +7928,34 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>706.3957115734263</v>
+        <v>722.5660872480565</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>722.5660872480564</v>
+        <v>749.2812906226457</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>697.1459830964859</v>
+        <v>716.8443616805016</v>
       </c>
       <c r="D26" s="0" t="n">
+        <v>757.0411710381258</v>
+      </c>
+      <c r="E26" s="0" t="n">
         <v>716.8443616805016</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>711.4609025193469</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>735.1106921944609</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>741.9801716124878</v>
+        <v>741.9801716124877</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>741.9801716124875</v>
+        <v>728.6473339874464</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>749.2812906226455</v>
+        <v>741.9801716124877</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>757.0411710381259</v>
@@ -8230,34 +8230,34 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>703.9765424678665</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>745.575119786364</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>699.3538242600958</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>761.1020854439428</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>708.88972638349</v>
+        <v>714.1116272443658</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>731.8297828355049</v>
+        <v>738.4931082946448</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>738.4931082946448</v>
       </c>
       <c r="H27" s="0" t="n">
+        <v>731.8297828355049</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>719.6616430933761</v>
+      </c>
+      <c r="J27" s="0" t="n">
         <v>745.575119786364</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>714.1116272443658</v>
-      </c>
-      <c r="J27" s="0" t="n">
-        <v>753.1021251947593</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>753.1021251947595</v>
@@ -8532,34 +8532,34 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>701.6299729376135</v>
+        <v>716.8443616805016</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>722.5660872480564</v>
+        <v>749.2812906226457</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>701.6299729376135</v>
+        <v>716.8443616805016</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>722.5660872480564</v>
+        <v>765.2886388548774</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>711.4609025193469</v>
+        <v>711.4609025193467</v>
       </c>
       <c r="F28" s="0" t="n">
+        <v>735.110692194461</v>
+      </c>
+      <c r="G28" s="0" t="n">
         <v>735.1106921944609</v>
       </c>
-      <c r="G28" s="0" t="n">
-        <v>741.9801716124878</v>
-      </c>
       <c r="H28" s="0" t="n">
-        <v>749.2812906226455</v>
+        <v>735.1106921944609</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>716.8443616805016</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>757.0411710381256</v>
+        <v>749.2812906226457</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>757.0411710381259</v>
@@ -8834,34 +8834,34 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>699.353824260096</v>
+        <v>714.1116272443658</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>753.1021251947594</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>703.9765424678665</v>
+        <v>714.1116272443658</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>761.1020854439428</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>708.8897263834901</v>
+        <v>714.1116272443658</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>738.4931082946448</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>745.5751197863641</v>
+        <v>738.4931082946448</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>745.575119786364</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>753.1021251947594</v>
+        <v>745.575119786364</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>753.1021251947597</v>
@@ -9136,34 +9136,34 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>701.6299729376135</v>
+        <v>711.4609025193469</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>722.5660872480564</v>
+        <v>749.2812906226457</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>701.6299729376135</v>
+        <v>716.8443616805016</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>722.5660872480565</v>
+        <v>765.2886388548775</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>706.3957115734263</v>
+        <v>716.8443616805016</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>741.9801716124878</v>
+        <v>735.110692194461</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>741.9801716124878</v>
+        <v>735.1106921944609</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>741.9801716124877</v>
+        <v>735.1106921944609</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>716.8443616805016</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>749.2812906226455</v>
+        <v>741.9801716124877</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>749.2812906226458</v>
@@ -9438,34 +9438,34 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>703.9765424678665</v>
+        <v>714.1116272443658</v>
       </c>
       <c r="B31" s="0" t="n">
+        <v>745.575119786364</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>714.1116272443658</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>761.1020854439429</v>
+      </c>
+      <c r="E31" s="0" t="n">
         <v>719.6616430933761</v>
       </c>
-      <c r="C31" s="0" t="n">
-        <v>703.9765424678665</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>725.5603908377179</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>703.9765424678665</v>
-      </c>
       <c r="F31" s="0" t="n">
-        <v>745.5751197863641</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>745.5751197863641</v>
+        <v>738.4931082946448</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>745.575119786364</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>714.1116272443658</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>753.1021251947594</v>
+        <v>745.5751197863641</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>753.1021251947597</v>
@@ -9740,34 +9740,34 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>706.3957115734264</v>
+        <v>716.8443616805016</v>
       </c>
       <c r="B32" s="0" t="n">
+        <v>741.9801716124877</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>716.8443616805017</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>765.2886388548775</v>
+      </c>
+      <c r="E32" s="0" t="n">
         <v>716.8443616805016</v>
       </c>
-      <c r="C32" s="0" t="n">
-        <v>701.6299729376135</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>728.6473339874465</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>701.6299729376135</v>
-      </c>
       <c r="F32" s="0" t="n">
+        <v>735.110692194461</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>735.1106921944609</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>735.1106921944609</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>716.8443616805016</v>
+      </c>
+      <c r="J32" s="0" t="n">
         <v>741.9801716124878</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <v>749.2812906226457</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>749.2812906226455</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>711.4609025193467</v>
-      </c>
-      <c r="J32" s="0" t="n">
-        <v>749.2812906226455</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>749.2812906226458</v>
@@ -10042,34 +10042,34 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>703.9765424678665</v>
+        <v>719.6616430933763</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>714.1116272443658</v>
+        <v>738.4931082946448</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>703.9765424678665</v>
+        <v>719.6616430933763</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>769.6047183658125</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>703.9765424678665</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>738.4931082946448</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>753.1021251947595</v>
+        <v>738.4931082946448</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>745.575119786364</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>708.88972638349</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>753.1021251947594</v>
+        <v>738.4931082946448</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>745.5751197863642</v>
@@ -10344,34 +10344,34 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>706.3957115734264</v>
+        <v>722.5660872480565</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>711.4609025193469</v>
+        <v>741.9801716124878</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>701.6299729376135</v>
+        <v>716.8443616805017</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>722.5660872480565</v>
+        <v>774.0543313329033</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>701.6299729376135</v>
+        <v>716.8443616805016</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>741.9801716124878</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>749.2812906226458</v>
+        <v>741.9801716124878</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>749.2812906226455</v>
+        <v>728.6473339874464</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>711.4609025193469</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>757.0411710381256</v>
+        <v>735.1106921944609</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>741.9801716124879</v>
@@ -10646,34 +10646,34 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>703.9765424678665</v>
+        <v>719.6616430933763</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>714.1116272443658</v>
+        <v>745.5751197863641</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>699.353824260096</v>
+        <v>719.6616430933763</v>
       </c>
       <c r="D35" s="0" t="n">
+        <v>778.6416090942935</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>719.6616430933761</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>745.5751197863642</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>738.4931082946448</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>731.8297828355049</v>
+      </c>
+      <c r="I35" s="0" t="n">
         <v>725.5603908377179</v>
       </c>
-      <c r="E35" s="0" t="n">
-        <v>703.9765424678665</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>745.5751197863641</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>745.5751197863641</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>745.575119786364</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>714.1116272443658</v>
-      </c>
       <c r="J35" s="0" t="n">
-        <v>761.1020854439428</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>738.4931082946449</v>
@@ -10948,34 +10948,34 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>706.3957115734264</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>711.4609025193469</v>
+        <v>741.9801716124878</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>697.145983096486</v>
+        <v>716.8443616805017</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>722.5660872480565</v>
+        <v>783.3708108059428</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>706.3957115734263</v>
+        <v>716.8443616805016</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>749.2812906226458</v>
+        <v>741.9801716124878</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>741.9801716124878</v>
+        <v>735.110692194461</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>749.2812906226457</v>
+        <v>735.1106921944609</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>765.2886388548774</v>
+        <v>728.6473339874464</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>741.9801716124879</v>
@@ -11250,34 +11250,34 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>703.9765424678666</v>
+        <v>719.6616430933763</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>708.88972638349</v>
+        <v>738.4931082946448</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>699.353824260096</v>
+        <v>714.1116272443659</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>725.5603908377179</v>
+        <v>778.6416090942935</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>703.9765424678665</v>
+        <v>714.1116272443658</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>745.5751197863642</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>745.5751197863642</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>745.575119786364</v>
+        <v>738.4931082946448</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>714.1116272443658</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>769.6047183658125</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>738.4931082946449</v>
@@ -11552,34 +11552,34 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>706.3957115734264</v>
+        <v>716.8443616805017</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>706.3957115734263</v>
+        <v>741.9801716124878</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>697.145983096486</v>
+        <v>711.460902519347</v>
       </c>
       <c r="D38" s="0" t="n">
+        <v>774.0543313329034</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>711.4609025193469</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>741.9801716124878</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>735.110692194461</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>735.1106921944609</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>728.6473339874464</v>
+      </c>
+      <c r="J38" s="0" t="n">
         <v>728.6473339874465</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>701.6299729376135</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>749.2812906226458</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <v>749.2812906226458</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>749.2812906226457</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>711.4609025193469</v>
-      </c>
-      <c r="J38" s="0" t="n">
-        <v>765.2886388548774</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>741.9801716124879</v>
@@ -11854,34 +11854,34 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>703.9765424678666</v>
+        <v>719.6616430933763</v>
       </c>
       <c r="B39" s="0" t="n">
+        <v>738.4931082946448</v>
+      </c>
+      <c r="C39" s="0" t="n">
         <v>708.8897263834901</v>
       </c>
-      <c r="C39" s="0" t="n">
-        <v>699.353824260096</v>
-      </c>
       <c r="D39" s="0" t="n">
-        <v>731.8297828355049</v>
+        <v>769.6047183658126</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>703.9765424678665</v>
+        <v>714.1116272443658</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>745.5751197863642</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>745.5751197863642</v>
+        <v>731.8297828355051</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>753.1021251947594</v>
+        <v>738.4931082946448</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>714.1116272443658</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>769.6047183658125</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>745.5751197863642</v>
@@ -12156,34 +12156,34 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
+        <v>722.5660872480566</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>741.9801716124878</v>
+      </c>
+      <c r="C40" s="0" t="n">
         <v>706.3957115734264</v>
       </c>
-      <c r="B40" s="0" t="n">
-        <v>706.3957115734263</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>697.145983096486</v>
-      </c>
       <c r="D40" s="0" t="n">
+        <v>765.2886388548775</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>716.8443616805016</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>749.2812906226458</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>728.6473339874465</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>741.9801716124878</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>735.1106921944609</v>
+      </c>
+      <c r="J40" s="0" t="n">
         <v>735.110692194461</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>706.3957115734264</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>741.9801716124878</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>749.2812906226458</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <v>757.0411710381258</v>
-      </c>
-      <c r="I40" s="0" t="n">
-        <v>711.4609025193469</v>
-      </c>
-      <c r="J40" s="0" t="n">
-        <v>765.2886388548775</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>741.9801716124879</v>
@@ -12458,34 +12458,34 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
+        <v>719.6616430933763</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>738.4931082946448</v>
+      </c>
+      <c r="C41" s="0" t="n">
         <v>703.9765424678666</v>
       </c>
-      <c r="B41" s="0" t="n">
-        <v>708.8897263834901</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>699.353824260096</v>
-      </c>
       <c r="D41" s="0" t="n">
+        <v>761.102085443943</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>719.6616430933761</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>753.1021251947597</v>
+      </c>
+      <c r="G41" s="0" t="n">
         <v>731.8297828355051</v>
       </c>
-      <c r="E41" s="0" t="n">
-        <v>708.8897263834901</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>745.5751197863642</v>
-      </c>
-      <c r="G41" s="0" t="n">
-        <v>745.5751197863642</v>
-      </c>
       <c r="H41" s="0" t="n">
-        <v>753.1021251947595</v>
+        <v>738.4931082946448</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>714.1116272443658</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>761.1020854439429</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>745.5751197863642</v>
@@ -12760,34 +12760,34 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>701.6299729376136</v>
+        <v>716.8443616805017</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>706.3957115734263</v>
+        <v>741.9801716124878</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>697.145983096486</v>
+        <v>706.3957115734264</v>
       </c>
       <c r="D42" s="0" t="n">
+        <v>757.0411710381259</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>722.5660872480565</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>757.0411710381259</v>
+      </c>
+      <c r="G42" s="0" t="n">
         <v>728.6473339874465</v>
       </c>
-      <c r="E42" s="0" t="n">
-        <v>711.460902519347</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>749.2812906226458</v>
-      </c>
-      <c r="G42" s="0" t="n">
-        <v>741.9801716124879</v>
-      </c>
       <c r="H42" s="0" t="n">
-        <v>749.2812906226457</v>
+        <v>741.9801716124878</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>735.1106921944609</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>765.2886388548775</v>
+        <v>728.6473339874465</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>749.2812906226459</v>
@@ -13062,34 +13062,34 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>699.353824260096</v>
+        <v>719.6616430933763</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>708.8897263834901</v>
+        <v>738.4931082946448</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>695.0043995295257</v>
+        <v>708.8897263834903</v>
       </c>
       <c r="D43" s="0" t="n">
+        <v>753.1021251947597</v>
+      </c>
+      <c r="E43" s="0" t="n">
         <v>725.5603908377179</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>714.1116272443659</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>753.1021251947597</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>745.5751197863642</v>
+        <v>725.560390837718</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>745.5751197863641</v>
+        <v>738.4931082946448</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>719.6616430933761</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>761.1020854439429</v>
+        <v>725.5603908377179</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>753.1021251947598</v>
@@ -13364,34 +13364,34 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>697.1459830964861</v>
+        <v>716.8443616805017</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>711.4609025193469</v>
+        <v>741.9801716124878</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>692.9270851602366</v>
+        <v>711.460902519347</v>
       </c>
       <c r="D44" s="0" t="n">
+        <v>757.0411710381259</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>722.5660872480565</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>757.0411710381259</v>
+      </c>
+      <c r="G44" s="0" t="n">
         <v>728.6473339874465</v>
       </c>
-      <c r="E44" s="0" t="n">
-        <v>716.8443616805017</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>749.2812906226458</v>
-      </c>
-      <c r="G44" s="0" t="n">
-        <v>749.2812906226458</v>
-      </c>
       <c r="H44" s="0" t="n">
-        <v>749.2812906226457</v>
+        <v>741.9801716124878</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>716.8443616805016</v>
+        <v>728.6473339874464</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>765.2886388548775</v>
+        <v>722.5660872480565</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>749.2812906226459</v>
@@ -13666,34 +13666,34 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>695.0043995295257</v>
+        <v>719.6616430933764</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>708.8897263834901</v>
+        <v>745.5751197863641</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>695.0043995295257</v>
+        <v>708.8897263834903</v>
       </c>
       <c r="D45" s="0" t="n">
+        <v>753.1021251947597</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>719.6616430933761</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>761.102085443943</v>
+      </c>
+      <c r="G45" s="0" t="n">
         <v>725.560390837718</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="H45" s="0" t="n">
+        <v>745.5751197863641</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>731.8297828355049</v>
+      </c>
+      <c r="J45" s="0" t="n">
         <v>719.6616430933763</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>745.5751197863642</v>
-      </c>
-      <c r="G45" s="0" t="n">
-        <v>753.1021251947597</v>
-      </c>
-      <c r="H45" s="0" t="n">
-        <v>753.1021251947595</v>
-      </c>
-      <c r="I45" s="0" t="n">
-        <v>719.6616430933761</v>
-      </c>
-      <c r="J45" s="0" t="n">
-        <v>761.1020854439429</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>745.5751197863643</v>
@@ -13968,34 +13968,34 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>692.9270851602367</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="B46" s="0" t="n">
+        <v>741.9801716124878</v>
+      </c>
+      <c r="C46" s="0" t="n">
         <v>711.460902519347</v>
       </c>
-      <c r="C46" s="0" t="n">
-        <v>692.9270851602366</v>
-      </c>
       <c r="D46" s="0" t="n">
-        <v>722.5660872480565</v>
+        <v>757.0411710381259</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>716.8443616805017</v>
+        <v>716.8443616805016</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>741.9801716124879</v>
+        <v>757.0411710381259</v>
       </c>
       <c r="G46" s="0" t="n">
+        <v>722.5660872480566</v>
+      </c>
+      <c r="H46" s="0" t="n">
         <v>749.2812906226458</v>
       </c>
-      <c r="H46" s="0" t="n">
-        <v>749.2812906226457</v>
-      </c>
       <c r="I46" s="0" t="n">
+        <v>728.6473339874464</v>
+      </c>
+      <c r="J46" s="0" t="n">
         <v>716.8443616805016</v>
-      </c>
-      <c r="J46" s="0" t="n">
-        <v>757.0411710381259</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>741.980171612488</v>
@@ -14270,34 +14270,34 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>690.9121112617493</v>
+        <v>725.5603908377182</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>708.8897263834901</v>
+        <v>738.4931082946448</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>695.0043995295257</v>
+        <v>714.111627244366</v>
       </c>
       <c r="D47" s="0" t="n">
+        <v>753.1021251947597</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>719.6616430933763</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>761.102085443943</v>
+      </c>
+      <c r="G47" s="0" t="n">
         <v>725.560390837718</v>
       </c>
-      <c r="E47" s="0" t="n">
-        <v>719.6616430933764</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>745.5751197863642</v>
-      </c>
-      <c r="G47" s="0" t="n">
-        <v>745.5751197863642</v>
-      </c>
       <c r="H47" s="0" t="n">
-        <v>753.1021251947595</v>
+        <v>745.5751197863641</v>
       </c>
       <c r="I47" s="0" t="n">
+        <v>731.8297828355049</v>
+      </c>
+      <c r="J47" s="0" t="n">
         <v>719.6616430933763</v>
-      </c>
-      <c r="J47" s="0" t="n">
-        <v>761.1020854439429</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>738.493108294645</v>
@@ -14572,34 +14572,34 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>692.9270851602367</v>
+        <v>728.6473339874466</v>
       </c>
       <c r="B48" s="0" t="n">
+        <v>735.110692194461</v>
+      </c>
+      <c r="C48" s="0" t="n">
         <v>711.460902519347</v>
       </c>
-      <c r="C48" s="0" t="n">
-        <v>697.145983096486</v>
-      </c>
       <c r="D48" s="0" t="n">
+        <v>749.2812906226458</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>716.8443616805016</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>765.2886388548776</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>722.5660872480566</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>741.9801716124878</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>735.1106921944609</v>
+      </c>
+      <c r="J48" s="0" t="n">
         <v>722.5660872480565</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>722.5660872480566</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>741.9801716124879</v>
-      </c>
-      <c r="G48" s="0" t="n">
-        <v>749.2812906226458</v>
-      </c>
-      <c r="H48" s="0" t="n">
-        <v>749.2812906226457</v>
-      </c>
-      <c r="I48" s="0" t="n">
-        <v>722.5660872480565</v>
-      </c>
-      <c r="J48" s="0" t="n">
-        <v>757.0411710381259</v>
       </c>
       <c r="K48" s="0" t="n">
         <v>741.980171612488</v>
@@ -14874,34 +14874,34 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>695.0043995295257</v>
+        <v>725.5603908377182</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>714.1116272443659</v>
+        <v>738.4931082946448</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>695.0043995295257</v>
+        <v>714.111627244366</v>
       </c>
       <c r="D49" s="0" t="n">
+        <v>745.5751197863642</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>719.6616430933763</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>769.6047183658126</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>719.6616430933763</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>738.4931082946448</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>731.8297828355049</v>
+      </c>
+      <c r="J49" s="0" t="n">
         <v>725.560390837718</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>719.6616430933764</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>745.5751197863642</v>
-      </c>
-      <c r="G49" s="0" t="n">
-        <v>753.1021251947597</v>
-      </c>
-      <c r="H49" s="0" t="n">
-        <v>753.1021251947595</v>
-      </c>
-      <c r="I49" s="0" t="n">
-        <v>719.6616430933763</v>
-      </c>
-      <c r="J49" s="0" t="n">
-        <v>753.1021251947595</v>
       </c>
       <c r="K49" s="0" t="n">
         <v>745.5751197863643</v>
@@ -15176,34 +15176,34 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>697.1459830964861</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>716.8443616805017</v>
+        <v>735.110692194461</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>692.9270851602366</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="D50" s="0" t="n">
+        <v>749.2812906226458</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>722.5660872480565</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>774.0543313329035</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>722.5660872480566</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>735.110692194461</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>735.1106921944609</v>
+      </c>
+      <c r="J50" s="0" t="n">
         <v>728.6473339874465</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>716.8443616805018</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>749.2812906226459</v>
-      </c>
-      <c r="G50" s="0" t="n">
-        <v>757.0411710381259</v>
-      </c>
-      <c r="H50" s="0" t="n">
-        <v>749.2812906226457</v>
-      </c>
-      <c r="I50" s="0" t="n">
-        <v>722.5660872480565</v>
-      </c>
-      <c r="J50" s="0" t="n">
-        <v>749.2812906226458</v>
       </c>
       <c r="K50" s="0" t="n">
         <v>749.2812906226459</v>
@@ -15478,34 +15478,34 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>699.353824260096</v>
+        <v>725.5603908377182</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>714.1116272443659</v>
+        <v>738.4931082946449</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>690.9121112617493</v>
+        <v>714.111627244366</v>
       </c>
       <c r="D51" s="0" t="n">
+        <v>745.5751197863642</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>719.6616430933763</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>778.6416090942936</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>719.6616430933763</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>738.4931082946448</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>731.8297828355049</v>
+      </c>
+      <c r="J51" s="0" t="n">
         <v>731.8297828355051</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>719.6616430933764</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>745.5751197863642</v>
-      </c>
-      <c r="G51" s="0" t="n">
-        <v>761.102085443943</v>
-      </c>
-      <c r="H51" s="0" t="n">
-        <v>745.5751197863641</v>
-      </c>
-      <c r="I51" s="0" t="n">
-        <v>725.5603908377179</v>
-      </c>
-      <c r="J51" s="0" t="n">
-        <v>745.5751197863642</v>
       </c>
       <c r="K51" s="0" t="n">
         <v>753.1021251947598</v>
@@ -15780,25 +15780,25 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>701.6299729376136</v>
+        <v>728.6473339874466</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>716.8443616805017</v>
+        <v>741.9801716124879</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>688.9576069885345</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>728.6473339874465</v>
+        <v>741.9801716124879</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>716.8443616805018</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>741.9801716124879</v>
+        <v>774.0543313329035</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>765.2886388548776</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>741.9801716124878</v>
@@ -15807,7 +15807,7 @@
         <v>728.6473339874465</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>741.9801716124879</v>
+        <v>728.6473339874465</v>
       </c>
       <c r="K52" s="0" t="n">
         <v>749.2812906226459</v>
@@ -16082,34 +16082,34 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>703.9765424678666</v>
+        <v>725.5603908377182</v>
       </c>
       <c r="B53" s="0" t="n">
+        <v>738.4931082946449</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>714.111627244366</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>745.5751197863642</v>
+      </c>
+      <c r="E53" s="0" t="n">
         <v>719.6616430933763</v>
       </c>
-      <c r="C53" s="0" t="n">
-        <v>687.0617576393782</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>725.560390837718</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>719.6616430933764</v>
-      </c>
       <c r="F53" s="0" t="n">
+        <v>769.6047183658127</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>719.6616430933763</v>
+      </c>
+      <c r="H53" s="0" t="n">
         <v>745.5751197863642</v>
       </c>
-      <c r="G53" s="0" t="n">
-        <v>769.6047183658127</v>
-      </c>
-      <c r="H53" s="0" t="n">
-        <v>738.4931082946448</v>
-      </c>
       <c r="I53" s="0" t="n">
+        <v>731.8297828355049</v>
+      </c>
+      <c r="J53" s="0" t="n">
         <v>731.8297828355051</v>
-      </c>
-      <c r="J53" s="0" t="n">
-        <v>745.5751197863642</v>
       </c>
       <c r="K53" s="0" t="n">
         <v>745.5751197863643</v>
@@ -16384,34 +16384,34 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>701.6299729376136</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="B54" s="0" t="n">
+        <v>735.1106921944611</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>716.8443616805018</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>741.9801716124879</v>
+      </c>
+      <c r="E54" s="0" t="n">
         <v>716.8443616805017</v>
       </c>
-      <c r="C54" s="0" t="n">
-        <v>685.2228029724822</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>722.5660872480566</v>
-      </c>
-      <c r="E54" s="0" t="n">
-        <v>716.8443616805018</v>
-      </c>
       <c r="F54" s="0" t="n">
-        <v>741.9801716124879</v>
+        <v>765.2886388548777</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>774.0543313329035</v>
+        <v>716.8443616805017</v>
       </c>
       <c r="H54" s="0" t="n">
+        <v>749.2812906226458</v>
+      </c>
+      <c r="I54" s="0" t="n">
         <v>735.110692194461</v>
       </c>
-      <c r="I54" s="0" t="n">
+      <c r="J54" s="0" t="n">
         <v>728.6473339874465</v>
-      </c>
-      <c r="J54" s="0" t="n">
-        <v>749.2812906226458</v>
       </c>
       <c r="K54" s="0" t="n">
         <v>741.980171612488</v>
@@ -16686,34 +16686,34 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>703.9765424678666</v>
+        <v>719.6616430933764</v>
       </c>
       <c r="B55" s="0" t="n">
+        <v>731.8297828355051</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>714.111627244366</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>738.4931082946449</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>719.6616430933763</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>769.6047183658127</v>
+      </c>
+      <c r="G55" s="0" t="n">
         <v>714.1116272443659</v>
       </c>
-      <c r="C55" s="0" t="n">
-        <v>687.0617576393782</v>
-      </c>
-      <c r="D55" s="0" t="n">
+      <c r="H55" s="0" t="n">
+        <v>745.5751197863642</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>738.4931082946448</v>
+      </c>
+      <c r="J55" s="0" t="n">
         <v>725.560390837718</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>719.6616430933764</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>738.4931082946449</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>778.6416090942936</v>
-      </c>
-      <c r="H55" s="0" t="n">
-        <v>738.4931082946448</v>
-      </c>
-      <c r="I55" s="0" t="n">
-        <v>731.8297828355051</v>
-      </c>
-      <c r="J55" s="0" t="n">
-        <v>753.1021251947597</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>738.493108294645</v>
@@ -16988,34 +16988,34 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>701.6299729376136</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>711.460902519347</v>
+        <v>735.1106921944611</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>685.2228029724822</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>722.5660872480566</v>
+        <v>741.9801716124879</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>716.8443616805018</v>
+        <v>716.8443616805017</v>
       </c>
       <c r="F56" s="0" t="n">
+        <v>765.2886388548777</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>716.8443616805017</v>
+      </c>
+      <c r="H56" s="0" t="n">
         <v>741.9801716124879</v>
       </c>
-      <c r="G56" s="0" t="n">
-        <v>774.0543313329035</v>
-      </c>
-      <c r="H56" s="0" t="n">
+      <c r="I56" s="0" t="n">
         <v>735.110692194461</v>
       </c>
-      <c r="I56" s="0" t="n">
+      <c r="J56" s="0" t="n">
         <v>728.6473339874465</v>
-      </c>
-      <c r="J56" s="0" t="n">
-        <v>749.2812906226458</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>741.980171612488</v>
@@ -17290,34 +17290,34 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>699.3538242600961</v>
+        <v>725.5603908377182</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>708.8897263834903</v>
+        <v>731.8297828355051</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>683.4390355711305</v>
+        <v>719.6616430933764</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>725.560390837718</v>
+        <v>738.4931082946449</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>719.6616430933763</v>
       </c>
       <c r="F57" s="0" t="n">
+        <v>761.1020854439431</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>714.1116272443659</v>
+      </c>
+      <c r="H57" s="0" t="n">
         <v>745.5751197863642</v>
       </c>
-      <c r="G57" s="0" t="n">
-        <v>769.6047183658127</v>
-      </c>
-      <c r="H57" s="0" t="n">
+      <c r="I57" s="0" t="n">
         <v>738.4931082946448</v>
       </c>
-      <c r="I57" s="0" t="n">
-        <v>725.560390837718</v>
-      </c>
       <c r="J57" s="0" t="n">
-        <v>745.5751197863642</v>
+        <v>731.8297828355051</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>745.5751197863643</v>
@@ -17592,34 +17592,34 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>697.1459830964861</v>
+        <v>722.5660872480568</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>706.3957115734264</v>
+        <v>735.1106921944611</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>681.7087992584021</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>728.6473339874465</v>
+        <v>735.1106921944611</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>716.8443616805018</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>749.2812906226459</v>
+        <v>765.2886388548777</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>765.2886388548777</v>
+        <v>711.460902519347</v>
       </c>
       <c r="H58" s="0" t="n">
+        <v>741.9801716124879</v>
+      </c>
+      <c r="I58" s="0" t="n">
         <v>735.110692194461</v>
       </c>
-      <c r="I58" s="0" t="n">
-        <v>728.6473339874465</v>
-      </c>
       <c r="J58" s="0" t="n">
-        <v>749.2812906226458</v>
+        <v>728.6473339874466</v>
       </c>
       <c r="K58" s="0" t="n">
         <v>749.281290622646</v>
@@ -17894,25 +17894,25 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>699.3538242600961</v>
+        <v>725.5603908377182</v>
       </c>
       <c r="B59" s="0" t="n">
+        <v>731.8297828355051</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>714.111627244366</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>731.8297828355052</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>725.560390837718</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>761.1020854439431</v>
+      </c>
+      <c r="G59" s="0" t="n">
         <v>708.8897263834903</v>
-      </c>
-      <c r="C59" s="0" t="n">
-        <v>683.4390355711305</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>725.560390837718</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <v>719.6616430933764</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>745.5751197863643</v>
-      </c>
-      <c r="G59" s="0" t="n">
-        <v>769.6047183658127</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>738.4931082946449</v>
@@ -17921,7 +17921,7 @@
         <v>731.8297828355051</v>
       </c>
       <c r="J59" s="0" t="n">
-        <v>745.5751197863642</v>
+        <v>731.8297828355051</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>753.1021251947598</v>
@@ -18196,25 +18196,25 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>697.1459830964861</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>706.3957115734264</v>
+        <v>735.1106921944611</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>685.2228029724822</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>728.6473339874465</v>
+        <v>728.6473339874466</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>716.8443616805018</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>741.980171612488</v>
+        <v>765.2886388548777</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>774.0543313329036</v>
+        <v>711.460902519347</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>741.9801716124879</v>
@@ -18223,7 +18223,7 @@
         <v>728.6473339874465</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>741.9801716124879</v>
+        <v>735.1106921944611</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>749.281290622646</v>
@@ -18498,34 +18498,34 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>695.0043995295258</v>
+        <v>725.5603908377182</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>703.9765424678666</v>
+        <v>738.4931082946449</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>683.4390355711305</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>731.8297828355051</v>
+        <v>725.5603908377182</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>719.6616430933764</v>
+        <v>719.6616430933763</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>745.5751197863643</v>
+        <v>761.1020854439431</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>778.6416090942937</v>
+        <v>714.111627244366</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>745.5751197863642</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>725.560390837718</v>
+        <v>731.8297828355051</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>738.4931082946449</v>
+        <v>731.8297828355051</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>753.1021251947598</v>
@@ -18800,31 +18800,31 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>692.9270851602367</v>
+        <v>722.5660872480568</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>701.6299729376136</v>
+        <v>741.9801716124879</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>685.2228029724822</v>
+        <v>706.3957115734265</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>728.6473339874465</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>722.5660872480568</v>
+        <v>716.8443616805017</v>
       </c>
       <c r="F62" s="0" t="n">
+        <v>765.2886388548777</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>716.8443616805018</v>
+      </c>
+      <c r="H62" s="0" t="n">
         <v>749.2812906226459</v>
       </c>
-      <c r="G62" s="0" t="n">
-        <v>774.0543313329036</v>
-      </c>
-      <c r="H62" s="0" t="n">
-        <v>749.2812906226458</v>
-      </c>
       <c r="I62" s="0" t="n">
-        <v>722.5660872480566</v>
+        <v>735.110692194461</v>
       </c>
       <c r="J62" s="0" t="n">
         <v>735.1106921944611</v>
@@ -19102,34 +19102,34 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>690.9121112617493</v>
+        <v>725.5603908377182</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>703.9765424678666</v>
+        <v>745.5751197863642</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>683.4390355711305</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>725.560390837718</v>
+        <v>719.6616430933764</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>725.5603908377182</v>
+        <v>719.6616430933764</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>753.1021251947598</v>
+        <v>769.6047183658127</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>778.6416090942937</v>
+        <v>714.111627244366</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>753.1021251947597</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>725.560390837718</v>
+        <v>731.8297828355051</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>731.8297828355051</v>
+        <v>738.4931082946449</v>
       </c>
       <c r="K63" s="0" t="n">
         <v>761.1020854439432</v>
@@ -19404,34 +19404,34 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>692.9270851602367</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>701.6299729376136</v>
+        <v>749.2812906226459</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>681.7087992584021</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>728.6473339874465</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>722.5660872480568</v>
+        <v>722.5660872480566</v>
       </c>
       <c r="F64" s="0" t="n">
+        <v>774.0543313329036</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>711.4609025193471</v>
+      </c>
+      <c r="H64" s="0" t="n">
         <v>757.041171038126</v>
-      </c>
-      <c r="G64" s="0" t="n">
-        <v>774.0543313329038</v>
-      </c>
-      <c r="H64" s="0" t="n">
-        <v>757.0411710381259</v>
       </c>
       <c r="I64" s="0" t="n">
         <v>728.6473339874465</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>728.6473339874466</v>
+        <v>735.1106921944611</v>
       </c>
       <c r="K64" s="0" t="n">
         <v>765.2886388548777</v>
@@ -19706,25 +19706,25 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>690.9121112617493</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>703.9765424678666</v>
+        <v>745.5751197863643</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>680.0304875594579</v>
+        <v>714.111627244366</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>725.560390837718</v>
+        <v>714.111627244366</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>725.5603908377183</v>
+        <v>725.5603908377182</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>753.1021251947598</v>
+        <v>769.6047183658127</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>778.6416090942937</v>
+        <v>708.8897263834903</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>753.1021251947597</v>
@@ -20008,31 +20008,31 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
-        <v>692.9270851602367</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>741.980171612488</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>678.4025422099746</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>728.6473339874465</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>728.6473339874467</v>
+        <v>728.6473339874466</v>
       </c>
       <c r="F66" s="0" t="n">
+        <v>774.0543313329036</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>711.4609025193471</v>
+      </c>
+      <c r="H66" s="0" t="n">
         <v>749.2812906226459</v>
       </c>
-      <c r="G66" s="0" t="n">
-        <v>774.0543313329038</v>
-      </c>
-      <c r="H66" s="0" t="n">
-        <v>757.0411710381259</v>
-      </c>
       <c r="I66" s="0" t="n">
-        <v>728.6473339874466</v>
+        <v>735.1106921944611</v>
       </c>
       <c r="J66" s="0" t="n">
         <v>735.1106921944611</v>
@@ -20310,34 +20310,34 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
-        <v>690.9121112617493</v>
+        <v>725.5603908377183</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>703.9765424678666</v>
+        <v>738.493108294645</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>676.8234517093416</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>725.560390837718</v>
+        <v>719.6616430933764</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>725.5603908377183</v>
+        <v>725.5603908377182</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>745.5751197863643</v>
+        <v>769.6047183658128</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>769.6047183658128</v>
+        <v>714.111627244366</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>753.1021251947597</v>
+        <v>745.5751197863642</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>725.560390837718</v>
+        <v>731.8297828355051</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>738.4931082946449</v>
+        <v>738.493108294645</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>778.6416090942937</v>
@@ -20612,34 +20612,34 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>688.9576069885346</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="B68" s="0" t="n">
+        <v>735.1106921944611</v>
+      </c>
+      <c r="C68" s="0" t="n">
         <v>706.3957115734265</v>
       </c>
-      <c r="C68" s="0" t="n">
-        <v>675.2917499172754</v>
-      </c>
       <c r="D68" s="0" t="n">
-        <v>728.6473339874465</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>728.6473339874467</v>
+        <v>728.6473339874466</v>
       </c>
       <c r="F68" s="0" t="n">
+        <v>774.0543313329038</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>716.8443616805018</v>
+      </c>
+      <c r="H68" s="0" t="n">
         <v>749.2812906226459</v>
       </c>
-      <c r="G68" s="0" t="n">
-        <v>765.2886388548778</v>
-      </c>
-      <c r="H68" s="0" t="n">
-        <v>749.2812906226458</v>
-      </c>
       <c r="I68" s="0" t="n">
-        <v>722.5660872480566</v>
+        <v>735.1106921944611</v>
       </c>
       <c r="J68" s="0" t="n">
-        <v>735.1106921944611</v>
+        <v>741.980171612488</v>
       </c>
       <c r="K68" s="0" t="n">
         <v>783.3708108059432</v>
@@ -20914,34 +20914,34 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="n">
-        <v>687.0617576393784</v>
+        <v>725.5603908377183</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>708.8897263834903</v>
+        <v>738.493108294645</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>676.8234517093417</v>
+        <v>703.9765424678667</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>725.560390837718</v>
+        <v>714.111627244366</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>725.5603908377183</v>
+        <v>725.5603908377182</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>753.1021251947598</v>
+        <v>778.6416090942937</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>769.6047183658128</v>
+        <v>714.111627244366</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>745.5751197863642</v>
+        <v>745.5751197863643</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>719.6616430933763</v>
+        <v>731.8297828355051</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>731.8297828355052</v>
+        <v>738.493108294645</v>
       </c>
       <c r="K69" s="0" t="n">
         <v>778.6416090942937</v>
@@ -21216,31 +21216,31 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
-        <v>685.2228029724822</v>
+        <v>722.5660872480568</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>711.4609025193471</v>
+        <v>735.1106921944612</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>678.4025422099746</v>
+        <v>706.3957115734265</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>728.6473339874465</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>722.5660872480569</v>
+        <v>728.6473339874466</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>757.0411710381261</v>
+        <v>783.3708108059432</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>765.2886388548778</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>749.2812906226458</v>
+        <v>741.980171612488</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>716.8443616805017</v>
+        <v>735.1106921944611</v>
       </c>
       <c r="J70" s="0" t="n">
         <v>735.1106921944611</v>
@@ -21518,34 +21518,34 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="n">
-        <v>683.4390355711306</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="B71" s="0" t="n">
+        <v>738.493108294645</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>703.9765424678667</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>719.6616430933764</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>731.8297828355052</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>788.2463273961333</v>
+      </c>
+      <c r="G71" s="0" t="n">
         <v>714.111627244366</v>
       </c>
-      <c r="C71" s="0" t="n">
-        <v>680.0304875594579</v>
-      </c>
-      <c r="D71" s="0" t="n">
-        <v>725.560390837718</v>
-      </c>
-      <c r="E71" s="0" t="n">
-        <v>719.6616430933765</v>
-      </c>
-      <c r="F71" s="0" t="n">
-        <v>761.1020854439431</v>
-      </c>
-      <c r="G71" s="0" t="n">
-        <v>769.6047183658128</v>
-      </c>
       <c r="H71" s="0" t="n">
-        <v>753.1021251947597</v>
+        <v>738.493108294645</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>714.1116272443659</v>
+        <v>738.4931082946449</v>
       </c>
       <c r="J71" s="0" t="n">
-        <v>738.493108294645</v>
+        <v>731.8297828355052</v>
       </c>
       <c r="K71" s="0" t="n">
         <v>778.6416090942937</v>
@@ -21820,34 +21820,34 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
-        <v>681.7087992584022</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>711.4609025193471</v>
+        <v>741.980171612488</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>678.4025422099746</v>
+        <v>701.6299729376137</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>722.5660872480566</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>722.5660872480569</v>
+        <v>728.6473339874466</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>757.0411710381261</v>
+        <v>783.3708108059432</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>774.0543313329038</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>749.2812906226459</v>
+        <v>735.1106921944611</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>711.460902519347</v>
+        <v>741.9801716124879</v>
       </c>
       <c r="J72" s="0" t="n">
-        <v>735.1106921944611</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="K72" s="0" t="n">
         <v>774.0543313329038</v>
@@ -22122,31 +22122,31 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="n">
-        <v>680.0304875594579</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>708.8897263834903</v>
+        <v>745.5751197863643</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>676.8234517093417</v>
+        <v>703.9765424678667</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>725.560390837718</v>
+        <v>714.111627244366</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>719.6616430933765</v>
+        <v>731.8297828355052</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>761.1020854439431</v>
+        <v>778.6416090942937</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>769.6047183658129</v>
+        <v>714.111627244366</v>
       </c>
       <c r="H73" s="0" t="n">
+        <v>731.8297828355052</v>
+      </c>
+      <c r="I73" s="0" t="n">
         <v>745.5751197863642</v>
-      </c>
-      <c r="I73" s="0" t="n">
-        <v>714.1116272443659</v>
       </c>
       <c r="J73" s="0" t="n">
         <v>731.8297828355052</v>
@@ -22424,34 +22424,34 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
-        <v>678.4025422099746</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>711.4609025193471</v>
+        <v>749.281290622646</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>675.2917499172755</v>
+        <v>701.6299729376137</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>722.5660872480566</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>716.8443616805019</v>
+        <v>728.6473339874466</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>757.0411710381261</v>
+        <v>774.0543313329038</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>765.2886388548778</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="H74" s="0" t="n">
+        <v>735.1106921944612</v>
+      </c>
+      <c r="I74" s="0" t="n">
         <v>749.2812906226459</v>
       </c>
-      <c r="I74" s="0" t="n">
-        <v>716.8443616805017</v>
-      </c>
       <c r="J74" s="0" t="n">
-        <v>728.6473339874467</v>
+        <v>735.1106921944612</v>
       </c>
       <c r="K74" s="0" t="n">
         <v>783.3708108059432</v>
@@ -22726,34 +22726,34 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
-        <v>676.8234517093417</v>
+        <v>725.5603908377183</v>
       </c>
       <c r="B75" s="0" t="n">
+        <v>745.5751197863643</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>703.9765424678667</v>
+      </c>
+      <c r="D75" s="0" t="n">
         <v>714.111627244366</v>
       </c>
-      <c r="C75" s="0" t="n">
-        <v>676.8234517093417</v>
-      </c>
-      <c r="D75" s="0" t="n">
-        <v>725.560390837718</v>
-      </c>
       <c r="E75" s="0" t="n">
-        <v>714.1116272443661</v>
+        <v>731.8297828355052</v>
       </c>
       <c r="F75" s="0" t="n">
+        <v>778.6416090942937</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>719.6616430933764</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>738.493108294645</v>
+      </c>
+      <c r="I75" s="0" t="n">
         <v>753.1021251947598</v>
       </c>
-      <c r="G75" s="0" t="n">
-        <v>761.1020854439432</v>
-      </c>
-      <c r="H75" s="0" t="n">
-        <v>753.1021251947597</v>
-      </c>
-      <c r="I75" s="0" t="n">
-        <v>719.6616430933764</v>
-      </c>
       <c r="J75" s="0" t="n">
-        <v>731.8297828355052</v>
+        <v>738.493108294645</v>
       </c>
       <c r="K75" s="0" t="n">
         <v>788.2463273961333</v>
@@ -23028,34 +23028,34 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">
-        <v>675.2917499172755</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="B76" s="0" t="n">
+        <v>741.980171612488</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>706.3957115734265</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>711.4609025193471</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>728.6473339874467</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>774.0543313329038</v>
+      </c>
+      <c r="G76" s="0" t="n">
         <v>716.8443616805018</v>
       </c>
-      <c r="C76" s="0" t="n">
-        <v>675.2917499172755</v>
-      </c>
-      <c r="D76" s="0" t="n">
-        <v>722.5660872480566</v>
-      </c>
-      <c r="E76" s="0" t="n">
-        <v>711.4609025193472</v>
-      </c>
-      <c r="F76" s="0" t="n">
-        <v>757.0411710381261</v>
-      </c>
-      <c r="G76" s="0" t="n">
-        <v>765.2886388548778</v>
-      </c>
       <c r="H76" s="0" t="n">
+        <v>735.1106921944612</v>
+      </c>
+      <c r="I76" s="0" t="n">
         <v>749.2812906226459</v>
       </c>
-      <c r="I76" s="0" t="n">
-        <v>722.5660872480566</v>
-      </c>
       <c r="J76" s="0" t="n">
-        <v>728.6473339874467</v>
+        <v>735.1106921944612</v>
       </c>
       <c r="K76" s="0" t="n">
         <v>783.3708108059432</v>
@@ -23330,34 +23330,34 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="n">
-        <v>676.8234517093417</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="B77" s="0" t="n">
+        <v>745.5751197863643</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>708.8897263834904</v>
+      </c>
+      <c r="D77" s="0" t="n">
         <v>714.111627244366</v>
       </c>
-      <c r="C77" s="0" t="n">
-        <v>673.8060146925507</v>
-      </c>
-      <c r="D77" s="0" t="n">
-        <v>719.6616430933763</v>
-      </c>
       <c r="E77" s="0" t="n">
-        <v>714.1116272443661</v>
+        <v>731.8297828355052</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>761.1020854439431</v>
+        <v>778.6416090942937</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>761.1020854439432</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>753.1021251947597</v>
+        <v>738.493108294645</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>719.6616430933764</v>
+        <v>745.5751197863643</v>
       </c>
       <c r="J77" s="0" t="n">
-        <v>725.5603908377182</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="K77" s="0" t="n">
         <v>778.6416090942938</v>
@@ -23632,34 +23632,34 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
-        <v>675.2917499172755</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="B78" s="0" t="n">
+        <v>741.980171612488</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>706.3957115734265</v>
+      </c>
+      <c r="D78" s="0" t="n">
         <v>711.4609025193471</v>
       </c>
-      <c r="C78" s="0" t="n">
-        <v>672.3648665725824</v>
-      </c>
-      <c r="D78" s="0" t="n">
-        <v>716.8443616805017</v>
-      </c>
       <c r="E78" s="0" t="n">
-        <v>711.4609025193472</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>765.2886388548777</v>
+        <v>774.0543313329038</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>765.2886388548778</v>
+        <v>716.8443616805018</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>757.041171038126</v>
+        <v>741.980171612488</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>722.5660872480566</v>
+        <v>741.980171612488</v>
       </c>
       <c r="J78" s="0" t="n">
-        <v>728.6473339874467</v>
+        <v>735.1106921944612</v>
       </c>
       <c r="K78" s="0" t="n">
         <v>774.0543313329038</v>
@@ -23934,31 +23934,31 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="n">
-        <v>676.8234517093417</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="B79" s="0" t="n">
+        <v>745.5751197863644</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>703.9765424678667</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>708.8897263834904</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>731.8297828355052</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>769.6047183658128</v>
+      </c>
+      <c r="G79" s="0" t="n">
         <v>714.111627244366</v>
       </c>
-      <c r="C79" s="0" t="n">
-        <v>670.9669674926351</v>
-      </c>
-      <c r="D79" s="0" t="n">
-        <v>714.1116272443659</v>
-      </c>
-      <c r="E79" s="0" t="n">
-        <v>714.1116272443661</v>
-      </c>
-      <c r="F79" s="0" t="n">
-        <v>761.1020854439431</v>
-      </c>
-      <c r="G79" s="0" t="n">
-        <v>769.6047183658129</v>
-      </c>
       <c r="H79" s="0" t="n">
-        <v>753.1021251947597</v>
+        <v>745.5751197863643</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>719.6616430933764</v>
+        <v>738.493108294645</v>
       </c>
       <c r="J79" s="0" t="n">
         <v>731.8297828355053</v>
@@ -24236,34 +24236,34 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="n">
-        <v>675.2917499172755</v>
+        <v>735.1106921944613</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>716.8443616805018</v>
+        <v>749.281290622646</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>672.3648665725824</v>
+        <v>701.6299729376137</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>711.460902519347</v>
+        <v>706.3957115734265</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>716.8443616805019</v>
+        <v>735.1106921944612</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>757.0411710381261</v>
+        <v>765.2886388548778</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>765.2886388548778</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>757.041171038126</v>
+        <v>741.980171612488</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>716.8443616805018</v>
+        <v>735.1106921944611</v>
       </c>
       <c r="J80" s="0" t="n">
-        <v>735.1106921944612</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="K80" s="0" t="n">
         <v>765.2886388548778</v>
@@ -24538,31 +24538,31 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="n">
-        <v>673.8060146925507</v>
+        <v>738.4931082946451</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>719.6616430933764</v>
+        <v>753.1021251947599</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>670.9669674926351</v>
+        <v>699.3538242600962</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>708.8897263834901</v>
+        <v>703.9765424678667</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>719.6616430933765</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>761.1020854439431</v>
+        <v>769.6047183658128</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>761.1020854439432</v>
+        <v>714.111627244366</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>761.102085443943</v>
+        <v>738.493108294645</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>731.8297828355052</v>
       </c>
       <c r="J81" s="0" t="n">
         <v>731.8297828355053</v>
@@ -24840,31 +24840,31 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="n">
-        <v>672.3648665725824</v>
+        <v>735.1106921944613</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>716.8443616805018</v>
+        <v>749.281290622646</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>669.6110195434679</v>
+        <v>701.6299729376137</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>711.460902519347</v>
+        <v>706.3957115734265</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>716.8443616805019</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>765.2886388548777</v>
+        <v>765.2886388548778</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>765.2886388548778</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>765.2886388548776</v>
+        <v>735.1106921944612</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>716.8443616805018</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="J82" s="0" t="n">
         <v>728.6473339874467</v>
@@ -25142,34 +25142,34 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="n">
-        <v>673.8060146925507</v>
+        <v>738.4931082946451</v>
       </c>
       <c r="B83" s="0" t="n">
+        <v>753.1021251947599</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>699.3538242600962</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>708.8897263834904</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>731.8297828355053</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>769.6047183658128</v>
+      </c>
+      <c r="G83" s="0" t="n">
         <v>714.111627244366</v>
       </c>
-      <c r="C83" s="0" t="n">
-        <v>670.9669674926351</v>
-      </c>
-      <c r="D83" s="0" t="n">
-        <v>714.1116272443659</v>
-      </c>
-      <c r="E83" s="0" t="n">
-        <v>714.1116272443661</v>
-      </c>
-      <c r="F83" s="0" t="n">
-        <v>769.6047183658127</v>
-      </c>
-      <c r="G83" s="0" t="n">
-        <v>769.6047183658129</v>
-      </c>
       <c r="H83" s="0" t="n">
-        <v>761.102085443943</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>731.8297828355052</v>
       </c>
       <c r="J83" s="0" t="n">
-        <v>731.8297828355053</v>
+        <v>725.5603908377183</v>
       </c>
       <c r="K83" s="0" t="n">
         <v>769.6047183658129</v>
@@ -25444,31 +25444,31 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="n">
-        <v>675.2917499172755</v>
+        <v>735.1106921944613</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>711.4609025193471</v>
+        <v>757.0411710381261</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>672.3648665725824</v>
+        <v>701.6299729376137</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>711.460902519347</v>
+        <v>706.3957115734265</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>711.4609025193472</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>774.0543313329036</v>
+        <v>774.0543313329038</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>774.0543313329038</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>765.2886388548776</v>
+        <v>735.1106921944612</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>716.8443616805018</v>
+        <v>735.1106921944612</v>
       </c>
       <c r="J84" s="0" t="n">
         <v>728.6473339874467</v>
@@ -25746,34 +25746,34 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="n">
-        <v>676.8234517093417</v>
+        <v>738.4931082946453</v>
       </c>
       <c r="B85" s="0" t="n">
+        <v>753.1021251947599</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>703.9765424678667</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>703.9765424678667</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>731.8297828355053</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>769.6047183658129</v>
+      </c>
+      <c r="G85" s="0" t="n">
         <v>714.111627244366</v>
       </c>
-      <c r="C85" s="0" t="n">
-        <v>673.8060146925507</v>
-      </c>
-      <c r="D85" s="0" t="n">
-        <v>708.8897263834903</v>
-      </c>
-      <c r="E85" s="0" t="n">
-        <v>714.1116272443661</v>
-      </c>
-      <c r="F85" s="0" t="n">
-        <v>769.6047183658128</v>
-      </c>
-      <c r="G85" s="0" t="n">
-        <v>778.6416090942938</v>
-      </c>
       <c r="H85" s="0" t="n">
-        <v>761.102085443943</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>738.493108294645</v>
       </c>
       <c r="J85" s="0" t="n">
-        <v>731.8297828355053</v>
+        <v>725.5603908377183</v>
       </c>
       <c r="K85" s="0" t="n">
         <v>778.6416090942938</v>
@@ -26048,34 +26048,34 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="n">
-        <v>675.2917499172755</v>
+        <v>735.1106921944613</v>
       </c>
       <c r="B86" s="0" t="n">
+        <v>757.0411710381261</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>701.6299729376137</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>701.6299729376137</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>735.1106921944612</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>774.0543313329038</v>
+      </c>
+      <c r="G86" s="0" t="n">
         <v>711.4609025193471</v>
       </c>
-      <c r="C86" s="0" t="n">
-        <v>672.3648665725824</v>
-      </c>
-      <c r="D86" s="0" t="n">
-        <v>711.460902519347</v>
-      </c>
-      <c r="E86" s="0" t="n">
-        <v>711.4609025193472</v>
-      </c>
-      <c r="F86" s="0" t="n">
-        <v>765.2886388548777</v>
-      </c>
-      <c r="G86" s="0" t="n">
-        <v>774.0543313329038</v>
-      </c>
       <c r="H86" s="0" t="n">
-        <v>757.041171038126</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>711.4609025193471</v>
+        <v>741.980171612488</v>
       </c>
       <c r="J86" s="0" t="n">
-        <v>735.1106921944612</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="K86" s="0" t="n">
         <v>774.0543313329038</v>
@@ -26350,34 +26350,34 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="n">
-        <v>676.8234517093417</v>
+        <v>731.8297828355054</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>761.1020854439432</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>673.8060146925507</v>
+        <v>703.9765424678667</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>699.3538242600962</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>714.1116272443661</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>769.6047183658128</v>
+        <v>769.6047183658129</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>769.6047183658129</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>753.1021251947597</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>738.493108294645</v>
       </c>
       <c r="J87" s="0" t="n">
-        <v>738.4931082946451</v>
+        <v>725.5603908377183</v>
       </c>
       <c r="K87" s="0" t="n">
         <v>778.6416090942938</v>
@@ -26652,34 +26652,34 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="n">
-        <v>675.2917499172755</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>711.4609025193471</v>
+        <v>757.0411710381261</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>672.3648665725824</v>
+        <v>706.3957115734265</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>711.460902519347</v>
+        <v>697.1459830964862</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>716.8443616805019</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="F88" s="0" t="n">
         <v>765.2886388548778</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>774.0543313329038</v>
+        <v>706.3957115734265</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>749.2812906226459</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>716.8443616805018</v>
+        <v>735.1106921944612</v>
       </c>
       <c r="J88" s="0" t="n">
-        <v>741.9801716124881</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="K88" s="0" t="n">
         <v>774.0543313329038</v>
@@ -26954,34 +26954,34 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="n">
-        <v>676.8234517093417</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>761.1020854439432</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>670.9669674926351</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>708.8897263834903</v>
+        <v>699.3538242600962</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>714.1116272443661</v>
+        <v>725.5603908377183</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>761.1020854439432</v>
+        <v>769.6047183658129</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>769.6047183658129</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>745.5751197863642</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="J89" s="0" t="n">
-        <v>745.5751197863644</v>
+        <v>725.5603908377183</v>
       </c>
       <c r="K89" s="0" t="n">
         <v>769.6047183658129</v>
@@ -27256,34 +27256,34 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="n">
-        <v>678.4025422099747</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="B90" s="0" t="n">
+        <v>765.2886388548777</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>706.3957115734265</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>697.1459830964862</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>722.5660872480568</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>774.0543313329038</v>
+      </c>
+      <c r="G90" s="0" t="n">
         <v>711.4609025193471</v>
       </c>
-      <c r="C90" s="0" t="n">
-        <v>669.6110195434679</v>
-      </c>
-      <c r="D90" s="0" t="n">
-        <v>711.4609025193471</v>
-      </c>
-      <c r="E90" s="0" t="n">
-        <v>716.8443616805019</v>
-      </c>
-      <c r="F90" s="0" t="n">
-        <v>765.2886388548778</v>
-      </c>
-      <c r="G90" s="0" t="n">
-        <v>765.2886388548779</v>
-      </c>
       <c r="H90" s="0" t="n">
-        <v>749.2812906226459</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>716.8443616805018</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="J90" s="0" t="n">
-        <v>749.281290622646</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="K90" s="0" t="n">
         <v>765.2886388548778</v>
@@ -27558,34 +27558,34 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="n">
-        <v>676.8234517093417</v>
+        <v>731.8297828355054</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>761.1020854439432</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>670.9669674926351</v>
+        <v>703.9765424678667</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>699.3538242600962</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>719.6616430933765</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>761.1020854439432</v>
+        <v>778.6416090942939</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>769.6047183658129</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>745.5751197863643</v>
+        <v>725.5603908377183</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="J91" s="0" t="n">
-        <v>753.1021251947599</v>
+        <v>725.5603908377183</v>
       </c>
       <c r="K91" s="0" t="n">
         <v>761.1020854439432</v>
@@ -27860,34 +27860,34 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="n">
-        <v>675.2917499172755</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>716.8443616805018</v>
+        <v>765.2886388548777</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>672.3648665725824</v>
+        <v>706.3957115734265</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>711.4609025193471</v>
+        <v>701.6299729376137</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>716.8443616805019</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>765.2886388548778</v>
+        <v>783.3708108059433</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>765.2886388548779</v>
+        <v>706.3957115734265</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>741.980171612488</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>711.4609025193471</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="J92" s="0" t="n">
-        <v>757.0411710381262</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="K92" s="0" t="n">
         <v>765.2886388548778</v>
@@ -28162,34 +28162,34 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="n">
-        <v>673.8060146925507</v>
+        <v>731.8297828355054</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>769.6047183658128</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>670.9669674926353</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>708.8897263834903</v>
+        <v>699.3538242600962</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>719.6616430933765</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>769.6047183658128</v>
+        <v>788.2463273961334</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>769.6047183658129</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>738.493108294645</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>725.5603908377183</v>
       </c>
       <c r="J93" s="0" t="n">
-        <v>761.1020854439432</v>
+        <v>725.5603908377183</v>
       </c>
       <c r="K93" s="0" t="n">
         <v>769.6047183658129</v>
@@ -28464,34 +28464,34 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="n">
-        <v>675.2917499172755</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>716.8443616805019</v>
+        <v>765.2886388548778</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>672.3648665725824</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>697.1459830964862</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>716.8443616805019</v>
+        <v>722.5660872480568</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>765.2886388548778</v>
+        <v>793.2726856423182</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>774.0543313329039</v>
+        <v>711.4609025193471</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>735.1106921944611</v>
+        <v>735.1106921944613</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>722.5660872480568</v>
       </c>
       <c r="J94" s="0" t="n">
-        <v>765.2886388548778</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="K94" s="0" t="n">
         <v>765.2886388548778</v>
@@ -28766,34 +28766,34 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="n">
-        <v>673.8060146925507</v>
+        <v>731.8297828355054</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>761.1020854439432</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>670.9669674926353</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>708.8897263834903</v>
+        <v>695.0043995295258</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>719.6616430933765</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>761.1020854439432</v>
+        <v>788.2463273961334</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>778.6416090942939</v>
+        <v>714.111627244366</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>738.493108294645</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>725.5603908377183</v>
       </c>
       <c r="J95" s="0" t="n">
-        <v>769.6047183658129</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="K95" s="0" t="n">
         <v>769.6047183658129</v>
@@ -29068,34 +29068,34 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="n">
-        <v>675.2917499172755</v>
+        <v>728.6473339874469</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>711.4609025193471</v>
+        <v>757.0411710381261</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>669.6110195434679</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>711.4609025193471</v>
+        <v>692.9270851602369</v>
       </c>
       <c r="E96" s="0" t="n">
+        <v>722.5660872480569</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>783.3708108059433</v>
+      </c>
+      <c r="G96" s="0" t="n">
         <v>716.8443616805019</v>
       </c>
-      <c r="F96" s="0" t="n">
-        <v>765.2886388548778</v>
-      </c>
-      <c r="G96" s="0" t="n">
-        <v>783.3708108059433</v>
-      </c>
       <c r="H96" s="0" t="n">
-        <v>741.980171612488</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>711.4609025193471</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="J96" s="0" t="n">
-        <v>774.0543313329038</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="K96" s="0" t="n">
         <v>774.0543313329038</v>
@@ -29370,34 +29370,34 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="n">
-        <v>676.8234517093417</v>
+        <v>731.8297828355054</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>753.1021251947599</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>668.2957637662623</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>690.9121112617494</v>
       </c>
       <c r="E97" s="0" t="n">
+        <v>725.5603908377183</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>788.2463273961334</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <v>719.6616430933765</v>
+      </c>
+      <c r="H97" s="0" t="n">
+        <v>731.8297828355053</v>
+      </c>
+      <c r="I97" s="0" t="n">
+        <v>731.8297828355053</v>
+      </c>
+      <c r="J97" s="0" t="n">
         <v>714.1116272443661</v>
-      </c>
-      <c r="F97" s="0" t="n">
-        <v>769.6047183658128</v>
-      </c>
-      <c r="G97" s="0" t="n">
-        <v>778.6416090942939</v>
-      </c>
-      <c r="H97" s="0" t="n">
-        <v>745.5751197863643</v>
-      </c>
-      <c r="I97" s="0" t="n">
-        <v>714.111627244366</v>
-      </c>
-      <c r="J97" s="0" t="n">
-        <v>778.6416090942939</v>
       </c>
       <c r="K97" s="0" t="n">
         <v>778.6416090942939</v>
@@ -29672,34 +29672,34 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="n">
-        <v>678.4025422099747</v>
+        <v>735.1106921944614</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>749.281290622646</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>667.0199789837159</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>716.8443616805018</v>
+        <v>692.9270851602369</v>
       </c>
       <c r="E98" s="0" t="n">
+        <v>722.5660872480569</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>783.3708108059433</v>
+      </c>
+      <c r="G98" s="0" t="n">
         <v>716.8443616805019</v>
       </c>
-      <c r="F98" s="0" t="n">
-        <v>774.0543313329038</v>
-      </c>
-      <c r="G98" s="0" t="n">
-        <v>783.3708108059433</v>
-      </c>
       <c r="H98" s="0" t="n">
-        <v>749.2812906226459</v>
+        <v>735.1106921944613</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>716.8443616805018</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="J98" s="0" t="n">
-        <v>774.0543313329038</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="K98" s="0" t="n">
         <v>774.0543313329038</v>
@@ -29974,34 +29974,34 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="n">
-        <v>680.0304875594579</v>
+        <v>738.4931082946453</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>745.5751197863644</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>665.7824806662135</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>695.0043995295259</v>
       </c>
       <c r="E99" s="0" t="n">
+        <v>719.6616430933765</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>788.2463273961334</v>
+      </c>
+      <c r="G99" s="0" t="n">
         <v>714.1116272443661</v>
       </c>
-      <c r="F99" s="0" t="n">
-        <v>769.6047183658129</v>
-      </c>
-      <c r="G99" s="0" t="n">
-        <v>788.2463273961334</v>
-      </c>
       <c r="H99" s="0" t="n">
-        <v>745.5751197863643</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>725.5603908377183</v>
       </c>
       <c r="J99" s="0" t="n">
-        <v>769.6047183658129</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="K99" s="0" t="n">
         <v>778.6416090942939</v>
@@ -30276,34 +30276,34 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="n">
-        <v>678.4025422099747</v>
+        <v>735.1106921944614</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>711.4609025193471</v>
+        <v>741.9801716124881</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>664.5821198320261</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>711.4609025193471</v>
+        <v>692.9270851602369</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>716.8443616805019</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>774.0543313329038</v>
+        <v>783.3708108059434</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>793.2726856423182</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>741.980171612488</v>
+        <v>735.1106921944613</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>711.4609025193471</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="J100" s="0" t="n">
-        <v>774.0543313329039</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="K100" s="0" t="n">
         <v>783.3708108059433</v>
@@ -30578,34 +30578,34 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="n">
-        <v>680.0304875594579</v>
+        <v>731.8297828355055</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>738.4931082946451</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>665.7824806662135</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>708.8897263834903</v>
+        <v>695.0043995295259</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>719.6616430933765</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>769.6047183658129</v>
+        <v>788.2463273961336</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>788.2463273961334</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>738.493108294645</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="J101" s="0" t="n">
-        <v>778.6416090942939</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="K101" s="0" t="n">
         <v>788.2463273961334</v>
@@ -30880,34 +30880,34 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="n">
-        <v>681.7087992584022</v>
+        <v>728.6473339874469</v>
       </c>
       <c r="B102" s="0" t="n">
+        <v>735.1106921944612</v>
+      </c>
+      <c r="C102" s="0" t="n">
         <v>716.8443616805019</v>
       </c>
-      <c r="C102" s="0" t="n">
-        <v>664.5821198320261</v>
-      </c>
       <c r="D102" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>697.1459830964862</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>716.8443616805019</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>765.2886388548778</v>
+        <v>783.3708108059434</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>793.2726856423182</v>
+        <v>706.3957115734265</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>741.980171612488</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>716.8443616805019</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="J102" s="0" t="n">
-        <v>774.0543313329039</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="K102" s="0" t="n">
         <v>793.2726856423182</v>
@@ -31182,34 +31182,34 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="n">
-        <v>680.0304875594579</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="B103" s="0" t="n">
+        <v>738.4931082946451</v>
+      </c>
+      <c r="C103" s="0" t="n">
         <v>719.6616430933765</v>
       </c>
-      <c r="C103" s="0" t="n">
-        <v>665.7824806662136</v>
-      </c>
       <c r="D103" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>695.0043995295259</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>719.6616430933765</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>761.1020854439432</v>
+        <v>788.2463273961336</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>788.2463273961334</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>745.5751197863643</v>
+        <v>725.5603908377183</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="J103" s="0" t="n">
-        <v>769.6047183658129</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="K103" s="0" t="n">
         <v>788.2463273961334</v>
@@ -31484,34 +31484,34 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="n">
-        <v>681.7087992584022</v>
+        <v>722.566087248057</v>
       </c>
       <c r="B104" s="0" t="n">
+        <v>735.1106921944612</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>722.5660872480569</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>692.9270851602369</v>
+      </c>
+      <c r="E104" s="0" t="n">
         <v>716.8443616805019</v>
       </c>
-      <c r="C104" s="0" t="n">
-        <v>664.5821198320261</v>
-      </c>
-      <c r="D104" s="0" t="n">
+      <c r="F104" s="0" t="n">
+        <v>793.2726856423183</v>
+      </c>
+      <c r="G104" s="0" t="n">
         <v>706.3957115734265</v>
       </c>
-      <c r="E104" s="0" t="n">
+      <c r="H104" s="0" t="n">
+        <v>728.6473339874468</v>
+      </c>
+      <c r="I104" s="0" t="n">
         <v>722.5660872480569</v>
       </c>
-      <c r="F104" s="0" t="n">
-        <v>757.0411710381262</v>
-      </c>
-      <c r="G104" s="0" t="n">
-        <v>793.2726856423182</v>
-      </c>
-      <c r="H104" s="0" t="n">
-        <v>749.281290622646</v>
-      </c>
-      <c r="I104" s="0" t="n">
-        <v>711.4609025193471</v>
-      </c>
       <c r="J104" s="0" t="n">
-        <v>774.0543313329039</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="K104" s="0" t="n">
         <v>783.3708108059433</v>
@@ -31786,34 +31786,34 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="n">
-        <v>680.0304875594579</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>714.1116272443661</v>
+        <v>738.4931082946451</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>663.4177819805135</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>690.9121112617494</v>
       </c>
       <c r="E105" s="0" t="n">
+        <v>719.6616430933765</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>798.4545523741066</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <v>708.8897263834904</v>
+      </c>
+      <c r="H105" s="0" t="n">
+        <v>731.8297828355053</v>
+      </c>
+      <c r="I105" s="0" t="n">
+        <v>725.5603908377183</v>
+      </c>
+      <c r="J105" s="0" t="n">
         <v>719.6616430933766</v>
-      </c>
-      <c r="F105" s="0" t="n">
-        <v>761.1020854439432</v>
-      </c>
-      <c r="G105" s="0" t="n">
-        <v>798.4545523741065</v>
-      </c>
-      <c r="H105" s="0" t="n">
-        <v>745.5751197863644</v>
-      </c>
-      <c r="I105" s="0" t="n">
-        <v>708.8897263834904</v>
-      </c>
-      <c r="J105" s="0" t="n">
-        <v>769.604718365813</v>
       </c>
       <c r="K105" s="0" t="n">
         <v>778.6416090942939</v>
@@ -32088,34 +32088,34 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="n">
-        <v>678.4025422099747</v>
+        <v>728.6473339874469</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>716.8443616805019</v>
+        <v>741.9801716124881</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>664.5821198320261</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="D106" s="0" t="n">
+        <v>688.9576069885347</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>722.5660872480569</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>793.2726856423183</v>
+      </c>
+      <c r="G106" s="0" t="n">
         <v>706.3957115734265</v>
       </c>
-      <c r="E106" s="0" t="n">
-        <v>716.8443616805019</v>
-      </c>
-      <c r="F106" s="0" t="n">
-        <v>765.2886388548778</v>
-      </c>
-      <c r="G106" s="0" t="n">
-        <v>803.7967388062807</v>
-      </c>
       <c r="H106" s="0" t="n">
-        <v>749.281290622646</v>
+        <v>735.1106921944613</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="J106" s="0" t="n">
-        <v>774.0543313329039</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="K106" s="0" t="n">
         <v>774.0543313329039</v>
@@ -32390,34 +32390,34 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="n">
-        <v>676.8234517093417</v>
+        <v>725.5603908377185</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>719.6616430933765</v>
+        <v>745.5751197863644</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>663.4177819805135</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="D107" s="0" t="n">
+        <v>687.0617576393785</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>719.6616430933766</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>788.2463273961336</v>
+      </c>
+      <c r="G107" s="0" t="n">
         <v>703.9765424678667</v>
       </c>
-      <c r="E107" s="0" t="n">
-        <v>714.1116272443661</v>
-      </c>
-      <c r="F107" s="0" t="n">
-        <v>761.1020854439432</v>
-      </c>
-      <c r="G107" s="0" t="n">
-        <v>798.4545523741065</v>
-      </c>
       <c r="H107" s="0" t="n">
-        <v>753.1021251947599</v>
+        <v>738.4931082946451</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>725.5603908377183</v>
       </c>
       <c r="J107" s="0" t="n">
-        <v>778.6416090942939</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="K107" s="0" t="n">
         <v>778.6416090942939</v>
@@ -32692,34 +32692,34 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="n">
-        <v>678.4025422099747</v>
+        <v>728.6473339874469</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>722.5660872480569</v>
+        <v>749.281290622646</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>664.5821198320261</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="D108" s="0" t="n">
+        <v>688.9576069885347</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>716.8443616805019</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <v>783.3708108059434</v>
+      </c>
+      <c r="G108" s="0" t="n">
         <v>706.3957115734265</v>
       </c>
-      <c r="E108" s="0" t="n">
-        <v>711.4609025193472</v>
-      </c>
-      <c r="F108" s="0" t="n">
-        <v>757.0411710381262</v>
-      </c>
-      <c r="G108" s="0" t="n">
-        <v>803.7967388062807</v>
-      </c>
       <c r="H108" s="0" t="n">
-        <v>749.281290622646</v>
+        <v>735.1106921944613</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>711.4609025193471</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="J108" s="0" t="n">
-        <v>783.3708108059434</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="K108" s="0" t="n">
         <v>783.3708108059433</v>
@@ -32994,34 +32994,34 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="n">
-        <v>676.8234517093417</v>
+        <v>725.5603908377185</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>725.5603908377183</v>
+        <v>753.1021251947599</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>663.4177819805135</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>690.9121112617494</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>714.1116272443661</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>761.1020854439432</v>
+        <v>788.2463273961336</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>798.4545523741065</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>745.5751197863644</v>
+        <v>731.8297828355054</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>714.111627244366</v>
+        <v>731.8297828355054</v>
       </c>
       <c r="J109" s="0" t="n">
-        <v>778.6416090942939</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="K109" s="0" t="n">
         <v>788.2463273961334</v>
@@ -33296,34 +33296,34 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="n">
-        <v>675.2917499172755</v>
+        <v>728.6473339874469</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>728.6473339874468</v>
+        <v>749.2812906226461</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>664.5821198320261</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>692.9270851602369</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>711.4609025193472</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>765.2886388548778</v>
+        <v>783.3708108059434</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>793.2726856423182</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>749.281290622646</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="I110" s="0" t="n">
+        <v>735.1106921944613</v>
+      </c>
+      <c r="J110" s="0" t="n">
         <v>716.8443616805019</v>
-      </c>
-      <c r="J110" s="0" t="n">
-        <v>783.3708108059434</v>
       </c>
       <c r="K110" s="0" t="n">
         <v>793.2726856423182</v>
@@ -33598,34 +33598,34 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="n">
-        <v>676.8234517093417</v>
+        <v>725.5603908377185</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>731.8297828355053</v>
+        <v>753.1021251947599</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>665.7824806662136</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="D111" s="0" t="n">
+        <v>690.9121112617494</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>714.1116272443661</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <v>788.2463273961337</v>
+      </c>
+      <c r="G111" s="0" t="n">
         <v>708.8897263834904</v>
       </c>
-      <c r="E111" s="0" t="n">
-        <v>708.8897263834904</v>
-      </c>
-      <c r="F111" s="0" t="n">
-        <v>761.1020854439432</v>
-      </c>
-      <c r="G111" s="0" t="n">
-        <v>798.4545523741065</v>
-      </c>
       <c r="H111" s="0" t="n">
-        <v>745.5751197863644</v>
+        <v>731.8297828355054</v>
       </c>
       <c r="I111" s="0" t="n">
+        <v>731.8297828355054</v>
+      </c>
+      <c r="J111" s="0" t="n">
         <v>714.1116272443661</v>
-      </c>
-      <c r="J111" s="0" t="n">
-        <v>778.6416090942939</v>
       </c>
       <c r="K111" s="0" t="n">
         <v>788.2463273961334</v>
@@ -33900,34 +33900,34 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="n">
-        <v>675.2917499172755</v>
+        <v>722.566087248057</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>735.1106921944613</v>
+        <v>749.2812906226461</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>667.0199789837159</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>706.3957115734265</v>
+        <v>692.9270851602369</v>
       </c>
       <c r="E112" s="0" t="n">
+        <v>716.8443616805019</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <v>783.3708108059434</v>
+      </c>
+      <c r="G112" s="0" t="n">
         <v>711.4609025193472</v>
       </c>
-      <c r="F112" s="0" t="n">
-        <v>765.2886388548778</v>
-      </c>
-      <c r="G112" s="0" t="n">
-        <v>793.2726856423182</v>
-      </c>
       <c r="H112" s="0" t="n">
-        <v>741.980171612488</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>716.8443616805019</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="J112" s="0" t="n">
-        <v>783.3708108059434</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="K112" s="0" t="n">
         <v>783.3708108059433</v>
@@ -34202,34 +34202,34 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="n">
-        <v>676.8234517093417</v>
+        <v>719.6616430933767</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>738.4931082946451</v>
+        <v>753.1021251947599</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>665.7824806662136</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>703.9765424678667</v>
+        <v>690.9121112617495</v>
       </c>
       <c r="E113" s="0" t="n">
+        <v>714.1116272443661</v>
+      </c>
+      <c r="F113" s="0" t="n">
+        <v>788.2463273961337</v>
+      </c>
+      <c r="G113" s="0" t="n">
+        <v>714.1116272443661</v>
+      </c>
+      <c r="H113" s="0" t="n">
+        <v>725.5603908377183</v>
+      </c>
+      <c r="I113" s="0" t="n">
+        <v>731.8297828355054</v>
+      </c>
+      <c r="J113" s="0" t="n">
         <v>708.8897263834904</v>
-      </c>
-      <c r="F113" s="0" t="n">
-        <v>761.1020854439432</v>
-      </c>
-      <c r="G113" s="0" t="n">
-        <v>788.2463273961334</v>
-      </c>
-      <c r="H113" s="0" t="n">
-        <v>745.5751197863644</v>
-      </c>
-      <c r="I113" s="0" t="n">
-        <v>714.1116272443661</v>
-      </c>
-      <c r="J113" s="0" t="n">
-        <v>778.6416090942939</v>
       </c>
       <c r="K113" s="0" t="n">
         <v>778.6416090942939</v>
@@ -34504,34 +34504,34 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="n">
-        <v>678.4025422099747</v>
+        <v>716.8443616805022</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>741.9801716124882</v>
+        <v>757.0411710381262</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>667.0199789837159</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>701.6299729376137</v>
+        <v>692.9270851602369</v>
       </c>
       <c r="E114" s="0" t="n">
+        <v>716.8443616805019</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>783.3708108059435</v>
+      </c>
+      <c r="G114" s="0" t="n">
+        <v>716.8443616805019</v>
+      </c>
+      <c r="H114" s="0" t="n">
+        <v>728.6473339874468</v>
+      </c>
+      <c r="I114" s="0" t="n">
+        <v>735.1106921944613</v>
+      </c>
+      <c r="J114" s="0" t="n">
         <v>706.3957115734266</v>
-      </c>
-      <c r="F114" s="0" t="n">
-        <v>757.0411710381262</v>
-      </c>
-      <c r="G114" s="0" t="n">
-        <v>793.2726856423182</v>
-      </c>
-      <c r="H114" s="0" t="n">
-        <v>749.281290622646</v>
-      </c>
-      <c r="I114" s="0" t="n">
-        <v>711.4609025193472</v>
-      </c>
-      <c r="J114" s="0" t="n">
-        <v>774.0543313329039</v>
       </c>
       <c r="K114" s="0" t="n">
         <v>774.0543313329039</v>
@@ -34806,34 +34806,34 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="n">
-        <v>680.030487559458</v>
+        <v>719.6616430933767</v>
       </c>
       <c r="B115" s="0" t="n">
+        <v>761.1020854439433</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>714.1116272443661</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>690.9121112617495</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>719.6616430933766</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>778.6416090942942</v>
+      </c>
+      <c r="G115" s="0" t="n">
+        <v>719.6616430933765</v>
+      </c>
+      <c r="H115" s="0" t="n">
+        <v>725.5603908377184</v>
+      </c>
+      <c r="I115" s="0" t="n">
         <v>738.4931082946453</v>
       </c>
-      <c r="C115" s="0" t="n">
-        <v>668.2957637662624</v>
-      </c>
-      <c r="D115" s="0" t="n">
-        <v>699.3538242600962</v>
-      </c>
-      <c r="E115" s="0" t="n">
-        <v>703.9765424678667</v>
-      </c>
-      <c r="F115" s="0" t="n">
-        <v>761.1020854439432</v>
-      </c>
-      <c r="G115" s="0" t="n">
-        <v>798.4545523741065</v>
-      </c>
-      <c r="H115" s="0" t="n">
-        <v>753.1021251947599</v>
-      </c>
-      <c r="I115" s="0" t="n">
-        <v>714.1116272443661</v>
-      </c>
       <c r="J115" s="0" t="n">
-        <v>769.604718365813</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="K115" s="0" t="n">
         <v>778.6416090942939</v>
@@ -35108,34 +35108,34 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="n">
-        <v>681.7087992584023</v>
+        <v>716.8443616805022</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>741.9801716124882</v>
+        <v>757.0411710381262</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>667.0199789837159</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>697.1459830964862</v>
+        <v>692.9270851602369</v>
       </c>
       <c r="E116" s="0" t="n">
+        <v>716.8443616805019</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <v>783.3708108059435</v>
+      </c>
+      <c r="G116" s="0" t="n">
+        <v>716.8443616805019</v>
+      </c>
+      <c r="H116" s="0" t="n">
+        <v>722.5660872480569</v>
+      </c>
+      <c r="I116" s="0" t="n">
+        <v>735.1106921944613</v>
+      </c>
+      <c r="J116" s="0" t="n">
         <v>706.3957115734266</v>
-      </c>
-      <c r="F116" s="0" t="n">
-        <v>765.2886388548778</v>
-      </c>
-      <c r="G116" s="0" t="n">
-        <v>793.2726856423182</v>
-      </c>
-      <c r="H116" s="0" t="n">
-        <v>757.0411710381261</v>
-      </c>
-      <c r="I116" s="0" t="n">
-        <v>711.4609025193472</v>
-      </c>
-      <c r="J116" s="0" t="n">
-        <v>765.2886388548779</v>
       </c>
       <c r="K116" s="0" t="n">
         <v>783.3708108059433</v>
@@ -35410,34 +35410,34 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="n">
-        <v>683.4390355711307</v>
+        <v>714.1116272443662</v>
       </c>
       <c r="B117" s="0" t="n">
+        <v>753.10212519476</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>719.6616430933766</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>695.0043995295259</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>714.1116272443661</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>788.2463273961337</v>
+      </c>
+      <c r="G117" s="0" t="n">
+        <v>719.6616430933765</v>
+      </c>
+      <c r="H117" s="0" t="n">
+        <v>719.6616430933766</v>
+      </c>
+      <c r="I117" s="0" t="n">
         <v>738.4931082946453</v>
       </c>
-      <c r="C117" s="0" t="n">
-        <v>668.2957637662624</v>
-      </c>
-      <c r="D117" s="0" t="n">
-        <v>695.0043995295258</v>
-      </c>
-      <c r="E117" s="0" t="n">
+      <c r="J117" s="0" t="n">
         <v>708.8897263834904</v>
-      </c>
-      <c r="F117" s="0" t="n">
-        <v>769.6047183658129</v>
-      </c>
-      <c r="G117" s="0" t="n">
-        <v>788.2463273961334</v>
-      </c>
-      <c r="H117" s="0" t="n">
-        <v>761.1020854439432</v>
-      </c>
-      <c r="I117" s="0" t="n">
-        <v>714.1116272443661</v>
-      </c>
-      <c r="J117" s="0" t="n">
-        <v>761.1020854439435</v>
       </c>
       <c r="K117" s="0" t="n">
         <v>788.2463273961334</v>
@@ -35712,34 +35712,34 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="n">
-        <v>681.7087992584023</v>
+        <v>716.8443616805022</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>741.9801716124882</v>
+        <v>757.0411710381263</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>667.0199789837159</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>697.1459830964862</v>
+        <v>697.1459830964864</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>711.4609025193472</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>765.2886388548778</v>
+        <v>793.2726856423184</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>783.3708108059433</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>757.0411710381261</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>716.8443616805019</v>
+        <v>735.1106921944613</v>
       </c>
       <c r="J118" s="0" t="n">
-        <v>765.2886388548779</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="K118" s="0" t="n">
         <v>793.2726856423182</v>
@@ -36014,34 +36014,34 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="n">
-        <v>680.030487559458</v>
+        <v>719.6616430933767</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>745.5751197863646</v>
+        <v>761.1020854439435</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>668.2957637662624</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>695.0043995295258</v>
+        <v>695.0043995295259</v>
       </c>
       <c r="E119" s="0" t="n">
+        <v>708.8897263834904</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>788.2463273961337</v>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>719.6616430933765</v>
+      </c>
+      <c r="H119" s="0" t="n">
+        <v>719.6616430933766</v>
+      </c>
+      <c r="I119" s="0" t="n">
+        <v>731.8297828355054</v>
+      </c>
+      <c r="J119" s="0" t="n">
         <v>714.1116272443661</v>
-      </c>
-      <c r="F119" s="0" t="n">
-        <v>769.6047183658129</v>
-      </c>
-      <c r="G119" s="0" t="n">
-        <v>788.2463273961334</v>
-      </c>
-      <c r="H119" s="0" t="n">
-        <v>761.1020854439432</v>
-      </c>
-      <c r="I119" s="0" t="n">
-        <v>719.6616430933765</v>
-      </c>
-      <c r="J119" s="0" t="n">
-        <v>761.1020854439435</v>
       </c>
       <c r="K119" s="0" t="n">
         <v>788.2463273961334</v>
@@ -36316,34 +36316,34 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="n">
-        <v>681.7087992584023</v>
+        <v>716.8443616805022</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>749.2812906226462</v>
+        <v>757.0411710381263</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>669.611019543468</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>692.9270851602369</v>
       </c>
       <c r="E120" s="0" t="n">
+        <v>711.4609025193472</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>793.2726856423184</v>
+      </c>
+      <c r="G120" s="0" t="n">
+        <v>722.5660872480569</v>
+      </c>
+      <c r="H120" s="0" t="n">
         <v>716.8443616805019</v>
       </c>
-      <c r="F120" s="0" t="n">
-        <v>765.2886388548778</v>
-      </c>
-      <c r="G120" s="0" t="n">
-        <v>783.3708108059434</v>
-      </c>
-      <c r="H120" s="0" t="n">
-        <v>765.2886388548778</v>
-      </c>
       <c r="I120" s="0" t="n">
-        <v>716.8443616805019</v>
+        <v>735.1106921944613</v>
       </c>
       <c r="J120" s="0" t="n">
-        <v>757.0411710381263</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="K120" s="0" t="n">
         <v>783.3708108059434</v>
@@ -36618,34 +36618,34 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="n">
-        <v>683.4390355711307</v>
+        <v>719.6616430933767</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>753.10212519476</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>670.9669674926353</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>690.9121112617494</v>
+        <v>690.9121112617495</v>
       </c>
       <c r="E121" s="0" t="n">
+        <v>708.8897263834904</v>
+      </c>
+      <c r="F121" s="0" t="n">
+        <v>788.2463273961337</v>
+      </c>
+      <c r="G121" s="0" t="n">
+        <v>725.5603908377183</v>
+      </c>
+      <c r="H121" s="0" t="n">
         <v>719.6616430933766</v>
       </c>
-      <c r="F121" s="0" t="n">
-        <v>769.6047183658129</v>
-      </c>
-      <c r="G121" s="0" t="n">
-        <v>788.2463273961336</v>
-      </c>
-      <c r="H121" s="0" t="n">
-        <v>769.6047183658129</v>
-      </c>
       <c r="I121" s="0" t="n">
+        <v>731.8297828355054</v>
+      </c>
+      <c r="J121" s="0" t="n">
         <v>714.1116272443661</v>
-      </c>
-      <c r="J121" s="0" t="n">
-        <v>753.10212519476</v>
       </c>
       <c r="K121" s="0" t="n">
         <v>788.2463273961336</v>
@@ -36920,34 +36920,34 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="n">
-        <v>681.7087992584023</v>
+        <v>722.5660872480571</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>757.0411710381263</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>669.611019543468</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>692.9270851602369</v>
       </c>
       <c r="E122" s="0" t="n">
+        <v>711.4609025193472</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>793.2726856423185</v>
+      </c>
+      <c r="G122" s="0" t="n">
         <v>722.5660872480569</v>
       </c>
-      <c r="F122" s="0" t="n">
-        <v>765.2886388548778</v>
-      </c>
-      <c r="G122" s="0" t="n">
-        <v>793.2726856423183</v>
-      </c>
       <c r="H122" s="0" t="n">
-        <v>774.0543313329038</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="I122" s="0" t="n">
+        <v>728.6473339874468</v>
+      </c>
+      <c r="J122" s="0" t="n">
         <v>716.8443616805019</v>
-      </c>
-      <c r="J122" s="0" t="n">
-        <v>749.2812906226462</v>
       </c>
       <c r="K122" s="0" t="n">
         <v>793.2726856423183</v>
@@ -37222,34 +37222,34 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="n">
-        <v>680.030487559458</v>
+        <v>725.5603908377186</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>753.1021251947601</v>
+        <v>761.1020854439435</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>670.9669674926354</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>695.0043995295259</v>
+        <v>690.9121112617495</v>
       </c>
       <c r="E123" s="0" t="n">
+        <v>714.1116272443661</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>788.2463273961338</v>
+      </c>
+      <c r="G123" s="0" t="n">
+        <v>725.5603908377183</v>
+      </c>
+      <c r="H123" s="0" t="n">
+        <v>714.1116272443661</v>
+      </c>
+      <c r="I123" s="0" t="n">
         <v>725.5603908377184</v>
       </c>
-      <c r="F123" s="0" t="n">
-        <v>769.6047183658129</v>
-      </c>
-      <c r="G123" s="0" t="n">
-        <v>788.2463273961336</v>
-      </c>
-      <c r="H123" s="0" t="n">
-        <v>769.6047183658129</v>
-      </c>
-      <c r="I123" s="0" t="n">
+      <c r="J123" s="0" t="n">
         <v>714.1116272443661</v>
-      </c>
-      <c r="J123" s="0" t="n">
-        <v>745.5751197863646</v>
       </c>
       <c r="K123" s="0" t="n">
         <v>788.2463273961336</v>
@@ -37524,34 +37524,34 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="n">
-        <v>678.4025422099747</v>
+        <v>722.5660872480571</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>757.0411710381263</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>669.611019543468</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>697.1459830964862</v>
+        <v>692.9270851602369</v>
       </c>
       <c r="E124" s="0" t="n">
+        <v>716.8443616805019</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>793.2726856423185</v>
+      </c>
+      <c r="G124" s="0" t="n">
         <v>728.6473339874468</v>
       </c>
-      <c r="F124" s="0" t="n">
-        <v>765.2886388548778</v>
-      </c>
-      <c r="G124" s="0" t="n">
-        <v>783.3708108059434</v>
-      </c>
       <c r="H124" s="0" t="n">
-        <v>774.0543313329038</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="I124" s="0" t="n">
+        <v>728.6473339874468</v>
+      </c>
+      <c r="J124" s="0" t="n">
         <v>716.8443616805019</v>
-      </c>
-      <c r="J124" s="0" t="n">
-        <v>741.9801716124882</v>
       </c>
       <c r="K124" s="0" t="n">
         <v>783.3708108059434</v>
@@ -37826,34 +37826,34 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="n">
-        <v>676.8234517093418</v>
+        <v>725.5603908377186</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>753.1021251947601</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>670.9669674926354</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>695.0043995295259</v>
       </c>
       <c r="E125" s="0" t="n">
+        <v>719.6616430933766</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>788.2463273961338</v>
+      </c>
+      <c r="G125" s="0" t="n">
         <v>731.8297828355054</v>
       </c>
-      <c r="F125" s="0" t="n">
-        <v>769.6047183658129</v>
-      </c>
-      <c r="G125" s="0" t="n">
-        <v>778.6416090942939</v>
-      </c>
       <c r="H125" s="0" t="n">
-        <v>769.6047183658129</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>719.6616430933765</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="J125" s="0" t="n">
-        <v>738.4931082946453</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="K125" s="0" t="n">
         <v>788.2463273961336</v>
@@ -38128,34 +38128,34 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="n">
-        <v>675.2917499172756</v>
+        <v>722.5660872480571</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>749.2812906226462</v>
+        <v>757.0411710381263</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>672.3648665725825</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>692.9270851602369</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>735.1106921944613</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>774.0543313329038</v>
+        <v>793.2726856423185</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>774.054331332904</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>765.2886388548779</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="I126" s="0" t="n">
+        <v>722.5660872480569</v>
+      </c>
+      <c r="J126" s="0" t="n">
         <v>716.8443616805019</v>
-      </c>
-      <c r="J126" s="0" t="n">
-        <v>735.1106921944614</v>
       </c>
       <c r="K126" s="0" t="n">
         <v>793.2726856423183</v>
@@ -38430,34 +38430,34 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="n">
-        <v>676.8234517093418</v>
+        <v>725.5603908377186</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>753.1021251947601</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>673.8060146925508</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>690.9121112617494</v>
+        <v>695.0043995295259</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>731.8297828355054</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>769.6047183658129</v>
+        <v>788.2463273961339</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>769.604718365813</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>769.6047183658129</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>719.6616430933765</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="J127" s="0" t="n">
-        <v>738.4931082946453</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="K127" s="0" t="n">
         <v>788.2463273961336</v>
@@ -38732,34 +38732,34 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="n">
-        <v>675.2917499172756</v>
+        <v>728.647333987447</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>757.0411710381263</v>
+        <v>749.2812906226462</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>675.2917499172756</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>692.9270851602369</v>
+        <v>697.1459830964864</v>
       </c>
       <c r="E128" s="0" t="n">
+        <v>722.5660872480569</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <v>793.2726856423185</v>
+      </c>
+      <c r="G128" s="0" t="n">
         <v>728.6473339874468</v>
       </c>
-      <c r="F128" s="0" t="n">
-        <v>765.2886388548779</v>
-      </c>
-      <c r="G128" s="0" t="n">
-        <v>774.054331332904</v>
-      </c>
       <c r="H128" s="0" t="n">
-        <v>774.0543313329039</v>
+        <v>706.3957115734266</v>
       </c>
       <c r="I128" s="0" t="n">
+        <v>722.5660872480569</v>
+      </c>
+      <c r="J128" s="0" t="n">
         <v>716.8443616805019</v>
-      </c>
-      <c r="J128" s="0" t="n">
-        <v>741.9801716124882</v>
       </c>
       <c r="K128" s="0" t="n">
         <v>793.2726856423183</v>
@@ -39034,34 +39034,34 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="n">
-        <v>676.8234517093418</v>
+        <v>725.5603908377186</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>753.1021251947601</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>673.8060146925508</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>695.0043995295259</v>
+        <v>699.3538242600963</v>
       </c>
       <c r="E129" s="0" t="n">
+        <v>719.6616430933766</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>788.2463273961339</v>
+      </c>
+      <c r="G129" s="0" t="n">
+        <v>731.8297828355054</v>
+      </c>
+      <c r="H129" s="0" t="n">
+        <v>703.9765424678668</v>
+      </c>
+      <c r="I129" s="0" t="n">
         <v>725.5603908377184</v>
       </c>
-      <c r="F129" s="0" t="n">
-        <v>769.6047183658129</v>
-      </c>
-      <c r="G129" s="0" t="n">
-        <v>769.6047183658131</v>
-      </c>
-      <c r="H129" s="0" t="n">
-        <v>769.6047183658129</v>
-      </c>
-      <c r="I129" s="0" t="n">
-        <v>714.1116272443661</v>
-      </c>
       <c r="J129" s="0" t="n">
-        <v>738.4931082946453</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="K129" s="0" t="n">
         <v>788.2463273961336</v>
@@ -39336,34 +39336,34 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="n">
-        <v>675.2917499172756</v>
+        <v>728.647333987447</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>757.0411710381263</v>
+        <v>749.2812906226462</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>672.3648665725825</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>697.1459830964862</v>
+        <v>697.1459830964864</v>
       </c>
       <c r="E130" s="0" t="n">
+        <v>716.8443616805019</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>793.2726856423185</v>
+      </c>
+      <c r="G130" s="0" t="n">
         <v>728.6473339874468</v>
       </c>
-      <c r="F130" s="0" t="n">
-        <v>774.0543313329039</v>
-      </c>
-      <c r="G130" s="0" t="n">
-        <v>765.2886388548781</v>
-      </c>
       <c r="H130" s="0" t="n">
-        <v>765.2886388548779</v>
+        <v>706.3957115734266</v>
       </c>
       <c r="I130" s="0" t="n">
+        <v>722.566087248057</v>
+      </c>
+      <c r="J130" s="0" t="n">
         <v>716.8443616805019</v>
-      </c>
-      <c r="J130" s="0" t="n">
-        <v>741.9801716124883</v>
       </c>
       <c r="K130" s="0" t="n">
         <v>783.3708108059434</v>
@@ -39638,34 +39638,34 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="n">
-        <v>673.8060146925508</v>
+        <v>731.8297828355056</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>753.1021251947601</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>670.9669674926354</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>699.3538242600962</v>
+        <v>699.3538242600963</v>
       </c>
       <c r="E131" s="0" t="n">
+        <v>714.1116272443661</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>788.2463273961339</v>
+      </c>
+      <c r="G131" s="0" t="n">
         <v>731.8297828355054</v>
       </c>
-      <c r="F131" s="0" t="n">
-        <v>769.6047183658129</v>
-      </c>
-      <c r="G131" s="0" t="n">
-        <v>769.6047183658131</v>
-      </c>
       <c r="H131" s="0" t="n">
-        <v>769.6047183658129</v>
+        <v>703.9765424678668</v>
       </c>
       <c r="I131" s="0" t="n">
+        <v>719.6616430933766</v>
+      </c>
+      <c r="J131" s="0" t="n">
         <v>714.1116272443661</v>
-      </c>
-      <c r="J131" s="0" t="n">
-        <v>745.5751197863647</v>
       </c>
       <c r="K131" s="0" t="n">
         <v>778.641609094294</v>
@@ -39940,34 +39940,34 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="n">
-        <v>675.2917499172756</v>
+        <v>728.647333987447</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>757.0411710381263</v>
+        <v>749.2812906226463</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>672.3648665725825</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>697.1459830964864</v>
+        <v>701.629972937614</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>735.1106921944614</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>765.2886388548779</v>
+        <v>783.3708108059437</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>765.2886388548781</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>765.2886388548779</v>
+        <v>701.6299729376138</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>716.8443616805019</v>
+        <v>722.566087248057</v>
       </c>
       <c r="J132" s="0" t="n">
-        <v>741.9801716124883</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="K132" s="0" t="n">
         <v>774.054331332904</v>
@@ -40242,34 +40242,34 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="n">
-        <v>673.8060146925508</v>
+        <v>725.5603908377186</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>753.1021251947601</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>670.9669674926354</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="D133" s="0" t="n">
+        <v>699.3538242600963</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>714.1116272443661</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>778.6416090942943</v>
+      </c>
+      <c r="G133" s="0" t="n">
+        <v>725.5603908377184</v>
+      </c>
+      <c r="H133" s="0" t="n">
         <v>699.3538242600962</v>
       </c>
-      <c r="E133" s="0" t="n">
-        <v>738.4931082946453</v>
-      </c>
-      <c r="F133" s="0" t="n">
-        <v>769.6047183658129</v>
-      </c>
-      <c r="G133" s="0" t="n">
-        <v>761.1020854439435</v>
-      </c>
-      <c r="H133" s="0" t="n">
-        <v>761.1020854439433</v>
-      </c>
       <c r="I133" s="0" t="n">
-        <v>719.6616430933765</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="J133" s="0" t="n">
-        <v>745.5751197863647</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="K133" s="0" t="n">
         <v>778.641609094294</v>
@@ -40544,34 +40544,34 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="n">
-        <v>672.3648665725825</v>
+        <v>722.5660872480571</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>757.0411710381263</v>
+        <v>757.0411710381264</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>672.3648665725825</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>697.1459830964864</v>
+        <v>701.629972937614</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>741.9801716124882</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>774.0543313329039</v>
+        <v>783.3708108059437</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>765.2886388548781</v>
+        <v>728.6473339874469</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>757.0411710381262</v>
+        <v>697.1459830964862</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>716.8443616805019</v>
+        <v>722.566087248057</v>
       </c>
       <c r="J134" s="0" t="n">
-        <v>741.9801716124883</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="K134" s="0" t="n">
         <v>783.3708108059434</v>
@@ -40846,34 +40846,34 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="n">
-        <v>670.9669674926353</v>
+        <v>725.5603908377186</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>753.1021251947601</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>673.8060146925509</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="D135" s="0" t="n">
+        <v>699.3538242600963</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>708.8897263834904</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>778.6416090942944</v>
+      </c>
+      <c r="G135" s="0" t="n">
+        <v>731.8297828355054</v>
+      </c>
+      <c r="H135" s="0" t="n">
         <v>695.0043995295259</v>
       </c>
-      <c r="E135" s="0" t="n">
-        <v>738.4931082946453</v>
-      </c>
-      <c r="F135" s="0" t="n">
-        <v>778.6416090942939</v>
-      </c>
-      <c r="G135" s="0" t="n">
-        <v>769.6047183658131</v>
-      </c>
-      <c r="H135" s="0" t="n">
-        <v>761.1020854439433</v>
-      </c>
       <c r="I135" s="0" t="n">
+        <v>725.5603908377184</v>
+      </c>
+      <c r="J135" s="0" t="n">
         <v>714.1116272443661</v>
-      </c>
-      <c r="J135" s="0" t="n">
-        <v>738.4931082946454</v>
       </c>
       <c r="K135" s="0" t="n">
         <v>788.2463273961336</v>
@@ -41148,34 +41148,34 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="n">
-        <v>669.611019543468</v>
+        <v>728.6473339874472</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>757.0411710381263</v>
+        <v>757.0411710381264</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>675.2917499172756</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>697.1459830964864</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>741.9801716124882</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>783.3708108059433</v>
+        <v>783.3708108059437</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>774.054331332904</v>
+        <v>735.1106921944614</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>757.0411710381263</v>
+        <v>692.9270851602369</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>716.8443616805019</v>
+        <v>728.6473339874469</v>
       </c>
       <c r="J136" s="0" t="n">
-        <v>741.9801716124883</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="K136" s="0" t="n">
         <v>783.3708108059434</v>
@@ -41450,34 +41450,34 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="n">
-        <v>668.2957637662624</v>
+        <v>725.5603908377186</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>753.1021251947601</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>673.8060146925509</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>699.3538242600962</v>
+        <v>695.004399529526</v>
       </c>
       <c r="E137" s="0" t="n">
+        <v>714.1116272443661</v>
+      </c>
+      <c r="F137" s="0" t="n">
+        <v>778.6416090942944</v>
+      </c>
+      <c r="G137" s="0" t="n">
         <v>738.4931082946453</v>
       </c>
-      <c r="F137" s="0" t="n">
-        <v>778.6416090942939</v>
-      </c>
-      <c r="G137" s="0" t="n">
-        <v>778.641609094294</v>
-      </c>
       <c r="H137" s="0" t="n">
-        <v>761.1020854439435</v>
+        <v>695.0043995295259</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>714.1116272443661</v>
+        <v>731.8297828355055</v>
       </c>
       <c r="J137" s="0" t="n">
-        <v>738.4931082946454</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="K137" s="0" t="n">
         <v>778.641609094294</v>
@@ -41752,34 +41752,34 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="n">
-        <v>669.611019543468</v>
+        <v>728.6473339874472</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>749.2812906226463</v>
+        <v>757.0411710381264</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>675.2917499172756</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>697.1459830964864</v>
       </c>
       <c r="E138" s="0" t="n">
+        <v>711.4609025193472</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>774.0543313329043</v>
+      </c>
+      <c r="G138" s="0" t="n">
         <v>741.9801716124883</v>
       </c>
-      <c r="F138" s="0" t="n">
-        <v>783.3708108059433</v>
-      </c>
-      <c r="G138" s="0" t="n">
-        <v>783.3708108059434</v>
-      </c>
       <c r="H138" s="0" t="n">
-        <v>765.2886388548779</v>
+        <v>697.1459830964864</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>716.8443616805019</v>
+        <v>735.1106921944614</v>
       </c>
       <c r="J138" s="0" t="n">
-        <v>735.1106921944615</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="K138" s="0" t="n">
         <v>774.054331332904</v>
@@ -42054,34 +42054,34 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="n">
-        <v>668.2957637662624</v>
+        <v>731.8297828355056</v>
       </c>
       <c r="B139" s="0" t="n">
+        <v>753.1021251947601</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>719.6616430933766</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>695.004399529526</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>714.1116272443661</v>
+      </c>
+      <c r="F139" s="0" t="n">
+        <v>769.6047183658134</v>
+      </c>
+      <c r="G139" s="0" t="n">
         <v>745.5751197863647</v>
       </c>
-      <c r="C139" s="0" t="n">
-        <v>676.823451709342</v>
-      </c>
-      <c r="D139" s="0" t="n">
-        <v>695.0043995295259</v>
-      </c>
-      <c r="E139" s="0" t="n">
+      <c r="H139" s="0" t="n">
+        <v>699.3538242600962</v>
+      </c>
+      <c r="I139" s="0" t="n">
         <v>738.4931082946454</v>
       </c>
-      <c r="F139" s="0" t="n">
-        <v>778.6416090942939</v>
-      </c>
-      <c r="G139" s="0" t="n">
-        <v>788.2463273961337</v>
-      </c>
-      <c r="H139" s="0" t="n">
-        <v>769.604718365813</v>
-      </c>
-      <c r="I139" s="0" t="n">
-        <v>719.6616430933765</v>
-      </c>
       <c r="J139" s="0" t="n">
-        <v>731.8297828355055</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="K139" s="0" t="n">
         <v>769.6047183658131</v>
@@ -42356,34 +42356,34 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="n">
-        <v>669.611019543468</v>
+        <v>728.6473339874472</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>749.2812906226463</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>675.2917499172758</v>
+        <v>716.8443616805021</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>692.9270851602369</v>
+        <v>692.927085160237</v>
       </c>
       <c r="E140" s="0" t="n">
+        <v>711.4609025193472</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>765.2886388548784</v>
+      </c>
+      <c r="G140" s="0" t="n">
         <v>741.9801716124883</v>
       </c>
-      <c r="F140" s="0" t="n">
-        <v>783.3708108059433</v>
-      </c>
-      <c r="G140" s="0" t="n">
-        <v>793.2726856423183</v>
-      </c>
       <c r="H140" s="0" t="n">
-        <v>765.2886388548779</v>
+        <v>701.6299729376138</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>722.5660872480569</v>
+        <v>741.9801716124883</v>
       </c>
       <c r="J140" s="0" t="n">
-        <v>728.6473339874469</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="K140" s="0" t="n">
         <v>774.054331332904</v>
@@ -42658,34 +42658,34 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="n">
-        <v>668.2957637662624</v>
+        <v>725.5603908377186</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>753.1021251947601</v>
+        <v>745.5751197863647</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>676.823451709342</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>690.9121112617495</v>
+        <v>695.004399529526</v>
       </c>
       <c r="E141" s="0" t="n">
+        <v>714.1116272443661</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>769.6047183658134</v>
+      </c>
+      <c r="G141" s="0" t="n">
         <v>745.5751197863647</v>
       </c>
-      <c r="F141" s="0" t="n">
-        <v>788.2463273961334</v>
-      </c>
-      <c r="G141" s="0" t="n">
-        <v>788.2463273961337</v>
-      </c>
       <c r="H141" s="0" t="n">
-        <v>769.604718365813</v>
+        <v>699.3538242600962</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>719.6616430933766</v>
+        <v>738.4931082946454</v>
       </c>
       <c r="J141" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="K141" s="0" t="n">
         <v>778.641609094294</v>
@@ -42960,34 +42960,34 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="n">
-        <v>667.0199789837159</v>
+        <v>728.6473339874472</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>757.0411710381264</v>
+        <v>741.9801716124883</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>675.2917499172758</v>
+        <v>716.8443616805021</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>692.9270851602369</v>
+        <v>692.927085160237</v>
       </c>
       <c r="E142" s="0" t="n">
+        <v>716.8443616805019</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>765.2886388548784</v>
+      </c>
+      <c r="G142" s="0" t="n">
         <v>749.2812906226463</v>
       </c>
-      <c r="F142" s="0" t="n">
-        <v>793.2726856423182</v>
-      </c>
-      <c r="G142" s="0" t="n">
-        <v>793.2726856423183</v>
-      </c>
       <c r="H142" s="0" t="n">
-        <v>765.2886388548779</v>
+        <v>697.1459830964864</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>722.5660872480569</v>
+        <v>735.1106921944615</v>
       </c>
       <c r="J142" s="0" t="n">
-        <v>722.566087248057</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="K142" s="0" t="n">
         <v>774.054331332904</v>
@@ -43262,34 +43262,34 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="n">
-        <v>668.2957637662624</v>
+        <v>731.8297828355057</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>753.1021251947601</v>
+        <v>738.4931082946454</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>673.8060146925509</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>690.9121112617495</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>753.1021251947601</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>788.2463273961334</v>
+        <v>769.6047183658135</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>788.2463273961337</v>
+        <v>745.5751197863647</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>769.604718365813</v>
+        <v>699.3538242600962</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>719.6616430933766</v>
+        <v>738.4931082946454</v>
       </c>
       <c r="J143" s="0" t="n">
-        <v>719.6616430933767</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="K143" s="0" t="n">
         <v>778.641609094294</v>
@@ -43564,34 +43564,34 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="n">
-        <v>669.611019543468</v>
+        <v>728.6473339874472</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>757.0411710381264</v>
+        <v>735.1106921944615</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>675.2917499172758</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>688.9576069885348</v>
       </c>
       <c r="E144" s="0" t="n">
+        <v>716.8443616805019</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>774.0543313329043</v>
+      </c>
+      <c r="G144" s="0" t="n">
         <v>749.2812906226463</v>
       </c>
-      <c r="F144" s="0" t="n">
-        <v>793.2726856423182</v>
-      </c>
-      <c r="G144" s="0" t="n">
-        <v>783.3708108059434</v>
-      </c>
       <c r="H144" s="0" t="n">
-        <v>774.054331332904</v>
+        <v>701.6299729376138</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>716.8443616805019</v>
+        <v>741.9801716124883</v>
       </c>
       <c r="J144" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="K144" s="0" t="n">
         <v>783.3708108059434</v>
@@ -43866,34 +43866,34 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="n">
-        <v>668.2957637662624</v>
+        <v>725.5603908377186</v>
       </c>
       <c r="B145" s="0" t="n">
+        <v>731.8297828355055</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>725.5603908377184</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>690.9121112617495</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>719.6616430933766</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>778.6416090942944</v>
+      </c>
+      <c r="G145" s="0" t="n">
         <v>753.1021251947601</v>
       </c>
-      <c r="C145" s="0" t="n">
-        <v>676.823451709342</v>
-      </c>
-      <c r="D145" s="0" t="n">
-        <v>687.0617576393785</v>
-      </c>
-      <c r="E145" s="0" t="n">
-        <v>745.5751197863647</v>
-      </c>
-      <c r="F145" s="0" t="n">
-        <v>788.2463273961334</v>
-      </c>
-      <c r="G145" s="0" t="n">
-        <v>778.641609094294</v>
-      </c>
       <c r="H145" s="0" t="n">
-        <v>778.6416090942939</v>
+        <v>703.9765424678668</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>719.6616430933766</v>
+        <v>738.4931082946454</v>
       </c>
       <c r="J145" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="K145" s="0" t="n">
         <v>778.641609094294</v>
@@ -44168,34 +44168,34 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="n">
-        <v>669.611019543468</v>
+        <v>728.6473339874472</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>757.0411710381264</v>
+        <v>735.1106921944615</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>675.2917499172758</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>688.9576069885348</v>
       </c>
       <c r="E146" s="0" t="n">
+        <v>722.5660872480569</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>774.0543313329044</v>
+      </c>
+      <c r="G146" s="0" t="n">
+        <v>757.0411710381264</v>
+      </c>
+      <c r="H146" s="0" t="n">
+        <v>701.6299729376138</v>
+      </c>
+      <c r="I146" s="0" t="n">
         <v>741.9801716124883</v>
       </c>
-      <c r="F146" s="0" t="n">
-        <v>793.2726856423182</v>
-      </c>
-      <c r="G146" s="0" t="n">
-        <v>783.3708108059434</v>
-      </c>
-      <c r="H146" s="0" t="n">
-        <v>774.054331332904</v>
-      </c>
-      <c r="I146" s="0" t="n">
-        <v>716.8443616805019</v>
-      </c>
       <c r="J146" s="0" t="n">
-        <v>728.647333987447</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="K146" s="0" t="n">
         <v>783.3708108059434</v>
@@ -44470,34 +44470,34 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="n">
-        <v>668.2957637662624</v>
+        <v>725.5603908377186</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>761.1020854439436</v>
+        <v>731.8297828355055</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>673.8060146925509</v>
+        <v>731.8297828355054</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>690.9121112617495</v>
       </c>
       <c r="E147" s="0" t="n">
+        <v>719.6616430933766</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>769.6047183658135</v>
+      </c>
+      <c r="G147" s="0" t="n">
+        <v>753.1021251947601</v>
+      </c>
+      <c r="H147" s="0" t="n">
+        <v>703.9765424678668</v>
+      </c>
+      <c r="I147" s="0" t="n">
         <v>738.4931082946454</v>
       </c>
-      <c r="F147" s="0" t="n">
-        <v>798.4545523741065</v>
-      </c>
-      <c r="G147" s="0" t="n">
-        <v>788.2463273961337</v>
-      </c>
-      <c r="H147" s="0" t="n">
-        <v>769.604718365813</v>
-      </c>
-      <c r="I147" s="0" t="n">
-        <v>719.6616430933766</v>
-      </c>
       <c r="J147" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="K147" s="0" t="n">
         <v>788.2463273961337</v>
@@ -44772,34 +44772,34 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="n">
-        <v>667.0199789837159</v>
+        <v>722.5660872480572</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>757.0411710381264</v>
+        <v>735.1106921944615</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>675.2917499172758</v>
+        <v>728.6473339874469</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>688.9576069885348</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>735.1106921944615</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>793.2726856423182</v>
+        <v>774.0543313329044</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>783.3708108059435</v>
+        <v>749.2812906226463</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>774.054331332904</v>
+        <v>706.3957115734268</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>716.8443616805019</v>
+        <v>741.9801716124884</v>
       </c>
       <c r="J148" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="K148" s="0" t="n">
         <v>793.2726856423183</v>
@@ -45074,34 +45074,34 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="n">
-        <v>668.2957637662624</v>
+        <v>725.5603908377186</v>
       </c>
       <c r="B149" s="0" t="n">
+        <v>738.4931082946454</v>
+      </c>
+      <c r="C149" s="0" t="n">
+        <v>731.8297828355054</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <v>687.0617576393786</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>719.6616430933766</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>778.6416090942945</v>
+      </c>
+      <c r="G149" s="0" t="n">
         <v>753.1021251947602</v>
       </c>
-      <c r="C149" s="0" t="n">
-        <v>673.8060146925509</v>
-      </c>
-      <c r="D149" s="0" t="n">
-        <v>690.9121112617495</v>
-      </c>
-      <c r="E149" s="0" t="n">
-        <v>738.4931082946454</v>
-      </c>
-      <c r="F149" s="0" t="n">
-        <v>788.2463273961334</v>
-      </c>
-      <c r="G149" s="0" t="n">
-        <v>788.2463273961337</v>
-      </c>
       <c r="H149" s="0" t="n">
-        <v>778.641609094294</v>
+        <v>708.8897263834905</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>719.6616430933766</v>
+        <v>745.5751197863648</v>
       </c>
       <c r="J149" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="K149" s="0" t="n">
         <v>788.2463273961337</v>
@@ -45376,34 +45376,34 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="n">
-        <v>667.0199789837159</v>
+        <v>728.6473339874472</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>757.0411710381264</v>
+        <v>735.1106921944615</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>675.2917499172758</v>
+        <v>728.6473339874469</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>688.9576069885348</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>735.1106921944615</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>793.2726856423182</v>
+        <v>783.3708108059438</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>783.3708108059435</v>
+        <v>757.0411710381264</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>783.3708108059434</v>
+        <v>711.4609025193473</v>
       </c>
       <c r="I150" s="0" t="n">
+        <v>741.9801716124884</v>
+      </c>
+      <c r="J150" s="0" t="n">
         <v>716.8443616805019</v>
-      </c>
-      <c r="J150" s="0" t="n">
-        <v>722.5660872480571</v>
       </c>
       <c r="K150" s="0" t="n">
         <v>793.2726856423183</v>
@@ -45678,34 +45678,34 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="n">
-        <v>668.2957637662624</v>
+        <v>731.8297828355057</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>753.1021251947602</v>
+        <v>731.8297828355055</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>676.823451709342</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>690.9121112617495</v>
+        <v>687.0617576393786</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>738.4931082946454</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>788.2463273961334</v>
+        <v>788.2463273961341</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>778.6416090942942</v>
+        <v>761.1020854439436</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>778.641609094294</v>
+        <v>708.8897263834905</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>719.6616430933766</v>
+        <v>745.5751197863648</v>
       </c>
       <c r="J151" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="K151" s="0" t="n">
         <v>788.2463273961337</v>
@@ -45980,34 +45980,34 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="n">
-        <v>667.0199789837159</v>
+        <v>735.1106921944618</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>757.0411710381264</v>
+        <v>728.647333987447</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>678.402542209975</v>
+        <v>722.566087248057</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>692.927085160237</v>
+        <v>688.9576069885348</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>741.9801716124883</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>783.3708108059434</v>
+        <v>793.2726856423187</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>783.3708108059435</v>
+        <v>765.2886388548782</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>783.3708108059434</v>
+        <v>706.3957115734268</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>716.8443616805019</v>
+        <v>741.9801716124884</v>
       </c>
       <c r="J152" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="K152" s="0" t="n">
         <v>783.3708108059434</v>
@@ -46282,34 +46282,34 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="n">
-        <v>668.2957637662624</v>
+        <v>731.8297828355057</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>753.1021251947602</v>
+        <v>725.5603908377185</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>680.0304875594582</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>695.004399529526</v>
+        <v>687.0617576393786</v>
       </c>
       <c r="E153" s="0" t="n">
+        <v>714.1116272443661</v>
+      </c>
+      <c r="F153" s="0" t="n">
+        <v>788.2463273961341</v>
+      </c>
+      <c r="G153" s="0" t="n">
+        <v>761.1020854439436</v>
+      </c>
+      <c r="H153" s="0" t="n">
+        <v>703.9765424678669</v>
+      </c>
+      <c r="I153" s="0" t="n">
         <v>745.5751197863648</v>
       </c>
-      <c r="F153" s="0" t="n">
-        <v>788.2463273961336</v>
-      </c>
-      <c r="G153" s="0" t="n">
-        <v>778.6416090942942</v>
-      </c>
-      <c r="H153" s="0" t="n">
-        <v>778.641609094294</v>
-      </c>
-      <c r="I153" s="0" t="n">
-        <v>714.1116272443661</v>
-      </c>
       <c r="J153" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="K153" s="0" t="n">
         <v>788.2463273961337</v>
@@ -46584,34 +46584,34 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="n">
-        <v>667.019978983716</v>
+        <v>735.1106921944618</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>749.2812906226463</v>
+        <v>722.5660872480571</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>678.402542209975</v>
+        <v>716.8443616805021</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>692.927085160237</v>
+        <v>685.2228029724824</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>749.2812906226463</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>793.2726856423183</v>
+        <v>793.2726856423188</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>774.0543313329041</v>
+        <v>765.2886388548782</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>774.054331332904</v>
+        <v>701.629972937614</v>
       </c>
       <c r="I154" s="0" t="n">
+        <v>741.9801716124884</v>
+      </c>
+      <c r="J154" s="0" t="n">
         <v>711.4609025193472</v>
-      </c>
-      <c r="J154" s="0" t="n">
-        <v>728.647333987447</v>
       </c>
       <c r="K154" s="0" t="n">
         <v>793.2726856423183</v>
@@ -46886,34 +46886,34 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="n">
-        <v>665.7824806662136</v>
+        <v>731.8297828355057</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>753.1021251947602</v>
+        <v>725.5603908377185</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>680.0304875594582</v>
+        <v>714.1116272443662</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>695.004399529526</v>
+        <v>683.4390355711308</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>745.5751197863648</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>788.2463273961336</v>
+        <v>798.4545523741072</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>778.6416090942942</v>
+        <v>769.6047183658133</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>769.6047183658131</v>
+        <v>699.3538242600963</v>
       </c>
       <c r="I155" s="0" t="n">
+        <v>738.4931082946455</v>
+      </c>
+      <c r="J155" s="0" t="n">
         <v>714.1116272443661</v>
-      </c>
-      <c r="J155" s="0" t="n">
-        <v>731.8297828355055</v>
       </c>
       <c r="K155" s="0" t="n">
         <v>798.4545523741067</v>
@@ -47188,34 +47188,34 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="n">
-        <v>664.5821198320261</v>
+        <v>735.1106921944618</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>757.0411710381264</v>
+        <v>728.647333987447</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>678.402542209975</v>
+        <v>716.8443616805021</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>692.927085160237</v>
+        <v>685.2228029724826</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>741.9801716124884</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>783.3708108059434</v>
+        <v>793.2726856423188</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>783.3708108059435</v>
+        <v>765.2886388548782</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>765.2886388548781</v>
+        <v>701.629972937614</v>
       </c>
       <c r="I156" s="0" t="n">
+        <v>735.1106921944616</v>
+      </c>
+      <c r="J156" s="0" t="n">
         <v>711.4609025193472</v>
-      </c>
-      <c r="J156" s="0" t="n">
-        <v>735.1106921944615</v>
       </c>
       <c r="K156" s="0" t="n">
         <v>803.7967388062809</v>
@@ -47490,34 +47490,34 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="n">
-        <v>663.4177819805136</v>
+        <v>738.4931082946456</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>761.1020854439436</v>
+        <v>731.8297828355056</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>680.0304875594582</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>690.9121112617495</v>
+        <v>687.0617576393786</v>
       </c>
       <c r="E157" s="0" t="n">
+        <v>714.1116272443661</v>
+      </c>
+      <c r="F157" s="0" t="n">
+        <v>798.4545523741072</v>
+      </c>
+      <c r="G157" s="0" t="n">
+        <v>761.1020854439437</v>
+      </c>
+      <c r="H157" s="0" t="n">
+        <v>699.3538242600963</v>
+      </c>
+      <c r="I157" s="0" t="n">
         <v>738.4931082946455</v>
       </c>
-      <c r="F157" s="0" t="n">
-        <v>788.2463273961336</v>
-      </c>
-      <c r="G157" s="0" t="n">
-        <v>788.2463273961337</v>
-      </c>
-      <c r="H157" s="0" t="n">
-        <v>761.1020854439435</v>
-      </c>
-      <c r="I157" s="0" t="n">
+      <c r="J157" s="0" t="n">
         <v>714.1116272443661</v>
-      </c>
-      <c r="J157" s="0" t="n">
-        <v>738.4931082946455</v>
       </c>
       <c r="K157" s="0" t="n">
         <v>809.3042050058714</v>
@@ -47792,34 +47792,34 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="n">
-        <v>662.2883860573429</v>
+        <v>735.1106921944618</v>
       </c>
       <c r="B158" s="0" t="n">
+        <v>735.1106921944615</v>
+      </c>
+      <c r="C158" s="0" t="n">
+        <v>716.8443616805021</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>688.9576069885348</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>716.8443616805019</v>
+      </c>
+      <c r="F158" s="0" t="n">
+        <v>803.7967388062815</v>
+      </c>
+      <c r="G158" s="0" t="n">
         <v>765.2886388548782</v>
       </c>
-      <c r="C158" s="0" t="n">
-        <v>678.402542209975</v>
-      </c>
-      <c r="D158" s="0" t="n">
-        <v>692.927085160237</v>
-      </c>
-      <c r="E158" s="0" t="n">
-        <v>741.9801716124884</v>
-      </c>
-      <c r="F158" s="0" t="n">
-        <v>793.2726856423183</v>
-      </c>
-      <c r="G158" s="0" t="n">
-        <v>793.2726856423184</v>
-      </c>
       <c r="H158" s="0" t="n">
-        <v>757.0411710381263</v>
+        <v>701.629972937614</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>711.4609025193472</v>
+        <v>735.1106921944616</v>
       </c>
       <c r="J158" s="0" t="n">
-        <v>735.1106921944615</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="K158" s="0" t="n">
         <v>803.7967388062809</v>
@@ -48094,34 +48094,34 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="n">
-        <v>661.1928834507606</v>
+        <v>731.8297828355057</v>
       </c>
       <c r="B159" s="0" t="n">
+        <v>738.4931082946455</v>
+      </c>
+      <c r="C159" s="0" t="n">
+        <v>714.1116272443662</v>
+      </c>
+      <c r="D159" s="0" t="n">
+        <v>687.0617576393786</v>
+      </c>
+      <c r="E159" s="0" t="n">
+        <v>714.1116272443661</v>
+      </c>
+      <c r="F159" s="0" t="n">
+        <v>798.4545523741073</v>
+      </c>
+      <c r="G159" s="0" t="n">
         <v>761.1020854439437</v>
       </c>
-      <c r="C159" s="0" t="n">
-        <v>676.823451709342</v>
-      </c>
-      <c r="D159" s="0" t="n">
-        <v>695.004399529526</v>
-      </c>
-      <c r="E159" s="0" t="n">
-        <v>745.5751197863648</v>
-      </c>
-      <c r="F159" s="0" t="n">
-        <v>788.2463273961336</v>
-      </c>
-      <c r="G159" s="0" t="n">
-        <v>788.2463273961337</v>
-      </c>
       <c r="H159" s="0" t="n">
-        <v>753.1021251947601</v>
+        <v>699.3538242600963</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>738.4931082946455</v>
       </c>
       <c r="J159" s="0" t="n">
-        <v>731.8297828355056</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="K159" s="0" t="n">
         <v>798.4545523741067</v>
@@ -48396,34 +48396,34 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="n">
-        <v>662.2883860573429</v>
+        <v>735.1106921944618</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>765.2886388548782</v>
+        <v>735.1106921944615</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>675.2917499172758</v>
+        <v>716.8443616805021</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>697.1459830964864</v>
+        <v>685.2228029724826</v>
       </c>
       <c r="E160" s="0" t="n">
+        <v>711.4609025193472</v>
+      </c>
+      <c r="F160" s="0" t="n">
+        <v>793.2726856423189</v>
+      </c>
+      <c r="G160" s="0" t="n">
+        <v>765.2886388548783</v>
+      </c>
+      <c r="H160" s="0" t="n">
+        <v>701.629972937614</v>
+      </c>
+      <c r="I160" s="0" t="n">
         <v>741.9801716124884</v>
       </c>
-      <c r="F160" s="0" t="n">
-        <v>783.3708108059434</v>
-      </c>
-      <c r="G160" s="0" t="n">
-        <v>793.2726856423185</v>
-      </c>
-      <c r="H160" s="0" t="n">
-        <v>749.2812906226462</v>
-      </c>
-      <c r="I160" s="0" t="n">
-        <v>711.4609025193472</v>
-      </c>
       <c r="J160" s="0" t="n">
-        <v>728.647333987447</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="K160" s="0" t="n">
         <v>803.7967388062809</v>
@@ -48698,34 +48698,34 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="n">
-        <v>661.1928834507606</v>
+        <v>731.8297828355057</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>769.6047183658133</v>
+        <v>738.4931082946455</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>676.823451709342</v>
+        <v>714.1116272443662</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>695.004399529526</v>
+        <v>687.0617576393786</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>745.5751197863648</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>788.2463273961336</v>
+        <v>788.2463273961342</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>788.2463273961338</v>
+        <v>761.1020854439437</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>753.1021251947601</v>
+        <v>703.9765424678669</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>708.8897263834904</v>
+        <v>745.5751197863649</v>
       </c>
       <c r="J161" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="K161" s="0" t="n">
         <v>798.4545523741067</v>
@@ -49000,34 +49000,34 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="n">
-        <v>660.1302570179864</v>
+        <v>735.1106921944618</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>765.2886388548782</v>
+        <v>741.9801716124884</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>678.402542209975</v>
+        <v>711.4609025193473</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>692.927085160237</v>
+        <v>688.957606988535</v>
       </c>
       <c r="E162" s="0" t="n">
+        <v>711.4609025193472</v>
+      </c>
+      <c r="F162" s="0" t="n">
+        <v>783.3708108059441</v>
+      </c>
+      <c r="G162" s="0" t="n">
+        <v>757.0411710381265</v>
+      </c>
+      <c r="H162" s="0" t="n">
+        <v>701.629972937614</v>
+      </c>
+      <c r="I162" s="0" t="n">
         <v>749.2812906226465</v>
       </c>
-      <c r="F162" s="0" t="n">
-        <v>783.3708108059434</v>
-      </c>
-      <c r="G162" s="0" t="n">
-        <v>793.2726856423185</v>
-      </c>
-      <c r="H162" s="0" t="n">
-        <v>757.0411710381263</v>
-      </c>
-      <c r="I162" s="0" t="n">
-        <v>711.4609025193472</v>
-      </c>
       <c r="J162" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="K162" s="0" t="n">
         <v>803.7967388062809</v>
@@ -49302,34 +49302,34 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="n">
-        <v>659.0995201408253</v>
+        <v>731.8297828355059</v>
       </c>
       <c r="B163" s="0" t="n">
+        <v>738.4931082946455</v>
+      </c>
+      <c r="C163" s="0" t="n">
+        <v>714.1116272443662</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <v>687.0617576393786</v>
+      </c>
+      <c r="E163" s="0" t="n">
+        <v>714.1116272443661</v>
+      </c>
+      <c r="F163" s="0" t="n">
+        <v>788.2463273961342</v>
+      </c>
+      <c r="G163" s="0" t="n">
         <v>761.1020854439437</v>
       </c>
-      <c r="C163" s="0" t="n">
-        <v>680.0304875594582</v>
-      </c>
-      <c r="D163" s="0" t="n">
-        <v>690.9121112617495</v>
-      </c>
-      <c r="E163" s="0" t="n">
+      <c r="H163" s="0" t="n">
+        <v>699.3538242600963</v>
+      </c>
+      <c r="I163" s="0" t="n">
         <v>753.1021251947603</v>
       </c>
-      <c r="F163" s="0" t="n">
-        <v>788.2463273961337</v>
-      </c>
-      <c r="G163" s="0" t="n">
-        <v>798.4545523741068</v>
-      </c>
-      <c r="H163" s="0" t="n">
-        <v>761.1020854439435</v>
-      </c>
-      <c r="I163" s="0" t="n">
+      <c r="J163" s="0" t="n">
         <v>714.1116272443661</v>
-      </c>
-      <c r="J163" s="0" t="n">
-        <v>719.6616430933767</v>
       </c>
       <c r="K163" s="0" t="n">
         <v>798.4545523741067</v>
@@ -49604,34 +49604,34 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="n">
-        <v>660.1302570179864</v>
+        <v>735.1106921944618</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>757.0411710381265</v>
+        <v>741.9801716124884</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>681.7087992584025</v>
+        <v>716.8443616805021</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>692.927085160237</v>
+        <v>688.957606988535</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>749.2812906226465</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>783.3708108059434</v>
+        <v>793.2726856423189</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>803.7967388062812</v>
+        <v>765.2886388548783</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>757.0411710381264</v>
+        <v>701.629972937614</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>711.4609025193472</v>
+        <v>757.0411710381267</v>
       </c>
       <c r="J164" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="K164" s="0" t="n">
         <v>803.7967388062809</v>
@@ -49906,34 +49906,34 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="n">
-        <v>661.1928834507607</v>
+        <v>738.4931082946457</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>753.1021251947603</v>
+        <v>745.5751197863649</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>680.0304875594582</v>
+        <v>714.1116272443662</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>690.9121112617495</v>
+        <v>690.9121112617496</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>745.5751197863649</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>788.2463273961337</v>
+        <v>798.4545523741074</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>798.4545523741069</v>
+        <v>769.6047183658134</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>753.1021251947601</v>
+        <v>699.3538242600963</v>
       </c>
       <c r="I165" s="0" t="n">
+        <v>761.1020854439437</v>
+      </c>
+      <c r="J165" s="0" t="n">
         <v>714.1116272443661</v>
-      </c>
-      <c r="J165" s="0" t="n">
-        <v>719.6616430933768</v>
       </c>
       <c r="K165" s="0" t="n">
         <v>798.4545523741067</v>
@@ -50208,34 +50208,34 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="n">
-        <v>662.2883860573429</v>
+        <v>735.1106921944618</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>749.2812906226465</v>
+        <v>741.9801716124884</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>681.7087992584025</v>
+        <v>716.8443616805021</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>688.9576069885348</v>
+        <v>692.9270851602371</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>749.2812906226465</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>783.3708108059435</v>
+        <v>803.7967388062816</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>803.7967388062812</v>
+        <v>765.2886388548784</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>749.2812906226463</v>
+        <v>701.629972937614</v>
       </c>
       <c r="I166" s="0" t="n">
+        <v>757.0411710381267</v>
+      </c>
+      <c r="J166" s="0" t="n">
         <v>716.8443616805019</v>
-      </c>
-      <c r="J166" s="0" t="n">
-        <v>722.5660872480571</v>
       </c>
       <c r="K166" s="0" t="n">
         <v>803.7967388062809</v>
@@ -50510,34 +50510,34 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="n">
-        <v>663.4177819805136</v>
+        <v>738.4931082946457</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>753.1021251947603</v>
+        <v>738.4931082946455</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>683.4390355711309</v>
+        <v>714.1116272443662</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>690.9121112617495</v>
+        <v>695.0043995295262</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>745.5751197863649</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>788.2463273961337</v>
+        <v>798.4545523741074</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>809.3042050058716</v>
+        <v>761.1020854439438</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>753.1021251947602</v>
+        <v>699.3538242600963</v>
       </c>
       <c r="I167" s="0" t="n">
+        <v>761.1020854439438</v>
+      </c>
+      <c r="J167" s="0" t="n">
         <v>719.6616430933766</v>
-      </c>
-      <c r="J167" s="0" t="n">
-        <v>719.6616430933768</v>
       </c>
       <c r="K167" s="0" t="n">
         <v>809.3042050058714</v>
@@ -50812,34 +50812,34 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="n">
-        <v>664.5821198320263</v>
+        <v>735.1106921944618</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>757.0411710381265</v>
+        <v>741.9801716124884</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>681.7087992584025</v>
+        <v>711.4609025193473</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>688.9576069885348</v>
+        <v>692.9270851602371</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>749.2812906226465</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>793.2726856423184</v>
+        <v>793.2726856423189</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>803.7967388062812</v>
+        <v>765.2886388548784</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>757.0411710381264</v>
+        <v>697.1459830964864</v>
       </c>
       <c r="I168" s="0" t="n">
+        <v>765.2886388548784</v>
+      </c>
+      <c r="J168" s="0" t="n">
         <v>722.5660872480569</v>
-      </c>
-      <c r="J168" s="0" t="n">
-        <v>722.5660872480571</v>
       </c>
       <c r="K168" s="0" t="n">
         <v>803.7967388062809</v>
@@ -51114,34 +51114,34 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="n">
-        <v>665.7824806662136</v>
+        <v>731.8297828355059</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>753.1021251947603</v>
+        <v>738.4931082946455</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>680.0304875594582</v>
+        <v>714.1116272443662</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>687.0617576393786</v>
+        <v>690.9121112617496</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>753.1021251947603</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>798.4545523741067</v>
+        <v>798.4545523741074</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>798.4545523741069</v>
+        <v>769.6047183658135</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>753.1021251947602</v>
+        <v>699.3538242600963</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>725.5603908377184</v>
+        <v>769.6047183658135</v>
       </c>
       <c r="J169" s="0" t="n">
-        <v>719.6616430933768</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="K169" s="0" t="n">
         <v>809.3042050058714</v>
@@ -51416,34 +51416,34 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="n">
-        <v>664.5821198320263</v>
+        <v>728.6473339874473</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>749.2812906226465</v>
+        <v>741.9801716124884</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>681.7087992584025</v>
+        <v>716.8443616805021</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>685.2228029724824</v>
+        <v>692.9270851602371</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>749.2812906226465</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>803.796738806281</v>
+        <v>803.7967388062816</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>793.2726856423186</v>
+        <v>765.2886388548784</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>757.0411710381264</v>
+        <v>697.1459830964864</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>722.5660872480569</v>
+        <v>774.0543313329043</v>
       </c>
       <c r="J170" s="0" t="n">
-        <v>716.8443616805023</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="K170" s="0" t="n">
         <v>803.796738806281</v>
@@ -51718,34 +51718,34 @@
     </row>
     <row r="171">
       <c r="A171" s="0" t="n">
-        <v>663.4177819805136</v>
+        <v>731.8297828355059</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>745.5751197863649</v>
+        <v>738.4931082946455</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>680.0304875594582</v>
+        <v>714.1116272443662</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>687.0617576393786</v>
+        <v>695.0043995295262</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>753.1021251947603</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>798.4545523741068</v>
+        <v>809.3042050058721</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>788.2463273961339</v>
+        <v>769.6047183658135</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>761.1020854439436</v>
+        <v>699.3538242600963</v>
       </c>
       <c r="I171" s="0" t="n">
+        <v>769.6047183658135</v>
+      </c>
+      <c r="J171" s="0" t="n">
         <v>719.6616430933766</v>
-      </c>
-      <c r="J171" s="0" t="n">
-        <v>714.1116272443663</v>
       </c>
       <c r="K171" s="0" t="n">
         <v>798.4545523741067</v>
@@ -52020,34 +52020,34 @@
     </row>
     <row r="172">
       <c r="A172" s="0" t="n">
-        <v>662.288386057343</v>
+        <v>728.6473339874473</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>749.2812906226465</v>
+        <v>741.9801716124884</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>678.402542209975</v>
+        <v>716.8443616805021</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>685.2228029724824</v>
+        <v>697.1459830964866</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>749.2812906226465</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>793.2726856423185</v>
+        <v>814.9820644974374</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>793.2726856423186</v>
+        <v>774.0543313329044</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>765.2886388548782</v>
+        <v>701.629972937614</v>
       </c>
       <c r="I172" s="0" t="n">
+        <v>774.0543313329043</v>
+      </c>
+      <c r="J172" s="0" t="n">
         <v>722.5660872480569</v>
-      </c>
-      <c r="J172" s="0" t="n">
-        <v>711.4609025193474</v>
       </c>
       <c r="K172" s="0" t="n">
         <v>793.2726856423184</v>
@@ -52322,34 +52322,34 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="n">
-        <v>663.4177819805136</v>
+        <v>725.5603908377187</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>753.1021251947603</v>
+        <v>738.4931082946455</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>680.0304875594582</v>
+        <v>719.6616430933767</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>687.0617576393786</v>
+        <v>699.3538242600964</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>745.5751197863649</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>798.4545523741068</v>
+        <v>820.8355890108251</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>788.2463273961339</v>
+        <v>778.6416090942945</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>761.1020854439436</v>
+        <v>699.3538242600963</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>725.5603908377184</v>
+        <v>769.6047183658135</v>
       </c>
       <c r="J173" s="0" t="n">
-        <v>708.8897263834907</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="K173" s="0" t="n">
         <v>798.4545523741068</v>
@@ -52624,34 +52624,34 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="n">
-        <v>664.5821198320263</v>
+        <v>722.5660872480573</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>757.0411710381267</v>
+        <v>741.9801716124884</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>681.7087992584025</v>
+        <v>716.8443616805021</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>685.2228029724824</v>
+        <v>697.1459830964866</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>749.2812906226465</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>803.7967388062812</v>
+        <v>826.8702133758225</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>783.3708108059437</v>
+        <v>774.0543313329044</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>765.2886388548782</v>
+        <v>697.1459830964865</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>722.5660872480569</v>
+        <v>774.0543313329043</v>
       </c>
       <c r="J174" s="0" t="n">
-        <v>711.4609025193474</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="K174" s="0" t="n">
         <v>793.2726856423185</v>
@@ -52926,34 +52926,34 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="n">
-        <v>665.7824806662136</v>
+        <v>719.6616430933769</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>753.1021251947603</v>
+        <v>738.4931082946455</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>680.0304875594583</v>
+        <v>719.6616430933767</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>687.0617576393786</v>
+        <v>695.0043995295262</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>753.1021251947603</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>798.4545523741068</v>
+        <v>833.0915405682397</v>
       </c>
       <c r="G175" s="0" t="n">
+        <v>778.6416090942945</v>
+      </c>
+      <c r="H175" s="0" t="n">
+        <v>695.004399529526</v>
+      </c>
+      <c r="I175" s="0" t="n">
         <v>778.6416090942944</v>
       </c>
-      <c r="H175" s="0" t="n">
-        <v>769.6047183658133</v>
-      </c>
-      <c r="I175" s="0" t="n">
-        <v>725.5603908377184</v>
-      </c>
       <c r="J175" s="0" t="n">
-        <v>708.8897263834907</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="K175" s="0" t="n">
         <v>798.4545523741068</v>
@@ -53228,34 +53228,34 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="n">
-        <v>664.5821198320263</v>
+        <v>722.5660872480573</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>757.0411710381267</v>
+        <v>735.1106921944616</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>681.7087992584025</v>
+        <v>716.8443616805022</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>685.2228029724824</v>
+        <v>697.1459830964866</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>757.0411710381267</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>793.2726856423185</v>
+        <v>826.8702133758225</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>774.0543313329043</v>
+        <v>783.370810805944</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>765.2886388548782</v>
+        <v>697.1459830964865</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>722.5660872480569</v>
+        <v>774.0543313329044</v>
       </c>
       <c r="J176" s="0" t="n">
-        <v>711.4609025193474</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="K176" s="0" t="n">
         <v>803.7967388062812</v>
@@ -53530,34 +53530,34 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="n">
-        <v>665.7824806662136</v>
+        <v>719.6616430933769</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>753.1021251947603</v>
+        <v>738.4931082946455</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>683.4390355711309</v>
+        <v>714.1116272443662</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>687.0617576393786</v>
+        <v>699.3538242600964</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>753.1021251947603</v>
+        <v>731.8297828355054</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>798.4545523741069</v>
+        <v>820.8355890108251</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>769.6047183658134</v>
+        <v>778.6416090942945</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>769.6047183658133</v>
+        <v>699.3538242600964</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>725.5603908377184</v>
+        <v>769.6047183658135</v>
       </c>
       <c r="J177" s="0" t="n">
-        <v>708.8897263834907</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="K177" s="0" t="n">
         <v>809.3042050058716</v>
@@ -53832,34 +53832,34 @@
     </row>
     <row r="178">
       <c r="A178" s="0" t="n">
-        <v>664.5821198320263</v>
+        <v>716.8443616805024</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>757.0411710381267</v>
+        <v>741.9801716124886</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>685.2228029724826</v>
+        <v>711.4609025193473</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>688.9576069885348</v>
+        <v>701.6299729376141</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>749.2812906226466</v>
+        <v>735.1106921944614</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>803.7967388062812</v>
+        <v>826.8702133758225</v>
       </c>
       <c r="G178" s="0" t="n">
+        <v>774.0543313329044</v>
+      </c>
+      <c r="H178" s="0" t="n">
+        <v>701.629972937614</v>
+      </c>
+      <c r="I178" s="0" t="n">
         <v>765.2886388548784</v>
       </c>
-      <c r="H178" s="0" t="n">
-        <v>765.2886388548782</v>
-      </c>
-      <c r="I178" s="0" t="n">
-        <v>722.566087248057</v>
-      </c>
       <c r="J178" s="0" t="n">
-        <v>706.3957115734269</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="K178" s="0" t="n">
         <v>814.9820644974368</v>
@@ -54134,34 +54134,34 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="n">
-        <v>665.7824806662136</v>
+        <v>719.6616430933769</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>753.1021251947604</v>
+        <v>745.5751197863649</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>683.4390355711309</v>
+        <v>714.1116272443662</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>690.9121112617496</v>
+        <v>699.3538242600964</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>745.5751197863649</v>
+        <v>738.4931082946453</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>798.4545523741069</v>
+        <v>833.0915405682397</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>769.6047183658134</v>
+        <v>778.6416090942946</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>769.6047183658133</v>
+        <v>703.9765424678669</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>725.5603908377184</v>
+        <v>769.6047183658135</v>
       </c>
       <c r="J179" s="0" t="n">
-        <v>703.976542467867</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="K179" s="0" t="n">
         <v>809.3042050058716</v>
@@ -54436,34 +54436,34 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="n">
-        <v>664.5821198320263</v>
+        <v>716.8443616805024</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>757.0411710381268</v>
+        <v>749.2812906226466</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>685.2228029724826</v>
+        <v>711.4609025193473</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>688.9576069885348</v>
+        <v>701.6299729376141</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>749.2812906226466</v>
+        <v>735.1106921944614</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>803.7967388062812</v>
+        <v>826.8702133758225</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>774.0543313329043</v>
+        <v>774.0543313329044</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>765.2886388548782</v>
+        <v>706.3957115734269</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>728.6473339874469</v>
+        <v>774.0543313329044</v>
       </c>
       <c r="J180" s="0" t="n">
-        <v>706.395711573427</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="K180" s="0" t="n">
         <v>814.9820644974368</v>

--- a/output/freight_return.xlsx
+++ b/output/freight_return.xlsx
@@ -378,7 +378,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="n">
-        <v>725.5603908377178</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>725.5603908377178</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
-        <v>722.5660872480564</v>
+        <v>735.1106921944607</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>728.6473339874462</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
-        <v>725.5603908377178</v>
+        <v>731.8297828355048</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>731.8297828355048</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>728.6473339874464</v>
+        <v>728.6473339874462</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>735.1106921944609</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>738.4931082946447</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>728.6473339874464</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>741.9801716124875</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>745.575119786364</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>716.8443616805015</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>741.9801716124875</v>
@@ -2794,7 +2794,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>719.6616430933761</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>738.4931082946447</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>741.9801716124877</v>
+        <v>722.5660872480564</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>735.1106921944609</v>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>738.4931082946447</v>
@@ -3700,7 +3700,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>728.6473339874464</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>741.9801716124875</v>
@@ -4002,7 +4002,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>731.8297828355048</v>
+        <v>725.5603908377178</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>745.575119786364</v>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>728.6473339874464</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>741.9801716124875</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>745.575119786364</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>745.575119786364</v>
@@ -5512,7 +5512,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>728.6473339874464</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>741.9801716124875</v>
@@ -5814,7 +5814,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>738.4931082946447</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>745.575119786364</v>
@@ -6418,7 +6418,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>738.4931082946448</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>745.575119786364</v>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>735.1106921944609</v>
+        <v>728.6473339874464</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>741.9801716124877</v>
@@ -7626,7 +7626,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>738.4931082946448</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>753.1021251947594</v>
@@ -7928,7 +7928,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>741.9801716124878</v>
+        <v>735.1106921944609</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>749.2812906226455</v>
@@ -8230,7 +8230,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>745.5751197863641</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>745.575119786364</v>
@@ -8532,7 +8532,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>741.9801716124878</v>
+        <v>728.6473339874464</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>741.9801716124877</v>
@@ -8834,7 +8834,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>745.5751197863641</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>745.575119786364</v>
@@ -9136,7 +9136,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>749.2812906226457</v>
+        <v>728.6473339874464</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>749.2812906226457</v>
@@ -9438,7 +9438,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>745.5751197863641</v>
+        <v>731.8297828355049</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>753.1021251947594</v>
@@ -9740,7 +9740,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>741.9801716124878</v>
+        <v>735.1106921944609</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>749.2812906226457</v>
@@ -10042,7 +10042,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>745.5751197863641</v>
+        <v>738.4931082946448</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>753.1021251947594</v>
@@ -10344,7 +10344,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>741.9801716124878</v>
+        <v>735.110692194461</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>757.0411710381258</v>
@@ -10646,7 +10646,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>745.5751197863641</v>
+        <v>738.4931082946448</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>761.1020854439428</v>
@@ -11250,7 +11250,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>745.5751197863642</v>
+        <v>745.5751197863641</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>753.1021251947595</v>
@@ -12156,7 +12156,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>749.2812906226458</v>
+        <v>757.0411710381259</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>757.0411710381258</v>
@@ -12458,7 +12458,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>745.5751197863642</v>
+        <v>761.1020854439429</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>761.1020854439428</v>
@@ -12760,7 +12760,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>741.9801716124879</v>
+        <v>757.0411710381259</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>757.0411710381258</v>
@@ -13062,7 +13062,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>738.4931082946449</v>
+        <v>761.1020854439429</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>753.1021251947595</v>
@@ -13364,7 +13364,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>735.1106921944611</v>
+        <v>757.0411710381259</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>749.2812906226457</v>
@@ -13666,7 +13666,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>738.4931082946449</v>
+        <v>761.1020854439429</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>753.1021251947595</v>
@@ -13968,7 +13968,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>741.9801716124879</v>
+        <v>757.0411710381259</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>757.0411710381258</v>
@@ -14270,7 +14270,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>745.5751197863642</v>
+        <v>753.1021251947595</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>761.1020854439429</v>
@@ -14572,7 +14572,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>741.9801716124879</v>
+        <v>757.0411710381259</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>765.2886388548775</v>
@@ -14874,7 +14874,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>745.5751197863642</v>
+        <v>753.1021251947597</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>769.6047183658125</v>
@@ -15176,7 +15176,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>749.2812906226459</v>
+        <v>749.2812906226458</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>765.2886388548775</v>
@@ -15780,7 +15780,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>757.041171038126</v>
+        <v>749.2812906226458</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>765.2886388548775</v>
@@ -16082,7 +16082,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>761.102085443943</v>
+        <v>753.1021251947597</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>761.102085443943</v>
@@ -16384,7 +16384,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>765.2886388548776</v>
+        <v>749.2812906226458</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>765.2886388548775</v>
@@ -16686,7 +16686,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>761.102085443943</v>
+        <v>753.1021251947597</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>769.6047183658126</v>
@@ -16988,7 +16988,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>765.2886388548776</v>
+        <v>757.0411710381259</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>774.0543313329035</v>
@@ -17290,7 +17290,7 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>761.102085443943</v>
+        <v>753.1021251947597</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>769.6047183658126</v>
@@ -17592,7 +17592,7 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>765.2886388548776</v>
+        <v>749.2812906226459</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>774.0543313329035</v>
@@ -17894,7 +17894,7 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>761.102085443943</v>
+        <v>753.1021251947597</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>778.6416090942936</v>
@@ -18196,7 +18196,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>765.2886388548776</v>
+        <v>757.041171038126</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>774.0543313329035</v>
@@ -18800,7 +18800,7 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>765.2886388548776</v>
+        <v>757.041171038126</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>774.0543313329035</v>
@@ -19102,7 +19102,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>769.6047183658127</v>
+        <v>761.102085443943</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>778.6416090942936</v>
@@ -19404,7 +19404,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>765.2886388548777</v>
+        <v>757.041171038126</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>783.3708108059431</v>
@@ -20612,7 +20612,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>757.041171038126</v>
+        <v>765.2886388548776</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>803.7967388062805</v>
@@ -20914,7 +20914,7 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="n">
-        <v>753.1021251947598</v>
+        <v>769.6047183658127</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>809.3042050058709</v>
@@ -21216,7 +21216,7 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
-        <v>757.041171038126</v>
+        <v>765.2886388548777</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>814.9820644974361</v>
@@ -21820,7 +21820,7 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
-        <v>757.041171038126</v>
+        <v>765.2886388548777</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>814.9820644974361</v>
@@ -22122,7 +22122,7 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="n">
-        <v>753.1021251947598</v>
+        <v>769.6047183658127</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>820.8355890108238</v>
@@ -22424,7 +22424,7 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
-        <v>749.2812906226459</v>
+        <v>765.2886388548777</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>826.8702133758212</v>
@@ -22726,7 +22726,7 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
-        <v>745.5751197863643</v>
+        <v>761.1020854439431</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>820.8355890108239</v>
@@ -23028,7 +23028,7 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">
-        <v>741.980171612488</v>
+        <v>765.2886388548777</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>814.9820644974362</v>
@@ -23330,7 +23330,7 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="n">
-        <v>745.5751197863643</v>
+        <v>769.6047183658127</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>809.304205005871</v>
@@ -23632,7 +23632,7 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
-        <v>741.980171612488</v>
+        <v>765.2886388548777</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>803.7967388062806</v>
@@ -23934,7 +23934,7 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="n">
-        <v>738.493108294645</v>
+        <v>761.1020854439431</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>809.304205005871</v>
@@ -24236,7 +24236,7 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="n">
-        <v>735.1106921944612</v>
+        <v>765.2886388548777</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>814.9820644974362</v>
@@ -24538,7 +24538,7 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="n">
-        <v>738.493108294645</v>
+        <v>761.1020854439431</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>820.8355890108239</v>
@@ -24840,7 +24840,7 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="n">
-        <v>741.980171612488</v>
+        <v>757.0411710381261</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>814.9820644974362</v>
@@ -25142,7 +25142,7 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="n">
-        <v>738.493108294645</v>
+        <v>753.1021251947598</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>809.304205005871</v>
@@ -25444,7 +25444,7 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="n">
-        <v>741.980171612488</v>
+        <v>757.0411710381261</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>814.9820644974363</v>
@@ -25746,7 +25746,7 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="n">
-        <v>745.5751197863643</v>
+        <v>753.1021251947598</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>820.8355890108239</v>
@@ -26048,7 +26048,7 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="n">
-        <v>741.980171612488</v>
+        <v>749.281290622646</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>826.8702133758213</v>
@@ -26350,7 +26350,7 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="n">
-        <v>738.493108294645</v>
+        <v>753.1021251947598</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>833.0915405682385</v>
@@ -26652,7 +26652,7 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="n">
-        <v>735.1106921944612</v>
+        <v>749.281290622646</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>826.8702133758213</v>
@@ -26954,7 +26954,7 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="n">
-        <v>738.493108294645</v>
+        <v>753.1021251947598</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>820.835589010824</v>
@@ -27256,7 +27256,7 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="n">
-        <v>735.1106921944612</v>
+        <v>749.281290622646</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>826.8702133758213</v>
@@ -27558,7 +27558,7 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="n">
-        <v>738.493108294645</v>
+        <v>753.1021251947598</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>820.835589010824</v>
@@ -27860,7 +27860,7 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="n">
-        <v>741.980171612488</v>
+        <v>757.0411710381261</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>814.9820644974363</v>
@@ -28162,7 +28162,7 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="n">
-        <v>745.5751197863644</v>
+        <v>753.1021251947599</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>820.8355890108242</v>
@@ -28464,7 +28464,7 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="n">
-        <v>741.980171612488</v>
+        <v>749.281290622646</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>826.8702133758214</v>
@@ -28766,7 +28766,7 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="n">
-        <v>738.493108294645</v>
+        <v>753.1021251947599</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>833.0915405682387</v>
@@ -29068,7 +29068,7 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="n">
-        <v>735.1106921944612</v>
+        <v>757.0411710381261</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>839.5053469121116</v>
@@ -29370,7 +29370,7 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="n">
-        <v>731.8297828355053</v>
+        <v>753.1021251947599</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>846.1175874428528</v>
@@ -29672,7 +29672,7 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="n">
-        <v>728.6473339874467</v>
+        <v>749.281290622646</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>839.5053469121116</v>
@@ -29974,7 +29974,7 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="n">
-        <v>731.8297828355053</v>
+        <v>753.1021251947599</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>833.0915405682387</v>
@@ -30276,7 +30276,7 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="n">
-        <v>728.6473339874467</v>
+        <v>757.0411710381261</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>839.5053469121116</v>
@@ -30578,7 +30578,7 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="n">
-        <v>725.5603908377183</v>
+        <v>761.1020854439432</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>846.1175874428528</v>
@@ -30880,7 +30880,7 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="n">
-        <v>728.6473339874467</v>
+        <v>757.0411710381261</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>839.5053469121116</v>
@@ -31182,7 +31182,7 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="n">
-        <v>731.8297828355053</v>
+        <v>753.1021251947599</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>833.0915405682388</v>
@@ -31484,7 +31484,7 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="n">
-        <v>728.6473339874467</v>
+        <v>749.281290622646</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>839.5053469121116</v>
@@ -31786,7 +31786,7 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="n">
-        <v>725.5603908377183</v>
+        <v>745.5751197863644</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>833.0915405682388</v>
@@ -32088,7 +32088,7 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="n">
-        <v>722.5660872480568</v>
+        <v>741.980171612488</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>839.5053469121117</v>
@@ -32390,7 +32390,7 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="n">
-        <v>725.5603908377183</v>
+        <v>738.493108294645</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>846.1175874428529</v>
@@ -32692,7 +32692,7 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="n">
-        <v>722.5660872480569</v>
+        <v>735.1106921944612</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>839.5053469121117</v>
@@ -32994,7 +32994,7 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="n">
-        <v>719.6616430933765</v>
+        <v>738.493108294645</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>833.0915405682388</v>
@@ -33296,7 +33296,7 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="n">
-        <v>722.5660872480569</v>
+        <v>735.1106921944612</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>826.8702133758215</v>
@@ -33598,7 +33598,7 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="n">
-        <v>725.5603908377183</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>820.8355890108243</v>
@@ -33900,7 +33900,7 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="n">
-        <v>728.6473339874468</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>826.8702133758215</v>
@@ -34202,7 +34202,7 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="n">
-        <v>725.5603908377183</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>820.8355890108243</v>
@@ -34504,7 +34504,7 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="n">
-        <v>722.5660872480569</v>
+        <v>735.1106921944612</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>814.9820644974366</v>
@@ -34806,7 +34806,7 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="n">
-        <v>719.6616430933766</v>
+        <v>738.4931082946451</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>809.3042050058714</v>
@@ -35108,7 +35108,7 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="n">
-        <v>722.5660872480569</v>
+        <v>741.9801716124881</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>803.7967388062809</v>
@@ -35410,7 +35410,7 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="n">
-        <v>725.5603908377184</v>
+        <v>745.5751197863644</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>809.3042050058714</v>
@@ -35712,7 +35712,7 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="n">
-        <v>728.6473339874468</v>
+        <v>741.9801716124881</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>814.9820644974366</v>
@@ -36014,7 +36014,7 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="n">
-        <v>725.5603908377184</v>
+        <v>745.5751197863644</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>820.8355890108243</v>
@@ -36316,7 +36316,7 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="n">
-        <v>722.5660872480569</v>
+        <v>741.9801716124881</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>814.9820644974366</v>
@@ -36618,7 +36618,7 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="n">
-        <v>725.5603908377184</v>
+        <v>738.4931082946451</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>809.3042050058714</v>
@@ -36920,7 +36920,7 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="n">
-        <v>722.5660872480569</v>
+        <v>735.1106921944612</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>814.9820644974366</v>
@@ -37222,7 +37222,7 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="n">
-        <v>719.6616430933766</v>
+        <v>738.4931082946451</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>809.3042050058714</v>
@@ -37524,7 +37524,7 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="n">
-        <v>722.5660872480569</v>
+        <v>735.1106921944612</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>814.9820644974366</v>
@@ -37826,7 +37826,7 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="n">
-        <v>725.5603908377184</v>
+        <v>731.8297828355053</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>820.8355890108244</v>
@@ -38128,7 +38128,7 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="n">
-        <v>722.5660872480569</v>
+        <v>728.6473339874467</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>826.8702133758217</v>
@@ -38430,7 +38430,7 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="n">
-        <v>725.5603908377184</v>
+        <v>725.5603908377183</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>820.8355890108244</v>
@@ -38732,7 +38732,7 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="n">
-        <v>728.6473339874469</v>
+        <v>722.5660872480568</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>826.8702133758217</v>
@@ -39034,7 +39034,7 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="n">
-        <v>731.8297828355055</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>833.0915405682389</v>
@@ -39336,7 +39336,7 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="n">
-        <v>735.1106921944614</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>826.8702133758217</v>
@@ -39638,7 +39638,7 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="n">
-        <v>731.8297828355055</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>820.8355890108244</v>
@@ -39940,7 +39940,7 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="n">
-        <v>728.6473339874469</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>826.8702133758217</v>
@@ -40242,7 +40242,7 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="n">
-        <v>731.8297828355055</v>
+        <v>725.5603908377183</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>820.8355890108244</v>
@@ -40544,7 +40544,7 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="n">
-        <v>728.6473339874469</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>826.8702133758217</v>
@@ -40846,7 +40846,7 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="n">
-        <v>725.5603908377184</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>833.0915405682389</v>
@@ -41148,7 +41148,7 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="n">
-        <v>722.566087248057</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>826.8702133758217</v>
@@ -41450,7 +41450,7 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="n">
-        <v>725.5603908377184</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>820.8355890108244</v>
@@ -41752,7 +41752,7 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="n">
-        <v>722.566087248057</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>826.8702133758217</v>
@@ -42054,7 +42054,7 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="n">
-        <v>725.5603908377184</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>833.0915405682389</v>
@@ -42356,7 +42356,7 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="n">
-        <v>722.566087248057</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>839.5053469121118</v>
@@ -42658,7 +42658,7 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="n">
-        <v>719.6616430933766</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>833.091540568239</v>
@@ -42960,7 +42960,7 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="n">
-        <v>722.566087248057</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>839.5053469121118</v>
@@ -43262,7 +43262,7 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="n">
-        <v>725.5603908377184</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>833.091540568239</v>
@@ -43564,7 +43564,7 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="n">
-        <v>728.6473339874469</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>839.5053469121118</v>
@@ -43866,7 +43866,7 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>833.091540568239</v>
@@ -44168,7 +44168,7 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="n">
-        <v>722.566087248057</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>839.5053469121119</v>
@@ -44470,7 +44470,7 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="n">
-        <v>719.6616430933767</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>833.091540568239</v>
@@ -44772,7 +44772,7 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="n">
-        <v>716.8443616805021</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>839.5053469121119</v>
@@ -45074,7 +45074,7 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="n">
-        <v>719.6616430933767</v>
+        <v>708.8897263834904</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>833.091540568239</v>
@@ -45376,7 +45376,7 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="n">
-        <v>716.8443616805021</v>
+        <v>711.4609025193472</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>826.8702133758218</v>
@@ -45678,7 +45678,7 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="n">
-        <v>719.6616430933767</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>820.8355890108245</v>
@@ -45980,7 +45980,7 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>826.8702133758219</v>
@@ -46282,7 +46282,7 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="n">
-        <v>719.6616430933767</v>
+        <v>714.1116272443661</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>820.8355890108245</v>
@@ -46584,7 +46584,7 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>814.9820644974368</v>
@@ -46886,7 +46886,7 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="n">
-        <v>719.6616430933767</v>
+        <v>719.6616430933765</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>820.8355890108245</v>
@@ -47188,7 +47188,7 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>826.8702133758219</v>
@@ -47490,7 +47490,7 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="n">
-        <v>725.5603908377185</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>820.8355890108246</v>
@@ -47792,7 +47792,7 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="n">
-        <v>728.647333987447</v>
+        <v>716.8443616805019</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>814.9820644974368</v>
@@ -48094,7 +48094,7 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="n">
-        <v>731.8297828355056</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>820.8355890108246</v>
@@ -48396,7 +48396,7 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="n">
-        <v>735.1106921944615</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>826.8702133758219</v>
@@ -48698,7 +48698,7 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="n">
-        <v>731.8297828355056</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>820.8355890108246</v>
@@ -49000,7 +49000,7 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="n">
-        <v>735.1106921944616</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>826.870213375822</v>
@@ -49302,7 +49302,7 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="n">
-        <v>731.8297828355056</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>820.8355890108246</v>
@@ -49604,7 +49604,7 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="n">
-        <v>728.647333987447</v>
+        <v>722.5660872480569</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>814.9820644974369</v>
@@ -49906,7 +49906,7 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="n">
-        <v>725.5603908377186</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>820.8355890108246</v>
@@ -50208,7 +50208,7 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="n">
-        <v>728.647333987447</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>826.870213375822</v>
@@ -50510,7 +50510,7 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="n">
-        <v>725.5603908377186</v>
+        <v>731.8297828355054</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>820.8355890108246</v>
@@ -50812,7 +50812,7 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="n">
-        <v>728.647333987447</v>
+        <v>735.1106921944614</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>814.9820644974369</v>
@@ -51114,7 +51114,7 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="n">
-        <v>725.5603908377186</v>
+        <v>731.8297828355054</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>809.3042050058717</v>
@@ -51416,7 +51416,7 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>728.6473339874468</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>803.7967388062813</v>
@@ -51718,7 +51718,7 @@
     </row>
     <row r="171">
       <c r="A171" s="0" t="n">
-        <v>719.6616430933768</v>
+        <v>731.8297828355054</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>798.454552374107</v>
@@ -52020,7 +52020,7 @@
     </row>
     <row r="172">
       <c r="A172" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>728.6473339874469</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>803.7967388062813</v>
@@ -52322,7 +52322,7 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="n">
-        <v>719.6616430933768</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>809.3042050058718</v>
@@ -52624,7 +52624,7 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="n">
-        <v>722.5660872480571</v>
+        <v>722.566087248057</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>814.982064497437</v>
@@ -52926,7 +52926,7 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="n">
-        <v>719.6616430933768</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>809.3042050058718</v>
@@ -53228,7 +53228,7 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="n">
-        <v>722.5660872480572</v>
+        <v>722.566087248057</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>814.982064497437</v>
@@ -53530,7 +53530,7 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="n">
-        <v>719.6616430933768</v>
+        <v>725.5603908377184</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>809.3042050058718</v>
@@ -53832,7 +53832,7 @@
     </row>
     <row r="178">
       <c r="A178" s="0" t="n">
-        <v>716.8443616805023</v>
+        <v>722.566087248057</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>814.982064497437</v>
@@ -54134,7 +54134,7 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="n">
-        <v>714.1116272443664</v>
+        <v>719.6616430933766</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>820.8355890108248</v>
@@ -54436,7 +54436,7 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="n">
-        <v>716.8443616805023</v>
+        <v>716.8443616805021</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>814.982064497437</v>
